--- a/241108_MSR_MOP_CTM BOM 정리.xlsx
+++ b/241108_MSR_MOP_CTM BOM 정리.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twinpapa/Databases/Git_Hub/GIC_HONGKONG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/JDS_BU/Git_Hub/GIC_HONGKONG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD6673D-442F-F849-B61D-28EAAD6F7884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDE984D-FA2C-1746-BD7D-E0E001942C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8800" yWindow="900" windowWidth="33900" windowHeight="24360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7220" yWindow="900" windowWidth="33900" windowHeight="24360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM list" sheetId="1" r:id="rId1"/>
@@ -2547,6 +2547,15 @@
     <xf numFmtId="177" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="16" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2572,15 +2581,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2923,8 +2923,8 @@
   <dimension ref="B1:M167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S134" sqref="S134"/>
+      <pane ySplit="2" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.3984375" defaultRowHeight="16"/>
@@ -2986,10 +2986,10 @@
       </c>
     </row>
     <row r="3" spans="2:13" ht="19">
-      <c r="B3" s="232">
+      <c r="B3" s="235">
         <v>1</v>
       </c>
-      <c r="C3" s="227" t="s">
+      <c r="C3" s="230" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="92"/>
@@ -3006,8 +3006,8 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:13" ht="19">
-      <c r="B4" s="231"/>
-      <c r="C4" s="228"/>
+      <c r="B4" s="234"/>
+      <c r="C4" s="231"/>
       <c r="D4" s="12" t="str">
         <f>MOP!D3</f>
         <v>Main Frame</v>
@@ -3038,8 +3038,8 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="19">
-      <c r="B5" s="231"/>
-      <c r="C5" s="228"/>
+      <c r="B5" s="234"/>
+      <c r="C5" s="231"/>
       <c r="D5" s="12" t="str">
         <f>MOP!D4</f>
         <v>Left Cover</v>
@@ -3070,8 +3070,8 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" ht="19">
-      <c r="B6" s="231"/>
-      <c r="C6" s="228"/>
+      <c r="B6" s="234"/>
+      <c r="C6" s="231"/>
       <c r="D6" s="12" t="str">
         <f>MOP!D5</f>
         <v>Right Cover</v>
@@ -3102,8 +3102,8 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="2:13" ht="19">
-      <c r="B7" s="231"/>
-      <c r="C7" s="228"/>
+      <c r="B7" s="234"/>
+      <c r="C7" s="231"/>
       <c r="D7" s="12" t="str">
         <f>MOP!D6</f>
         <v>Upper Cover</v>
@@ -3134,8 +3134,8 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="2:13" ht="19">
-      <c r="B8" s="231"/>
-      <c r="C8" s="228"/>
+      <c r="B8" s="234"/>
+      <c r="C8" s="231"/>
       <c r="D8" s="12" t="str">
         <f>MOP!D7</f>
         <v>Lower Cover</v>
@@ -3166,8 +3166,8 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:13" ht="19">
-      <c r="B9" s="231"/>
-      <c r="C9" s="228"/>
+      <c r="B9" s="234"/>
+      <c r="C9" s="231"/>
       <c r="D9" s="12" t="str">
         <f>MOP!D8</f>
         <v>Rear Cover</v>
@@ -3198,8 +3198,8 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:13" ht="19">
-      <c r="B10" s="231"/>
-      <c r="C10" s="228"/>
+      <c r="B10" s="234"/>
+      <c r="C10" s="231"/>
       <c r="D10" s="12" t="str">
         <f>MOP!D9</f>
         <v>Push Button</v>
@@ -3230,8 +3230,8 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="2:13" ht="19">
-      <c r="B11" s="231"/>
-      <c r="C11" s="228"/>
+      <c r="B11" s="234"/>
+      <c r="C11" s="231"/>
       <c r="D11" s="12" t="str">
         <f>MOP!D10</f>
         <v>Push Button</v>
@@ -3262,8 +3262,8 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="2:13" ht="19">
-      <c r="B12" s="231"/>
-      <c r="C12" s="228"/>
+      <c r="B12" s="234"/>
+      <c r="C12" s="231"/>
       <c r="D12" s="12" t="str">
         <f>MOP!D11</f>
         <v>Push Button</v>
@@ -3294,8 +3294,8 @@
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="2:13" ht="19">
-      <c r="B13" s="231"/>
-      <c r="C13" s="228"/>
+      <c r="B13" s="234"/>
+      <c r="C13" s="231"/>
       <c r="D13" s="110" t="str">
         <f>MOP!D12</f>
         <v>Microphone</v>
@@ -3332,8 +3332,8 @@
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="2:13" ht="38">
-      <c r="B14" s="231"/>
-      <c r="C14" s="228"/>
+      <c r="B14" s="234"/>
+      <c r="C14" s="231"/>
       <c r="D14" s="12" t="str">
         <f>MOP!D13</f>
         <v>LCD</v>
@@ -3367,8 +3367,8 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="2:13" ht="19">
-      <c r="B15" s="231"/>
-      <c r="C15" s="228"/>
+      <c r="B15" s="234"/>
+      <c r="C15" s="231"/>
       <c r="D15" s="12" t="str">
         <f>MOP!D14</f>
         <v>LCD Mount Bracket</v>
@@ -3399,8 +3399,8 @@
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="2:13" ht="19">
-      <c r="B16" s="231"/>
-      <c r="C16" s="228"/>
+      <c r="B16" s="234"/>
+      <c r="C16" s="231"/>
       <c r="D16" s="12" t="str">
         <f>MOP!D15</f>
         <v>LCD Control Board</v>
@@ -3431,8 +3431,8 @@
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="2:13" ht="19">
-      <c r="B17" s="231"/>
-      <c r="C17" s="228"/>
+      <c r="B17" s="234"/>
+      <c r="C17" s="231"/>
       <c r="D17" s="12" t="str">
         <f>MOP!D16</f>
         <v>Main Control Board</v>
@@ -3463,8 +3463,8 @@
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="2:13" ht="19">
-      <c r="B18" s="231"/>
-      <c r="C18" s="228"/>
+      <c r="B18" s="234"/>
+      <c r="C18" s="231"/>
       <c r="D18" s="12" t="str">
         <f>MOP!D17</f>
         <v>Power Board</v>
@@ -3495,8 +3495,8 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="2:13" ht="19">
-      <c r="B19" s="231"/>
-      <c r="C19" s="228"/>
+      <c r="B19" s="234"/>
+      <c r="C19" s="231"/>
       <c r="D19" s="110" t="str">
         <f>MOP!D18</f>
         <v>3P Connector Male</v>
@@ -3533,8 +3533,8 @@
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="2:13" ht="19">
-      <c r="B20" s="231"/>
-      <c r="C20" s="228"/>
+      <c r="B20" s="234"/>
+      <c r="C20" s="231"/>
       <c r="D20" s="18" t="str">
         <f>MOP!D19</f>
         <v>3P Connector Female</v>
@@ -3567,8 +3567,8 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="19">
-      <c r="B21" s="231"/>
-      <c r="C21" s="228"/>
+      <c r="B21" s="234"/>
+      <c r="C21" s="231"/>
       <c r="D21" s="110" t="str">
         <f>MOP!D20</f>
         <v>Locking</v>
@@ -3605,8 +3605,8 @@
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="2:13" ht="19">
-      <c r="B22" s="231"/>
-      <c r="C22" s="228"/>
+      <c r="B22" s="234"/>
+      <c r="C22" s="231"/>
       <c r="D22" s="110" t="str">
         <f>MOP!D21</f>
         <v>4P Connector</v>
@@ -3643,8 +3643,8 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="2:13" ht="19">
-      <c r="B23" s="231"/>
-      <c r="C23" s="228"/>
+      <c r="B23" s="234"/>
+      <c r="C23" s="231"/>
       <c r="D23" s="110" t="str">
         <f>MOP!D22</f>
         <v>Pin</v>
@@ -3681,8 +3681,8 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:13" ht="19">
-      <c r="B24" s="231"/>
-      <c r="C24" s="228"/>
+      <c r="B24" s="234"/>
+      <c r="C24" s="231"/>
       <c r="D24" s="110" t="str">
         <f>MOP!D23</f>
         <v>12P Connector</v>
@@ -3719,8 +3719,8 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13" ht="19">
-      <c r="B25" s="231"/>
-      <c r="C25" s="228"/>
+      <c r="B25" s="234"/>
+      <c r="C25" s="231"/>
       <c r="D25" s="110" t="str">
         <f>MOP!D24</f>
         <v>Pin</v>
@@ -3757,8 +3757,8 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="2:13" ht="19">
-      <c r="B26" s="231"/>
-      <c r="C26" s="228"/>
+      <c r="B26" s="234"/>
+      <c r="C26" s="231"/>
       <c r="D26" s="110" t="str">
         <f>MOP!D25</f>
         <v>Cable Clamp</v>
@@ -3795,8 +3795,8 @@
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="2:13" ht="19">
-      <c r="B27" s="231"/>
-      <c r="C27" s="228"/>
+      <c r="B27" s="234"/>
+      <c r="C27" s="231"/>
       <c r="D27" s="12" t="str">
         <f>MOP!D26</f>
         <v>Name Plate, AL, T1</v>
@@ -3827,8 +3827,8 @@
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="2:13" ht="19">
-      <c r="B28" s="231"/>
-      <c r="C28" s="228"/>
+      <c r="B28" s="234"/>
+      <c r="C28" s="231"/>
       <c r="D28" s="18" t="str">
         <f>MOP!D27</f>
         <v>SPEAKER</v>
@@ -3861,8 +3861,8 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="18">
-      <c r="B29" s="231"/>
-      <c r="C29" s="228"/>
+      <c r="B29" s="234"/>
+      <c r="C29" s="231"/>
       <c r="D29" s="155"/>
       <c r="E29" s="155"/>
       <c r="F29" s="155"/>
@@ -3875,8 +3875,8 @@
       <c r="M29" s="158"/>
     </row>
     <row r="30" spans="2:13" ht="19">
-      <c r="B30" s="233"/>
-      <c r="C30" s="229"/>
+      <c r="B30" s="236"/>
+      <c r="C30" s="232"/>
       <c r="D30" s="108" t="s">
         <v>172</v>
       </c>
@@ -3902,10 +3902,10 @@
       <c r="M30" s="15"/>
     </row>
     <row r="31" spans="2:13" ht="19">
-      <c r="B31" s="230">
+      <c r="B31" s="233">
         <v>2</v>
       </c>
-      <c r="C31" s="234" t="s">
+      <c r="C31" s="225" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="111"/>
@@ -3922,8 +3922,8 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="2:13" ht="19">
-      <c r="B32" s="231"/>
-      <c r="C32" s="235"/>
+      <c r="B32" s="234"/>
+      <c r="C32" s="226"/>
       <c r="D32" s="13" t="str">
         <f>MSR!D3</f>
         <v>PWR Board</v>
@@ -3954,8 +3954,8 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="2:13" ht="19">
-      <c r="B33" s="231"/>
-      <c r="C33" s="235"/>
+      <c r="B33" s="234"/>
+      <c r="C33" s="226"/>
       <c r="D33" s="13" t="str">
         <f>MSR!D4</f>
         <v>M_TX Board</v>
@@ -3986,8 +3986,8 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="2:13" ht="19">
-      <c r="B34" s="231"/>
-      <c r="C34" s="235"/>
+      <c r="B34" s="234"/>
+      <c r="C34" s="226"/>
       <c r="D34" s="13" t="str">
         <f>MSR!D5</f>
         <v>Hub Board</v>
@@ -4018,8 +4018,8 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="2:13" ht="19">
-      <c r="B35" s="231"/>
-      <c r="C35" s="235"/>
+      <c r="B35" s="234"/>
+      <c r="C35" s="226"/>
       <c r="D35" s="13" t="str">
         <f>MSR!D6</f>
         <v>TCIU Board</v>
@@ -4050,8 +4050,8 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="2:13" ht="19">
-      <c r="B36" s="231"/>
-      <c r="C36" s="235"/>
+      <c r="B36" s="234"/>
+      <c r="C36" s="226"/>
       <c r="D36" s="13" t="str">
         <f>MSR!D7</f>
         <v>PA_PBX Board</v>
@@ -4082,8 +4082,8 @@
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="2:13" ht="19">
-      <c r="B37" s="231"/>
-      <c r="C37" s="235"/>
+      <c r="B37" s="234"/>
+      <c r="C37" s="226"/>
       <c r="D37" s="13" t="str">
         <f>MSR!D8</f>
         <v>PA_ETX Board</v>
@@ -4114,8 +4114,8 @@
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="2:13" ht="19">
-      <c r="B38" s="231"/>
-      <c r="C38" s="235"/>
+      <c r="B38" s="234"/>
+      <c r="C38" s="226"/>
       <c r="D38" s="13" t="str">
         <f>MSR!D9</f>
         <v>NVR Board</v>
@@ -4147,8 +4147,8 @@
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="2:13" ht="38">
-      <c r="B39" s="231"/>
-      <c r="C39" s="235"/>
+      <c r="B39" s="234"/>
+      <c r="C39" s="226"/>
       <c r="D39" s="150" t="str">
         <f>MSR!D10</f>
         <v>CPU
@@ -4180,8 +4180,8 @@
       <c r="M39" s="3"/>
     </row>
     <row r="40" spans="2:13" ht="38">
-      <c r="B40" s="231"/>
-      <c r="C40" s="235"/>
+      <c r="B40" s="234"/>
+      <c r="C40" s="226"/>
       <c r="D40" s="150" t="str">
         <f>MSR!D11</f>
         <v>CPU BRACKET 
@@ -4213,8 +4213,8 @@
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="2:13" ht="57">
-      <c r="B41" s="231"/>
-      <c r="C41" s="235"/>
+      <c r="B41" s="234"/>
+      <c r="C41" s="226"/>
       <c r="D41" s="151" t="str">
         <f>MSR!D12</f>
         <v>DDR4
@@ -4248,8 +4248,8 @@
       </c>
     </row>
     <row r="42" spans="2:13" ht="19">
-      <c r="B42" s="231"/>
-      <c r="C42" s="235"/>
+      <c r="B42" s="234"/>
+      <c r="C42" s="226"/>
       <c r="D42" s="13" t="str">
         <f>MSR!D13</f>
         <v>SSD Board</v>
@@ -4280,8 +4280,8 @@
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="2:13" ht="19">
-      <c r="B43" s="231"/>
-      <c r="C43" s="235"/>
+      <c r="B43" s="234"/>
+      <c r="C43" s="226"/>
       <c r="D43" s="116" t="str">
         <f>MSR!D14</f>
         <v>MSR Back Plane</v>
@@ -4318,8 +4318,8 @@
       <c r="M43" s="3"/>
     </row>
     <row r="44" spans="2:13" ht="19">
-      <c r="B44" s="231"/>
-      <c r="C44" s="235"/>
+      <c r="B44" s="234"/>
+      <c r="C44" s="226"/>
       <c r="D44" s="116" t="str">
         <f>MSR!D15</f>
         <v>Frame</v>
@@ -4356,8 +4356,8 @@
       <c r="M44" s="3"/>
     </row>
     <row r="45" spans="2:13" ht="19">
-      <c r="B45" s="231"/>
-      <c r="C45" s="235"/>
+      <c r="B45" s="234"/>
+      <c r="C45" s="226"/>
       <c r="D45" s="13" t="str">
         <f>MSR!D16</f>
         <v>Name Plate, AL, T1</v>
@@ -4388,8 +4388,8 @@
       <c r="M45" s="3"/>
     </row>
     <row r="46" spans="2:13" ht="19">
-      <c r="B46" s="231"/>
-      <c r="C46" s="235"/>
+      <c r="B46" s="234"/>
+      <c r="C46" s="226"/>
       <c r="D46" s="149" t="str">
         <f>MSR!D17</f>
         <v>SSD(2T)</v>
@@ -4422,8 +4422,8 @@
       </c>
     </row>
     <row r="47" spans="2:13" ht="18">
-      <c r="B47" s="231"/>
-      <c r="C47" s="235"/>
+      <c r="B47" s="234"/>
+      <c r="C47" s="226"/>
       <c r="D47" s="155"/>
       <c r="E47" s="155"/>
       <c r="F47" s="155"/>
@@ -4436,8 +4436,8 @@
       <c r="M47" s="158"/>
     </row>
     <row r="48" spans="2:13" ht="19">
-      <c r="B48" s="233"/>
-      <c r="C48" s="236"/>
+      <c r="B48" s="236"/>
+      <c r="C48" s="227"/>
       <c r="D48" s="108" t="s">
         <v>172</v>
       </c>
@@ -4463,10 +4463,10 @@
       <c r="M48" s="15"/>
     </row>
     <row r="49" spans="2:13" ht="19">
-      <c r="B49" s="230">
+      <c r="B49" s="233">
         <v>3</v>
       </c>
-      <c r="C49" s="234" t="s">
+      <c r="C49" s="225" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="111"/>
@@ -4483,8 +4483,8 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="2:13" ht="19">
-      <c r="B50" s="231"/>
-      <c r="C50" s="235"/>
+      <c r="B50" s="234"/>
+      <c r="C50" s="226"/>
       <c r="D50" s="13" t="str">
         <f>CTM!D3</f>
         <v>Main Frame</v>
@@ -4515,8 +4515,8 @@
       <c r="M50" s="3"/>
     </row>
     <row r="51" spans="2:13" ht="19">
-      <c r="B51" s="231"/>
-      <c r="C51" s="235"/>
+      <c r="B51" s="234"/>
+      <c r="C51" s="226"/>
       <c r="D51" s="13" t="str">
         <f>CTM!D4</f>
         <v>Lower Cover</v>
@@ -4547,8 +4547,8 @@
       <c r="M51" s="3"/>
     </row>
     <row r="52" spans="2:13" ht="19">
-      <c r="B52" s="231"/>
-      <c r="C52" s="235"/>
+      <c r="B52" s="234"/>
+      <c r="C52" s="226"/>
       <c r="D52" s="13" t="str">
         <f>CTM!D5</f>
         <v>Rear Cover</v>
@@ -4579,8 +4579,8 @@
       <c r="M52" s="3"/>
     </row>
     <row r="53" spans="2:13" ht="19">
-      <c r="B53" s="231"/>
-      <c r="C53" s="235"/>
+      <c r="B53" s="234"/>
+      <c r="C53" s="226"/>
       <c r="D53" s="116" t="str">
         <f>CTM!D6</f>
         <v>10.4" LCD</v>
@@ -4619,8 +4619,8 @@
       </c>
     </row>
     <row r="54" spans="2:13" ht="19">
-      <c r="B54" s="231"/>
-      <c r="C54" s="235"/>
+      <c r="B54" s="234"/>
+      <c r="C54" s="226"/>
       <c r="D54" s="13" t="str">
         <f>CTM!D7</f>
         <v>Control Board Bracket</v>
@@ -4650,8 +4650,8 @@
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="2:13" ht="19">
-      <c r="B55" s="231"/>
-      <c r="C55" s="235"/>
+      <c r="B55" s="234"/>
+      <c r="C55" s="226"/>
       <c r="D55" s="13" t="str">
         <f>CTM!D8</f>
         <v>Control Board</v>
@@ -4681,8 +4681,8 @@
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="2:13" ht="19">
-      <c r="B56" s="231"/>
-      <c r="C56" s="235"/>
+      <c r="B56" s="234"/>
+      <c r="C56" s="226"/>
       <c r="D56" s="150" t="str">
         <f>CTM!D9</f>
         <v xml:space="preserve">CPU TCA3/i-E3845 </v>
@@ -4721,8 +4721,8 @@
       </c>
     </row>
     <row r="57" spans="2:13" ht="19">
-      <c r="B57" s="231"/>
-      <c r="C57" s="235"/>
+      <c r="B57" s="234"/>
+      <c r="C57" s="226"/>
       <c r="D57" s="150" t="str">
         <f>CTM!D10</f>
         <v xml:space="preserve">CPU BRACKET TCA3/CSP-B </v>
@@ -4761,8 +4761,8 @@
       </c>
     </row>
     <row r="58" spans="2:13" ht="57">
-      <c r="B58" s="231"/>
-      <c r="C58" s="235"/>
+      <c r="B58" s="234"/>
+      <c r="C58" s="226"/>
       <c r="D58" s="151" t="str">
         <f>CTM!D11</f>
         <v>DDR4
@@ -4796,8 +4796,8 @@
       </c>
     </row>
     <row r="59" spans="2:13" ht="19">
-      <c r="B59" s="231"/>
-      <c r="C59" s="235"/>
+      <c r="B59" s="234"/>
+      <c r="C59" s="226"/>
       <c r="D59" s="13" t="str">
         <f>CTM!D12</f>
         <v>Power Board</v>
@@ -4828,8 +4828,8 @@
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="2:13" ht="19">
-      <c r="B60" s="231"/>
-      <c r="C60" s="235"/>
+      <c r="B60" s="234"/>
+      <c r="C60" s="226"/>
       <c r="D60" s="116" t="str">
         <f>CTM!D13</f>
         <v>3P Connector</v>
@@ -4866,8 +4866,8 @@
       <c r="M60" s="16"/>
     </row>
     <row r="61" spans="2:13" ht="19">
-      <c r="B61" s="231"/>
-      <c r="C61" s="235"/>
+      <c r="B61" s="234"/>
+      <c r="C61" s="226"/>
       <c r="D61" s="116" t="str">
         <f>CTM!D14</f>
         <v>Locking</v>
@@ -4904,8 +4904,8 @@
       <c r="M61" s="16"/>
     </row>
     <row r="62" spans="2:13" ht="19">
-      <c r="B62" s="231"/>
-      <c r="C62" s="235"/>
+      <c r="B62" s="234"/>
+      <c r="C62" s="226"/>
       <c r="D62" s="116" t="str">
         <f>CTM!D15</f>
         <v>4P Connector</v>
@@ -4942,8 +4942,8 @@
       <c r="M62" s="16"/>
     </row>
     <row r="63" spans="2:13" ht="19">
-      <c r="B63" s="231"/>
-      <c r="C63" s="235"/>
+      <c r="B63" s="234"/>
+      <c r="C63" s="226"/>
       <c r="D63" s="116" t="str">
         <f>CTM!D16</f>
         <v>Pin</v>
@@ -4980,8 +4980,8 @@
       <c r="M63" s="16"/>
     </row>
     <row r="64" spans="2:13" ht="19">
-      <c r="B64" s="231"/>
-      <c r="C64" s="235"/>
+      <c r="B64" s="234"/>
+      <c r="C64" s="226"/>
       <c r="D64" s="116" t="str">
         <f>CTM!D17</f>
         <v>Cable Gland</v>
@@ -5018,8 +5018,8 @@
       <c r="M64" s="16"/>
     </row>
     <row r="65" spans="2:13" ht="19">
-      <c r="B65" s="231"/>
-      <c r="C65" s="235"/>
+      <c r="B65" s="234"/>
+      <c r="C65" s="226"/>
       <c r="D65" s="149" t="str">
         <f>CTM!D18</f>
         <v>USB Adapter</v>
@@ -5052,8 +5052,8 @@
       </c>
     </row>
     <row r="66" spans="2:13" ht="19">
-      <c r="B66" s="231"/>
-      <c r="C66" s="235"/>
+      <c r="B66" s="234"/>
+      <c r="C66" s="226"/>
       <c r="D66" s="13" t="str">
         <f>CTM!D19</f>
         <v>Name Plate</v>
@@ -5084,8 +5084,8 @@
       <c r="M66" s="3"/>
     </row>
     <row r="67" spans="2:13" ht="18">
-      <c r="B67" s="231"/>
-      <c r="C67" s="235"/>
+      <c r="B67" s="234"/>
+      <c r="C67" s="226"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -5098,8 +5098,8 @@
       <c r="M67" s="2"/>
     </row>
     <row r="68" spans="2:13" ht="19">
-      <c r="B68" s="233"/>
-      <c r="C68" s="236"/>
+      <c r="B68" s="236"/>
+      <c r="C68" s="227"/>
       <c r="D68" s="108" t="s">
         <v>172</v>
       </c>
@@ -5125,8 +5125,8 @@
       <c r="M68" s="15"/>
     </row>
     <row r="69" spans="2:13" ht="18">
-      <c r="B69" s="230"/>
-      <c r="C69" s="234"/>
+      <c r="B69" s="233"/>
+      <c r="C69" s="225"/>
       <c r="D69" s="111"/>
       <c r="E69" s="112"/>
       <c r="F69" s="95"/>
@@ -5139,8 +5139,8 @@
       <c r="M69" s="3"/>
     </row>
     <row r="70" spans="2:13" ht="18">
-      <c r="B70" s="231"/>
-      <c r="C70" s="235"/>
+      <c r="B70" s="234"/>
+      <c r="C70" s="226"/>
       <c r="D70" s="120"/>
       <c r="E70" s="120"/>
       <c r="F70" s="120"/>
@@ -5153,8 +5153,8 @@
       <c r="M70" s="3"/>
     </row>
     <row r="71" spans="2:13" ht="18">
-      <c r="B71" s="231"/>
-      <c r="C71" s="235"/>
+      <c r="B71" s="234"/>
+      <c r="C71" s="226"/>
       <c r="D71" s="120"/>
       <c r="E71" s="120"/>
       <c r="F71" s="120"/>
@@ -5167,8 +5167,8 @@
       <c r="M71" s="3"/>
     </row>
     <row r="72" spans="2:13" ht="18">
-      <c r="B72" s="231"/>
-      <c r="C72" s="235"/>
+      <c r="B72" s="234"/>
+      <c r="C72" s="226"/>
       <c r="D72" s="120"/>
       <c r="E72" s="120"/>
       <c r="F72" s="120"/>
@@ -5181,8 +5181,8 @@
       <c r="M72" s="3"/>
     </row>
     <row r="73" spans="2:13" ht="18">
-      <c r="B73" s="231"/>
-      <c r="C73" s="235"/>
+      <c r="B73" s="234"/>
+      <c r="C73" s="226"/>
       <c r="D73" s="120"/>
       <c r="E73" s="120"/>
       <c r="F73" s="120"/>
@@ -5195,8 +5195,8 @@
       <c r="M73" s="3"/>
     </row>
     <row r="74" spans="2:13" ht="18">
-      <c r="B74" s="231"/>
-      <c r="C74" s="235"/>
+      <c r="B74" s="234"/>
+      <c r="C74" s="226"/>
       <c r="D74" s="154"/>
       <c r="E74" s="154"/>
       <c r="F74" s="154"/>
@@ -5209,8 +5209,8 @@
       <c r="M74" s="3"/>
     </row>
     <row r="75" spans="2:13" ht="18">
-      <c r="B75" s="231"/>
-      <c r="C75" s="235"/>
+      <c r="B75" s="234"/>
+      <c r="C75" s="226"/>
       <c r="D75" s="154"/>
       <c r="E75" s="154"/>
       <c r="F75" s="154"/>
@@ -5223,8 +5223,8 @@
       <c r="M75" s="3"/>
     </row>
     <row r="76" spans="2:13" ht="18">
-      <c r="B76" s="231"/>
-      <c r="C76" s="235"/>
+      <c r="B76" s="234"/>
+      <c r="C76" s="226"/>
       <c r="D76" s="120"/>
       <c r="E76" s="120"/>
       <c r="F76" s="120"/>
@@ -5237,8 +5237,8 @@
       <c r="M76" s="3"/>
     </row>
     <row r="77" spans="2:13" ht="18">
-      <c r="B77" s="231"/>
-      <c r="C77" s="235"/>
+      <c r="B77" s="234"/>
+      <c r="C77" s="226"/>
       <c r="D77" s="120"/>
       <c r="E77" s="120"/>
       <c r="F77" s="120"/>
@@ -5251,8 +5251,8 @@
       <c r="M77" s="3"/>
     </row>
     <row r="78" spans="2:13" ht="18">
-      <c r="B78" s="231"/>
-      <c r="C78" s="235"/>
+      <c r="B78" s="234"/>
+      <c r="C78" s="226"/>
       <c r="D78" s="120"/>
       <c r="E78" s="120"/>
       <c r="F78" s="120"/>
@@ -5265,8 +5265,8 @@
       <c r="M78" s="3"/>
     </row>
     <row r="79" spans="2:13" ht="18">
-      <c r="B79" s="231"/>
-      <c r="C79" s="235"/>
+      <c r="B79" s="234"/>
+      <c r="C79" s="226"/>
       <c r="D79" s="120"/>
       <c r="E79" s="120"/>
       <c r="F79" s="120"/>
@@ -5279,8 +5279,8 @@
       <c r="M79" s="3"/>
     </row>
     <row r="80" spans="2:13" ht="18">
-      <c r="B80" s="231"/>
-      <c r="C80" s="235"/>
+      <c r="B80" s="234"/>
+      <c r="C80" s="226"/>
       <c r="D80" s="120"/>
       <c r="E80" s="120"/>
       <c r="F80" s="120"/>
@@ -5293,8 +5293,8 @@
       <c r="M80" s="3"/>
     </row>
     <row r="81" spans="2:13" ht="18">
-      <c r="B81" s="231"/>
-      <c r="C81" s="235"/>
+      <c r="B81" s="234"/>
+      <c r="C81" s="226"/>
       <c r="D81" s="120"/>
       <c r="E81" s="120"/>
       <c r="F81" s="120"/>
@@ -5307,8 +5307,8 @@
       <c r="M81" s="3"/>
     </row>
     <row r="82" spans="2:13" ht="18">
-      <c r="B82" s="231"/>
-      <c r="C82" s="235"/>
+      <c r="B82" s="234"/>
+      <c r="C82" s="226"/>
       <c r="D82" s="120"/>
       <c r="E82" s="120"/>
       <c r="F82" s="120"/>
@@ -5321,8 +5321,8 @@
       <c r="M82" s="3"/>
     </row>
     <row r="83" spans="2:13" ht="18">
-      <c r="B83" s="231"/>
-      <c r="C83" s="235"/>
+      <c r="B83" s="234"/>
+      <c r="C83" s="226"/>
       <c r="D83" s="120"/>
       <c r="E83" s="120"/>
       <c r="F83" s="120"/>
@@ -5335,8 +5335,8 @@
       <c r="M83" s="3"/>
     </row>
     <row r="84" spans="2:13" ht="18">
-      <c r="B84" s="231"/>
-      <c r="C84" s="235"/>
+      <c r="B84" s="234"/>
+      <c r="C84" s="226"/>
       <c r="D84" s="154"/>
       <c r="E84" s="154"/>
       <c r="F84" s="154"/>
@@ -5349,8 +5349,8 @@
       <c r="M84" s="3"/>
     </row>
     <row r="85" spans="2:13" ht="18">
-      <c r="B85" s="231"/>
-      <c r="C85" s="235"/>
+      <c r="B85" s="234"/>
+      <c r="C85" s="226"/>
       <c r="D85" s="154"/>
       <c r="E85" s="154"/>
       <c r="F85" s="154"/>
@@ -5363,8 +5363,8 @@
       <c r="M85" s="3"/>
     </row>
     <row r="86" spans="2:13" ht="18">
-      <c r="B86" s="231"/>
-      <c r="C86" s="235"/>
+      <c r="B86" s="234"/>
+      <c r="C86" s="226"/>
       <c r="D86" s="105"/>
       <c r="E86" s="105"/>
       <c r="F86" s="105"/>
@@ -5377,8 +5377,8 @@
       <c r="M86" s="2"/>
     </row>
     <row r="87" spans="2:13" ht="18">
-      <c r="B87" s="233"/>
-      <c r="C87" s="236"/>
+      <c r="B87" s="236"/>
+      <c r="C87" s="227"/>
       <c r="D87" s="108"/>
       <c r="E87" s="108"/>
       <c r="F87" s="109"/>
@@ -5391,8 +5391,8 @@
       <c r="M87" s="2"/>
     </row>
     <row r="88" spans="2:13" ht="18">
-      <c r="B88" s="230"/>
-      <c r="C88" s="234"/>
+      <c r="B88" s="233"/>
+      <c r="C88" s="225"/>
       <c r="D88" s="111"/>
       <c r="E88" s="112"/>
       <c r="F88" s="95"/>
@@ -5405,8 +5405,8 @@
       <c r="M88" s="3"/>
     </row>
     <row r="89" spans="2:13" ht="18">
-      <c r="B89" s="231"/>
-      <c r="C89" s="235"/>
+      <c r="B89" s="234"/>
+      <c r="C89" s="226"/>
       <c r="D89" s="120"/>
       <c r="E89" s="120"/>
       <c r="F89" s="120"/>
@@ -5419,8 +5419,8 @@
       <c r="M89" s="3"/>
     </row>
     <row r="90" spans="2:13" ht="18">
-      <c r="B90" s="231"/>
-      <c r="C90" s="235"/>
+      <c r="B90" s="234"/>
+      <c r="C90" s="226"/>
       <c r="D90" s="120"/>
       <c r="E90" s="120"/>
       <c r="F90" s="120"/>
@@ -5433,8 +5433,8 @@
       <c r="M90" s="3"/>
     </row>
     <row r="91" spans="2:13" ht="18">
-      <c r="B91" s="231"/>
-      <c r="C91" s="235"/>
+      <c r="B91" s="234"/>
+      <c r="C91" s="226"/>
       <c r="D91" s="120"/>
       <c r="E91" s="120"/>
       <c r="F91" s="120"/>
@@ -5447,8 +5447,8 @@
       <c r="M91" s="3"/>
     </row>
     <row r="92" spans="2:13" ht="18">
-      <c r="B92" s="231"/>
-      <c r="C92" s="235"/>
+      <c r="B92" s="234"/>
+      <c r="C92" s="226"/>
       <c r="D92" s="120"/>
       <c r="E92" s="120"/>
       <c r="F92" s="120"/>
@@ -5461,8 +5461,8 @@
       <c r="M92" s="9"/>
     </row>
     <row r="93" spans="2:13" ht="18">
-      <c r="B93" s="231"/>
-      <c r="C93" s="235"/>
+      <c r="B93" s="234"/>
+      <c r="C93" s="226"/>
       <c r="D93" s="120"/>
       <c r="E93" s="120"/>
       <c r="F93" s="120"/>
@@ -5475,8 +5475,8 @@
       <c r="M93" s="3"/>
     </row>
     <row r="94" spans="2:13" ht="18">
-      <c r="B94" s="231"/>
-      <c r="C94" s="235"/>
+      <c r="B94" s="234"/>
+      <c r="C94" s="226"/>
       <c r="D94" s="120"/>
       <c r="E94" s="120"/>
       <c r="F94" s="120"/>
@@ -5489,8 +5489,8 @@
       <c r="M94" s="3"/>
     </row>
     <row r="95" spans="2:13" ht="18">
-      <c r="B95" s="231"/>
-      <c r="C95" s="235"/>
+      <c r="B95" s="234"/>
+      <c r="C95" s="226"/>
       <c r="D95" s="154"/>
       <c r="E95" s="154"/>
       <c r="F95" s="154"/>
@@ -5503,8 +5503,8 @@
       <c r="M95" s="3"/>
     </row>
     <row r="96" spans="2:13" ht="18">
-      <c r="B96" s="231"/>
-      <c r="C96" s="235"/>
+      <c r="B96" s="234"/>
+      <c r="C96" s="226"/>
       <c r="D96" s="154"/>
       <c r="E96" s="154"/>
       <c r="F96" s="154"/>
@@ -5517,8 +5517,8 @@
       <c r="M96" s="3"/>
     </row>
     <row r="97" spans="2:13" ht="18">
-      <c r="B97" s="231"/>
-      <c r="C97" s="235"/>
+      <c r="B97" s="234"/>
+      <c r="C97" s="226"/>
       <c r="D97" s="120"/>
       <c r="E97" s="120"/>
       <c r="F97" s="120"/>
@@ -5531,8 +5531,8 @@
       <c r="M97" s="3"/>
     </row>
     <row r="98" spans="2:13" ht="18">
-      <c r="B98" s="231"/>
-      <c r="C98" s="235"/>
+      <c r="B98" s="234"/>
+      <c r="C98" s="226"/>
       <c r="D98" s="120"/>
       <c r="E98" s="120"/>
       <c r="F98" s="120"/>
@@ -5545,8 +5545,8 @@
       <c r="M98" s="3"/>
     </row>
     <row r="99" spans="2:13" ht="18">
-      <c r="B99" s="231"/>
-      <c r="C99" s="235"/>
+      <c r="B99" s="234"/>
+      <c r="C99" s="226"/>
       <c r="D99" s="120"/>
       <c r="E99" s="120"/>
       <c r="F99" s="120"/>
@@ -5559,8 +5559,8 @@
       <c r="M99" s="3"/>
     </row>
     <row r="100" spans="2:13" ht="18">
-      <c r="B100" s="231"/>
-      <c r="C100" s="235"/>
+      <c r="B100" s="234"/>
+      <c r="C100" s="226"/>
       <c r="D100" s="120"/>
       <c r="E100" s="120"/>
       <c r="F100" s="120"/>
@@ -5573,8 +5573,8 @@
       <c r="M100" s="3"/>
     </row>
     <row r="101" spans="2:13" ht="18">
-      <c r="B101" s="231"/>
-      <c r="C101" s="235"/>
+      <c r="B101" s="234"/>
+      <c r="C101" s="226"/>
       <c r="D101" s="120"/>
       <c r="E101" s="120"/>
       <c r="F101" s="120"/>
@@ -5587,8 +5587,8 @@
       <c r="M101" s="3"/>
     </row>
     <row r="102" spans="2:13" ht="18">
-      <c r="B102" s="231"/>
-      <c r="C102" s="235"/>
+      <c r="B102" s="234"/>
+      <c r="C102" s="226"/>
       <c r="D102" s="120"/>
       <c r="E102" s="120"/>
       <c r="F102" s="120"/>
@@ -5601,8 +5601,8 @@
       <c r="M102" s="3"/>
     </row>
     <row r="103" spans="2:13" ht="18">
-      <c r="B103" s="231"/>
-      <c r="C103" s="235"/>
+      <c r="B103" s="234"/>
+      <c r="C103" s="226"/>
       <c r="D103" s="120"/>
       <c r="E103" s="120"/>
       <c r="F103" s="120"/>
@@ -5615,8 +5615,8 @@
       <c r="M103" s="3"/>
     </row>
     <row r="104" spans="2:13" ht="18">
-      <c r="B104" s="231"/>
-      <c r="C104" s="235"/>
+      <c r="B104" s="234"/>
+      <c r="C104" s="226"/>
       <c r="D104" s="154"/>
       <c r="E104" s="154"/>
       <c r="F104" s="154"/>
@@ -5629,8 +5629,8 @@
       <c r="M104" s="3"/>
     </row>
     <row r="105" spans="2:13" ht="18">
-      <c r="B105" s="231"/>
-      <c r="C105" s="235"/>
+      <c r="B105" s="234"/>
+      <c r="C105" s="226"/>
       <c r="D105" s="120"/>
       <c r="E105" s="120"/>
       <c r="F105" s="120"/>
@@ -5643,8 +5643,8 @@
       <c r="M105" s="2"/>
     </row>
     <row r="106" spans="2:13" ht="18">
-      <c r="B106" s="231"/>
-      <c r="C106" s="235"/>
+      <c r="B106" s="234"/>
+      <c r="C106" s="226"/>
       <c r="D106" s="105"/>
       <c r="E106" s="105"/>
       <c r="F106" s="105"/>
@@ -5657,8 +5657,8 @@
       <c r="M106" s="2"/>
     </row>
     <row r="107" spans="2:13" ht="18">
-      <c r="B107" s="233"/>
-      <c r="C107" s="236"/>
+      <c r="B107" s="236"/>
+      <c r="C107" s="227"/>
       <c r="D107" s="108"/>
       <c r="E107" s="108"/>
       <c r="F107" s="109"/>
@@ -5671,8 +5671,8 @@
       <c r="M107" s="2"/>
     </row>
     <row r="108" spans="2:13" ht="18">
-      <c r="B108" s="230"/>
-      <c r="C108" s="234"/>
+      <c r="B108" s="233"/>
+      <c r="C108" s="225"/>
       <c r="D108" s="111"/>
       <c r="E108" s="112"/>
       <c r="F108" s="95"/>
@@ -5685,8 +5685,8 @@
       <c r="M108" s="3"/>
     </row>
     <row r="109" spans="2:13" ht="18">
-      <c r="B109" s="231"/>
-      <c r="C109" s="235"/>
+      <c r="B109" s="234"/>
+      <c r="C109" s="226"/>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
@@ -5699,8 +5699,8 @@
       <c r="M109" s="3"/>
     </row>
     <row r="110" spans="2:13" ht="18">
-      <c r="B110" s="231"/>
-      <c r="C110" s="235"/>
+      <c r="B110" s="234"/>
+      <c r="C110" s="226"/>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
@@ -5713,8 +5713,8 @@
       <c r="M110" s="3"/>
     </row>
     <row r="111" spans="2:13" ht="18">
-      <c r="B111" s="231"/>
-      <c r="C111" s="235"/>
+      <c r="B111" s="234"/>
+      <c r="C111" s="226"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
@@ -5727,8 +5727,8 @@
       <c r="M111" s="3"/>
     </row>
     <row r="112" spans="2:13" ht="18">
-      <c r="B112" s="231"/>
-      <c r="C112" s="235"/>
+      <c r="B112" s="234"/>
+      <c r="C112" s="226"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
@@ -5741,8 +5741,8 @@
       <c r="M112" s="3"/>
     </row>
     <row r="113" spans="2:13" ht="18">
-      <c r="B113" s="231"/>
-      <c r="C113" s="235"/>
+      <c r="B113" s="234"/>
+      <c r="C113" s="226"/>
       <c r="D113" s="13"/>
       <c r="E113" s="13"/>
       <c r="F113" s="13"/>
@@ -5755,8 +5755,8 @@
       <c r="M113" s="3"/>
     </row>
     <row r="114" spans="2:13" ht="18">
-      <c r="B114" s="231"/>
-      <c r="C114" s="235"/>
+      <c r="B114" s="234"/>
+      <c r="C114" s="226"/>
       <c r="D114" s="116"/>
       <c r="E114" s="116"/>
       <c r="F114" s="116"/>
@@ -5769,8 +5769,8 @@
       <c r="M114" s="3"/>
     </row>
     <row r="115" spans="2:13" ht="18">
-      <c r="B115" s="231"/>
-      <c r="C115" s="235"/>
+      <c r="B115" s="234"/>
+      <c r="C115" s="226"/>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
@@ -5783,8 +5783,8 @@
       <c r="M115" s="3"/>
     </row>
     <row r="116" spans="2:13" ht="18">
-      <c r="B116" s="231"/>
-      <c r="C116" s="235"/>
+      <c r="B116" s="234"/>
+      <c r="C116" s="226"/>
       <c r="D116" s="116"/>
       <c r="E116" s="116"/>
       <c r="F116" s="116"/>
@@ -5797,8 +5797,8 @@
       <c r="M116" s="3"/>
     </row>
     <row r="117" spans="2:13" ht="18">
-      <c r="B117" s="231"/>
-      <c r="C117" s="235"/>
+      <c r="B117" s="234"/>
+      <c r="C117" s="226"/>
       <c r="D117" s="116"/>
       <c r="E117" s="116"/>
       <c r="F117" s="116"/>
@@ -5811,8 +5811,8 @@
       <c r="M117" s="3"/>
     </row>
     <row r="118" spans="2:13" ht="18">
-      <c r="B118" s="231"/>
-      <c r="C118" s="235"/>
+      <c r="B118" s="234"/>
+      <c r="C118" s="226"/>
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
@@ -5825,8 +5825,8 @@
       <c r="M118" s="3"/>
     </row>
     <row r="119" spans="2:13" ht="18">
-      <c r="B119" s="231"/>
-      <c r="C119" s="235"/>
+      <c r="B119" s="234"/>
+      <c r="C119" s="226"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
@@ -5839,8 +5839,8 @@
       <c r="M119" s="2"/>
     </row>
     <row r="120" spans="2:13" ht="18">
-      <c r="B120" s="233"/>
-      <c r="C120" s="236"/>
+      <c r="B120" s="236"/>
+      <c r="C120" s="227"/>
       <c r="D120" s="108"/>
       <c r="E120" s="108"/>
       <c r="F120" s="109"/>
@@ -5853,7 +5853,7 @@
       <c r="M120" s="2"/>
     </row>
     <row r="121" spans="2:13" ht="18">
-      <c r="B121" s="230"/>
+      <c r="B121" s="233"/>
       <c r="C121" s="237"/>
       <c r="D121" s="111"/>
       <c r="E121" s="112"/>
@@ -5867,8 +5867,8 @@
       <c r="M121" s="3"/>
     </row>
     <row r="122" spans="2:13" ht="18">
-      <c r="B122" s="231"/>
-      <c r="C122" s="228"/>
+      <c r="B122" s="234"/>
+      <c r="C122" s="231"/>
       <c r="D122" s="120"/>
       <c r="E122" s="120"/>
       <c r="F122" s="120"/>
@@ -5881,8 +5881,8 @@
       <c r="M122" s="4"/>
     </row>
     <row r="123" spans="2:13" ht="18">
-      <c r="B123" s="231"/>
-      <c r="C123" s="228"/>
+      <c r="B123" s="234"/>
+      <c r="C123" s="231"/>
       <c r="D123" s="120"/>
       <c r="E123" s="120"/>
       <c r="F123" s="120"/>
@@ -5895,8 +5895,8 @@
       <c r="M123" s="4"/>
     </row>
     <row r="124" spans="2:13" ht="18">
-      <c r="B124" s="231"/>
-      <c r="C124" s="228"/>
+      <c r="B124" s="234"/>
+      <c r="C124" s="231"/>
       <c r="D124" s="120"/>
       <c r="E124" s="120"/>
       <c r="F124" s="120"/>
@@ -5909,8 +5909,8 @@
       <c r="M124" s="4"/>
     </row>
     <row r="125" spans="2:13" ht="18">
-      <c r="B125" s="231"/>
-      <c r="C125" s="228"/>
+      <c r="B125" s="234"/>
+      <c r="C125" s="231"/>
       <c r="D125" s="154"/>
       <c r="E125" s="154"/>
       <c r="F125" s="154"/>
@@ -5923,8 +5923,8 @@
       <c r="M125" s="4"/>
     </row>
     <row r="126" spans="2:13" ht="18">
-      <c r="B126" s="231"/>
-      <c r="C126" s="228"/>
+      <c r="B126" s="234"/>
+      <c r="C126" s="231"/>
       <c r="D126" s="120"/>
       <c r="E126" s="120"/>
       <c r="F126" s="120"/>
@@ -5937,8 +5937,8 @@
       <c r="M126" s="7"/>
     </row>
     <row r="127" spans="2:13" ht="18">
-      <c r="B127" s="231"/>
-      <c r="C127" s="228"/>
+      <c r="B127" s="234"/>
+      <c r="C127" s="231"/>
       <c r="D127" s="154"/>
       <c r="E127" s="154"/>
       <c r="F127" s="154"/>
@@ -5951,8 +5951,8 @@
       <c r="M127" s="7"/>
     </row>
     <row r="128" spans="2:13" ht="18">
-      <c r="B128" s="231"/>
-      <c r="C128" s="228"/>
+      <c r="B128" s="234"/>
+      <c r="C128" s="231"/>
       <c r="D128" s="120"/>
       <c r="E128" s="120"/>
       <c r="F128" s="120"/>
@@ -5965,8 +5965,8 @@
       <c r="M128" s="7"/>
     </row>
     <row r="129" spans="2:13" ht="18">
-      <c r="B129" s="231"/>
-      <c r="C129" s="228"/>
+      <c r="B129" s="234"/>
+      <c r="C129" s="231"/>
       <c r="D129" s="120"/>
       <c r="E129" s="120"/>
       <c r="F129" s="120"/>
@@ -5979,8 +5979,8 @@
       <c r="M129" s="6"/>
     </row>
     <row r="130" spans="2:13" ht="18">
-      <c r="B130" s="231"/>
-      <c r="C130" s="228"/>
+      <c r="B130" s="234"/>
+      <c r="C130" s="231"/>
       <c r="D130" s="120"/>
       <c r="E130" s="120"/>
       <c r="F130" s="120"/>
@@ -5993,8 +5993,8 @@
       <c r="M130" s="4"/>
     </row>
     <row r="131" spans="2:13" ht="18">
-      <c r="B131" s="231"/>
-      <c r="C131" s="228"/>
+      <c r="B131" s="234"/>
+      <c r="C131" s="231"/>
       <c r="D131" s="120"/>
       <c r="E131" s="120"/>
       <c r="F131" s="120"/>
@@ -6007,8 +6007,8 @@
       <c r="M131" s="4"/>
     </row>
     <row r="132" spans="2:13" ht="18">
-      <c r="B132" s="231"/>
-      <c r="C132" s="228"/>
+      <c r="B132" s="234"/>
+      <c r="C132" s="231"/>
       <c r="D132" s="120"/>
       <c r="E132" s="120"/>
       <c r="F132" s="120"/>
@@ -6021,8 +6021,8 @@
       <c r="M132" s="4"/>
     </row>
     <row r="133" spans="2:13" ht="18">
-      <c r="B133" s="231"/>
-      <c r="C133" s="228"/>
+      <c r="B133" s="234"/>
+      <c r="C133" s="231"/>
       <c r="D133" s="120"/>
       <c r="E133" s="120"/>
       <c r="F133" s="120"/>
@@ -6035,8 +6035,8 @@
       <c r="M133" s="4"/>
     </row>
     <row r="134" spans="2:13" ht="18">
-      <c r="B134" s="231"/>
-      <c r="C134" s="228"/>
+      <c r="B134" s="234"/>
+      <c r="C134" s="231"/>
       <c r="D134" s="120"/>
       <c r="E134" s="120"/>
       <c r="F134" s="120"/>
@@ -6049,8 +6049,8 @@
       <c r="M134" s="4"/>
     </row>
     <row r="135" spans="2:13" ht="18">
-      <c r="B135" s="231"/>
-      <c r="C135" s="228"/>
+      <c r="B135" s="234"/>
+      <c r="C135" s="231"/>
       <c r="D135" s="154"/>
       <c r="E135" s="154"/>
       <c r="F135" s="154"/>
@@ -6063,8 +6063,8 @@
       <c r="M135" s="10"/>
     </row>
     <row r="136" spans="2:13" ht="18">
-      <c r="B136" s="231"/>
-      <c r="C136" s="228"/>
+      <c r="B136" s="234"/>
+      <c r="C136" s="231"/>
       <c r="D136" s="105"/>
       <c r="E136" s="105"/>
       <c r="F136" s="105"/>
@@ -6077,8 +6077,8 @@
       <c r="M136" s="6"/>
     </row>
     <row r="137" spans="2:13" ht="18">
-      <c r="B137" s="233"/>
-      <c r="C137" s="229"/>
+      <c r="B137" s="236"/>
+      <c r="C137" s="232"/>
       <c r="D137" s="108"/>
       <c r="E137" s="108"/>
       <c r="F137" s="109"/>
@@ -6091,8 +6091,8 @@
       <c r="M137" s="2"/>
     </row>
     <row r="138" spans="2:13" ht="18">
-      <c r="B138" s="230"/>
-      <c r="C138" s="234"/>
+      <c r="B138" s="233"/>
+      <c r="C138" s="225"/>
       <c r="D138" s="133"/>
       <c r="E138" s="112"/>
       <c r="F138" s="95"/>
@@ -6105,8 +6105,8 @@
       <c r="M138" s="3"/>
     </row>
     <row r="139" spans="2:13" ht="18">
-      <c r="B139" s="231"/>
-      <c r="C139" s="235"/>
+      <c r="B139" s="234"/>
+      <c r="C139" s="226"/>
       <c r="D139" s="120"/>
       <c r="E139" s="120"/>
       <c r="F139" s="120"/>
@@ -6119,8 +6119,8 @@
       <c r="M139" s="3"/>
     </row>
     <row r="140" spans="2:13" ht="18">
-      <c r="B140" s="231"/>
-      <c r="C140" s="235"/>
+      <c r="B140" s="234"/>
+      <c r="C140" s="226"/>
       <c r="D140" s="120"/>
       <c r="E140" s="120"/>
       <c r="F140" s="120"/>
@@ -6133,8 +6133,8 @@
       <c r="M140" s="3"/>
     </row>
     <row r="141" spans="2:13" ht="18">
-      <c r="B141" s="231"/>
-      <c r="C141" s="235"/>
+      <c r="B141" s="234"/>
+      <c r="C141" s="226"/>
       <c r="D141" s="120"/>
       <c r="E141" s="120"/>
       <c r="F141" s="120"/>
@@ -6147,8 +6147,8 @@
       <c r="M141" s="3"/>
     </row>
     <row r="142" spans="2:13" ht="18">
-      <c r="B142" s="231"/>
-      <c r="C142" s="235"/>
+      <c r="B142" s="234"/>
+      <c r="C142" s="226"/>
       <c r="D142" s="154"/>
       <c r="E142" s="154"/>
       <c r="F142" s="154"/>
@@ -6161,9 +6161,11 @@
       <c r="M142" s="4"/>
     </row>
     <row r="143" spans="2:13" ht="18">
-      <c r="B143" s="231"/>
-      <c r="C143" s="235"/>
-      <c r="D143" s="120"/>
+      <c r="B143" s="234"/>
+      <c r="C143" s="226"/>
+      <c r="D143" s="120">
+        <v>999999999</v>
+      </c>
       <c r="E143" s="120"/>
       <c r="F143" s="120"/>
       <c r="G143" s="120"/>
@@ -6175,8 +6177,8 @@
       <c r="M143" s="3"/>
     </row>
     <row r="144" spans="2:13" ht="18">
-      <c r="B144" s="231"/>
-      <c r="C144" s="235"/>
+      <c r="B144" s="234"/>
+      <c r="C144" s="226"/>
       <c r="D144" s="154"/>
       <c r="E144" s="154"/>
       <c r="F144" s="154"/>
@@ -6189,8 +6191,8 @@
       <c r="M144" s="4"/>
     </row>
     <row r="145" spans="2:13" ht="18">
-      <c r="B145" s="231"/>
-      <c r="C145" s="235"/>
+      <c r="B145" s="234"/>
+      <c r="C145" s="226"/>
       <c r="D145" s="120"/>
       <c r="E145" s="120"/>
       <c r="F145" s="120"/>
@@ -6203,8 +6205,8 @@
       <c r="M145" s="3"/>
     </row>
     <row r="146" spans="2:13" ht="18">
-      <c r="B146" s="231"/>
-      <c r="C146" s="235"/>
+      <c r="B146" s="234"/>
+      <c r="C146" s="226"/>
       <c r="D146" s="120"/>
       <c r="E146" s="120"/>
       <c r="F146" s="120"/>
@@ -6217,8 +6219,8 @@
       <c r="M146" s="3"/>
     </row>
     <row r="147" spans="2:13" ht="18">
-      <c r="B147" s="231"/>
-      <c r="C147" s="235"/>
+      <c r="B147" s="234"/>
+      <c r="C147" s="226"/>
       <c r="D147" s="120"/>
       <c r="E147" s="120"/>
       <c r="F147" s="120"/>
@@ -6231,8 +6233,8 @@
       <c r="M147" s="3"/>
     </row>
     <row r="148" spans="2:13" ht="18">
-      <c r="B148" s="231"/>
-      <c r="C148" s="235"/>
+      <c r="B148" s="234"/>
+      <c r="C148" s="226"/>
       <c r="D148" s="120"/>
       <c r="E148" s="120"/>
       <c r="F148" s="120"/>
@@ -6245,8 +6247,8 @@
       <c r="M148" s="3"/>
     </row>
     <row r="149" spans="2:13" ht="18">
-      <c r="B149" s="231"/>
-      <c r="C149" s="235"/>
+      <c r="B149" s="234"/>
+      <c r="C149" s="226"/>
       <c r="D149" s="120"/>
       <c r="E149" s="120"/>
       <c r="F149" s="120"/>
@@ -6259,8 +6261,8 @@
       <c r="M149" s="3"/>
     </row>
     <row r="150" spans="2:13" ht="18">
-      <c r="B150" s="231"/>
-      <c r="C150" s="235"/>
+      <c r="B150" s="234"/>
+      <c r="C150" s="226"/>
       <c r="D150" s="120"/>
       <c r="E150" s="120"/>
       <c r="F150" s="120"/>
@@ -6273,8 +6275,8 @@
       <c r="M150" s="3"/>
     </row>
     <row r="151" spans="2:13" ht="18">
-      <c r="B151" s="231"/>
-      <c r="C151" s="235"/>
+      <c r="B151" s="234"/>
+      <c r="C151" s="226"/>
       <c r="D151" s="120"/>
       <c r="E151" s="120"/>
       <c r="F151" s="120"/>
@@ -6287,8 +6289,8 @@
       <c r="M151" s="3"/>
     </row>
     <row r="152" spans="2:13" ht="18">
-      <c r="B152" s="231"/>
-      <c r="C152" s="235"/>
+      <c r="B152" s="234"/>
+      <c r="C152" s="226"/>
       <c r="D152" s="154"/>
       <c r="E152" s="154"/>
       <c r="F152" s="154"/>
@@ -6301,8 +6303,8 @@
       <c r="M152" s="3"/>
     </row>
     <row r="153" spans="2:13" ht="18">
-      <c r="B153" s="231"/>
-      <c r="C153" s="235"/>
+      <c r="B153" s="234"/>
+      <c r="C153" s="226"/>
       <c r="D153" s="105"/>
       <c r="E153" s="105"/>
       <c r="F153" s="105"/>
@@ -6315,8 +6317,8 @@
       <c r="M153" s="2"/>
     </row>
     <row r="154" spans="2:13" ht="18">
-      <c r="B154" s="231"/>
-      <c r="C154" s="236"/>
+      <c r="B154" s="234"/>
+      <c r="C154" s="227"/>
       <c r="D154" s="108"/>
       <c r="E154" s="108"/>
       <c r="F154" s="109"/>
@@ -6329,7 +6331,7 @@
       <c r="M154" s="2"/>
     </row>
     <row r="155" spans="2:13" ht="19" customHeight="1">
-      <c r="B155" s="225" t="s">
+      <c r="B155" s="228" t="s">
         <v>171</v>
       </c>
       <c r="C155" s="136">
@@ -6366,7 +6368,7 @@
       </c>
     </row>
     <row r="156" spans="2:13" ht="19">
-      <c r="B156" s="225"/>
+      <c r="B156" s="228"/>
       <c r="C156" s="136">
         <v>2</v>
       </c>
@@ -6401,7 +6403,7 @@
       </c>
     </row>
     <row r="157" spans="2:13" ht="20" thickBot="1">
-      <c r="B157" s="225"/>
+      <c r="B157" s="228"/>
       <c r="C157" s="136">
         <v>3</v>
       </c>
@@ -6436,7 +6438,7 @@
       </c>
     </row>
     <row r="158" spans="2:13" ht="21" thickBot="1">
-      <c r="B158" s="225"/>
+      <c r="B158" s="228"/>
       <c r="C158" s="136">
         <v>4</v>
       </c>
@@ -6466,7 +6468,7 @@
       </c>
     </row>
     <row r="159" spans="2:13" ht="33" thickBot="1">
-      <c r="B159" s="225"/>
+      <c r="B159" s="228"/>
       <c r="C159" s="136">
         <v>5</v>
       </c>
@@ -6497,7 +6499,7 @@
       </c>
     </row>
     <row r="160" spans="2:13" ht="33" thickBot="1">
-      <c r="B160" s="225"/>
+      <c r="B160" s="228"/>
       <c r="C160" s="136">
         <v>6</v>
       </c>
@@ -6525,7 +6527,7 @@
       </c>
     </row>
     <row r="161" spans="2:13" ht="33" thickBot="1">
-      <c r="B161" s="225"/>
+      <c r="B161" s="228"/>
       <c r="C161" s="136">
         <v>7</v>
       </c>
@@ -6562,7 +6564,7 @@
       </c>
     </row>
     <row r="162" spans="2:13" ht="32">
-      <c r="B162" s="226"/>
+      <c r="B162" s="229"/>
       <c r="C162" s="171">
         <v>8</v>
       </c>
@@ -6637,6 +6639,7 @@
   </sheetData>
   <autoFilter ref="B2:M162" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="17">
+    <mergeCell ref="C121:C137"/>
     <mergeCell ref="C138:C154"/>
     <mergeCell ref="B155:B162"/>
     <mergeCell ref="C3:C30"/>
@@ -6653,7 +6656,6 @@
     <mergeCell ref="B108:B120"/>
     <mergeCell ref="C108:C120"/>
     <mergeCell ref="B121:B137"/>
-    <mergeCell ref="C121:C137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/241108_MSR_MOP_CTM BOM 정리.xlsx
+++ b/241108_MSR_MOP_CTM BOM 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/JDS_BU/Git_Hub/GIC_HONGKONG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDE984D-FA2C-1746-BD7D-E0E001942C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8EB534-AE96-4F45-B1FD-E94C0E34B4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7220" yWindow="900" windowWidth="33900" windowHeight="24360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2547,6 +2547,15 @@
     <xf numFmtId="177" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2565,12 +2574,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2581,9 +2584,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="23" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2924,7 +2924,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D143" sqref="D143"/>
+      <selection pane="bottomLeft" activeCell="D167" sqref="D167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.3984375" defaultRowHeight="16"/>
@@ -2986,10 +2986,10 @@
       </c>
     </row>
     <row r="3" spans="2:13" ht="19">
-      <c r="B3" s="235">
+      <c r="B3" s="236">
         <v>1</v>
       </c>
-      <c r="C3" s="230" t="s">
+      <c r="C3" s="233" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="92"/>
@@ -3006,8 +3006,8 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:13" ht="19">
-      <c r="B4" s="234"/>
-      <c r="C4" s="231"/>
+      <c r="B4" s="235"/>
+      <c r="C4" s="226"/>
       <c r="D4" s="12" t="str">
         <f>MOP!D3</f>
         <v>Main Frame</v>
@@ -3038,8 +3038,8 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="19">
-      <c r="B5" s="234"/>
-      <c r="C5" s="231"/>
+      <c r="B5" s="235"/>
+      <c r="C5" s="226"/>
       <c r="D5" s="12" t="str">
         <f>MOP!D4</f>
         <v>Left Cover</v>
@@ -3070,8 +3070,8 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" ht="19">
-      <c r="B6" s="234"/>
-      <c r="C6" s="231"/>
+      <c r="B6" s="235"/>
+      <c r="C6" s="226"/>
       <c r="D6" s="12" t="str">
         <f>MOP!D5</f>
         <v>Right Cover</v>
@@ -3102,8 +3102,8 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="2:13" ht="19">
-      <c r="B7" s="234"/>
-      <c r="C7" s="231"/>
+      <c r="B7" s="235"/>
+      <c r="C7" s="226"/>
       <c r="D7" s="12" t="str">
         <f>MOP!D6</f>
         <v>Upper Cover</v>
@@ -3134,8 +3134,8 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="2:13" ht="19">
-      <c r="B8" s="234"/>
-      <c r="C8" s="231"/>
+      <c r="B8" s="235"/>
+      <c r="C8" s="226"/>
       <c r="D8" s="12" t="str">
         <f>MOP!D7</f>
         <v>Lower Cover</v>
@@ -3166,8 +3166,8 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:13" ht="19">
-      <c r="B9" s="234"/>
-      <c r="C9" s="231"/>
+      <c r="B9" s="235"/>
+      <c r="C9" s="226"/>
       <c r="D9" s="12" t="str">
         <f>MOP!D8</f>
         <v>Rear Cover</v>
@@ -3198,8 +3198,8 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:13" ht="19">
-      <c r="B10" s="234"/>
-      <c r="C10" s="231"/>
+      <c r="B10" s="235"/>
+      <c r="C10" s="226"/>
       <c r="D10" s="12" t="str">
         <f>MOP!D9</f>
         <v>Push Button</v>
@@ -3230,8 +3230,8 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="2:13" ht="19">
-      <c r="B11" s="234"/>
-      <c r="C11" s="231"/>
+      <c r="B11" s="235"/>
+      <c r="C11" s="226"/>
       <c r="D11" s="12" t="str">
         <f>MOP!D10</f>
         <v>Push Button</v>
@@ -3262,8 +3262,8 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="2:13" ht="19">
-      <c r="B12" s="234"/>
-      <c r="C12" s="231"/>
+      <c r="B12" s="235"/>
+      <c r="C12" s="226"/>
       <c r="D12" s="12" t="str">
         <f>MOP!D11</f>
         <v>Push Button</v>
@@ -3294,8 +3294,8 @@
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="2:13" ht="19">
-      <c r="B13" s="234"/>
-      <c r="C13" s="231"/>
+      <c r="B13" s="235"/>
+      <c r="C13" s="226"/>
       <c r="D13" s="110" t="str">
         <f>MOP!D12</f>
         <v>Microphone</v>
@@ -3332,8 +3332,8 @@
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="2:13" ht="38">
-      <c r="B14" s="234"/>
-      <c r="C14" s="231"/>
+      <c r="B14" s="235"/>
+      <c r="C14" s="226"/>
       <c r="D14" s="12" t="str">
         <f>MOP!D13</f>
         <v>LCD</v>
@@ -3367,8 +3367,8 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="2:13" ht="19">
-      <c r="B15" s="234"/>
-      <c r="C15" s="231"/>
+      <c r="B15" s="235"/>
+      <c r="C15" s="226"/>
       <c r="D15" s="12" t="str">
         <f>MOP!D14</f>
         <v>LCD Mount Bracket</v>
@@ -3399,8 +3399,8 @@
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="2:13" ht="19">
-      <c r="B16" s="234"/>
-      <c r="C16" s="231"/>
+      <c r="B16" s="235"/>
+      <c r="C16" s="226"/>
       <c r="D16" s="12" t="str">
         <f>MOP!D15</f>
         <v>LCD Control Board</v>
@@ -3431,8 +3431,8 @@
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="2:13" ht="19">
-      <c r="B17" s="234"/>
-      <c r="C17" s="231"/>
+      <c r="B17" s="235"/>
+      <c r="C17" s="226"/>
       <c r="D17" s="12" t="str">
         <f>MOP!D16</f>
         <v>Main Control Board</v>
@@ -3463,8 +3463,8 @@
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="2:13" ht="19">
-      <c r="B18" s="234"/>
-      <c r="C18" s="231"/>
+      <c r="B18" s="235"/>
+      <c r="C18" s="226"/>
       <c r="D18" s="12" t="str">
         <f>MOP!D17</f>
         <v>Power Board</v>
@@ -3495,8 +3495,8 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="2:13" ht="19">
-      <c r="B19" s="234"/>
-      <c r="C19" s="231"/>
+      <c r="B19" s="235"/>
+      <c r="C19" s="226"/>
       <c r="D19" s="110" t="str">
         <f>MOP!D18</f>
         <v>3P Connector Male</v>
@@ -3533,8 +3533,8 @@
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="2:13" ht="19">
-      <c r="B20" s="234"/>
-      <c r="C20" s="231"/>
+      <c r="B20" s="235"/>
+      <c r="C20" s="226"/>
       <c r="D20" s="18" t="str">
         <f>MOP!D19</f>
         <v>3P Connector Female</v>
@@ -3567,8 +3567,8 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="19">
-      <c r="B21" s="234"/>
-      <c r="C21" s="231"/>
+      <c r="B21" s="235"/>
+      <c r="C21" s="226"/>
       <c r="D21" s="110" t="str">
         <f>MOP!D20</f>
         <v>Locking</v>
@@ -3605,8 +3605,8 @@
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="2:13" ht="19">
-      <c r="B22" s="234"/>
-      <c r="C22" s="231"/>
+      <c r="B22" s="235"/>
+      <c r="C22" s="226"/>
       <c r="D22" s="110" t="str">
         <f>MOP!D21</f>
         <v>4P Connector</v>
@@ -3643,8 +3643,8 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="2:13" ht="19">
-      <c r="B23" s="234"/>
-      <c r="C23" s="231"/>
+      <c r="B23" s="235"/>
+      <c r="C23" s="226"/>
       <c r="D23" s="110" t="str">
         <f>MOP!D22</f>
         <v>Pin</v>
@@ -3681,8 +3681,8 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:13" ht="19">
-      <c r="B24" s="234"/>
-      <c r="C24" s="231"/>
+      <c r="B24" s="235"/>
+      <c r="C24" s="226"/>
       <c r="D24" s="110" t="str">
         <f>MOP!D23</f>
         <v>12P Connector</v>
@@ -3719,8 +3719,8 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13" ht="19">
-      <c r="B25" s="234"/>
-      <c r="C25" s="231"/>
+      <c r="B25" s="235"/>
+      <c r="C25" s="226"/>
       <c r="D25" s="110" t="str">
         <f>MOP!D24</f>
         <v>Pin</v>
@@ -3757,8 +3757,8 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="2:13" ht="19">
-      <c r="B26" s="234"/>
-      <c r="C26" s="231"/>
+      <c r="B26" s="235"/>
+      <c r="C26" s="226"/>
       <c r="D26" s="110" t="str">
         <f>MOP!D25</f>
         <v>Cable Clamp</v>
@@ -3795,8 +3795,8 @@
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="2:13" ht="19">
-      <c r="B27" s="234"/>
-      <c r="C27" s="231"/>
+      <c r="B27" s="235"/>
+      <c r="C27" s="226"/>
       <c r="D27" s="12" t="str">
         <f>MOP!D26</f>
         <v>Name Plate, AL, T1</v>
@@ -3827,8 +3827,8 @@
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="2:13" ht="19">
-      <c r="B28" s="234"/>
-      <c r="C28" s="231"/>
+      <c r="B28" s="235"/>
+      <c r="C28" s="226"/>
       <c r="D28" s="18" t="str">
         <f>MOP!D27</f>
         <v>SPEAKER</v>
@@ -3861,8 +3861,8 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="18">
-      <c r="B29" s="234"/>
-      <c r="C29" s="231"/>
+      <c r="B29" s="235"/>
+      <c r="C29" s="226"/>
       <c r="D29" s="155"/>
       <c r="E29" s="155"/>
       <c r="F29" s="155"/>
@@ -3875,8 +3875,8 @@
       <c r="M29" s="158"/>
     </row>
     <row r="30" spans="2:13" ht="19">
-      <c r="B30" s="236"/>
-      <c r="C30" s="232"/>
+      <c r="B30" s="237"/>
+      <c r="C30" s="227"/>
       <c r="D30" s="108" t="s">
         <v>172</v>
       </c>
@@ -3902,10 +3902,10 @@
       <c r="M30" s="15"/>
     </row>
     <row r="31" spans="2:13" ht="19">
-      <c r="B31" s="233">
+      <c r="B31" s="234">
         <v>2</v>
       </c>
-      <c r="C31" s="225" t="s">
+      <c r="C31" s="228" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="111"/>
@@ -3922,8 +3922,8 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="2:13" ht="19">
-      <c r="B32" s="234"/>
-      <c r="C32" s="226"/>
+      <c r="B32" s="235"/>
+      <c r="C32" s="229"/>
       <c r="D32" s="13" t="str">
         <f>MSR!D3</f>
         <v>PWR Board</v>
@@ -3954,8 +3954,8 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="2:13" ht="19">
-      <c r="B33" s="234"/>
-      <c r="C33" s="226"/>
+      <c r="B33" s="235"/>
+      <c r="C33" s="229"/>
       <c r="D33" s="13" t="str">
         <f>MSR!D4</f>
         <v>M_TX Board</v>
@@ -3986,8 +3986,8 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="2:13" ht="19">
-      <c r="B34" s="234"/>
-      <c r="C34" s="226"/>
+      <c r="B34" s="235"/>
+      <c r="C34" s="229"/>
       <c r="D34" s="13" t="str">
         <f>MSR!D5</f>
         <v>Hub Board</v>
@@ -4018,8 +4018,8 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="2:13" ht="19">
-      <c r="B35" s="234"/>
-      <c r="C35" s="226"/>
+      <c r="B35" s="235"/>
+      <c r="C35" s="229"/>
       <c r="D35" s="13" t="str">
         <f>MSR!D6</f>
         <v>TCIU Board</v>
@@ -4050,8 +4050,8 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="2:13" ht="19">
-      <c r="B36" s="234"/>
-      <c r="C36" s="226"/>
+      <c r="B36" s="235"/>
+      <c r="C36" s="229"/>
       <c r="D36" s="13" t="str">
         <f>MSR!D7</f>
         <v>PA_PBX Board</v>
@@ -4082,8 +4082,8 @@
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="2:13" ht="19">
-      <c r="B37" s="234"/>
-      <c r="C37" s="226"/>
+      <c r="B37" s="235"/>
+      <c r="C37" s="229"/>
       <c r="D37" s="13" t="str">
         <f>MSR!D8</f>
         <v>PA_ETX Board</v>
@@ -4114,8 +4114,8 @@
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="2:13" ht="19">
-      <c r="B38" s="234"/>
-      <c r="C38" s="226"/>
+      <c r="B38" s="235"/>
+      <c r="C38" s="229"/>
       <c r="D38" s="13" t="str">
         <f>MSR!D9</f>
         <v>NVR Board</v>
@@ -4147,8 +4147,8 @@
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="2:13" ht="38">
-      <c r="B39" s="234"/>
-      <c r="C39" s="226"/>
+      <c r="B39" s="235"/>
+      <c r="C39" s="229"/>
       <c r="D39" s="150" t="str">
         <f>MSR!D10</f>
         <v>CPU
@@ -4180,8 +4180,8 @@
       <c r="M39" s="3"/>
     </row>
     <row r="40" spans="2:13" ht="38">
-      <c r="B40" s="234"/>
-      <c r="C40" s="226"/>
+      <c r="B40" s="235"/>
+      <c r="C40" s="229"/>
       <c r="D40" s="150" t="str">
         <f>MSR!D11</f>
         <v>CPU BRACKET 
@@ -4213,8 +4213,8 @@
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="2:13" ht="57">
-      <c r="B41" s="234"/>
-      <c r="C41" s="226"/>
+      <c r="B41" s="235"/>
+      <c r="C41" s="229"/>
       <c r="D41" s="151" t="str">
         <f>MSR!D12</f>
         <v>DDR4
@@ -4248,8 +4248,8 @@
       </c>
     </row>
     <row r="42" spans="2:13" ht="19">
-      <c r="B42" s="234"/>
-      <c r="C42" s="226"/>
+      <c r="B42" s="235"/>
+      <c r="C42" s="229"/>
       <c r="D42" s="13" t="str">
         <f>MSR!D13</f>
         <v>SSD Board</v>
@@ -4280,8 +4280,8 @@
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="2:13" ht="19">
-      <c r="B43" s="234"/>
-      <c r="C43" s="226"/>
+      <c r="B43" s="235"/>
+      <c r="C43" s="229"/>
       <c r="D43" s="116" t="str">
         <f>MSR!D14</f>
         <v>MSR Back Plane</v>
@@ -4318,8 +4318,8 @@
       <c r="M43" s="3"/>
     </row>
     <row r="44" spans="2:13" ht="19">
-      <c r="B44" s="234"/>
-      <c r="C44" s="226"/>
+      <c r="B44" s="235"/>
+      <c r="C44" s="229"/>
       <c r="D44" s="116" t="str">
         <f>MSR!D15</f>
         <v>Frame</v>
@@ -4356,8 +4356,8 @@
       <c r="M44" s="3"/>
     </row>
     <row r="45" spans="2:13" ht="19">
-      <c r="B45" s="234"/>
-      <c r="C45" s="226"/>
+      <c r="B45" s="235"/>
+      <c r="C45" s="229"/>
       <c r="D45" s="13" t="str">
         <f>MSR!D16</f>
         <v>Name Plate, AL, T1</v>
@@ -4388,8 +4388,8 @@
       <c r="M45" s="3"/>
     </row>
     <row r="46" spans="2:13" ht="19">
-      <c r="B46" s="234"/>
-      <c r="C46" s="226"/>
+      <c r="B46" s="235"/>
+      <c r="C46" s="229"/>
       <c r="D46" s="149" t="str">
         <f>MSR!D17</f>
         <v>SSD(2T)</v>
@@ -4422,8 +4422,8 @@
       </c>
     </row>
     <row r="47" spans="2:13" ht="18">
-      <c r="B47" s="234"/>
-      <c r="C47" s="226"/>
+      <c r="B47" s="235"/>
+      <c r="C47" s="229"/>
       <c r="D47" s="155"/>
       <c r="E47" s="155"/>
       <c r="F47" s="155"/>
@@ -4436,8 +4436,8 @@
       <c r="M47" s="158"/>
     </row>
     <row r="48" spans="2:13" ht="19">
-      <c r="B48" s="236"/>
-      <c r="C48" s="227"/>
+      <c r="B48" s="237"/>
+      <c r="C48" s="230"/>
       <c r="D48" s="108" t="s">
         <v>172</v>
       </c>
@@ -4463,10 +4463,10 @@
       <c r="M48" s="15"/>
     </row>
     <row r="49" spans="2:13" ht="19">
-      <c r="B49" s="233">
+      <c r="B49" s="234">
         <v>3</v>
       </c>
-      <c r="C49" s="225" t="s">
+      <c r="C49" s="228" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="111"/>
@@ -4483,8 +4483,8 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="2:13" ht="19">
-      <c r="B50" s="234"/>
-      <c r="C50" s="226"/>
+      <c r="B50" s="235"/>
+      <c r="C50" s="229"/>
       <c r="D50" s="13" t="str">
         <f>CTM!D3</f>
         <v>Main Frame</v>
@@ -4515,8 +4515,8 @@
       <c r="M50" s="3"/>
     </row>
     <row r="51" spans="2:13" ht="19">
-      <c r="B51" s="234"/>
-      <c r="C51" s="226"/>
+      <c r="B51" s="235"/>
+      <c r="C51" s="229"/>
       <c r="D51" s="13" t="str">
         <f>CTM!D4</f>
         <v>Lower Cover</v>
@@ -4547,8 +4547,8 @@
       <c r="M51" s="3"/>
     </row>
     <row r="52" spans="2:13" ht="19">
-      <c r="B52" s="234"/>
-      <c r="C52" s="226"/>
+      <c r="B52" s="235"/>
+      <c r="C52" s="229"/>
       <c r="D52" s="13" t="str">
         <f>CTM!D5</f>
         <v>Rear Cover</v>
@@ -4579,8 +4579,8 @@
       <c r="M52" s="3"/>
     </row>
     <row r="53" spans="2:13" ht="19">
-      <c r="B53" s="234"/>
-      <c r="C53" s="226"/>
+      <c r="B53" s="235"/>
+      <c r="C53" s="229"/>
       <c r="D53" s="116" t="str">
         <f>CTM!D6</f>
         <v>10.4" LCD</v>
@@ -4619,8 +4619,8 @@
       </c>
     </row>
     <row r="54" spans="2:13" ht="19">
-      <c r="B54" s="234"/>
-      <c r="C54" s="226"/>
+      <c r="B54" s="235"/>
+      <c r="C54" s="229"/>
       <c r="D54" s="13" t="str">
         <f>CTM!D7</f>
         <v>Control Board Bracket</v>
@@ -4650,8 +4650,8 @@
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="2:13" ht="19">
-      <c r="B55" s="234"/>
-      <c r="C55" s="226"/>
+      <c r="B55" s="235"/>
+      <c r="C55" s="229"/>
       <c r="D55" s="13" t="str">
         <f>CTM!D8</f>
         <v>Control Board</v>
@@ -4681,8 +4681,8 @@
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="2:13" ht="19">
-      <c r="B56" s="234"/>
-      <c r="C56" s="226"/>
+      <c r="B56" s="235"/>
+      <c r="C56" s="229"/>
       <c r="D56" s="150" t="str">
         <f>CTM!D9</f>
         <v xml:space="preserve">CPU TCA3/i-E3845 </v>
@@ -4721,8 +4721,8 @@
       </c>
     </row>
     <row r="57" spans="2:13" ht="19">
-      <c r="B57" s="234"/>
-      <c r="C57" s="226"/>
+      <c r="B57" s="235"/>
+      <c r="C57" s="229"/>
       <c r="D57" s="150" t="str">
         <f>CTM!D10</f>
         <v xml:space="preserve">CPU BRACKET TCA3/CSP-B </v>
@@ -4761,8 +4761,8 @@
       </c>
     </row>
     <row r="58" spans="2:13" ht="57">
-      <c r="B58" s="234"/>
-      <c r="C58" s="226"/>
+      <c r="B58" s="235"/>
+      <c r="C58" s="229"/>
       <c r="D58" s="151" t="str">
         <f>CTM!D11</f>
         <v>DDR4
@@ -4796,8 +4796,8 @@
       </c>
     </row>
     <row r="59" spans="2:13" ht="19">
-      <c r="B59" s="234"/>
-      <c r="C59" s="226"/>
+      <c r="B59" s="235"/>
+      <c r="C59" s="229"/>
       <c r="D59" s="13" t="str">
         <f>CTM!D12</f>
         <v>Power Board</v>
@@ -4828,8 +4828,8 @@
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="2:13" ht="19">
-      <c r="B60" s="234"/>
-      <c r="C60" s="226"/>
+      <c r="B60" s="235"/>
+      <c r="C60" s="229"/>
       <c r="D60" s="116" t="str">
         <f>CTM!D13</f>
         <v>3P Connector</v>
@@ -4866,8 +4866,8 @@
       <c r="M60" s="16"/>
     </row>
     <row r="61" spans="2:13" ht="19">
-      <c r="B61" s="234"/>
-      <c r="C61" s="226"/>
+      <c r="B61" s="235"/>
+      <c r="C61" s="229"/>
       <c r="D61" s="116" t="str">
         <f>CTM!D14</f>
         <v>Locking</v>
@@ -4904,8 +4904,8 @@
       <c r="M61" s="16"/>
     </row>
     <row r="62" spans="2:13" ht="19">
-      <c r="B62" s="234"/>
-      <c r="C62" s="226"/>
+      <c r="B62" s="235"/>
+      <c r="C62" s="229"/>
       <c r="D62" s="116" t="str">
         <f>CTM!D15</f>
         <v>4P Connector</v>
@@ -4942,8 +4942,8 @@
       <c r="M62" s="16"/>
     </row>
     <row r="63" spans="2:13" ht="19">
-      <c r="B63" s="234"/>
-      <c r="C63" s="226"/>
+      <c r="B63" s="235"/>
+      <c r="C63" s="229"/>
       <c r="D63" s="116" t="str">
         <f>CTM!D16</f>
         <v>Pin</v>
@@ -4980,8 +4980,8 @@
       <c r="M63" s="16"/>
     </row>
     <row r="64" spans="2:13" ht="19">
-      <c r="B64" s="234"/>
-      <c r="C64" s="226"/>
+      <c r="B64" s="235"/>
+      <c r="C64" s="229"/>
       <c r="D64" s="116" t="str">
         <f>CTM!D17</f>
         <v>Cable Gland</v>
@@ -5018,8 +5018,8 @@
       <c r="M64" s="16"/>
     </row>
     <row r="65" spans="2:13" ht="19">
-      <c r="B65" s="234"/>
-      <c r="C65" s="226"/>
+      <c r="B65" s="235"/>
+      <c r="C65" s="229"/>
       <c r="D65" s="149" t="str">
         <f>CTM!D18</f>
         <v>USB Adapter</v>
@@ -5052,8 +5052,8 @@
       </c>
     </row>
     <row r="66" spans="2:13" ht="19">
-      <c r="B66" s="234"/>
-      <c r="C66" s="226"/>
+      <c r="B66" s="235"/>
+      <c r="C66" s="229"/>
       <c r="D66" s="13" t="str">
         <f>CTM!D19</f>
         <v>Name Plate</v>
@@ -5084,8 +5084,8 @@
       <c r="M66" s="3"/>
     </row>
     <row r="67" spans="2:13" ht="18">
-      <c r="B67" s="234"/>
-      <c r="C67" s="226"/>
+      <c r="B67" s="235"/>
+      <c r="C67" s="229"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -5098,8 +5098,8 @@
       <c r="M67" s="2"/>
     </row>
     <row r="68" spans="2:13" ht="19">
-      <c r="B68" s="236"/>
-      <c r="C68" s="227"/>
+      <c r="B68" s="237"/>
+      <c r="C68" s="230"/>
       <c r="D68" s="108" t="s">
         <v>172</v>
       </c>
@@ -5125,8 +5125,8 @@
       <c r="M68" s="15"/>
     </row>
     <row r="69" spans="2:13" ht="18">
-      <c r="B69" s="233"/>
-      <c r="C69" s="225"/>
+      <c r="B69" s="234"/>
+      <c r="C69" s="228"/>
       <c r="D69" s="111"/>
       <c r="E69" s="112"/>
       <c r="F69" s="95"/>
@@ -5139,8 +5139,8 @@
       <c r="M69" s="3"/>
     </row>
     <row r="70" spans="2:13" ht="18">
-      <c r="B70" s="234"/>
-      <c r="C70" s="226"/>
+      <c r="B70" s="235"/>
+      <c r="C70" s="229"/>
       <c r="D70" s="120"/>
       <c r="E70" s="120"/>
       <c r="F70" s="120"/>
@@ -5153,8 +5153,8 @@
       <c r="M70" s="3"/>
     </row>
     <row r="71" spans="2:13" ht="18">
-      <c r="B71" s="234"/>
-      <c r="C71" s="226"/>
+      <c r="B71" s="235"/>
+      <c r="C71" s="229"/>
       <c r="D71" s="120"/>
       <c r="E71" s="120"/>
       <c r="F71" s="120"/>
@@ -5167,8 +5167,8 @@
       <c r="M71" s="3"/>
     </row>
     <row r="72" spans="2:13" ht="18">
-      <c r="B72" s="234"/>
-      <c r="C72" s="226"/>
+      <c r="B72" s="235"/>
+      <c r="C72" s="229"/>
       <c r="D72" s="120"/>
       <c r="E72" s="120"/>
       <c r="F72" s="120"/>
@@ -5181,8 +5181,8 @@
       <c r="M72" s="3"/>
     </row>
     <row r="73" spans="2:13" ht="18">
-      <c r="B73" s="234"/>
-      <c r="C73" s="226"/>
+      <c r="B73" s="235"/>
+      <c r="C73" s="229"/>
       <c r="D73" s="120"/>
       <c r="E73" s="120"/>
       <c r="F73" s="120"/>
@@ -5195,8 +5195,8 @@
       <c r="M73" s="3"/>
     </row>
     <row r="74" spans="2:13" ht="18">
-      <c r="B74" s="234"/>
-      <c r="C74" s="226"/>
+      <c r="B74" s="235"/>
+      <c r="C74" s="229"/>
       <c r="D74" s="154"/>
       <c r="E74" s="154"/>
       <c r="F74" s="154"/>
@@ -5209,8 +5209,8 @@
       <c r="M74" s="3"/>
     </row>
     <row r="75" spans="2:13" ht="18">
-      <c r="B75" s="234"/>
-      <c r="C75" s="226"/>
+      <c r="B75" s="235"/>
+      <c r="C75" s="229"/>
       <c r="D75" s="154"/>
       <c r="E75" s="154"/>
       <c r="F75" s="154"/>
@@ -5223,8 +5223,8 @@
       <c r="M75" s="3"/>
     </row>
     <row r="76" spans="2:13" ht="18">
-      <c r="B76" s="234"/>
-      <c r="C76" s="226"/>
+      <c r="B76" s="235"/>
+      <c r="C76" s="229"/>
       <c r="D76" s="120"/>
       <c r="E76" s="120"/>
       <c r="F76" s="120"/>
@@ -5237,8 +5237,8 @@
       <c r="M76" s="3"/>
     </row>
     <row r="77" spans="2:13" ht="18">
-      <c r="B77" s="234"/>
-      <c r="C77" s="226"/>
+      <c r="B77" s="235"/>
+      <c r="C77" s="229"/>
       <c r="D77" s="120"/>
       <c r="E77" s="120"/>
       <c r="F77" s="120"/>
@@ -5251,8 +5251,8 @@
       <c r="M77" s="3"/>
     </row>
     <row r="78" spans="2:13" ht="18">
-      <c r="B78" s="234"/>
-      <c r="C78" s="226"/>
+      <c r="B78" s="235"/>
+      <c r="C78" s="229"/>
       <c r="D78" s="120"/>
       <c r="E78" s="120"/>
       <c r="F78" s="120"/>
@@ -5265,8 +5265,8 @@
       <c r="M78" s="3"/>
     </row>
     <row r="79" spans="2:13" ht="18">
-      <c r="B79" s="234"/>
-      <c r="C79" s="226"/>
+      <c r="B79" s="235"/>
+      <c r="C79" s="229"/>
       <c r="D79" s="120"/>
       <c r="E79" s="120"/>
       <c r="F79" s="120"/>
@@ -5279,8 +5279,8 @@
       <c r="M79" s="3"/>
     </row>
     <row r="80" spans="2:13" ht="18">
-      <c r="B80" s="234"/>
-      <c r="C80" s="226"/>
+      <c r="B80" s="235"/>
+      <c r="C80" s="229"/>
       <c r="D80" s="120"/>
       <c r="E80" s="120"/>
       <c r="F80" s="120"/>
@@ -5293,8 +5293,8 @@
       <c r="M80" s="3"/>
     </row>
     <row r="81" spans="2:13" ht="18">
-      <c r="B81" s="234"/>
-      <c r="C81" s="226"/>
+      <c r="B81" s="235"/>
+      <c r="C81" s="229"/>
       <c r="D81" s="120"/>
       <c r="E81" s="120"/>
       <c r="F81" s="120"/>
@@ -5307,8 +5307,8 @@
       <c r="M81" s="3"/>
     </row>
     <row r="82" spans="2:13" ht="18">
-      <c r="B82" s="234"/>
-      <c r="C82" s="226"/>
+      <c r="B82" s="235"/>
+      <c r="C82" s="229"/>
       <c r="D82" s="120"/>
       <c r="E82" s="120"/>
       <c r="F82" s="120"/>
@@ -5321,8 +5321,8 @@
       <c r="M82" s="3"/>
     </row>
     <row r="83" spans="2:13" ht="18">
-      <c r="B83" s="234"/>
-      <c r="C83" s="226"/>
+      <c r="B83" s="235"/>
+      <c r="C83" s="229"/>
       <c r="D83" s="120"/>
       <c r="E83" s="120"/>
       <c r="F83" s="120"/>
@@ -5335,8 +5335,8 @@
       <c r="M83" s="3"/>
     </row>
     <row r="84" spans="2:13" ht="18">
-      <c r="B84" s="234"/>
-      <c r="C84" s="226"/>
+      <c r="B84" s="235"/>
+      <c r="C84" s="229"/>
       <c r="D84" s="154"/>
       <c r="E84" s="154"/>
       <c r="F84" s="154"/>
@@ -5349,8 +5349,8 @@
       <c r="M84" s="3"/>
     </row>
     <row r="85" spans="2:13" ht="18">
-      <c r="B85" s="234"/>
-      <c r="C85" s="226"/>
+      <c r="B85" s="235"/>
+      <c r="C85" s="229"/>
       <c r="D85" s="154"/>
       <c r="E85" s="154"/>
       <c r="F85" s="154"/>
@@ -5363,8 +5363,8 @@
       <c r="M85" s="3"/>
     </row>
     <row r="86" spans="2:13" ht="18">
-      <c r="B86" s="234"/>
-      <c r="C86" s="226"/>
+      <c r="B86" s="235"/>
+      <c r="C86" s="229"/>
       <c r="D86" s="105"/>
       <c r="E86" s="105"/>
       <c r="F86" s="105"/>
@@ -5377,8 +5377,8 @@
       <c r="M86" s="2"/>
     </row>
     <row r="87" spans="2:13" ht="18">
-      <c r="B87" s="236"/>
-      <c r="C87" s="227"/>
+      <c r="B87" s="237"/>
+      <c r="C87" s="230"/>
       <c r="D87" s="108"/>
       <c r="E87" s="108"/>
       <c r="F87" s="109"/>
@@ -5391,8 +5391,8 @@
       <c r="M87" s="2"/>
     </row>
     <row r="88" spans="2:13" ht="18">
-      <c r="B88" s="233"/>
-      <c r="C88" s="225"/>
+      <c r="B88" s="234"/>
+      <c r="C88" s="228"/>
       <c r="D88" s="111"/>
       <c r="E88" s="112"/>
       <c r="F88" s="95"/>
@@ -5405,8 +5405,8 @@
       <c r="M88" s="3"/>
     </row>
     <row r="89" spans="2:13" ht="18">
-      <c r="B89" s="234"/>
-      <c r="C89" s="226"/>
+      <c r="B89" s="235"/>
+      <c r="C89" s="229"/>
       <c r="D89" s="120"/>
       <c r="E89" s="120"/>
       <c r="F89" s="120"/>
@@ -5419,8 +5419,8 @@
       <c r="M89" s="3"/>
     </row>
     <row r="90" spans="2:13" ht="18">
-      <c r="B90" s="234"/>
-      <c r="C90" s="226"/>
+      <c r="B90" s="235"/>
+      <c r="C90" s="229"/>
       <c r="D90" s="120"/>
       <c r="E90" s="120"/>
       <c r="F90" s="120"/>
@@ -5433,8 +5433,8 @@
       <c r="M90" s="3"/>
     </row>
     <row r="91" spans="2:13" ht="18">
-      <c r="B91" s="234"/>
-      <c r="C91" s="226"/>
+      <c r="B91" s="235"/>
+      <c r="C91" s="229"/>
       <c r="D91" s="120"/>
       <c r="E91" s="120"/>
       <c r="F91" s="120"/>
@@ -5447,8 +5447,8 @@
       <c r="M91" s="3"/>
     </row>
     <row r="92" spans="2:13" ht="18">
-      <c r="B92" s="234"/>
-      <c r="C92" s="226"/>
+      <c r="B92" s="235"/>
+      <c r="C92" s="229"/>
       <c r="D92" s="120"/>
       <c r="E92" s="120"/>
       <c r="F92" s="120"/>
@@ -5461,8 +5461,8 @@
       <c r="M92" s="9"/>
     </row>
     <row r="93" spans="2:13" ht="18">
-      <c r="B93" s="234"/>
-      <c r="C93" s="226"/>
+      <c r="B93" s="235"/>
+      <c r="C93" s="229"/>
       <c r="D93" s="120"/>
       <c r="E93" s="120"/>
       <c r="F93" s="120"/>
@@ -5475,8 +5475,8 @@
       <c r="M93" s="3"/>
     </row>
     <row r="94" spans="2:13" ht="18">
-      <c r="B94" s="234"/>
-      <c r="C94" s="226"/>
+      <c r="B94" s="235"/>
+      <c r="C94" s="229"/>
       <c r="D94" s="120"/>
       <c r="E94" s="120"/>
       <c r="F94" s="120"/>
@@ -5489,8 +5489,8 @@
       <c r="M94" s="3"/>
     </row>
     <row r="95" spans="2:13" ht="18">
-      <c r="B95" s="234"/>
-      <c r="C95" s="226"/>
+      <c r="B95" s="235"/>
+      <c r="C95" s="229"/>
       <c r="D95" s="154"/>
       <c r="E95" s="154"/>
       <c r="F95" s="154"/>
@@ -5503,8 +5503,8 @@
       <c r="M95" s="3"/>
     </row>
     <row r="96" spans="2:13" ht="18">
-      <c r="B96" s="234"/>
-      <c r="C96" s="226"/>
+      <c r="B96" s="235"/>
+      <c r="C96" s="229"/>
       <c r="D96" s="154"/>
       <c r="E96" s="154"/>
       <c r="F96" s="154"/>
@@ -5517,8 +5517,8 @@
       <c r="M96" s="3"/>
     </row>
     <row r="97" spans="2:13" ht="18">
-      <c r="B97" s="234"/>
-      <c r="C97" s="226"/>
+      <c r="B97" s="235"/>
+      <c r="C97" s="229"/>
       <c r="D97" s="120"/>
       <c r="E97" s="120"/>
       <c r="F97" s="120"/>
@@ -5531,8 +5531,8 @@
       <c r="M97" s="3"/>
     </row>
     <row r="98" spans="2:13" ht="18">
-      <c r="B98" s="234"/>
-      <c r="C98" s="226"/>
+      <c r="B98" s="235"/>
+      <c r="C98" s="229"/>
       <c r="D98" s="120"/>
       <c r="E98" s="120"/>
       <c r="F98" s="120"/>
@@ -5545,8 +5545,8 @@
       <c r="M98" s="3"/>
     </row>
     <row r="99" spans="2:13" ht="18">
-      <c r="B99" s="234"/>
-      <c r="C99" s="226"/>
+      <c r="B99" s="235"/>
+      <c r="C99" s="229"/>
       <c r="D99" s="120"/>
       <c r="E99" s="120"/>
       <c r="F99" s="120"/>
@@ -5559,8 +5559,8 @@
       <c r="M99" s="3"/>
     </row>
     <row r="100" spans="2:13" ht="18">
-      <c r="B100" s="234"/>
-      <c r="C100" s="226"/>
+      <c r="B100" s="235"/>
+      <c r="C100" s="229"/>
       <c r="D100" s="120"/>
       <c r="E100" s="120"/>
       <c r="F100" s="120"/>
@@ -5573,8 +5573,8 @@
       <c r="M100" s="3"/>
     </row>
     <row r="101" spans="2:13" ht="18">
-      <c r="B101" s="234"/>
-      <c r="C101" s="226"/>
+      <c r="B101" s="235"/>
+      <c r="C101" s="229"/>
       <c r="D101" s="120"/>
       <c r="E101" s="120"/>
       <c r="F101" s="120"/>
@@ -5587,8 +5587,8 @@
       <c r="M101" s="3"/>
     </row>
     <row r="102" spans="2:13" ht="18">
-      <c r="B102" s="234"/>
-      <c r="C102" s="226"/>
+      <c r="B102" s="235"/>
+      <c r="C102" s="229"/>
       <c r="D102" s="120"/>
       <c r="E102" s="120"/>
       <c r="F102" s="120"/>
@@ -5601,8 +5601,8 @@
       <c r="M102" s="3"/>
     </row>
     <row r="103" spans="2:13" ht="18">
-      <c r="B103" s="234"/>
-      <c r="C103" s="226"/>
+      <c r="B103" s="235"/>
+      <c r="C103" s="229"/>
       <c r="D103" s="120"/>
       <c r="E103" s="120"/>
       <c r="F103" s="120"/>
@@ -5615,8 +5615,8 @@
       <c r="M103" s="3"/>
     </row>
     <row r="104" spans="2:13" ht="18">
-      <c r="B104" s="234"/>
-      <c r="C104" s="226"/>
+      <c r="B104" s="235"/>
+      <c r="C104" s="229"/>
       <c r="D104" s="154"/>
       <c r="E104" s="154"/>
       <c r="F104" s="154"/>
@@ -5629,8 +5629,8 @@
       <c r="M104" s="3"/>
     </row>
     <row r="105" spans="2:13" ht="18">
-      <c r="B105" s="234"/>
-      <c r="C105" s="226"/>
+      <c r="B105" s="235"/>
+      <c r="C105" s="229"/>
       <c r="D105" s="120"/>
       <c r="E105" s="120"/>
       <c r="F105" s="120"/>
@@ -5643,8 +5643,8 @@
       <c r="M105" s="2"/>
     </row>
     <row r="106" spans="2:13" ht="18">
-      <c r="B106" s="234"/>
-      <c r="C106" s="226"/>
+      <c r="B106" s="235"/>
+      <c r="C106" s="229"/>
       <c r="D106" s="105"/>
       <c r="E106" s="105"/>
       <c r="F106" s="105"/>
@@ -5657,8 +5657,8 @@
       <c r="M106" s="2"/>
     </row>
     <row r="107" spans="2:13" ht="18">
-      <c r="B107" s="236"/>
-      <c r="C107" s="227"/>
+      <c r="B107" s="237"/>
+      <c r="C107" s="230"/>
       <c r="D107" s="108"/>
       <c r="E107" s="108"/>
       <c r="F107" s="109"/>
@@ -5671,8 +5671,8 @@
       <c r="M107" s="2"/>
     </row>
     <row r="108" spans="2:13" ht="18">
-      <c r="B108" s="233"/>
-      <c r="C108" s="225"/>
+      <c r="B108" s="234"/>
+      <c r="C108" s="228"/>
       <c r="D108" s="111"/>
       <c r="E108" s="112"/>
       <c r="F108" s="95"/>
@@ -5685,8 +5685,8 @@
       <c r="M108" s="3"/>
     </row>
     <row r="109" spans="2:13" ht="18">
-      <c r="B109" s="234"/>
-      <c r="C109" s="226"/>
+      <c r="B109" s="235"/>
+      <c r="C109" s="229"/>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
@@ -5699,8 +5699,8 @@
       <c r="M109" s="3"/>
     </row>
     <row r="110" spans="2:13" ht="18">
-      <c r="B110" s="234"/>
-      <c r="C110" s="226"/>
+      <c r="B110" s="235"/>
+      <c r="C110" s="229"/>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
@@ -5713,8 +5713,8 @@
       <c r="M110" s="3"/>
     </row>
     <row r="111" spans="2:13" ht="18">
-      <c r="B111" s="234"/>
-      <c r="C111" s="226"/>
+      <c r="B111" s="235"/>
+      <c r="C111" s="229"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
@@ -5727,8 +5727,8 @@
       <c r="M111" s="3"/>
     </row>
     <row r="112" spans="2:13" ht="18">
-      <c r="B112" s="234"/>
-      <c r="C112" s="226"/>
+      <c r="B112" s="235"/>
+      <c r="C112" s="229"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
@@ -5741,8 +5741,8 @@
       <c r="M112" s="3"/>
     </row>
     <row r="113" spans="2:13" ht="18">
-      <c r="B113" s="234"/>
-      <c r="C113" s="226"/>
+      <c r="B113" s="235"/>
+      <c r="C113" s="229"/>
       <c r="D113" s="13"/>
       <c r="E113" s="13"/>
       <c r="F113" s="13"/>
@@ -5755,8 +5755,8 @@
       <c r="M113" s="3"/>
     </row>
     <row r="114" spans="2:13" ht="18">
-      <c r="B114" s="234"/>
-      <c r="C114" s="226"/>
+      <c r="B114" s="235"/>
+      <c r="C114" s="229"/>
       <c r="D114" s="116"/>
       <c r="E114" s="116"/>
       <c r="F114" s="116"/>
@@ -5769,8 +5769,8 @@
       <c r="M114" s="3"/>
     </row>
     <row r="115" spans="2:13" ht="18">
-      <c r="B115" s="234"/>
-      <c r="C115" s="226"/>
+      <c r="B115" s="235"/>
+      <c r="C115" s="229"/>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
@@ -5783,8 +5783,8 @@
       <c r="M115" s="3"/>
     </row>
     <row r="116" spans="2:13" ht="18">
-      <c r="B116" s="234"/>
-      <c r="C116" s="226"/>
+      <c r="B116" s="235"/>
+      <c r="C116" s="229"/>
       <c r="D116" s="116"/>
       <c r="E116" s="116"/>
       <c r="F116" s="116"/>
@@ -5797,8 +5797,8 @@
       <c r="M116" s="3"/>
     </row>
     <row r="117" spans="2:13" ht="18">
-      <c r="B117" s="234"/>
-      <c r="C117" s="226"/>
+      <c r="B117" s="235"/>
+      <c r="C117" s="229"/>
       <c r="D117" s="116"/>
       <c r="E117" s="116"/>
       <c r="F117" s="116"/>
@@ -5811,8 +5811,8 @@
       <c r="M117" s="3"/>
     </row>
     <row r="118" spans="2:13" ht="18">
-      <c r="B118" s="234"/>
-      <c r="C118" s="226"/>
+      <c r="B118" s="235"/>
+      <c r="C118" s="229"/>
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
@@ -5825,8 +5825,8 @@
       <c r="M118" s="3"/>
     </row>
     <row r="119" spans="2:13" ht="18">
-      <c r="B119" s="234"/>
-      <c r="C119" s="226"/>
+      <c r="B119" s="235"/>
+      <c r="C119" s="229"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
@@ -5839,8 +5839,8 @@
       <c r="M119" s="2"/>
     </row>
     <row r="120" spans="2:13" ht="18">
-      <c r="B120" s="236"/>
-      <c r="C120" s="227"/>
+      <c r="B120" s="237"/>
+      <c r="C120" s="230"/>
       <c r="D120" s="108"/>
       <c r="E120" s="108"/>
       <c r="F120" s="109"/>
@@ -5853,8 +5853,8 @@
       <c r="M120" s="2"/>
     </row>
     <row r="121" spans="2:13" ht="18">
-      <c r="B121" s="233"/>
-      <c r="C121" s="237"/>
+      <c r="B121" s="234"/>
+      <c r="C121" s="225"/>
       <c r="D121" s="111"/>
       <c r="E121" s="112"/>
       <c r="F121" s="95"/>
@@ -5867,8 +5867,8 @@
       <c r="M121" s="3"/>
     </row>
     <row r="122" spans="2:13" ht="18">
-      <c r="B122" s="234"/>
-      <c r="C122" s="231"/>
+      <c r="B122" s="235"/>
+      <c r="C122" s="226"/>
       <c r="D122" s="120"/>
       <c r="E122" s="120"/>
       <c r="F122" s="120"/>
@@ -5881,8 +5881,8 @@
       <c r="M122" s="4"/>
     </row>
     <row r="123" spans="2:13" ht="18">
-      <c r="B123" s="234"/>
-      <c r="C123" s="231"/>
+      <c r="B123" s="235"/>
+      <c r="C123" s="226"/>
       <c r="D123" s="120"/>
       <c r="E123" s="120"/>
       <c r="F123" s="120"/>
@@ -5895,8 +5895,8 @@
       <c r="M123" s="4"/>
     </row>
     <row r="124" spans="2:13" ht="18">
-      <c r="B124" s="234"/>
-      <c r="C124" s="231"/>
+      <c r="B124" s="235"/>
+      <c r="C124" s="226"/>
       <c r="D124" s="120"/>
       <c r="E124" s="120"/>
       <c r="F124" s="120"/>
@@ -5909,8 +5909,8 @@
       <c r="M124" s="4"/>
     </row>
     <row r="125" spans="2:13" ht="18">
-      <c r="B125" s="234"/>
-      <c r="C125" s="231"/>
+      <c r="B125" s="235"/>
+      <c r="C125" s="226"/>
       <c r="D125" s="154"/>
       <c r="E125" s="154"/>
       <c r="F125" s="154"/>
@@ -5923,8 +5923,8 @@
       <c r="M125" s="4"/>
     </row>
     <row r="126" spans="2:13" ht="18">
-      <c r="B126" s="234"/>
-      <c r="C126" s="231"/>
+      <c r="B126" s="235"/>
+      <c r="C126" s="226"/>
       <c r="D126" s="120"/>
       <c r="E126" s="120"/>
       <c r="F126" s="120"/>
@@ -5937,8 +5937,8 @@
       <c r="M126" s="7"/>
     </row>
     <row r="127" spans="2:13" ht="18">
-      <c r="B127" s="234"/>
-      <c r="C127" s="231"/>
+      <c r="B127" s="235"/>
+      <c r="C127" s="226"/>
       <c r="D127" s="154"/>
       <c r="E127" s="154"/>
       <c r="F127" s="154"/>
@@ -5951,8 +5951,8 @@
       <c r="M127" s="7"/>
     </row>
     <row r="128" spans="2:13" ht="18">
-      <c r="B128" s="234"/>
-      <c r="C128" s="231"/>
+      <c r="B128" s="235"/>
+      <c r="C128" s="226"/>
       <c r="D128" s="120"/>
       <c r="E128" s="120"/>
       <c r="F128" s="120"/>
@@ -5965,8 +5965,8 @@
       <c r="M128" s="7"/>
     </row>
     <row r="129" spans="2:13" ht="18">
-      <c r="B129" s="234"/>
-      <c r="C129" s="231"/>
+      <c r="B129" s="235"/>
+      <c r="C129" s="226"/>
       <c r="D129" s="120"/>
       <c r="E129" s="120"/>
       <c r="F129" s="120"/>
@@ -5979,8 +5979,8 @@
       <c r="M129" s="6"/>
     </row>
     <row r="130" spans="2:13" ht="18">
-      <c r="B130" s="234"/>
-      <c r="C130" s="231"/>
+      <c r="B130" s="235"/>
+      <c r="C130" s="226"/>
       <c r="D130" s="120"/>
       <c r="E130" s="120"/>
       <c r="F130" s="120"/>
@@ -5993,8 +5993,8 @@
       <c r="M130" s="4"/>
     </row>
     <row r="131" spans="2:13" ht="18">
-      <c r="B131" s="234"/>
-      <c r="C131" s="231"/>
+      <c r="B131" s="235"/>
+      <c r="C131" s="226"/>
       <c r="D131" s="120"/>
       <c r="E131" s="120"/>
       <c r="F131" s="120"/>
@@ -6007,8 +6007,8 @@
       <c r="M131" s="4"/>
     </row>
     <row r="132" spans="2:13" ht="18">
-      <c r="B132" s="234"/>
-      <c r="C132" s="231"/>
+      <c r="B132" s="235"/>
+      <c r="C132" s="226"/>
       <c r="D132" s="120"/>
       <c r="E132" s="120"/>
       <c r="F132" s="120"/>
@@ -6021,8 +6021,8 @@
       <c r="M132" s="4"/>
     </row>
     <row r="133" spans="2:13" ht="18">
-      <c r="B133" s="234"/>
-      <c r="C133" s="231"/>
+      <c r="B133" s="235"/>
+      <c r="C133" s="226"/>
       <c r="D133" s="120"/>
       <c r="E133" s="120"/>
       <c r="F133" s="120"/>
@@ -6035,8 +6035,8 @@
       <c r="M133" s="4"/>
     </row>
     <row r="134" spans="2:13" ht="18">
-      <c r="B134" s="234"/>
-      <c r="C134" s="231"/>
+      <c r="B134" s="235"/>
+      <c r="C134" s="226"/>
       <c r="D134" s="120"/>
       <c r="E134" s="120"/>
       <c r="F134" s="120"/>
@@ -6049,8 +6049,8 @@
       <c r="M134" s="4"/>
     </row>
     <row r="135" spans="2:13" ht="18">
-      <c r="B135" s="234"/>
-      <c r="C135" s="231"/>
+      <c r="B135" s="235"/>
+      <c r="C135" s="226"/>
       <c r="D135" s="154"/>
       <c r="E135" s="154"/>
       <c r="F135" s="154"/>
@@ -6063,8 +6063,8 @@
       <c r="M135" s="10"/>
     </row>
     <row r="136" spans="2:13" ht="18">
-      <c r="B136" s="234"/>
-      <c r="C136" s="231"/>
+      <c r="B136" s="235"/>
+      <c r="C136" s="226"/>
       <c r="D136" s="105"/>
       <c r="E136" s="105"/>
       <c r="F136" s="105"/>
@@ -6077,8 +6077,8 @@
       <c r="M136" s="6"/>
     </row>
     <row r="137" spans="2:13" ht="18">
-      <c r="B137" s="236"/>
-      <c r="C137" s="232"/>
+      <c r="B137" s="237"/>
+      <c r="C137" s="227"/>
       <c r="D137" s="108"/>
       <c r="E137" s="108"/>
       <c r="F137" s="109"/>
@@ -6091,8 +6091,8 @@
       <c r="M137" s="2"/>
     </row>
     <row r="138" spans="2:13" ht="18">
-      <c r="B138" s="233"/>
-      <c r="C138" s="225"/>
+      <c r="B138" s="234"/>
+      <c r="C138" s="228"/>
       <c r="D138" s="133"/>
       <c r="E138" s="112"/>
       <c r="F138" s="95"/>
@@ -6105,8 +6105,8 @@
       <c r="M138" s="3"/>
     </row>
     <row r="139" spans="2:13" ht="18">
-      <c r="B139" s="234"/>
-      <c r="C139" s="226"/>
+      <c r="B139" s="235"/>
+      <c r="C139" s="229"/>
       <c r="D139" s="120"/>
       <c r="E139" s="120"/>
       <c r="F139" s="120"/>
@@ -6119,8 +6119,8 @@
       <c r="M139" s="3"/>
     </row>
     <row r="140" spans="2:13" ht="18">
-      <c r="B140" s="234"/>
-      <c r="C140" s="226"/>
+      <c r="B140" s="235"/>
+      <c r="C140" s="229"/>
       <c r="D140" s="120"/>
       <c r="E140" s="120"/>
       <c r="F140" s="120"/>
@@ -6133,8 +6133,8 @@
       <c r="M140" s="3"/>
     </row>
     <row r="141" spans="2:13" ht="18">
-      <c r="B141" s="234"/>
-      <c r="C141" s="226"/>
+      <c r="B141" s="235"/>
+      <c r="C141" s="229"/>
       <c r="D141" s="120"/>
       <c r="E141" s="120"/>
       <c r="F141" s="120"/>
@@ -6147,8 +6147,8 @@
       <c r="M141" s="3"/>
     </row>
     <row r="142" spans="2:13" ht="18">
-      <c r="B142" s="234"/>
-      <c r="C142" s="226"/>
+      <c r="B142" s="235"/>
+      <c r="C142" s="229"/>
       <c r="D142" s="154"/>
       <c r="E142" s="154"/>
       <c r="F142" s="154"/>
@@ -6161,8 +6161,8 @@
       <c r="M142" s="4"/>
     </row>
     <row r="143" spans="2:13" ht="18">
-      <c r="B143" s="234"/>
-      <c r="C143" s="226"/>
+      <c r="B143" s="235"/>
+      <c r="C143" s="229"/>
       <c r="D143" s="120">
         <v>999999999</v>
       </c>
@@ -6177,8 +6177,8 @@
       <c r="M143" s="3"/>
     </row>
     <row r="144" spans="2:13" ht="18">
-      <c r="B144" s="234"/>
-      <c r="C144" s="226"/>
+      <c r="B144" s="235"/>
+      <c r="C144" s="229"/>
       <c r="D144" s="154"/>
       <c r="E144" s="154"/>
       <c r="F144" s="154"/>
@@ -6191,8 +6191,8 @@
       <c r="M144" s="4"/>
     </row>
     <row r="145" spans="2:13" ht="18">
-      <c r="B145" s="234"/>
-      <c r="C145" s="226"/>
+      <c r="B145" s="235"/>
+      <c r="C145" s="229"/>
       <c r="D145" s="120"/>
       <c r="E145" s="120"/>
       <c r="F145" s="120"/>
@@ -6205,8 +6205,8 @@
       <c r="M145" s="3"/>
     </row>
     <row r="146" spans="2:13" ht="18">
-      <c r="B146" s="234"/>
-      <c r="C146" s="226"/>
+      <c r="B146" s="235"/>
+      <c r="C146" s="229"/>
       <c r="D146" s="120"/>
       <c r="E146" s="120"/>
       <c r="F146" s="120"/>
@@ -6219,8 +6219,8 @@
       <c r="M146" s="3"/>
     </row>
     <row r="147" spans="2:13" ht="18">
-      <c r="B147" s="234"/>
-      <c r="C147" s="226"/>
+      <c r="B147" s="235"/>
+      <c r="C147" s="229"/>
       <c r="D147" s="120"/>
       <c r="E147" s="120"/>
       <c r="F147" s="120"/>
@@ -6233,8 +6233,8 @@
       <c r="M147" s="3"/>
     </row>
     <row r="148" spans="2:13" ht="18">
-      <c r="B148" s="234"/>
-      <c r="C148" s="226"/>
+      <c r="B148" s="235"/>
+      <c r="C148" s="229"/>
       <c r="D148" s="120"/>
       <c r="E148" s="120"/>
       <c r="F148" s="120"/>
@@ -6247,8 +6247,8 @@
       <c r="M148" s="3"/>
     </row>
     <row r="149" spans="2:13" ht="18">
-      <c r="B149" s="234"/>
-      <c r="C149" s="226"/>
+      <c r="B149" s="235"/>
+      <c r="C149" s="229"/>
       <c r="D149" s="120"/>
       <c r="E149" s="120"/>
       <c r="F149" s="120"/>
@@ -6261,8 +6261,8 @@
       <c r="M149" s="3"/>
     </row>
     <row r="150" spans="2:13" ht="18">
-      <c r="B150" s="234"/>
-      <c r="C150" s="226"/>
+      <c r="B150" s="235"/>
+      <c r="C150" s="229"/>
       <c r="D150" s="120"/>
       <c r="E150" s="120"/>
       <c r="F150" s="120"/>
@@ -6275,8 +6275,8 @@
       <c r="M150" s="3"/>
     </row>
     <row r="151" spans="2:13" ht="18">
-      <c r="B151" s="234"/>
-      <c r="C151" s="226"/>
+      <c r="B151" s="235"/>
+      <c r="C151" s="229"/>
       <c r="D151" s="120"/>
       <c r="E151" s="120"/>
       <c r="F151" s="120"/>
@@ -6289,8 +6289,8 @@
       <c r="M151" s="3"/>
     </row>
     <row r="152" spans="2:13" ht="18">
-      <c r="B152" s="234"/>
-      <c r="C152" s="226"/>
+      <c r="B152" s="235"/>
+      <c r="C152" s="229"/>
       <c r="D152" s="154"/>
       <c r="E152" s="154"/>
       <c r="F152" s="154"/>
@@ -6303,8 +6303,8 @@
       <c r="M152" s="3"/>
     </row>
     <row r="153" spans="2:13" ht="18">
-      <c r="B153" s="234"/>
-      <c r="C153" s="226"/>
+      <c r="B153" s="235"/>
+      <c r="C153" s="229"/>
       <c r="D153" s="105"/>
       <c r="E153" s="105"/>
       <c r="F153" s="105"/>
@@ -6317,8 +6317,8 @@
       <c r="M153" s="2"/>
     </row>
     <row r="154" spans="2:13" ht="18">
-      <c r="B154" s="234"/>
-      <c r="C154" s="227"/>
+      <c r="B154" s="235"/>
+      <c r="C154" s="230"/>
       <c r="D154" s="108"/>
       <c r="E154" s="108"/>
       <c r="F154" s="109"/>
@@ -6331,7 +6331,7 @@
       <c r="M154" s="2"/>
     </row>
     <row r="155" spans="2:13" ht="19" customHeight="1">
-      <c r="B155" s="228" t="s">
+      <c r="B155" s="231" t="s">
         <v>171</v>
       </c>
       <c r="C155" s="136">
@@ -6368,7 +6368,7 @@
       </c>
     </row>
     <row r="156" spans="2:13" ht="19">
-      <c r="B156" s="228"/>
+      <c r="B156" s="231"/>
       <c r="C156" s="136">
         <v>2</v>
       </c>
@@ -6403,7 +6403,7 @@
       </c>
     </row>
     <row r="157" spans="2:13" ht="20" thickBot="1">
-      <c r="B157" s="228"/>
+      <c r="B157" s="231"/>
       <c r="C157" s="136">
         <v>3</v>
       </c>
@@ -6438,7 +6438,7 @@
       </c>
     </row>
     <row r="158" spans="2:13" ht="21" thickBot="1">
-      <c r="B158" s="228"/>
+      <c r="B158" s="231"/>
       <c r="C158" s="136">
         <v>4</v>
       </c>
@@ -6468,7 +6468,7 @@
       </c>
     </row>
     <row r="159" spans="2:13" ht="33" thickBot="1">
-      <c r="B159" s="228"/>
+      <c r="B159" s="231"/>
       <c r="C159" s="136">
         <v>5</v>
       </c>
@@ -6499,7 +6499,7 @@
       </c>
     </row>
     <row r="160" spans="2:13" ht="33" thickBot="1">
-      <c r="B160" s="228"/>
+      <c r="B160" s="231"/>
       <c r="C160" s="136">
         <v>6</v>
       </c>
@@ -6527,7 +6527,7 @@
       </c>
     </row>
     <row r="161" spans="2:13" ht="33" thickBot="1">
-      <c r="B161" s="228"/>
+      <c r="B161" s="231"/>
       <c r="C161" s="136">
         <v>7</v>
       </c>
@@ -6564,7 +6564,7 @@
       </c>
     </row>
     <row r="162" spans="2:13" ht="32">
-      <c r="B162" s="229"/>
+      <c r="B162" s="232"/>
       <c r="C162" s="171">
         <v>8</v>
       </c>
@@ -6634,11 +6634,15 @@
       </c>
     </row>
     <row r="167" spans="2:13">
+      <c r="D167" s="5">
+        <v>2222</v>
+      </c>
       <c r="I167" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:M162" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="17">
+    <mergeCell ref="B121:B137"/>
     <mergeCell ref="C121:C137"/>
     <mergeCell ref="C138:C154"/>
     <mergeCell ref="B155:B162"/>
@@ -6655,7 +6659,6 @@
     <mergeCell ref="B88:B107"/>
     <mergeCell ref="B108:B120"/>
     <mergeCell ref="C108:C120"/>
-    <mergeCell ref="B121:B137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/241108_MSR_MOP_CTM BOM 정리.xlsx
+++ b/241108_MSR_MOP_CTM BOM 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/JDS_BU/Git_Hub/GIC_HONGKONG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8EB534-AE96-4F45-B1FD-E94C0E34B4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8B0DD0-66A2-E54A-AA85-21F44E13791E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7220" yWindow="900" windowWidth="33900" windowHeight="24360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2547,6 +2547,15 @@
     <xf numFmtId="177" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2574,16 +2583,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="23" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2924,7 +2924,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D167" sqref="D167"/>
+      <selection pane="bottomLeft" activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.3984375" defaultRowHeight="16"/>
@@ -2986,10 +2986,10 @@
       </c>
     </row>
     <row r="3" spans="2:13" ht="19">
-      <c r="B3" s="236">
+      <c r="B3" s="237">
         <v>1</v>
       </c>
-      <c r="C3" s="233" t="s">
+      <c r="C3" s="236" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="92"/>
@@ -3006,8 +3006,8 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:13" ht="19">
-      <c r="B4" s="235"/>
-      <c r="C4" s="226"/>
+      <c r="B4" s="226"/>
+      <c r="C4" s="229"/>
       <c r="D4" s="12" t="str">
         <f>MOP!D3</f>
         <v>Main Frame</v>
@@ -3038,8 +3038,8 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="19">
-      <c r="B5" s="235"/>
-      <c r="C5" s="226"/>
+      <c r="B5" s="226"/>
+      <c r="C5" s="229"/>
       <c r="D5" s="12" t="str">
         <f>MOP!D4</f>
         <v>Left Cover</v>
@@ -3070,8 +3070,8 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" ht="19">
-      <c r="B6" s="235"/>
-      <c r="C6" s="226"/>
+      <c r="B6" s="226"/>
+      <c r="C6" s="229"/>
       <c r="D6" s="12" t="str">
         <f>MOP!D5</f>
         <v>Right Cover</v>
@@ -3102,8 +3102,8 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="2:13" ht="19">
-      <c r="B7" s="235"/>
-      <c r="C7" s="226"/>
+      <c r="B7" s="226"/>
+      <c r="C7" s="229"/>
       <c r="D7" s="12" t="str">
         <f>MOP!D6</f>
         <v>Upper Cover</v>
@@ -3134,8 +3134,8 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="2:13" ht="19">
-      <c r="B8" s="235"/>
-      <c r="C8" s="226"/>
+      <c r="B8" s="226"/>
+      <c r="C8" s="229"/>
       <c r="D8" s="12" t="str">
         <f>MOP!D7</f>
         <v>Lower Cover</v>
@@ -3166,8 +3166,8 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:13" ht="19">
-      <c r="B9" s="235"/>
-      <c r="C9" s="226"/>
+      <c r="B9" s="226"/>
+      <c r="C9" s="229"/>
       <c r="D9" s="12" t="str">
         <f>MOP!D8</f>
         <v>Rear Cover</v>
@@ -3198,8 +3198,8 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:13" ht="19">
-      <c r="B10" s="235"/>
-      <c r="C10" s="226"/>
+      <c r="B10" s="226"/>
+      <c r="C10" s="229"/>
       <c r="D10" s="12" t="str">
         <f>MOP!D9</f>
         <v>Push Button</v>
@@ -3230,8 +3230,8 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="2:13" ht="19">
-      <c r="B11" s="235"/>
-      <c r="C11" s="226"/>
+      <c r="B11" s="226"/>
+      <c r="C11" s="229"/>
       <c r="D11" s="12" t="str">
         <f>MOP!D10</f>
         <v>Push Button</v>
@@ -3262,8 +3262,8 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="2:13" ht="19">
-      <c r="B12" s="235"/>
-      <c r="C12" s="226"/>
+      <c r="B12" s="226"/>
+      <c r="C12" s="229"/>
       <c r="D12" s="12" t="str">
         <f>MOP!D11</f>
         <v>Push Button</v>
@@ -3294,8 +3294,8 @@
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="2:13" ht="19">
-      <c r="B13" s="235"/>
-      <c r="C13" s="226"/>
+      <c r="B13" s="226"/>
+      <c r="C13" s="229"/>
       <c r="D13" s="110" t="str">
         <f>MOP!D12</f>
         <v>Microphone</v>
@@ -3332,8 +3332,8 @@
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="2:13" ht="38">
-      <c r="B14" s="235"/>
-      <c r="C14" s="226"/>
+      <c r="B14" s="226"/>
+      <c r="C14" s="229"/>
       <c r="D14" s="12" t="str">
         <f>MOP!D13</f>
         <v>LCD</v>
@@ -3367,8 +3367,8 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="2:13" ht="19">
-      <c r="B15" s="235"/>
-      <c r="C15" s="226"/>
+      <c r="B15" s="226"/>
+      <c r="C15" s="229"/>
       <c r="D15" s="12" t="str">
         <f>MOP!D14</f>
         <v>LCD Mount Bracket</v>
@@ -3399,8 +3399,8 @@
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="2:13" ht="19">
-      <c r="B16" s="235"/>
-      <c r="C16" s="226"/>
+      <c r="B16" s="226"/>
+      <c r="C16" s="229"/>
       <c r="D16" s="12" t="str">
         <f>MOP!D15</f>
         <v>LCD Control Board</v>
@@ -3431,8 +3431,8 @@
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="2:13" ht="19">
-      <c r="B17" s="235"/>
-      <c r="C17" s="226"/>
+      <c r="B17" s="226"/>
+      <c r="C17" s="229"/>
       <c r="D17" s="12" t="str">
         <f>MOP!D16</f>
         <v>Main Control Board</v>
@@ -3463,8 +3463,8 @@
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="2:13" ht="19">
-      <c r="B18" s="235"/>
-      <c r="C18" s="226"/>
+      <c r="B18" s="226"/>
+      <c r="C18" s="229"/>
       <c r="D18" s="12" t="str">
         <f>MOP!D17</f>
         <v>Power Board</v>
@@ -3495,8 +3495,8 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="2:13" ht="19">
-      <c r="B19" s="235"/>
-      <c r="C19" s="226"/>
+      <c r="B19" s="226"/>
+      <c r="C19" s="229"/>
       <c r="D19" s="110" t="str">
         <f>MOP!D18</f>
         <v>3P Connector Male</v>
@@ -3533,8 +3533,8 @@
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="2:13" ht="19">
-      <c r="B20" s="235"/>
-      <c r="C20" s="226"/>
+      <c r="B20" s="226"/>
+      <c r="C20" s="229"/>
       <c r="D20" s="18" t="str">
         <f>MOP!D19</f>
         <v>3P Connector Female</v>
@@ -3567,8 +3567,8 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="19">
-      <c r="B21" s="235"/>
-      <c r="C21" s="226"/>
+      <c r="B21" s="226"/>
+      <c r="C21" s="229"/>
       <c r="D21" s="110" t="str">
         <f>MOP!D20</f>
         <v>Locking</v>
@@ -3605,8 +3605,8 @@
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="2:13" ht="19">
-      <c r="B22" s="235"/>
-      <c r="C22" s="226"/>
+      <c r="B22" s="226"/>
+      <c r="C22" s="229"/>
       <c r="D22" s="110" t="str">
         <f>MOP!D21</f>
         <v>4P Connector</v>
@@ -3643,8 +3643,8 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="2:13" ht="19">
-      <c r="B23" s="235"/>
-      <c r="C23" s="226"/>
+      <c r="B23" s="226"/>
+      <c r="C23" s="229"/>
       <c r="D23" s="110" t="str">
         <f>MOP!D22</f>
         <v>Pin</v>
@@ -3681,8 +3681,8 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:13" ht="19">
-      <c r="B24" s="235"/>
-      <c r="C24" s="226"/>
+      <c r="B24" s="226"/>
+      <c r="C24" s="229"/>
       <c r="D24" s="110" t="str">
         <f>MOP!D23</f>
         <v>12P Connector</v>
@@ -3719,8 +3719,8 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13" ht="19">
-      <c r="B25" s="235"/>
-      <c r="C25" s="226"/>
+      <c r="B25" s="226"/>
+      <c r="C25" s="229"/>
       <c r="D25" s="110" t="str">
         <f>MOP!D24</f>
         <v>Pin</v>
@@ -3757,8 +3757,8 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="2:13" ht="19">
-      <c r="B26" s="235"/>
-      <c r="C26" s="226"/>
+      <c r="B26" s="226"/>
+      <c r="C26" s="229"/>
       <c r="D26" s="110" t="str">
         <f>MOP!D25</f>
         <v>Cable Clamp</v>
@@ -3795,8 +3795,8 @@
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="2:13" ht="19">
-      <c r="B27" s="235"/>
-      <c r="C27" s="226"/>
+      <c r="B27" s="226"/>
+      <c r="C27" s="229"/>
       <c r="D27" s="12" t="str">
         <f>MOP!D26</f>
         <v>Name Plate, AL, T1</v>
@@ -3827,8 +3827,8 @@
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="2:13" ht="19">
-      <c r="B28" s="235"/>
-      <c r="C28" s="226"/>
+      <c r="B28" s="226"/>
+      <c r="C28" s="229"/>
       <c r="D28" s="18" t="str">
         <f>MOP!D27</f>
         <v>SPEAKER</v>
@@ -3861,8 +3861,8 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="18">
-      <c r="B29" s="235"/>
-      <c r="C29" s="226"/>
+      <c r="B29" s="226"/>
+      <c r="C29" s="229"/>
       <c r="D29" s="155"/>
       <c r="E29" s="155"/>
       <c r="F29" s="155"/>
@@ -3875,8 +3875,8 @@
       <c r="M29" s="158"/>
     </row>
     <row r="30" spans="2:13" ht="19">
-      <c r="B30" s="237"/>
-      <c r="C30" s="227"/>
+      <c r="B30" s="227"/>
+      <c r="C30" s="230"/>
       <c r="D30" s="108" t="s">
         <v>172</v>
       </c>
@@ -3902,10 +3902,10 @@
       <c r="M30" s="15"/>
     </row>
     <row r="31" spans="2:13" ht="19">
-      <c r="B31" s="234">
+      <c r="B31" s="225">
         <v>2</v>
       </c>
-      <c r="C31" s="228" t="s">
+      <c r="C31" s="231" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="111"/>
@@ -3922,8 +3922,8 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="2:13" ht="19">
-      <c r="B32" s="235"/>
-      <c r="C32" s="229"/>
+      <c r="B32" s="226"/>
+      <c r="C32" s="232"/>
       <c r="D32" s="13" t="str">
         <f>MSR!D3</f>
         <v>PWR Board</v>
@@ -3954,8 +3954,8 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="2:13" ht="19">
-      <c r="B33" s="235"/>
-      <c r="C33" s="229"/>
+      <c r="B33" s="226"/>
+      <c r="C33" s="232"/>
       <c r="D33" s="13" t="str">
         <f>MSR!D4</f>
         <v>M_TX Board</v>
@@ -3986,8 +3986,8 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="2:13" ht="19">
-      <c r="B34" s="235"/>
-      <c r="C34" s="229"/>
+      <c r="B34" s="226"/>
+      <c r="C34" s="232"/>
       <c r="D34" s="13" t="str">
         <f>MSR!D5</f>
         <v>Hub Board</v>
@@ -4018,8 +4018,8 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="2:13" ht="19">
-      <c r="B35" s="235"/>
-      <c r="C35" s="229"/>
+      <c r="B35" s="226"/>
+      <c r="C35" s="232"/>
       <c r="D35" s="13" t="str">
         <f>MSR!D6</f>
         <v>TCIU Board</v>
@@ -4050,8 +4050,8 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="2:13" ht="19">
-      <c r="B36" s="235"/>
-      <c r="C36" s="229"/>
+      <c r="B36" s="226"/>
+      <c r="C36" s="232"/>
       <c r="D36" s="13" t="str">
         <f>MSR!D7</f>
         <v>PA_PBX Board</v>
@@ -4082,8 +4082,8 @@
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="2:13" ht="19">
-      <c r="B37" s="235"/>
-      <c r="C37" s="229"/>
+      <c r="B37" s="226"/>
+      <c r="C37" s="232"/>
       <c r="D37" s="13" t="str">
         <f>MSR!D8</f>
         <v>PA_ETX Board</v>
@@ -4114,8 +4114,8 @@
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="2:13" ht="19">
-      <c r="B38" s="235"/>
-      <c r="C38" s="229"/>
+      <c r="B38" s="226"/>
+      <c r="C38" s="232"/>
       <c r="D38" s="13" t="str">
         <f>MSR!D9</f>
         <v>NVR Board</v>
@@ -4147,8 +4147,8 @@
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="2:13" ht="38">
-      <c r="B39" s="235"/>
-      <c r="C39" s="229"/>
+      <c r="B39" s="226"/>
+      <c r="C39" s="232"/>
       <c r="D39" s="150" t="str">
         <f>MSR!D10</f>
         <v>CPU
@@ -4180,8 +4180,8 @@
       <c r="M39" s="3"/>
     </row>
     <row r="40" spans="2:13" ht="38">
-      <c r="B40" s="235"/>
-      <c r="C40" s="229"/>
+      <c r="B40" s="226"/>
+      <c r="C40" s="232"/>
       <c r="D40" s="150" t="str">
         <f>MSR!D11</f>
         <v>CPU BRACKET 
@@ -4213,8 +4213,8 @@
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="2:13" ht="57">
-      <c r="B41" s="235"/>
-      <c r="C41" s="229"/>
+      <c r="B41" s="226"/>
+      <c r="C41" s="232"/>
       <c r="D41" s="151" t="str">
         <f>MSR!D12</f>
         <v>DDR4
@@ -4248,8 +4248,8 @@
       </c>
     </row>
     <row r="42" spans="2:13" ht="19">
-      <c r="B42" s="235"/>
-      <c r="C42" s="229"/>
+      <c r="B42" s="226"/>
+      <c r="C42" s="232"/>
       <c r="D42" s="13" t="str">
         <f>MSR!D13</f>
         <v>SSD Board</v>
@@ -4280,8 +4280,8 @@
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="2:13" ht="19">
-      <c r="B43" s="235"/>
-      <c r="C43" s="229"/>
+      <c r="B43" s="226"/>
+      <c r="C43" s="232"/>
       <c r="D43" s="116" t="str">
         <f>MSR!D14</f>
         <v>MSR Back Plane</v>
@@ -4318,8 +4318,8 @@
       <c r="M43" s="3"/>
     </row>
     <row r="44" spans="2:13" ht="19">
-      <c r="B44" s="235"/>
-      <c r="C44" s="229"/>
+      <c r="B44" s="226"/>
+      <c r="C44" s="232"/>
       <c r="D44" s="116" t="str">
         <f>MSR!D15</f>
         <v>Frame</v>
@@ -4356,8 +4356,8 @@
       <c r="M44" s="3"/>
     </row>
     <row r="45" spans="2:13" ht="19">
-      <c r="B45" s="235"/>
-      <c r="C45" s="229"/>
+      <c r="B45" s="226"/>
+      <c r="C45" s="232"/>
       <c r="D45" s="13" t="str">
         <f>MSR!D16</f>
         <v>Name Plate, AL, T1</v>
@@ -4388,8 +4388,8 @@
       <c r="M45" s="3"/>
     </row>
     <row r="46" spans="2:13" ht="19">
-      <c r="B46" s="235"/>
-      <c r="C46" s="229"/>
+      <c r="B46" s="226"/>
+      <c r="C46" s="232"/>
       <c r="D46" s="149" t="str">
         <f>MSR!D17</f>
         <v>SSD(2T)</v>
@@ -4422,8 +4422,8 @@
       </c>
     </row>
     <row r="47" spans="2:13" ht="18">
-      <c r="B47" s="235"/>
-      <c r="C47" s="229"/>
+      <c r="B47" s="226"/>
+      <c r="C47" s="232"/>
       <c r="D47" s="155"/>
       <c r="E47" s="155"/>
       <c r="F47" s="155"/>
@@ -4436,8 +4436,8 @@
       <c r="M47" s="158"/>
     </row>
     <row r="48" spans="2:13" ht="19">
-      <c r="B48" s="237"/>
-      <c r="C48" s="230"/>
+      <c r="B48" s="227"/>
+      <c r="C48" s="233"/>
       <c r="D48" s="108" t="s">
         <v>172</v>
       </c>
@@ -4463,10 +4463,10 @@
       <c r="M48" s="15"/>
     </row>
     <row r="49" spans="2:13" ht="19">
-      <c r="B49" s="234">
+      <c r="B49" s="225">
         <v>3</v>
       </c>
-      <c r="C49" s="228" t="s">
+      <c r="C49" s="231" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="111"/>
@@ -4483,8 +4483,8 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="2:13" ht="19">
-      <c r="B50" s="235"/>
-      <c r="C50" s="229"/>
+      <c r="B50" s="226"/>
+      <c r="C50" s="232"/>
       <c r="D50" s="13" t="str">
         <f>CTM!D3</f>
         <v>Main Frame</v>
@@ -4515,8 +4515,8 @@
       <c r="M50" s="3"/>
     </row>
     <row r="51" spans="2:13" ht="19">
-      <c r="B51" s="235"/>
-      <c r="C51" s="229"/>
+      <c r="B51" s="226"/>
+      <c r="C51" s="232"/>
       <c r="D51" s="13" t="str">
         <f>CTM!D4</f>
         <v>Lower Cover</v>
@@ -4547,8 +4547,8 @@
       <c r="M51" s="3"/>
     </row>
     <row r="52" spans="2:13" ht="19">
-      <c r="B52" s="235"/>
-      <c r="C52" s="229"/>
+      <c r="B52" s="226"/>
+      <c r="C52" s="232"/>
       <c r="D52" s="13" t="str">
         <f>CTM!D5</f>
         <v>Rear Cover</v>
@@ -4579,8 +4579,8 @@
       <c r="M52" s="3"/>
     </row>
     <row r="53" spans="2:13" ht="19">
-      <c r="B53" s="235"/>
-      <c r="C53" s="229"/>
+      <c r="B53" s="226"/>
+      <c r="C53" s="232"/>
       <c r="D53" s="116" t="str">
         <f>CTM!D6</f>
         <v>10.4" LCD</v>
@@ -4619,8 +4619,8 @@
       </c>
     </row>
     <row r="54" spans="2:13" ht="19">
-      <c r="B54" s="235"/>
-      <c r="C54" s="229"/>
+      <c r="B54" s="226"/>
+      <c r="C54" s="232"/>
       <c r="D54" s="13" t="str">
         <f>CTM!D7</f>
         <v>Control Board Bracket</v>
@@ -4650,8 +4650,8 @@
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="2:13" ht="19">
-      <c r="B55" s="235"/>
-      <c r="C55" s="229"/>
+      <c r="B55" s="226"/>
+      <c r="C55" s="232"/>
       <c r="D55" s="13" t="str">
         <f>CTM!D8</f>
         <v>Control Board</v>
@@ -4681,8 +4681,8 @@
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="2:13" ht="19">
-      <c r="B56" s="235"/>
-      <c r="C56" s="229"/>
+      <c r="B56" s="226"/>
+      <c r="C56" s="232"/>
       <c r="D56" s="150" t="str">
         <f>CTM!D9</f>
         <v xml:space="preserve">CPU TCA3/i-E3845 </v>
@@ -4721,8 +4721,8 @@
       </c>
     </row>
     <row r="57" spans="2:13" ht="19">
-      <c r="B57" s="235"/>
-      <c r="C57" s="229"/>
+      <c r="B57" s="226"/>
+      <c r="C57" s="232"/>
       <c r="D57" s="150" t="str">
         <f>CTM!D10</f>
         <v xml:space="preserve">CPU BRACKET TCA3/CSP-B </v>
@@ -4761,8 +4761,8 @@
       </c>
     </row>
     <row r="58" spans="2:13" ht="57">
-      <c r="B58" s="235"/>
-      <c r="C58" s="229"/>
+      <c r="B58" s="226"/>
+      <c r="C58" s="232"/>
       <c r="D58" s="151" t="str">
         <f>CTM!D11</f>
         <v>DDR4
@@ -4796,8 +4796,8 @@
       </c>
     </row>
     <row r="59" spans="2:13" ht="19">
-      <c r="B59" s="235"/>
-      <c r="C59" s="229"/>
+      <c r="B59" s="226"/>
+      <c r="C59" s="232"/>
       <c r="D59" s="13" t="str">
         <f>CTM!D12</f>
         <v>Power Board</v>
@@ -4828,8 +4828,8 @@
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="2:13" ht="19">
-      <c r="B60" s="235"/>
-      <c r="C60" s="229"/>
+      <c r="B60" s="226"/>
+      <c r="C60" s="232"/>
       <c r="D60" s="116" t="str">
         <f>CTM!D13</f>
         <v>3P Connector</v>
@@ -4866,8 +4866,8 @@
       <c r="M60" s="16"/>
     </row>
     <row r="61" spans="2:13" ht="19">
-      <c r="B61" s="235"/>
-      <c r="C61" s="229"/>
+      <c r="B61" s="226"/>
+      <c r="C61" s="232"/>
       <c r="D61" s="116" t="str">
         <f>CTM!D14</f>
         <v>Locking</v>
@@ -4904,8 +4904,8 @@
       <c r="M61" s="16"/>
     </row>
     <row r="62" spans="2:13" ht="19">
-      <c r="B62" s="235"/>
-      <c r="C62" s="229"/>
+      <c r="B62" s="226"/>
+      <c r="C62" s="232"/>
       <c r="D62" s="116" t="str">
         <f>CTM!D15</f>
         <v>4P Connector</v>
@@ -4942,8 +4942,8 @@
       <c r="M62" s="16"/>
     </row>
     <row r="63" spans="2:13" ht="19">
-      <c r="B63" s="235"/>
-      <c r="C63" s="229"/>
+      <c r="B63" s="226"/>
+      <c r="C63" s="232"/>
       <c r="D63" s="116" t="str">
         <f>CTM!D16</f>
         <v>Pin</v>
@@ -4980,8 +4980,8 @@
       <c r="M63" s="16"/>
     </row>
     <row r="64" spans="2:13" ht="19">
-      <c r="B64" s="235"/>
-      <c r="C64" s="229"/>
+      <c r="B64" s="226"/>
+      <c r="C64" s="232"/>
       <c r="D64" s="116" t="str">
         <f>CTM!D17</f>
         <v>Cable Gland</v>
@@ -5018,8 +5018,8 @@
       <c r="M64" s="16"/>
     </row>
     <row r="65" spans="2:13" ht="19">
-      <c r="B65" s="235"/>
-      <c r="C65" s="229"/>
+      <c r="B65" s="226"/>
+      <c r="C65" s="232"/>
       <c r="D65" s="149" t="str">
         <f>CTM!D18</f>
         <v>USB Adapter</v>
@@ -5052,8 +5052,8 @@
       </c>
     </row>
     <row r="66" spans="2:13" ht="19">
-      <c r="B66" s="235"/>
-      <c r="C66" s="229"/>
+      <c r="B66" s="226"/>
+      <c r="C66" s="232"/>
       <c r="D66" s="13" t="str">
         <f>CTM!D19</f>
         <v>Name Plate</v>
@@ -5084,8 +5084,8 @@
       <c r="M66" s="3"/>
     </row>
     <row r="67" spans="2:13" ht="18">
-      <c r="B67" s="235"/>
-      <c r="C67" s="229"/>
+      <c r="B67" s="226"/>
+      <c r="C67" s="232"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -5098,8 +5098,8 @@
       <c r="M67" s="2"/>
     </row>
     <row r="68" spans="2:13" ht="19">
-      <c r="B68" s="237"/>
-      <c r="C68" s="230"/>
+      <c r="B68" s="227"/>
+      <c r="C68" s="233"/>
       <c r="D68" s="108" t="s">
         <v>172</v>
       </c>
@@ -5125,8 +5125,8 @@
       <c r="M68" s="15"/>
     </row>
     <row r="69" spans="2:13" ht="18">
-      <c r="B69" s="234"/>
-      <c r="C69" s="228"/>
+      <c r="B69" s="225"/>
+      <c r="C69" s="231"/>
       <c r="D69" s="111"/>
       <c r="E69" s="112"/>
       <c r="F69" s="95"/>
@@ -5139,8 +5139,8 @@
       <c r="M69" s="3"/>
     </row>
     <row r="70" spans="2:13" ht="18">
-      <c r="B70" s="235"/>
-      <c r="C70" s="229"/>
+      <c r="B70" s="226"/>
+      <c r="C70" s="232"/>
       <c r="D70" s="120"/>
       <c r="E70" s="120"/>
       <c r="F70" s="120"/>
@@ -5153,8 +5153,8 @@
       <c r="M70" s="3"/>
     </row>
     <row r="71" spans="2:13" ht="18">
-      <c r="B71" s="235"/>
-      <c r="C71" s="229"/>
+      <c r="B71" s="226"/>
+      <c r="C71" s="232"/>
       <c r="D71" s="120"/>
       <c r="E71" s="120"/>
       <c r="F71" s="120"/>
@@ -5167,8 +5167,8 @@
       <c r="M71" s="3"/>
     </row>
     <row r="72" spans="2:13" ht="18">
-      <c r="B72" s="235"/>
-      <c r="C72" s="229"/>
+      <c r="B72" s="226"/>
+      <c r="C72" s="232"/>
       <c r="D72" s="120"/>
       <c r="E72" s="120"/>
       <c r="F72" s="120"/>
@@ -5181,8 +5181,8 @@
       <c r="M72" s="3"/>
     </row>
     <row r="73" spans="2:13" ht="18">
-      <c r="B73" s="235"/>
-      <c r="C73" s="229"/>
+      <c r="B73" s="226"/>
+      <c r="C73" s="232"/>
       <c r="D73" s="120"/>
       <c r="E73" s="120"/>
       <c r="F73" s="120"/>
@@ -5195,8 +5195,8 @@
       <c r="M73" s="3"/>
     </row>
     <row r="74" spans="2:13" ht="18">
-      <c r="B74" s="235"/>
-      <c r="C74" s="229"/>
+      <c r="B74" s="226"/>
+      <c r="C74" s="232"/>
       <c r="D74" s="154"/>
       <c r="E74" s="154"/>
       <c r="F74" s="154"/>
@@ -5209,8 +5209,8 @@
       <c r="M74" s="3"/>
     </row>
     <row r="75" spans="2:13" ht="18">
-      <c r="B75" s="235"/>
-      <c r="C75" s="229"/>
+      <c r="B75" s="226"/>
+      <c r="C75" s="232"/>
       <c r="D75" s="154"/>
       <c r="E75" s="154"/>
       <c r="F75" s="154"/>
@@ -5223,8 +5223,8 @@
       <c r="M75" s="3"/>
     </row>
     <row r="76" spans="2:13" ht="18">
-      <c r="B76" s="235"/>
-      <c r="C76" s="229"/>
+      <c r="B76" s="226"/>
+      <c r="C76" s="232"/>
       <c r="D76" s="120"/>
       <c r="E76" s="120"/>
       <c r="F76" s="120"/>
@@ -5237,8 +5237,8 @@
       <c r="M76" s="3"/>
     </row>
     <row r="77" spans="2:13" ht="18">
-      <c r="B77" s="235"/>
-      <c r="C77" s="229"/>
+      <c r="B77" s="226"/>
+      <c r="C77" s="232"/>
       <c r="D77" s="120"/>
       <c r="E77" s="120"/>
       <c r="F77" s="120"/>
@@ -5251,8 +5251,8 @@
       <c r="M77" s="3"/>
     </row>
     <row r="78" spans="2:13" ht="18">
-      <c r="B78" s="235"/>
-      <c r="C78" s="229"/>
+      <c r="B78" s="226"/>
+      <c r="C78" s="232"/>
       <c r="D78" s="120"/>
       <c r="E78" s="120"/>
       <c r="F78" s="120"/>
@@ -5265,8 +5265,8 @@
       <c r="M78" s="3"/>
     </row>
     <row r="79" spans="2:13" ht="18">
-      <c r="B79" s="235"/>
-      <c r="C79" s="229"/>
+      <c r="B79" s="226"/>
+      <c r="C79" s="232"/>
       <c r="D79" s="120"/>
       <c r="E79" s="120"/>
       <c r="F79" s="120"/>
@@ -5279,8 +5279,8 @@
       <c r="M79" s="3"/>
     </row>
     <row r="80" spans="2:13" ht="18">
-      <c r="B80" s="235"/>
-      <c r="C80" s="229"/>
+      <c r="B80" s="226"/>
+      <c r="C80" s="232"/>
       <c r="D80" s="120"/>
       <c r="E80" s="120"/>
       <c r="F80" s="120"/>
@@ -5293,8 +5293,8 @@
       <c r="M80" s="3"/>
     </row>
     <row r="81" spans="2:13" ht="18">
-      <c r="B81" s="235"/>
-      <c r="C81" s="229"/>
+      <c r="B81" s="226"/>
+      <c r="C81" s="232"/>
       <c r="D81" s="120"/>
       <c r="E81" s="120"/>
       <c r="F81" s="120"/>
@@ -5307,8 +5307,8 @@
       <c r="M81" s="3"/>
     </row>
     <row r="82" spans="2:13" ht="18">
-      <c r="B82" s="235"/>
-      <c r="C82" s="229"/>
+      <c r="B82" s="226"/>
+      <c r="C82" s="232"/>
       <c r="D82" s="120"/>
       <c r="E82" s="120"/>
       <c r="F82" s="120"/>
@@ -5321,8 +5321,8 @@
       <c r="M82" s="3"/>
     </row>
     <row r="83" spans="2:13" ht="18">
-      <c r="B83" s="235"/>
-      <c r="C83" s="229"/>
+      <c r="B83" s="226"/>
+      <c r="C83" s="232"/>
       <c r="D83" s="120"/>
       <c r="E83" s="120"/>
       <c r="F83" s="120"/>
@@ -5335,8 +5335,8 @@
       <c r="M83" s="3"/>
     </row>
     <row r="84" spans="2:13" ht="18">
-      <c r="B84" s="235"/>
-      <c r="C84" s="229"/>
+      <c r="B84" s="226"/>
+      <c r="C84" s="232"/>
       <c r="D84" s="154"/>
       <c r="E84" s="154"/>
       <c r="F84" s="154"/>
@@ -5349,8 +5349,8 @@
       <c r="M84" s="3"/>
     </row>
     <row r="85" spans="2:13" ht="18">
-      <c r="B85" s="235"/>
-      <c r="C85" s="229"/>
+      <c r="B85" s="226"/>
+      <c r="C85" s="232"/>
       <c r="D85" s="154"/>
       <c r="E85" s="154"/>
       <c r="F85" s="154"/>
@@ -5363,8 +5363,8 @@
       <c r="M85" s="3"/>
     </row>
     <row r="86" spans="2:13" ht="18">
-      <c r="B86" s="235"/>
-      <c r="C86" s="229"/>
+      <c r="B86" s="226"/>
+      <c r="C86" s="232"/>
       <c r="D86" s="105"/>
       <c r="E86" s="105"/>
       <c r="F86" s="105"/>
@@ -5377,8 +5377,8 @@
       <c r="M86" s="2"/>
     </row>
     <row r="87" spans="2:13" ht="18">
-      <c r="B87" s="237"/>
-      <c r="C87" s="230"/>
+      <c r="B87" s="227"/>
+      <c r="C87" s="233"/>
       <c r="D87" s="108"/>
       <c r="E87" s="108"/>
       <c r="F87" s="109"/>
@@ -5391,8 +5391,8 @@
       <c r="M87" s="2"/>
     </row>
     <row r="88" spans="2:13" ht="18">
-      <c r="B88" s="234"/>
-      <c r="C88" s="228"/>
+      <c r="B88" s="225"/>
+      <c r="C88" s="231"/>
       <c r="D88" s="111"/>
       <c r="E88" s="112"/>
       <c r="F88" s="95"/>
@@ -5405,8 +5405,8 @@
       <c r="M88" s="3"/>
     </row>
     <row r="89" spans="2:13" ht="18">
-      <c r="B89" s="235"/>
-      <c r="C89" s="229"/>
+      <c r="B89" s="226"/>
+      <c r="C89" s="232"/>
       <c r="D89" s="120"/>
       <c r="E89" s="120"/>
       <c r="F89" s="120"/>
@@ -5419,8 +5419,8 @@
       <c r="M89" s="3"/>
     </row>
     <row r="90" spans="2:13" ht="18">
-      <c r="B90" s="235"/>
-      <c r="C90" s="229"/>
+      <c r="B90" s="226"/>
+      <c r="C90" s="232"/>
       <c r="D90" s="120"/>
       <c r="E90" s="120"/>
       <c r="F90" s="120"/>
@@ -5433,8 +5433,8 @@
       <c r="M90" s="3"/>
     </row>
     <row r="91" spans="2:13" ht="18">
-      <c r="B91" s="235"/>
-      <c r="C91" s="229"/>
+      <c r="B91" s="226"/>
+      <c r="C91" s="232"/>
       <c r="D91" s="120"/>
       <c r="E91" s="120"/>
       <c r="F91" s="120"/>
@@ -5447,8 +5447,8 @@
       <c r="M91" s="3"/>
     </row>
     <row r="92" spans="2:13" ht="18">
-      <c r="B92" s="235"/>
-      <c r="C92" s="229"/>
+      <c r="B92" s="226"/>
+      <c r="C92" s="232"/>
       <c r="D92" s="120"/>
       <c r="E92" s="120"/>
       <c r="F92" s="120"/>
@@ -5461,8 +5461,8 @@
       <c r="M92" s="9"/>
     </row>
     <row r="93" spans="2:13" ht="18">
-      <c r="B93" s="235"/>
-      <c r="C93" s="229"/>
+      <c r="B93" s="226"/>
+      <c r="C93" s="232"/>
       <c r="D93" s="120"/>
       <c r="E93" s="120"/>
       <c r="F93" s="120"/>
@@ -5475,8 +5475,8 @@
       <c r="M93" s="3"/>
     </row>
     <row r="94" spans="2:13" ht="18">
-      <c r="B94" s="235"/>
-      <c r="C94" s="229"/>
+      <c r="B94" s="226"/>
+      <c r="C94" s="232"/>
       <c r="D94" s="120"/>
       <c r="E94" s="120"/>
       <c r="F94" s="120"/>
@@ -5489,8 +5489,8 @@
       <c r="M94" s="3"/>
     </row>
     <row r="95" spans="2:13" ht="18">
-      <c r="B95" s="235"/>
-      <c r="C95" s="229"/>
+      <c r="B95" s="226"/>
+      <c r="C95" s="232"/>
       <c r="D95" s="154"/>
       <c r="E95" s="154"/>
       <c r="F95" s="154"/>
@@ -5503,8 +5503,8 @@
       <c r="M95" s="3"/>
     </row>
     <row r="96" spans="2:13" ht="18">
-      <c r="B96" s="235"/>
-      <c r="C96" s="229"/>
+      <c r="B96" s="226"/>
+      <c r="C96" s="232"/>
       <c r="D96" s="154"/>
       <c r="E96" s="154"/>
       <c r="F96" s="154"/>
@@ -5517,8 +5517,8 @@
       <c r="M96" s="3"/>
     </row>
     <row r="97" spans="2:13" ht="18">
-      <c r="B97" s="235"/>
-      <c r="C97" s="229"/>
+      <c r="B97" s="226"/>
+      <c r="C97" s="232"/>
       <c r="D97" s="120"/>
       <c r="E97" s="120"/>
       <c r="F97" s="120"/>
@@ -5531,8 +5531,8 @@
       <c r="M97" s="3"/>
     </row>
     <row r="98" spans="2:13" ht="18">
-      <c r="B98" s="235"/>
-      <c r="C98" s="229"/>
+      <c r="B98" s="226"/>
+      <c r="C98" s="232"/>
       <c r="D98" s="120"/>
       <c r="E98" s="120"/>
       <c r="F98" s="120"/>
@@ -5545,8 +5545,8 @@
       <c r="M98" s="3"/>
     </row>
     <row r="99" spans="2:13" ht="18">
-      <c r="B99" s="235"/>
-      <c r="C99" s="229"/>
+      <c r="B99" s="226"/>
+      <c r="C99" s="232"/>
       <c r="D99" s="120"/>
       <c r="E99" s="120"/>
       <c r="F99" s="120"/>
@@ -5559,8 +5559,8 @@
       <c r="M99" s="3"/>
     </row>
     <row r="100" spans="2:13" ht="18">
-      <c r="B100" s="235"/>
-      <c r="C100" s="229"/>
+      <c r="B100" s="226"/>
+      <c r="C100" s="232"/>
       <c r="D100" s="120"/>
       <c r="E100" s="120"/>
       <c r="F100" s="120"/>
@@ -5573,8 +5573,8 @@
       <c r="M100" s="3"/>
     </row>
     <row r="101" spans="2:13" ht="18">
-      <c r="B101" s="235"/>
-      <c r="C101" s="229"/>
+      <c r="B101" s="226"/>
+      <c r="C101" s="232"/>
       <c r="D101" s="120"/>
       <c r="E101" s="120"/>
       <c r="F101" s="120"/>
@@ -5587,8 +5587,8 @@
       <c r="M101" s="3"/>
     </row>
     <row r="102" spans="2:13" ht="18">
-      <c r="B102" s="235"/>
-      <c r="C102" s="229"/>
+      <c r="B102" s="226"/>
+      <c r="C102" s="232"/>
       <c r="D102" s="120"/>
       <c r="E102" s="120"/>
       <c r="F102" s="120"/>
@@ -5601,8 +5601,8 @@
       <c r="M102" s="3"/>
     </row>
     <row r="103" spans="2:13" ht="18">
-      <c r="B103" s="235"/>
-      <c r="C103" s="229"/>
+      <c r="B103" s="226"/>
+      <c r="C103" s="232"/>
       <c r="D103" s="120"/>
       <c r="E103" s="120"/>
       <c r="F103" s="120"/>
@@ -5615,8 +5615,8 @@
       <c r="M103" s="3"/>
     </row>
     <row r="104" spans="2:13" ht="18">
-      <c r="B104" s="235"/>
-      <c r="C104" s="229"/>
+      <c r="B104" s="226"/>
+      <c r="C104" s="232"/>
       <c r="D104" s="154"/>
       <c r="E104" s="154"/>
       <c r="F104" s="154"/>
@@ -5629,8 +5629,8 @@
       <c r="M104" s="3"/>
     </row>
     <row r="105" spans="2:13" ht="18">
-      <c r="B105" s="235"/>
-      <c r="C105" s="229"/>
+      <c r="B105" s="226"/>
+      <c r="C105" s="232"/>
       <c r="D105" s="120"/>
       <c r="E105" s="120"/>
       <c r="F105" s="120"/>
@@ -5643,8 +5643,8 @@
       <c r="M105" s="2"/>
     </row>
     <row r="106" spans="2:13" ht="18">
-      <c r="B106" s="235"/>
-      <c r="C106" s="229"/>
+      <c r="B106" s="226"/>
+      <c r="C106" s="232"/>
       <c r="D106" s="105"/>
       <c r="E106" s="105"/>
       <c r="F106" s="105"/>
@@ -5657,8 +5657,8 @@
       <c r="M106" s="2"/>
     </row>
     <row r="107" spans="2:13" ht="18">
-      <c r="B107" s="237"/>
-      <c r="C107" s="230"/>
+      <c r="B107" s="227"/>
+      <c r="C107" s="233"/>
       <c r="D107" s="108"/>
       <c r="E107" s="108"/>
       <c r="F107" s="109"/>
@@ -5671,8 +5671,8 @@
       <c r="M107" s="2"/>
     </row>
     <row r="108" spans="2:13" ht="18">
-      <c r="B108" s="234"/>
-      <c r="C108" s="228"/>
+      <c r="B108" s="225"/>
+      <c r="C108" s="231"/>
       <c r="D108" s="111"/>
       <c r="E108" s="112"/>
       <c r="F108" s="95"/>
@@ -5685,8 +5685,8 @@
       <c r="M108" s="3"/>
     </row>
     <row r="109" spans="2:13" ht="18">
-      <c r="B109" s="235"/>
-      <c r="C109" s="229"/>
+      <c r="B109" s="226"/>
+      <c r="C109" s="232"/>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
@@ -5699,8 +5699,8 @@
       <c r="M109" s="3"/>
     </row>
     <row r="110" spans="2:13" ht="18">
-      <c r="B110" s="235"/>
-      <c r="C110" s="229"/>
+      <c r="B110" s="226"/>
+      <c r="C110" s="232"/>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
@@ -5713,8 +5713,8 @@
       <c r="M110" s="3"/>
     </row>
     <row r="111" spans="2:13" ht="18">
-      <c r="B111" s="235"/>
-      <c r="C111" s="229"/>
+      <c r="B111" s="226"/>
+      <c r="C111" s="232"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
@@ -5727,8 +5727,8 @@
       <c r="M111" s="3"/>
     </row>
     <row r="112" spans="2:13" ht="18">
-      <c r="B112" s="235"/>
-      <c r="C112" s="229"/>
+      <c r="B112" s="226"/>
+      <c r="C112" s="232"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
@@ -5741,8 +5741,8 @@
       <c r="M112" s="3"/>
     </row>
     <row r="113" spans="2:13" ht="18">
-      <c r="B113" s="235"/>
-      <c r="C113" s="229"/>
+      <c r="B113" s="226"/>
+      <c r="C113" s="232"/>
       <c r="D113" s="13"/>
       <c r="E113" s="13"/>
       <c r="F113" s="13"/>
@@ -5755,8 +5755,8 @@
       <c r="M113" s="3"/>
     </row>
     <row r="114" spans="2:13" ht="18">
-      <c r="B114" s="235"/>
-      <c r="C114" s="229"/>
+      <c r="B114" s="226"/>
+      <c r="C114" s="232"/>
       <c r="D114" s="116"/>
       <c r="E114" s="116"/>
       <c r="F114" s="116"/>
@@ -5769,8 +5769,8 @@
       <c r="M114" s="3"/>
     </row>
     <row r="115" spans="2:13" ht="18">
-      <c r="B115" s="235"/>
-      <c r="C115" s="229"/>
+      <c r="B115" s="226"/>
+      <c r="C115" s="232"/>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
@@ -5783,8 +5783,8 @@
       <c r="M115" s="3"/>
     </row>
     <row r="116" spans="2:13" ht="18">
-      <c r="B116" s="235"/>
-      <c r="C116" s="229"/>
+      <c r="B116" s="226"/>
+      <c r="C116" s="232"/>
       <c r="D116" s="116"/>
       <c r="E116" s="116"/>
       <c r="F116" s="116"/>
@@ -5797,8 +5797,8 @@
       <c r="M116" s="3"/>
     </row>
     <row r="117" spans="2:13" ht="18">
-      <c r="B117" s="235"/>
-      <c r="C117" s="229"/>
+      <c r="B117" s="226"/>
+      <c r="C117" s="232"/>
       <c r="D117" s="116"/>
       <c r="E117" s="116"/>
       <c r="F117" s="116"/>
@@ -5811,8 +5811,8 @@
       <c r="M117" s="3"/>
     </row>
     <row r="118" spans="2:13" ht="18">
-      <c r="B118" s="235"/>
-      <c r="C118" s="229"/>
+      <c r="B118" s="226"/>
+      <c r="C118" s="232"/>
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
@@ -5825,8 +5825,8 @@
       <c r="M118" s="3"/>
     </row>
     <row r="119" spans="2:13" ht="18">
-      <c r="B119" s="235"/>
-      <c r="C119" s="229"/>
+      <c r="B119" s="226"/>
+      <c r="C119" s="232"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
@@ -5839,8 +5839,8 @@
       <c r="M119" s="2"/>
     </row>
     <row r="120" spans="2:13" ht="18">
-      <c r="B120" s="237"/>
-      <c r="C120" s="230"/>
+      <c r="B120" s="227"/>
+      <c r="C120" s="233"/>
       <c r="D120" s="108"/>
       <c r="E120" s="108"/>
       <c r="F120" s="109"/>
@@ -5853,8 +5853,8 @@
       <c r="M120" s="2"/>
     </row>
     <row r="121" spans="2:13" ht="18">
-      <c r="B121" s="234"/>
-      <c r="C121" s="225"/>
+      <c r="B121" s="225"/>
+      <c r="C121" s="228"/>
       <c r="D121" s="111"/>
       <c r="E121" s="112"/>
       <c r="F121" s="95"/>
@@ -5867,8 +5867,8 @@
       <c r="M121" s="3"/>
     </row>
     <row r="122" spans="2:13" ht="18">
-      <c r="B122" s="235"/>
-      <c r="C122" s="226"/>
+      <c r="B122" s="226"/>
+      <c r="C122" s="229"/>
       <c r="D122" s="120"/>
       <c r="E122" s="120"/>
       <c r="F122" s="120"/>
@@ -5881,8 +5881,8 @@
       <c r="M122" s="4"/>
     </row>
     <row r="123" spans="2:13" ht="18">
-      <c r="B123" s="235"/>
-      <c r="C123" s="226"/>
+      <c r="B123" s="226"/>
+      <c r="C123" s="229"/>
       <c r="D123" s="120"/>
       <c r="E123" s="120"/>
       <c r="F123" s="120"/>
@@ -5895,8 +5895,8 @@
       <c r="M123" s="4"/>
     </row>
     <row r="124" spans="2:13" ht="18">
-      <c r="B124" s="235"/>
-      <c r="C124" s="226"/>
+      <c r="B124" s="226"/>
+      <c r="C124" s="229"/>
       <c r="D124" s="120"/>
       <c r="E124" s="120"/>
       <c r="F124" s="120"/>
@@ -5909,8 +5909,8 @@
       <c r="M124" s="4"/>
     </row>
     <row r="125" spans="2:13" ht="18">
-      <c r="B125" s="235"/>
-      <c r="C125" s="226"/>
+      <c r="B125" s="226"/>
+      <c r="C125" s="229"/>
       <c r="D125" s="154"/>
       <c r="E125" s="154"/>
       <c r="F125" s="154"/>
@@ -5923,8 +5923,8 @@
       <c r="M125" s="4"/>
     </row>
     <row r="126" spans="2:13" ht="18">
-      <c r="B126" s="235"/>
-      <c r="C126" s="226"/>
+      <c r="B126" s="226"/>
+      <c r="C126" s="229"/>
       <c r="D126" s="120"/>
       <c r="E126" s="120"/>
       <c r="F126" s="120"/>
@@ -5937,8 +5937,8 @@
       <c r="M126" s="7"/>
     </row>
     <row r="127" spans="2:13" ht="18">
-      <c r="B127" s="235"/>
-      <c r="C127" s="226"/>
+      <c r="B127" s="226"/>
+      <c r="C127" s="229"/>
       <c r="D127" s="154"/>
       <c r="E127" s="154"/>
       <c r="F127" s="154"/>
@@ -5951,8 +5951,8 @@
       <c r="M127" s="7"/>
     </row>
     <row r="128" spans="2:13" ht="18">
-      <c r="B128" s="235"/>
-      <c r="C128" s="226"/>
+      <c r="B128" s="226"/>
+      <c r="C128" s="229"/>
       <c r="D128" s="120"/>
       <c r="E128" s="120"/>
       <c r="F128" s="120"/>
@@ -5965,8 +5965,8 @@
       <c r="M128" s="7"/>
     </row>
     <row r="129" spans="2:13" ht="18">
-      <c r="B129" s="235"/>
-      <c r="C129" s="226"/>
+      <c r="B129" s="226"/>
+      <c r="C129" s="229"/>
       <c r="D129" s="120"/>
       <c r="E129" s="120"/>
       <c r="F129" s="120"/>
@@ -5979,8 +5979,8 @@
       <c r="M129" s="6"/>
     </row>
     <row r="130" spans="2:13" ht="18">
-      <c r="B130" s="235"/>
-      <c r="C130" s="226"/>
+      <c r="B130" s="226"/>
+      <c r="C130" s="229"/>
       <c r="D130" s="120"/>
       <c r="E130" s="120"/>
       <c r="F130" s="120"/>
@@ -5993,8 +5993,8 @@
       <c r="M130" s="4"/>
     </row>
     <row r="131" spans="2:13" ht="18">
-      <c r="B131" s="235"/>
-      <c r="C131" s="226"/>
+      <c r="B131" s="226"/>
+      <c r="C131" s="229"/>
       <c r="D131" s="120"/>
       <c r="E131" s="120"/>
       <c r="F131" s="120"/>
@@ -6007,8 +6007,8 @@
       <c r="M131" s="4"/>
     </row>
     <row r="132" spans="2:13" ht="18">
-      <c r="B132" s="235"/>
-      <c r="C132" s="226"/>
+      <c r="B132" s="226"/>
+      <c r="C132" s="229"/>
       <c r="D132" s="120"/>
       <c r="E132" s="120"/>
       <c r="F132" s="120"/>
@@ -6021,8 +6021,8 @@
       <c r="M132" s="4"/>
     </row>
     <row r="133" spans="2:13" ht="18">
-      <c r="B133" s="235"/>
-      <c r="C133" s="226"/>
+      <c r="B133" s="226"/>
+      <c r="C133" s="229"/>
       <c r="D133" s="120"/>
       <c r="E133" s="120"/>
       <c r="F133" s="120"/>
@@ -6035,8 +6035,8 @@
       <c r="M133" s="4"/>
     </row>
     <row r="134" spans="2:13" ht="18">
-      <c r="B134" s="235"/>
-      <c r="C134" s="226"/>
+      <c r="B134" s="226"/>
+      <c r="C134" s="229"/>
       <c r="D134" s="120"/>
       <c r="E134" s="120"/>
       <c r="F134" s="120"/>
@@ -6049,8 +6049,8 @@
       <c r="M134" s="4"/>
     </row>
     <row r="135" spans="2:13" ht="18">
-      <c r="B135" s="235"/>
-      <c r="C135" s="226"/>
+      <c r="B135" s="226"/>
+      <c r="C135" s="229"/>
       <c r="D135" s="154"/>
       <c r="E135" s="154"/>
       <c r="F135" s="154"/>
@@ -6063,8 +6063,8 @@
       <c r="M135" s="10"/>
     </row>
     <row r="136" spans="2:13" ht="18">
-      <c r="B136" s="235"/>
-      <c r="C136" s="226"/>
+      <c r="B136" s="226"/>
+      <c r="C136" s="229"/>
       <c r="D136" s="105"/>
       <c r="E136" s="105"/>
       <c r="F136" s="105"/>
@@ -6077,8 +6077,8 @@
       <c r="M136" s="6"/>
     </row>
     <row r="137" spans="2:13" ht="18">
-      <c r="B137" s="237"/>
-      <c r="C137" s="227"/>
+      <c r="B137" s="227"/>
+      <c r="C137" s="230"/>
       <c r="D137" s="108"/>
       <c r="E137" s="108"/>
       <c r="F137" s="109"/>
@@ -6091,8 +6091,8 @@
       <c r="M137" s="2"/>
     </row>
     <row r="138" spans="2:13" ht="18">
-      <c r="B138" s="234"/>
-      <c r="C138" s="228"/>
+      <c r="B138" s="225"/>
+      <c r="C138" s="231"/>
       <c r="D138" s="133"/>
       <c r="E138" s="112"/>
       <c r="F138" s="95"/>
@@ -6105,8 +6105,8 @@
       <c r="M138" s="3"/>
     </row>
     <row r="139" spans="2:13" ht="18">
-      <c r="B139" s="235"/>
-      <c r="C139" s="229"/>
+      <c r="B139" s="226"/>
+      <c r="C139" s="232"/>
       <c r="D139" s="120"/>
       <c r="E139" s="120"/>
       <c r="F139" s="120"/>
@@ -6119,8 +6119,8 @@
       <c r="M139" s="3"/>
     </row>
     <row r="140" spans="2:13" ht="18">
-      <c r="B140" s="235"/>
-      <c r="C140" s="229"/>
+      <c r="B140" s="226"/>
+      <c r="C140" s="232"/>
       <c r="D140" s="120"/>
       <c r="E140" s="120"/>
       <c r="F140" s="120"/>
@@ -6133,8 +6133,8 @@
       <c r="M140" s="3"/>
     </row>
     <row r="141" spans="2:13" ht="18">
-      <c r="B141" s="235"/>
-      <c r="C141" s="229"/>
+      <c r="B141" s="226"/>
+      <c r="C141" s="232"/>
       <c r="D141" s="120"/>
       <c r="E141" s="120"/>
       <c r="F141" s="120"/>
@@ -6147,8 +6147,8 @@
       <c r="M141" s="3"/>
     </row>
     <row r="142" spans="2:13" ht="18">
-      <c r="B142" s="235"/>
-      <c r="C142" s="229"/>
+      <c r="B142" s="226"/>
+      <c r="C142" s="232"/>
       <c r="D142" s="154"/>
       <c r="E142" s="154"/>
       <c r="F142" s="154"/>
@@ -6161,8 +6161,8 @@
       <c r="M142" s="4"/>
     </row>
     <row r="143" spans="2:13" ht="18">
-      <c r="B143" s="235"/>
-      <c r="C143" s="229"/>
+      <c r="B143" s="226"/>
+      <c r="C143" s="232"/>
       <c r="D143" s="120">
         <v>999999999</v>
       </c>
@@ -6177,8 +6177,8 @@
       <c r="M143" s="3"/>
     </row>
     <row r="144" spans="2:13" ht="18">
-      <c r="B144" s="235"/>
-      <c r="C144" s="229"/>
+      <c r="B144" s="226"/>
+      <c r="C144" s="232"/>
       <c r="D144" s="154"/>
       <c r="E144" s="154"/>
       <c r="F144" s="154"/>
@@ -6191,8 +6191,8 @@
       <c r="M144" s="4"/>
     </row>
     <row r="145" spans="2:13" ht="18">
-      <c r="B145" s="235"/>
-      <c r="C145" s="229"/>
+      <c r="B145" s="226"/>
+      <c r="C145" s="232"/>
       <c r="D145" s="120"/>
       <c r="E145" s="120"/>
       <c r="F145" s="120"/>
@@ -6205,8 +6205,8 @@
       <c r="M145" s="3"/>
     </row>
     <row r="146" spans="2:13" ht="18">
-      <c r="B146" s="235"/>
-      <c r="C146" s="229"/>
+      <c r="B146" s="226"/>
+      <c r="C146" s="232"/>
       <c r="D146" s="120"/>
       <c r="E146" s="120"/>
       <c r="F146" s="120"/>
@@ -6219,8 +6219,8 @@
       <c r="M146" s="3"/>
     </row>
     <row r="147" spans="2:13" ht="18">
-      <c r="B147" s="235"/>
-      <c r="C147" s="229"/>
+      <c r="B147" s="226"/>
+      <c r="C147" s="232"/>
       <c r="D147" s="120"/>
       <c r="E147" s="120"/>
       <c r="F147" s="120"/>
@@ -6233,8 +6233,8 @@
       <c r="M147" s="3"/>
     </row>
     <row r="148" spans="2:13" ht="18">
-      <c r="B148" s="235"/>
-      <c r="C148" s="229"/>
+      <c r="B148" s="226"/>
+      <c r="C148" s="232"/>
       <c r="D148" s="120"/>
       <c r="E148" s="120"/>
       <c r="F148" s="120"/>
@@ -6247,8 +6247,8 @@
       <c r="M148" s="3"/>
     </row>
     <row r="149" spans="2:13" ht="18">
-      <c r="B149" s="235"/>
-      <c r="C149" s="229"/>
+      <c r="B149" s="226"/>
+      <c r="C149" s="232"/>
       <c r="D149" s="120"/>
       <c r="E149" s="120"/>
       <c r="F149" s="120"/>
@@ -6261,8 +6261,8 @@
       <c r="M149" s="3"/>
     </row>
     <row r="150" spans="2:13" ht="18">
-      <c r="B150" s="235"/>
-      <c r="C150" s="229"/>
+      <c r="B150" s="226"/>
+      <c r="C150" s="232"/>
       <c r="D150" s="120"/>
       <c r="E150" s="120"/>
       <c r="F150" s="120"/>
@@ -6275,8 +6275,8 @@
       <c r="M150" s="3"/>
     </row>
     <row r="151" spans="2:13" ht="18">
-      <c r="B151" s="235"/>
-      <c r="C151" s="229"/>
+      <c r="B151" s="226"/>
+      <c r="C151" s="232"/>
       <c r="D151" s="120"/>
       <c r="E151" s="120"/>
       <c r="F151" s="120"/>
@@ -6289,8 +6289,8 @@
       <c r="M151" s="3"/>
     </row>
     <row r="152" spans="2:13" ht="18">
-      <c r="B152" s="235"/>
-      <c r="C152" s="229"/>
+      <c r="B152" s="226"/>
+      <c r="C152" s="232"/>
       <c r="D152" s="154"/>
       <c r="E152" s="154"/>
       <c r="F152" s="154"/>
@@ -6303,8 +6303,8 @@
       <c r="M152" s="3"/>
     </row>
     <row r="153" spans="2:13" ht="18">
-      <c r="B153" s="235"/>
-      <c r="C153" s="229"/>
+      <c r="B153" s="226"/>
+      <c r="C153" s="232"/>
       <c r="D153" s="105"/>
       <c r="E153" s="105"/>
       <c r="F153" s="105"/>
@@ -6317,8 +6317,8 @@
       <c r="M153" s="2"/>
     </row>
     <row r="154" spans="2:13" ht="18">
-      <c r="B154" s="235"/>
-      <c r="C154" s="230"/>
+      <c r="B154" s="226"/>
+      <c r="C154" s="233"/>
       <c r="D154" s="108"/>
       <c r="E154" s="108"/>
       <c r="F154" s="109"/>
@@ -6331,7 +6331,7 @@
       <c r="M154" s="2"/>
     </row>
     <row r="155" spans="2:13" ht="19" customHeight="1">
-      <c r="B155" s="231" t="s">
+      <c r="B155" s="234" t="s">
         <v>171</v>
       </c>
       <c r="C155" s="136">
@@ -6368,7 +6368,7 @@
       </c>
     </row>
     <row r="156" spans="2:13" ht="19">
-      <c r="B156" s="231"/>
+      <c r="B156" s="234"/>
       <c r="C156" s="136">
         <v>2</v>
       </c>
@@ -6403,7 +6403,7 @@
       </c>
     </row>
     <row r="157" spans="2:13" ht="20" thickBot="1">
-      <c r="B157" s="231"/>
+      <c r="B157" s="234"/>
       <c r="C157" s="136">
         <v>3</v>
       </c>
@@ -6438,7 +6438,7 @@
       </c>
     </row>
     <row r="158" spans="2:13" ht="21" thickBot="1">
-      <c r="B158" s="231"/>
+      <c r="B158" s="234"/>
       <c r="C158" s="136">
         <v>4</v>
       </c>
@@ -6468,7 +6468,7 @@
       </c>
     </row>
     <row r="159" spans="2:13" ht="33" thickBot="1">
-      <c r="B159" s="231"/>
+      <c r="B159" s="234"/>
       <c r="C159" s="136">
         <v>5</v>
       </c>
@@ -6499,7 +6499,7 @@
       </c>
     </row>
     <row r="160" spans="2:13" ht="33" thickBot="1">
-      <c r="B160" s="231"/>
+      <c r="B160" s="234"/>
       <c r="C160" s="136">
         <v>6</v>
       </c>
@@ -6527,7 +6527,7 @@
       </c>
     </row>
     <row r="161" spans="2:13" ht="33" thickBot="1">
-      <c r="B161" s="231"/>
+      <c r="B161" s="234"/>
       <c r="C161" s="136">
         <v>7</v>
       </c>
@@ -6564,7 +6564,7 @@
       </c>
     </row>
     <row r="162" spans="2:13" ht="32">
-      <c r="B162" s="232"/>
+      <c r="B162" s="235"/>
       <c r="C162" s="171">
         <v>8</v>
       </c>
@@ -6637,11 +6637,15 @@
       <c r="D167" s="5">
         <v>2222</v>
       </c>
+      <c r="E167" s="5">
+        <v>343434</v>
+      </c>
       <c r="I167" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:M162" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="17">
+    <mergeCell ref="C108:C120"/>
     <mergeCell ref="B121:B137"/>
     <mergeCell ref="C121:C137"/>
     <mergeCell ref="C138:C154"/>
@@ -6658,7 +6662,6 @@
     <mergeCell ref="C88:C107"/>
     <mergeCell ref="B88:B107"/>
     <mergeCell ref="B108:B120"/>
-    <mergeCell ref="C108:C120"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/241108_MSR_MOP_CTM BOM 정리.xlsx
+++ b/241108_MSR_MOP_CTM BOM 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/JDS_BU/Git_Hub/GIC_HONGKONG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8B0DD0-66A2-E54A-AA85-21F44E13791E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1D8AD1-0490-2840-AEF0-218897D1065A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7220" yWindow="900" windowWidth="33900" windowHeight="24360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="249">
   <si>
     <t>Remarks</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1124,6 +1124,10 @@
   </si>
   <si>
     <t>추가발주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅓㅇ넝ㄴ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1871,7 +1875,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2547,6 +2551,15 @@
     <xf numFmtId="177" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2563,15 +2576,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="16" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2612,6 +2616,9 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2924,7 +2931,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E167" sqref="E167"/>
+      <selection pane="bottomLeft" activeCell="C167" sqref="C167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.3984375" defaultRowHeight="16"/>
@@ -3006,8 +3013,8 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:13" ht="19">
-      <c r="B4" s="226"/>
-      <c r="C4" s="229"/>
+      <c r="B4" s="229"/>
+      <c r="C4" s="232"/>
       <c r="D4" s="12" t="str">
         <f>MOP!D3</f>
         <v>Main Frame</v>
@@ -3038,8 +3045,8 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="19">
-      <c r="B5" s="226"/>
-      <c r="C5" s="229"/>
+      <c r="B5" s="229"/>
+      <c r="C5" s="232"/>
       <c r="D5" s="12" t="str">
         <f>MOP!D4</f>
         <v>Left Cover</v>
@@ -3070,8 +3077,8 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" ht="19">
-      <c r="B6" s="226"/>
-      <c r="C6" s="229"/>
+      <c r="B6" s="229"/>
+      <c r="C6" s="232"/>
       <c r="D6" s="12" t="str">
         <f>MOP!D5</f>
         <v>Right Cover</v>
@@ -3102,8 +3109,8 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="2:13" ht="19">
-      <c r="B7" s="226"/>
-      <c r="C7" s="229"/>
+      <c r="B7" s="229"/>
+      <c r="C7" s="232"/>
       <c r="D7" s="12" t="str">
         <f>MOP!D6</f>
         <v>Upper Cover</v>
@@ -3134,8 +3141,8 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="2:13" ht="19">
-      <c r="B8" s="226"/>
-      <c r="C8" s="229"/>
+      <c r="B8" s="229"/>
+      <c r="C8" s="232"/>
       <c r="D8" s="12" t="str">
         <f>MOP!D7</f>
         <v>Lower Cover</v>
@@ -3166,8 +3173,8 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:13" ht="19">
-      <c r="B9" s="226"/>
-      <c r="C9" s="229"/>
+      <c r="B9" s="229"/>
+      <c r="C9" s="232"/>
       <c r="D9" s="12" t="str">
         <f>MOP!D8</f>
         <v>Rear Cover</v>
@@ -3198,8 +3205,8 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:13" ht="19">
-      <c r="B10" s="226"/>
-      <c r="C10" s="229"/>
+      <c r="B10" s="229"/>
+      <c r="C10" s="232"/>
       <c r="D10" s="12" t="str">
         <f>MOP!D9</f>
         <v>Push Button</v>
@@ -3230,8 +3237,8 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="2:13" ht="19">
-      <c r="B11" s="226"/>
-      <c r="C11" s="229"/>
+      <c r="B11" s="229"/>
+      <c r="C11" s="232"/>
       <c r="D11" s="12" t="str">
         <f>MOP!D10</f>
         <v>Push Button</v>
@@ -3262,8 +3269,8 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="2:13" ht="19">
-      <c r="B12" s="226"/>
-      <c r="C12" s="229"/>
+      <c r="B12" s="229"/>
+      <c r="C12" s="232"/>
       <c r="D12" s="12" t="str">
         <f>MOP!D11</f>
         <v>Push Button</v>
@@ -3294,8 +3301,8 @@
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="2:13" ht="19">
-      <c r="B13" s="226"/>
-      <c r="C13" s="229"/>
+      <c r="B13" s="229"/>
+      <c r="C13" s="232"/>
       <c r="D13" s="110" t="str">
         <f>MOP!D12</f>
         <v>Microphone</v>
@@ -3332,8 +3339,8 @@
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="2:13" ht="38">
-      <c r="B14" s="226"/>
-      <c r="C14" s="229"/>
+      <c r="B14" s="229"/>
+      <c r="C14" s="232"/>
       <c r="D14" s="12" t="str">
         <f>MOP!D13</f>
         <v>LCD</v>
@@ -3367,8 +3374,8 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="2:13" ht="19">
-      <c r="B15" s="226"/>
-      <c r="C15" s="229"/>
+      <c r="B15" s="229"/>
+      <c r="C15" s="232"/>
       <c r="D15" s="12" t="str">
         <f>MOP!D14</f>
         <v>LCD Mount Bracket</v>
@@ -3399,8 +3406,8 @@
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="2:13" ht="19">
-      <c r="B16" s="226"/>
-      <c r="C16" s="229"/>
+      <c r="B16" s="229"/>
+      <c r="C16" s="232"/>
       <c r="D16" s="12" t="str">
         <f>MOP!D15</f>
         <v>LCD Control Board</v>
@@ -3431,8 +3438,8 @@
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="2:13" ht="19">
-      <c r="B17" s="226"/>
-      <c r="C17" s="229"/>
+      <c r="B17" s="229"/>
+      <c r="C17" s="232"/>
       <c r="D17" s="12" t="str">
         <f>MOP!D16</f>
         <v>Main Control Board</v>
@@ -3463,8 +3470,8 @@
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="2:13" ht="19">
-      <c r="B18" s="226"/>
-      <c r="C18" s="229"/>
+      <c r="B18" s="229"/>
+      <c r="C18" s="232"/>
       <c r="D18" s="12" t="str">
         <f>MOP!D17</f>
         <v>Power Board</v>
@@ -3495,8 +3502,8 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="2:13" ht="19">
-      <c r="B19" s="226"/>
-      <c r="C19" s="229"/>
+      <c r="B19" s="229"/>
+      <c r="C19" s="232"/>
       <c r="D19" s="110" t="str">
         <f>MOP!D18</f>
         <v>3P Connector Male</v>
@@ -3533,8 +3540,8 @@
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="2:13" ht="19">
-      <c r="B20" s="226"/>
-      <c r="C20" s="229"/>
+      <c r="B20" s="229"/>
+      <c r="C20" s="232"/>
       <c r="D20" s="18" t="str">
         <f>MOP!D19</f>
         <v>3P Connector Female</v>
@@ -3567,8 +3574,8 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="19">
-      <c r="B21" s="226"/>
-      <c r="C21" s="229"/>
+      <c r="B21" s="229"/>
+      <c r="C21" s="232"/>
       <c r="D21" s="110" t="str">
         <f>MOP!D20</f>
         <v>Locking</v>
@@ -3605,8 +3612,8 @@
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="2:13" ht="19">
-      <c r="B22" s="226"/>
-      <c r="C22" s="229"/>
+      <c r="B22" s="229"/>
+      <c r="C22" s="232"/>
       <c r="D22" s="110" t="str">
         <f>MOP!D21</f>
         <v>4P Connector</v>
@@ -3643,8 +3650,8 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="2:13" ht="19">
-      <c r="B23" s="226"/>
-      <c r="C23" s="229"/>
+      <c r="B23" s="229"/>
+      <c r="C23" s="232"/>
       <c r="D23" s="110" t="str">
         <f>MOP!D22</f>
         <v>Pin</v>
@@ -3681,8 +3688,8 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:13" ht="19">
-      <c r="B24" s="226"/>
-      <c r="C24" s="229"/>
+      <c r="B24" s="229"/>
+      <c r="C24" s="232"/>
       <c r="D24" s="110" t="str">
         <f>MOP!D23</f>
         <v>12P Connector</v>
@@ -3719,8 +3726,8 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13" ht="19">
-      <c r="B25" s="226"/>
-      <c r="C25" s="229"/>
+      <c r="B25" s="229"/>
+      <c r="C25" s="232"/>
       <c r="D25" s="110" t="str">
         <f>MOP!D24</f>
         <v>Pin</v>
@@ -3757,8 +3764,8 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="2:13" ht="19">
-      <c r="B26" s="226"/>
-      <c r="C26" s="229"/>
+      <c r="B26" s="229"/>
+      <c r="C26" s="232"/>
       <c r="D26" s="110" t="str">
         <f>MOP!D25</f>
         <v>Cable Clamp</v>
@@ -3795,8 +3802,8 @@
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="2:13" ht="19">
-      <c r="B27" s="226"/>
-      <c r="C27" s="229"/>
+      <c r="B27" s="229"/>
+      <c r="C27" s="232"/>
       <c r="D27" s="12" t="str">
         <f>MOP!D26</f>
         <v>Name Plate, AL, T1</v>
@@ -3827,8 +3834,8 @@
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="2:13" ht="19">
-      <c r="B28" s="226"/>
-      <c r="C28" s="229"/>
+      <c r="B28" s="229"/>
+      <c r="C28" s="232"/>
       <c r="D28" s="18" t="str">
         <f>MOP!D27</f>
         <v>SPEAKER</v>
@@ -3861,8 +3868,8 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="18">
-      <c r="B29" s="226"/>
-      <c r="C29" s="229"/>
+      <c r="B29" s="229"/>
+      <c r="C29" s="232"/>
       <c r="D29" s="155"/>
       <c r="E29" s="155"/>
       <c r="F29" s="155"/>
@@ -3875,8 +3882,8 @@
       <c r="M29" s="158"/>
     </row>
     <row r="30" spans="2:13" ht="19">
-      <c r="B30" s="227"/>
-      <c r="C30" s="230"/>
+      <c r="B30" s="230"/>
+      <c r="C30" s="233"/>
       <c r="D30" s="108" t="s">
         <v>172</v>
       </c>
@@ -3902,10 +3909,10 @@
       <c r="M30" s="15"/>
     </row>
     <row r="31" spans="2:13" ht="19">
-      <c r="B31" s="225">
+      <c r="B31" s="228">
         <v>2</v>
       </c>
-      <c r="C31" s="231" t="s">
+      <c r="C31" s="225" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="111"/>
@@ -3922,8 +3929,8 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="2:13" ht="19">
-      <c r="B32" s="226"/>
-      <c r="C32" s="232"/>
+      <c r="B32" s="229"/>
+      <c r="C32" s="226"/>
       <c r="D32" s="13" t="str">
         <f>MSR!D3</f>
         <v>PWR Board</v>
@@ -3954,8 +3961,8 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="2:13" ht="19">
-      <c r="B33" s="226"/>
-      <c r="C33" s="232"/>
+      <c r="B33" s="229"/>
+      <c r="C33" s="226"/>
       <c r="D33" s="13" t="str">
         <f>MSR!D4</f>
         <v>M_TX Board</v>
@@ -3986,8 +3993,8 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="2:13" ht="19">
-      <c r="B34" s="226"/>
-      <c r="C34" s="232"/>
+      <c r="B34" s="229"/>
+      <c r="C34" s="226"/>
       <c r="D34" s="13" t="str">
         <f>MSR!D5</f>
         <v>Hub Board</v>
@@ -4018,8 +4025,8 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="2:13" ht="19">
-      <c r="B35" s="226"/>
-      <c r="C35" s="232"/>
+      <c r="B35" s="229"/>
+      <c r="C35" s="226"/>
       <c r="D35" s="13" t="str">
         <f>MSR!D6</f>
         <v>TCIU Board</v>
@@ -4050,8 +4057,8 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="2:13" ht="19">
-      <c r="B36" s="226"/>
-      <c r="C36" s="232"/>
+      <c r="B36" s="229"/>
+      <c r="C36" s="226"/>
       <c r="D36" s="13" t="str">
         <f>MSR!D7</f>
         <v>PA_PBX Board</v>
@@ -4082,8 +4089,8 @@
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="2:13" ht="19">
-      <c r="B37" s="226"/>
-      <c r="C37" s="232"/>
+      <c r="B37" s="229"/>
+      <c r="C37" s="226"/>
       <c r="D37" s="13" t="str">
         <f>MSR!D8</f>
         <v>PA_ETX Board</v>
@@ -4114,8 +4121,8 @@
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="2:13" ht="19">
-      <c r="B38" s="226"/>
-      <c r="C38" s="232"/>
+      <c r="B38" s="229"/>
+      <c r="C38" s="226"/>
       <c r="D38" s="13" t="str">
         <f>MSR!D9</f>
         <v>NVR Board</v>
@@ -4147,8 +4154,8 @@
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="2:13" ht="38">
-      <c r="B39" s="226"/>
-      <c r="C39" s="232"/>
+      <c r="B39" s="229"/>
+      <c r="C39" s="226"/>
       <c r="D39" s="150" t="str">
         <f>MSR!D10</f>
         <v>CPU
@@ -4180,8 +4187,8 @@
       <c r="M39" s="3"/>
     </row>
     <row r="40" spans="2:13" ht="38">
-      <c r="B40" s="226"/>
-      <c r="C40" s="232"/>
+      <c r="B40" s="229"/>
+      <c r="C40" s="226"/>
       <c r="D40" s="150" t="str">
         <f>MSR!D11</f>
         <v>CPU BRACKET 
@@ -4213,8 +4220,8 @@
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="2:13" ht="57">
-      <c r="B41" s="226"/>
-      <c r="C41" s="232"/>
+      <c r="B41" s="229"/>
+      <c r="C41" s="226"/>
       <c r="D41" s="151" t="str">
         <f>MSR!D12</f>
         <v>DDR4
@@ -4248,8 +4255,8 @@
       </c>
     </row>
     <row r="42" spans="2:13" ht="19">
-      <c r="B42" s="226"/>
-      <c r="C42" s="232"/>
+      <c r="B42" s="229"/>
+      <c r="C42" s="226"/>
       <c r="D42" s="13" t="str">
         <f>MSR!D13</f>
         <v>SSD Board</v>
@@ -4280,8 +4287,8 @@
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="2:13" ht="19">
-      <c r="B43" s="226"/>
-      <c r="C43" s="232"/>
+      <c r="B43" s="229"/>
+      <c r="C43" s="226"/>
       <c r="D43" s="116" t="str">
         <f>MSR!D14</f>
         <v>MSR Back Plane</v>
@@ -4318,8 +4325,8 @@
       <c r="M43" s="3"/>
     </row>
     <row r="44" spans="2:13" ht="19">
-      <c r="B44" s="226"/>
-      <c r="C44" s="232"/>
+      <c r="B44" s="229"/>
+      <c r="C44" s="226"/>
       <c r="D44" s="116" t="str">
         <f>MSR!D15</f>
         <v>Frame</v>
@@ -4356,8 +4363,8 @@
       <c r="M44" s="3"/>
     </row>
     <row r="45" spans="2:13" ht="19">
-      <c r="B45" s="226"/>
-      <c r="C45" s="232"/>
+      <c r="B45" s="229"/>
+      <c r="C45" s="226"/>
       <c r="D45" s="13" t="str">
         <f>MSR!D16</f>
         <v>Name Plate, AL, T1</v>
@@ -4388,8 +4395,8 @@
       <c r="M45" s="3"/>
     </row>
     <row r="46" spans="2:13" ht="19">
-      <c r="B46" s="226"/>
-      <c r="C46" s="232"/>
+      <c r="B46" s="229"/>
+      <c r="C46" s="226"/>
       <c r="D46" s="149" t="str">
         <f>MSR!D17</f>
         <v>SSD(2T)</v>
@@ -4422,8 +4429,8 @@
       </c>
     </row>
     <row r="47" spans="2:13" ht="18">
-      <c r="B47" s="226"/>
-      <c r="C47" s="232"/>
+      <c r="B47" s="229"/>
+      <c r="C47" s="226"/>
       <c r="D47" s="155"/>
       <c r="E47" s="155"/>
       <c r="F47" s="155"/>
@@ -4436,8 +4443,8 @@
       <c r="M47" s="158"/>
     </row>
     <row r="48" spans="2:13" ht="19">
-      <c r="B48" s="227"/>
-      <c r="C48" s="233"/>
+      <c r="B48" s="230"/>
+      <c r="C48" s="227"/>
       <c r="D48" s="108" t="s">
         <v>172</v>
       </c>
@@ -4463,10 +4470,10 @@
       <c r="M48" s="15"/>
     </row>
     <row r="49" spans="2:13" ht="19">
-      <c r="B49" s="225">
+      <c r="B49" s="228">
         <v>3</v>
       </c>
-      <c r="C49" s="231" t="s">
+      <c r="C49" s="225" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="111"/>
@@ -4483,8 +4490,8 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="2:13" ht="19">
-      <c r="B50" s="226"/>
-      <c r="C50" s="232"/>
+      <c r="B50" s="229"/>
+      <c r="C50" s="226"/>
       <c r="D50" s="13" t="str">
         <f>CTM!D3</f>
         <v>Main Frame</v>
@@ -4515,8 +4522,8 @@
       <c r="M50" s="3"/>
     </row>
     <row r="51" spans="2:13" ht="19">
-      <c r="B51" s="226"/>
-      <c r="C51" s="232"/>
+      <c r="B51" s="229"/>
+      <c r="C51" s="226"/>
       <c r="D51" s="13" t="str">
         <f>CTM!D4</f>
         <v>Lower Cover</v>
@@ -4547,8 +4554,8 @@
       <c r="M51" s="3"/>
     </row>
     <row r="52" spans="2:13" ht="19">
-      <c r="B52" s="226"/>
-      <c r="C52" s="232"/>
+      <c r="B52" s="229"/>
+      <c r="C52" s="226"/>
       <c r="D52" s="13" t="str">
         <f>CTM!D5</f>
         <v>Rear Cover</v>
@@ -4579,8 +4586,8 @@
       <c r="M52" s="3"/>
     </row>
     <row r="53" spans="2:13" ht="19">
-      <c r="B53" s="226"/>
-      <c r="C53" s="232"/>
+      <c r="B53" s="229"/>
+      <c r="C53" s="226"/>
       <c r="D53" s="116" t="str">
         <f>CTM!D6</f>
         <v>10.4" LCD</v>
@@ -4619,8 +4626,8 @@
       </c>
     </row>
     <row r="54" spans="2:13" ht="19">
-      <c r="B54" s="226"/>
-      <c r="C54" s="232"/>
+      <c r="B54" s="229"/>
+      <c r="C54" s="226"/>
       <c r="D54" s="13" t="str">
         <f>CTM!D7</f>
         <v>Control Board Bracket</v>
@@ -4650,8 +4657,8 @@
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="2:13" ht="19">
-      <c r="B55" s="226"/>
-      <c r="C55" s="232"/>
+      <c r="B55" s="229"/>
+      <c r="C55" s="226"/>
       <c r="D55" s="13" t="str">
         <f>CTM!D8</f>
         <v>Control Board</v>
@@ -4681,8 +4688,8 @@
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="2:13" ht="19">
-      <c r="B56" s="226"/>
-      <c r="C56" s="232"/>
+      <c r="B56" s="229"/>
+      <c r="C56" s="226"/>
       <c r="D56" s="150" t="str">
         <f>CTM!D9</f>
         <v xml:space="preserve">CPU TCA3/i-E3845 </v>
@@ -4721,8 +4728,8 @@
       </c>
     </row>
     <row r="57" spans="2:13" ht="19">
-      <c r="B57" s="226"/>
-      <c r="C57" s="232"/>
+      <c r="B57" s="229"/>
+      <c r="C57" s="226"/>
       <c r="D57" s="150" t="str">
         <f>CTM!D10</f>
         <v xml:space="preserve">CPU BRACKET TCA3/CSP-B </v>
@@ -4761,8 +4768,8 @@
       </c>
     </row>
     <row r="58" spans="2:13" ht="57">
-      <c r="B58" s="226"/>
-      <c r="C58" s="232"/>
+      <c r="B58" s="229"/>
+      <c r="C58" s="226"/>
       <c r="D58" s="151" t="str">
         <f>CTM!D11</f>
         <v>DDR4
@@ -4796,8 +4803,8 @@
       </c>
     </row>
     <row r="59" spans="2:13" ht="19">
-      <c r="B59" s="226"/>
-      <c r="C59" s="232"/>
+      <c r="B59" s="229"/>
+      <c r="C59" s="226"/>
       <c r="D59" s="13" t="str">
         <f>CTM!D12</f>
         <v>Power Board</v>
@@ -4828,8 +4835,8 @@
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="2:13" ht="19">
-      <c r="B60" s="226"/>
-      <c r="C60" s="232"/>
+      <c r="B60" s="229"/>
+      <c r="C60" s="226"/>
       <c r="D60" s="116" t="str">
         <f>CTM!D13</f>
         <v>3P Connector</v>
@@ -4866,8 +4873,8 @@
       <c r="M60" s="16"/>
     </row>
     <row r="61" spans="2:13" ht="19">
-      <c r="B61" s="226"/>
-      <c r="C61" s="232"/>
+      <c r="B61" s="229"/>
+      <c r="C61" s="226"/>
       <c r="D61" s="116" t="str">
         <f>CTM!D14</f>
         <v>Locking</v>
@@ -4904,8 +4911,8 @@
       <c r="M61" s="16"/>
     </row>
     <row r="62" spans="2:13" ht="19">
-      <c r="B62" s="226"/>
-      <c r="C62" s="232"/>
+      <c r="B62" s="229"/>
+      <c r="C62" s="226"/>
       <c r="D62" s="116" t="str">
         <f>CTM!D15</f>
         <v>4P Connector</v>
@@ -4942,8 +4949,8 @@
       <c r="M62" s="16"/>
     </row>
     <row r="63" spans="2:13" ht="19">
-      <c r="B63" s="226"/>
-      <c r="C63" s="232"/>
+      <c r="B63" s="229"/>
+      <c r="C63" s="226"/>
       <c r="D63" s="116" t="str">
         <f>CTM!D16</f>
         <v>Pin</v>
@@ -4980,8 +4987,8 @@
       <c r="M63" s="16"/>
     </row>
     <row r="64" spans="2:13" ht="19">
-      <c r="B64" s="226"/>
-      <c r="C64" s="232"/>
+      <c r="B64" s="229"/>
+      <c r="C64" s="226"/>
       <c r="D64" s="116" t="str">
         <f>CTM!D17</f>
         <v>Cable Gland</v>
@@ -5018,8 +5025,8 @@
       <c r="M64" s="16"/>
     </row>
     <row r="65" spans="2:13" ht="19">
-      <c r="B65" s="226"/>
-      <c r="C65" s="232"/>
+      <c r="B65" s="229"/>
+      <c r="C65" s="226"/>
       <c r="D65" s="149" t="str">
         <f>CTM!D18</f>
         <v>USB Adapter</v>
@@ -5052,8 +5059,8 @@
       </c>
     </row>
     <row r="66" spans="2:13" ht="19">
-      <c r="B66" s="226"/>
-      <c r="C66" s="232"/>
+      <c r="B66" s="229"/>
+      <c r="C66" s="226"/>
       <c r="D66" s="13" t="str">
         <f>CTM!D19</f>
         <v>Name Plate</v>
@@ -5084,8 +5091,8 @@
       <c r="M66" s="3"/>
     </row>
     <row r="67" spans="2:13" ht="18">
-      <c r="B67" s="226"/>
-      <c r="C67" s="232"/>
+      <c r="B67" s="229"/>
+      <c r="C67" s="226"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -5098,8 +5105,8 @@
       <c r="M67" s="2"/>
     </row>
     <row r="68" spans="2:13" ht="19">
-      <c r="B68" s="227"/>
-      <c r="C68" s="233"/>
+      <c r="B68" s="230"/>
+      <c r="C68" s="227"/>
       <c r="D68" s="108" t="s">
         <v>172</v>
       </c>
@@ -5125,8 +5132,8 @@
       <c r="M68" s="15"/>
     </row>
     <row r="69" spans="2:13" ht="18">
-      <c r="B69" s="225"/>
-      <c r="C69" s="231"/>
+      <c r="B69" s="228"/>
+      <c r="C69" s="225"/>
       <c r="D69" s="111"/>
       <c r="E69" s="112"/>
       <c r="F69" s="95"/>
@@ -5139,8 +5146,8 @@
       <c r="M69" s="3"/>
     </row>
     <row r="70" spans="2:13" ht="18">
-      <c r="B70" s="226"/>
-      <c r="C70" s="232"/>
+      <c r="B70" s="229"/>
+      <c r="C70" s="226"/>
       <c r="D70" s="120"/>
       <c r="E70" s="120"/>
       <c r="F70" s="120"/>
@@ -5153,8 +5160,8 @@
       <c r="M70" s="3"/>
     </row>
     <row r="71" spans="2:13" ht="18">
-      <c r="B71" s="226"/>
-      <c r="C71" s="232"/>
+      <c r="B71" s="229"/>
+      <c r="C71" s="226"/>
       <c r="D71" s="120"/>
       <c r="E71" s="120"/>
       <c r="F71" s="120"/>
@@ -5167,8 +5174,8 @@
       <c r="M71" s="3"/>
     </row>
     <row r="72" spans="2:13" ht="18">
-      <c r="B72" s="226"/>
-      <c r="C72" s="232"/>
+      <c r="B72" s="229"/>
+      <c r="C72" s="226"/>
       <c r="D72" s="120"/>
       <c r="E72" s="120"/>
       <c r="F72" s="120"/>
@@ -5181,8 +5188,8 @@
       <c r="M72" s="3"/>
     </row>
     <row r="73" spans="2:13" ht="18">
-      <c r="B73" s="226"/>
-      <c r="C73" s="232"/>
+      <c r="B73" s="229"/>
+      <c r="C73" s="226"/>
       <c r="D73" s="120"/>
       <c r="E73" s="120"/>
       <c r="F73" s="120"/>
@@ -5195,8 +5202,8 @@
       <c r="M73" s="3"/>
     </row>
     <row r="74" spans="2:13" ht="18">
-      <c r="B74" s="226"/>
-      <c r="C74" s="232"/>
+      <c r="B74" s="229"/>
+      <c r="C74" s="226"/>
       <c r="D74" s="154"/>
       <c r="E74" s="154"/>
       <c r="F74" s="154"/>
@@ -5209,8 +5216,8 @@
       <c r="M74" s="3"/>
     </row>
     <row r="75" spans="2:13" ht="18">
-      <c r="B75" s="226"/>
-      <c r="C75" s="232"/>
+      <c r="B75" s="229"/>
+      <c r="C75" s="226"/>
       <c r="D75" s="154"/>
       <c r="E75" s="154"/>
       <c r="F75" s="154"/>
@@ -5223,8 +5230,8 @@
       <c r="M75" s="3"/>
     </row>
     <row r="76" spans="2:13" ht="18">
-      <c r="B76" s="226"/>
-      <c r="C76" s="232"/>
+      <c r="B76" s="229"/>
+      <c r="C76" s="226"/>
       <c r="D76" s="120"/>
       <c r="E76" s="120"/>
       <c r="F76" s="120"/>
@@ -5237,8 +5244,8 @@
       <c r="M76" s="3"/>
     </row>
     <row r="77" spans="2:13" ht="18">
-      <c r="B77" s="226"/>
-      <c r="C77" s="232"/>
+      <c r="B77" s="229"/>
+      <c r="C77" s="226"/>
       <c r="D77" s="120"/>
       <c r="E77" s="120"/>
       <c r="F77" s="120"/>
@@ -5251,8 +5258,8 @@
       <c r="M77" s="3"/>
     </row>
     <row r="78" spans="2:13" ht="18">
-      <c r="B78" s="226"/>
-      <c r="C78" s="232"/>
+      <c r="B78" s="229"/>
+      <c r="C78" s="226"/>
       <c r="D78" s="120"/>
       <c r="E78" s="120"/>
       <c r="F78" s="120"/>
@@ -5265,8 +5272,8 @@
       <c r="M78" s="3"/>
     </row>
     <row r="79" spans="2:13" ht="18">
-      <c r="B79" s="226"/>
-      <c r="C79" s="232"/>
+      <c r="B79" s="229"/>
+      <c r="C79" s="226"/>
       <c r="D79" s="120"/>
       <c r="E79" s="120"/>
       <c r="F79" s="120"/>
@@ -5279,8 +5286,8 @@
       <c r="M79" s="3"/>
     </row>
     <row r="80" spans="2:13" ht="18">
-      <c r="B80" s="226"/>
-      <c r="C80" s="232"/>
+      <c r="B80" s="229"/>
+      <c r="C80" s="226"/>
       <c r="D80" s="120"/>
       <c r="E80" s="120"/>
       <c r="F80" s="120"/>
@@ -5293,8 +5300,8 @@
       <c r="M80" s="3"/>
     </row>
     <row r="81" spans="2:13" ht="18">
-      <c r="B81" s="226"/>
-      <c r="C81" s="232"/>
+      <c r="B81" s="229"/>
+      <c r="C81" s="226"/>
       <c r="D81" s="120"/>
       <c r="E81" s="120"/>
       <c r="F81" s="120"/>
@@ -5307,8 +5314,8 @@
       <c r="M81" s="3"/>
     </row>
     <row r="82" spans="2:13" ht="18">
-      <c r="B82" s="226"/>
-      <c r="C82" s="232"/>
+      <c r="B82" s="229"/>
+      <c r="C82" s="226"/>
       <c r="D82" s="120"/>
       <c r="E82" s="120"/>
       <c r="F82" s="120"/>
@@ -5321,8 +5328,8 @@
       <c r="M82" s="3"/>
     </row>
     <row r="83" spans="2:13" ht="18">
-      <c r="B83" s="226"/>
-      <c r="C83" s="232"/>
+      <c r="B83" s="229"/>
+      <c r="C83" s="226"/>
       <c r="D83" s="120"/>
       <c r="E83" s="120"/>
       <c r="F83" s="120"/>
@@ -5335,8 +5342,8 @@
       <c r="M83" s="3"/>
     </row>
     <row r="84" spans="2:13" ht="18">
-      <c r="B84" s="226"/>
-      <c r="C84" s="232"/>
+      <c r="B84" s="229"/>
+      <c r="C84" s="226"/>
       <c r="D84" s="154"/>
       <c r="E84" s="154"/>
       <c r="F84" s="154"/>
@@ -5349,8 +5356,8 @@
       <c r="M84" s="3"/>
     </row>
     <row r="85" spans="2:13" ht="18">
-      <c r="B85" s="226"/>
-      <c r="C85" s="232"/>
+      <c r="B85" s="229"/>
+      <c r="C85" s="226"/>
       <c r="D85" s="154"/>
       <c r="E85" s="154"/>
       <c r="F85" s="154"/>
@@ -5363,8 +5370,8 @@
       <c r="M85" s="3"/>
     </row>
     <row r="86" spans="2:13" ht="18">
-      <c r="B86" s="226"/>
-      <c r="C86" s="232"/>
+      <c r="B86" s="229"/>
+      <c r="C86" s="226"/>
       <c r="D86" s="105"/>
       <c r="E86" s="105"/>
       <c r="F86" s="105"/>
@@ -5377,8 +5384,8 @@
       <c r="M86" s="2"/>
     </row>
     <row r="87" spans="2:13" ht="18">
-      <c r="B87" s="227"/>
-      <c r="C87" s="233"/>
+      <c r="B87" s="230"/>
+      <c r="C87" s="227"/>
       <c r="D87" s="108"/>
       <c r="E87" s="108"/>
       <c r="F87" s="109"/>
@@ -5391,8 +5398,8 @@
       <c r="M87" s="2"/>
     </row>
     <row r="88" spans="2:13" ht="18">
-      <c r="B88" s="225"/>
-      <c r="C88" s="231"/>
+      <c r="B88" s="228"/>
+      <c r="C88" s="225"/>
       <c r="D88" s="111"/>
       <c r="E88" s="112"/>
       <c r="F88" s="95"/>
@@ -5405,8 +5412,8 @@
       <c r="M88" s="3"/>
     </row>
     <row r="89" spans="2:13" ht="18">
-      <c r="B89" s="226"/>
-      <c r="C89" s="232"/>
+      <c r="B89" s="229"/>
+      <c r="C89" s="226"/>
       <c r="D89" s="120"/>
       <c r="E89" s="120"/>
       <c r="F89" s="120"/>
@@ -5419,8 +5426,8 @@
       <c r="M89" s="3"/>
     </row>
     <row r="90" spans="2:13" ht="18">
-      <c r="B90" s="226"/>
-      <c r="C90" s="232"/>
+      <c r="B90" s="229"/>
+      <c r="C90" s="226"/>
       <c r="D90" s="120"/>
       <c r="E90" s="120"/>
       <c r="F90" s="120"/>
@@ -5433,8 +5440,8 @@
       <c r="M90" s="3"/>
     </row>
     <row r="91" spans="2:13" ht="18">
-      <c r="B91" s="226"/>
-      <c r="C91" s="232"/>
+      <c r="B91" s="229"/>
+      <c r="C91" s="226"/>
       <c r="D91" s="120"/>
       <c r="E91" s="120"/>
       <c r="F91" s="120"/>
@@ -5447,8 +5454,8 @@
       <c r="M91" s="3"/>
     </row>
     <row r="92" spans="2:13" ht="18">
-      <c r="B92" s="226"/>
-      <c r="C92" s="232"/>
+      <c r="B92" s="229"/>
+      <c r="C92" s="226"/>
       <c r="D92" s="120"/>
       <c r="E92" s="120"/>
       <c r="F92" s="120"/>
@@ -5461,8 +5468,8 @@
       <c r="M92" s="9"/>
     </row>
     <row r="93" spans="2:13" ht="18">
-      <c r="B93" s="226"/>
-      <c r="C93" s="232"/>
+      <c r="B93" s="229"/>
+      <c r="C93" s="226"/>
       <c r="D93" s="120"/>
       <c r="E93" s="120"/>
       <c r="F93" s="120"/>
@@ -5475,8 +5482,8 @@
       <c r="M93" s="3"/>
     </row>
     <row r="94" spans="2:13" ht="18">
-      <c r="B94" s="226"/>
-      <c r="C94" s="232"/>
+      <c r="B94" s="229"/>
+      <c r="C94" s="226"/>
       <c r="D94" s="120"/>
       <c r="E94" s="120"/>
       <c r="F94" s="120"/>
@@ -5489,8 +5496,8 @@
       <c r="M94" s="3"/>
     </row>
     <row r="95" spans="2:13" ht="18">
-      <c r="B95" s="226"/>
-      <c r="C95" s="232"/>
+      <c r="B95" s="229"/>
+      <c r="C95" s="226"/>
       <c r="D95" s="154"/>
       <c r="E95" s="154"/>
       <c r="F95" s="154"/>
@@ -5503,8 +5510,8 @@
       <c r="M95" s="3"/>
     </row>
     <row r="96" spans="2:13" ht="18">
-      <c r="B96" s="226"/>
-      <c r="C96" s="232"/>
+      <c r="B96" s="229"/>
+      <c r="C96" s="226"/>
       <c r="D96" s="154"/>
       <c r="E96" s="154"/>
       <c r="F96" s="154"/>
@@ -5517,8 +5524,8 @@
       <c r="M96" s="3"/>
     </row>
     <row r="97" spans="2:13" ht="18">
-      <c r="B97" s="226"/>
-      <c r="C97" s="232"/>
+      <c r="B97" s="229"/>
+      <c r="C97" s="226"/>
       <c r="D97" s="120"/>
       <c r="E97" s="120"/>
       <c r="F97" s="120"/>
@@ -5531,8 +5538,8 @@
       <c r="M97" s="3"/>
     </row>
     <row r="98" spans="2:13" ht="18">
-      <c r="B98" s="226"/>
-      <c r="C98" s="232"/>
+      <c r="B98" s="229"/>
+      <c r="C98" s="226"/>
       <c r="D98" s="120"/>
       <c r="E98" s="120"/>
       <c r="F98" s="120"/>
@@ -5545,8 +5552,8 @@
       <c r="M98" s="3"/>
     </row>
     <row r="99" spans="2:13" ht="18">
-      <c r="B99" s="226"/>
-      <c r="C99" s="232"/>
+      <c r="B99" s="229"/>
+      <c r="C99" s="226"/>
       <c r="D99" s="120"/>
       <c r="E99" s="120"/>
       <c r="F99" s="120"/>
@@ -5559,8 +5566,8 @@
       <c r="M99" s="3"/>
     </row>
     <row r="100" spans="2:13" ht="18">
-      <c r="B100" s="226"/>
-      <c r="C100" s="232"/>
+      <c r="B100" s="229"/>
+      <c r="C100" s="226"/>
       <c r="D100" s="120"/>
       <c r="E100" s="120"/>
       <c r="F100" s="120"/>
@@ -5573,8 +5580,8 @@
       <c r="M100" s="3"/>
     </row>
     <row r="101" spans="2:13" ht="18">
-      <c r="B101" s="226"/>
-      <c r="C101" s="232"/>
+      <c r="B101" s="229"/>
+      <c r="C101" s="226"/>
       <c r="D101" s="120"/>
       <c r="E101" s="120"/>
       <c r="F101" s="120"/>
@@ -5587,8 +5594,8 @@
       <c r="M101" s="3"/>
     </row>
     <row r="102" spans="2:13" ht="18">
-      <c r="B102" s="226"/>
-      <c r="C102" s="232"/>
+      <c r="B102" s="229"/>
+      <c r="C102" s="226"/>
       <c r="D102" s="120"/>
       <c r="E102" s="120"/>
       <c r="F102" s="120"/>
@@ -5601,8 +5608,8 @@
       <c r="M102" s="3"/>
     </row>
     <row r="103" spans="2:13" ht="18">
-      <c r="B103" s="226"/>
-      <c r="C103" s="232"/>
+      <c r="B103" s="229"/>
+      <c r="C103" s="226"/>
       <c r="D103" s="120"/>
       <c r="E103" s="120"/>
       <c r="F103" s="120"/>
@@ -5615,8 +5622,8 @@
       <c r="M103" s="3"/>
     </row>
     <row r="104" spans="2:13" ht="18">
-      <c r="B104" s="226"/>
-      <c r="C104" s="232"/>
+      <c r="B104" s="229"/>
+      <c r="C104" s="226"/>
       <c r="D104" s="154"/>
       <c r="E104" s="154"/>
       <c r="F104" s="154"/>
@@ -5629,8 +5636,8 @@
       <c r="M104" s="3"/>
     </row>
     <row r="105" spans="2:13" ht="18">
-      <c r="B105" s="226"/>
-      <c r="C105" s="232"/>
+      <c r="B105" s="229"/>
+      <c r="C105" s="226"/>
       <c r="D105" s="120"/>
       <c r="E105" s="120"/>
       <c r="F105" s="120"/>
@@ -5643,8 +5650,8 @@
       <c r="M105" s="2"/>
     </row>
     <row r="106" spans="2:13" ht="18">
-      <c r="B106" s="226"/>
-      <c r="C106" s="232"/>
+      <c r="B106" s="229"/>
+      <c r="C106" s="226"/>
       <c r="D106" s="105"/>
       <c r="E106" s="105"/>
       <c r="F106" s="105"/>
@@ -5657,8 +5664,8 @@
       <c r="M106" s="2"/>
     </row>
     <row r="107" spans="2:13" ht="18">
-      <c r="B107" s="227"/>
-      <c r="C107" s="233"/>
+      <c r="B107" s="230"/>
+      <c r="C107" s="227"/>
       <c r="D107" s="108"/>
       <c r="E107" s="108"/>
       <c r="F107" s="109"/>
@@ -5671,8 +5678,8 @@
       <c r="M107" s="2"/>
     </row>
     <row r="108" spans="2:13" ht="18">
-      <c r="B108" s="225"/>
-      <c r="C108" s="231"/>
+      <c r="B108" s="228"/>
+      <c r="C108" s="225"/>
       <c r="D108" s="111"/>
       <c r="E108" s="112"/>
       <c r="F108" s="95"/>
@@ -5685,8 +5692,8 @@
       <c r="M108" s="3"/>
     </row>
     <row r="109" spans="2:13" ht="18">
-      <c r="B109" s="226"/>
-      <c r="C109" s="232"/>
+      <c r="B109" s="229"/>
+      <c r="C109" s="226"/>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
@@ -5699,8 +5706,8 @@
       <c r="M109" s="3"/>
     </row>
     <row r="110" spans="2:13" ht="18">
-      <c r="B110" s="226"/>
-      <c r="C110" s="232"/>
+      <c r="B110" s="229"/>
+      <c r="C110" s="226"/>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
@@ -5713,8 +5720,8 @@
       <c r="M110" s="3"/>
     </row>
     <row r="111" spans="2:13" ht="18">
-      <c r="B111" s="226"/>
-      <c r="C111" s="232"/>
+      <c r="B111" s="229"/>
+      <c r="C111" s="226"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
@@ -5727,8 +5734,8 @@
       <c r="M111" s="3"/>
     </row>
     <row r="112" spans="2:13" ht="18">
-      <c r="B112" s="226"/>
-      <c r="C112" s="232"/>
+      <c r="B112" s="229"/>
+      <c r="C112" s="226"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
@@ -5741,8 +5748,8 @@
       <c r="M112" s="3"/>
     </row>
     <row r="113" spans="2:13" ht="18">
-      <c r="B113" s="226"/>
-      <c r="C113" s="232"/>
+      <c r="B113" s="229"/>
+      <c r="C113" s="226"/>
       <c r="D113" s="13"/>
       <c r="E113" s="13"/>
       <c r="F113" s="13"/>
@@ -5755,8 +5762,8 @@
       <c r="M113" s="3"/>
     </row>
     <row r="114" spans="2:13" ht="18">
-      <c r="B114" s="226"/>
-      <c r="C114" s="232"/>
+      <c r="B114" s="229"/>
+      <c r="C114" s="226"/>
       <c r="D114" s="116"/>
       <c r="E114" s="116"/>
       <c r="F114" s="116"/>
@@ -5769,8 +5776,8 @@
       <c r="M114" s="3"/>
     </row>
     <row r="115" spans="2:13" ht="18">
-      <c r="B115" s="226"/>
-      <c r="C115" s="232"/>
+      <c r="B115" s="229"/>
+      <c r="C115" s="226"/>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
@@ -5783,8 +5790,8 @@
       <c r="M115" s="3"/>
     </row>
     <row r="116" spans="2:13" ht="18">
-      <c r="B116" s="226"/>
-      <c r="C116" s="232"/>
+      <c r="B116" s="229"/>
+      <c r="C116" s="226"/>
       <c r="D116" s="116"/>
       <c r="E116" s="116"/>
       <c r="F116" s="116"/>
@@ -5797,8 +5804,8 @@
       <c r="M116" s="3"/>
     </row>
     <row r="117" spans="2:13" ht="18">
-      <c r="B117" s="226"/>
-      <c r="C117" s="232"/>
+      <c r="B117" s="229"/>
+      <c r="C117" s="226"/>
       <c r="D117" s="116"/>
       <c r="E117" s="116"/>
       <c r="F117" s="116"/>
@@ -5811,8 +5818,8 @@
       <c r="M117" s="3"/>
     </row>
     <row r="118" spans="2:13" ht="18">
-      <c r="B118" s="226"/>
-      <c r="C118" s="232"/>
+      <c r="B118" s="229"/>
+      <c r="C118" s="226"/>
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
@@ -5825,8 +5832,8 @@
       <c r="M118" s="3"/>
     </row>
     <row r="119" spans="2:13" ht="18">
-      <c r="B119" s="226"/>
-      <c r="C119" s="232"/>
+      <c r="B119" s="229"/>
+      <c r="C119" s="226"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
@@ -5839,8 +5846,8 @@
       <c r="M119" s="2"/>
     </row>
     <row r="120" spans="2:13" ht="18">
-      <c r="B120" s="227"/>
-      <c r="C120" s="233"/>
+      <c r="B120" s="230"/>
+      <c r="C120" s="227"/>
       <c r="D120" s="108"/>
       <c r="E120" s="108"/>
       <c r="F120" s="109"/>
@@ -5853,8 +5860,8 @@
       <c r="M120" s="2"/>
     </row>
     <row r="121" spans="2:13" ht="18">
-      <c r="B121" s="225"/>
-      <c r="C121" s="228"/>
+      <c r="B121" s="228"/>
+      <c r="C121" s="231"/>
       <c r="D121" s="111"/>
       <c r="E121" s="112"/>
       <c r="F121" s="95"/>
@@ -5867,8 +5874,8 @@
       <c r="M121" s="3"/>
     </row>
     <row r="122" spans="2:13" ht="18">
-      <c r="B122" s="226"/>
-      <c r="C122" s="229"/>
+      <c r="B122" s="229"/>
+      <c r="C122" s="232"/>
       <c r="D122" s="120"/>
       <c r="E122" s="120"/>
       <c r="F122" s="120"/>
@@ -5881,8 +5888,8 @@
       <c r="M122" s="4"/>
     </row>
     <row r="123" spans="2:13" ht="18">
-      <c r="B123" s="226"/>
-      <c r="C123" s="229"/>
+      <c r="B123" s="229"/>
+      <c r="C123" s="232"/>
       <c r="D123" s="120"/>
       <c r="E123" s="120"/>
       <c r="F123" s="120"/>
@@ -5895,8 +5902,8 @@
       <c r="M123" s="4"/>
     </row>
     <row r="124" spans="2:13" ht="18">
-      <c r="B124" s="226"/>
-      <c r="C124" s="229"/>
+      <c r="B124" s="229"/>
+      <c r="C124" s="232"/>
       <c r="D124" s="120"/>
       <c r="E124" s="120"/>
       <c r="F124" s="120"/>
@@ -5909,8 +5916,8 @@
       <c r="M124" s="4"/>
     </row>
     <row r="125" spans="2:13" ht="18">
-      <c r="B125" s="226"/>
-      <c r="C125" s="229"/>
+      <c r="B125" s="229"/>
+      <c r="C125" s="232"/>
       <c r="D125" s="154"/>
       <c r="E125" s="154"/>
       <c r="F125" s="154"/>
@@ -5923,8 +5930,8 @@
       <c r="M125" s="4"/>
     </row>
     <row r="126" spans="2:13" ht="18">
-      <c r="B126" s="226"/>
-      <c r="C126" s="229"/>
+      <c r="B126" s="229"/>
+      <c r="C126" s="232"/>
       <c r="D126" s="120"/>
       <c r="E126" s="120"/>
       <c r="F126" s="120"/>
@@ -5937,8 +5944,8 @@
       <c r="M126" s="7"/>
     </row>
     <row r="127" spans="2:13" ht="18">
-      <c r="B127" s="226"/>
-      <c r="C127" s="229"/>
+      <c r="B127" s="229"/>
+      <c r="C127" s="232"/>
       <c r="D127" s="154"/>
       <c r="E127" s="154"/>
       <c r="F127" s="154"/>
@@ -5951,8 +5958,8 @@
       <c r="M127" s="7"/>
     </row>
     <row r="128" spans="2:13" ht="18">
-      <c r="B128" s="226"/>
-      <c r="C128" s="229"/>
+      <c r="B128" s="229"/>
+      <c r="C128" s="232"/>
       <c r="D128" s="120"/>
       <c r="E128" s="120"/>
       <c r="F128" s="120"/>
@@ -5965,8 +5972,8 @@
       <c r="M128" s="7"/>
     </row>
     <row r="129" spans="2:13" ht="18">
-      <c r="B129" s="226"/>
-      <c r="C129" s="229"/>
+      <c r="B129" s="229"/>
+      <c r="C129" s="232"/>
       <c r="D129" s="120"/>
       <c r="E129" s="120"/>
       <c r="F129" s="120"/>
@@ -5979,8 +5986,8 @@
       <c r="M129" s="6"/>
     </row>
     <row r="130" spans="2:13" ht="18">
-      <c r="B130" s="226"/>
-      <c r="C130" s="229"/>
+      <c r="B130" s="229"/>
+      <c r="C130" s="232"/>
       <c r="D130" s="120"/>
       <c r="E130" s="120"/>
       <c r="F130" s="120"/>
@@ -5993,8 +6000,8 @@
       <c r="M130" s="4"/>
     </row>
     <row r="131" spans="2:13" ht="18">
-      <c r="B131" s="226"/>
-      <c r="C131" s="229"/>
+      <c r="B131" s="229"/>
+      <c r="C131" s="232"/>
       <c r="D131" s="120"/>
       <c r="E131" s="120"/>
       <c r="F131" s="120"/>
@@ -6007,8 +6014,8 @@
       <c r="M131" s="4"/>
     </row>
     <row r="132" spans="2:13" ht="18">
-      <c r="B132" s="226"/>
-      <c r="C132" s="229"/>
+      <c r="B132" s="229"/>
+      <c r="C132" s="232"/>
       <c r="D132" s="120"/>
       <c r="E132" s="120"/>
       <c r="F132" s="120"/>
@@ -6021,8 +6028,8 @@
       <c r="M132" s="4"/>
     </row>
     <row r="133" spans="2:13" ht="18">
-      <c r="B133" s="226"/>
-      <c r="C133" s="229"/>
+      <c r="B133" s="229"/>
+      <c r="C133" s="232"/>
       <c r="D133" s="120"/>
       <c r="E133" s="120"/>
       <c r="F133" s="120"/>
@@ -6035,8 +6042,8 @@
       <c r="M133" s="4"/>
     </row>
     <row r="134" spans="2:13" ht="18">
-      <c r="B134" s="226"/>
-      <c r="C134" s="229"/>
+      <c r="B134" s="229"/>
+      <c r="C134" s="232"/>
       <c r="D134" s="120"/>
       <c r="E134" s="120"/>
       <c r="F134" s="120"/>
@@ -6049,8 +6056,8 @@
       <c r="M134" s="4"/>
     </row>
     <row r="135" spans="2:13" ht="18">
-      <c r="B135" s="226"/>
-      <c r="C135" s="229"/>
+      <c r="B135" s="229"/>
+      <c r="C135" s="232"/>
       <c r="D135" s="154"/>
       <c r="E135" s="154"/>
       <c r="F135" s="154"/>
@@ -6063,8 +6070,8 @@
       <c r="M135" s="10"/>
     </row>
     <row r="136" spans="2:13" ht="18">
-      <c r="B136" s="226"/>
-      <c r="C136" s="229"/>
+      <c r="B136" s="229"/>
+      <c r="C136" s="232"/>
       <c r="D136" s="105"/>
       <c r="E136" s="105"/>
       <c r="F136" s="105"/>
@@ -6077,8 +6084,8 @@
       <c r="M136" s="6"/>
     </row>
     <row r="137" spans="2:13" ht="18">
-      <c r="B137" s="227"/>
-      <c r="C137" s="230"/>
+      <c r="B137" s="230"/>
+      <c r="C137" s="233"/>
       <c r="D137" s="108"/>
       <c r="E137" s="108"/>
       <c r="F137" s="109"/>
@@ -6091,8 +6098,8 @@
       <c r="M137" s="2"/>
     </row>
     <row r="138" spans="2:13" ht="18">
-      <c r="B138" s="225"/>
-      <c r="C138" s="231"/>
+      <c r="B138" s="228"/>
+      <c r="C138" s="225"/>
       <c r="D138" s="133"/>
       <c r="E138" s="112"/>
       <c r="F138" s="95"/>
@@ -6105,8 +6112,8 @@
       <c r="M138" s="3"/>
     </row>
     <row r="139" spans="2:13" ht="18">
-      <c r="B139" s="226"/>
-      <c r="C139" s="232"/>
+      <c r="B139" s="229"/>
+      <c r="C139" s="226"/>
       <c r="D139" s="120"/>
       <c r="E139" s="120"/>
       <c r="F139" s="120"/>
@@ -6119,8 +6126,8 @@
       <c r="M139" s="3"/>
     </row>
     <row r="140" spans="2:13" ht="18">
-      <c r="B140" s="226"/>
-      <c r="C140" s="232"/>
+      <c r="B140" s="229"/>
+      <c r="C140" s="226"/>
       <c r="D140" s="120"/>
       <c r="E140" s="120"/>
       <c r="F140" s="120"/>
@@ -6133,8 +6140,8 @@
       <c r="M140" s="3"/>
     </row>
     <row r="141" spans="2:13" ht="18">
-      <c r="B141" s="226"/>
-      <c r="C141" s="232"/>
+      <c r="B141" s="229"/>
+      <c r="C141" s="226"/>
       <c r="D141" s="120"/>
       <c r="E141" s="120"/>
       <c r="F141" s="120"/>
@@ -6147,8 +6154,8 @@
       <c r="M141" s="3"/>
     </row>
     <row r="142" spans="2:13" ht="18">
-      <c r="B142" s="226"/>
-      <c r="C142" s="232"/>
+      <c r="B142" s="229"/>
+      <c r="C142" s="226"/>
       <c r="D142" s="154"/>
       <c r="E142" s="154"/>
       <c r="F142" s="154"/>
@@ -6161,8 +6168,8 @@
       <c r="M142" s="4"/>
     </row>
     <row r="143" spans="2:13" ht="18">
-      <c r="B143" s="226"/>
-      <c r="C143" s="232"/>
+      <c r="B143" s="229"/>
+      <c r="C143" s="226"/>
       <c r="D143" s="120">
         <v>999999999</v>
       </c>
@@ -6177,8 +6184,8 @@
       <c r="M143" s="3"/>
     </row>
     <row r="144" spans="2:13" ht="18">
-      <c r="B144" s="226"/>
-      <c r="C144" s="232"/>
+      <c r="B144" s="229"/>
+      <c r="C144" s="226"/>
       <c r="D144" s="154"/>
       <c r="E144" s="154"/>
       <c r="F144" s="154"/>
@@ -6191,8 +6198,8 @@
       <c r="M144" s="4"/>
     </row>
     <row r="145" spans="2:13" ht="18">
-      <c r="B145" s="226"/>
-      <c r="C145" s="232"/>
+      <c r="B145" s="229"/>
+      <c r="C145" s="226"/>
       <c r="D145" s="120"/>
       <c r="E145" s="120"/>
       <c r="F145" s="120"/>
@@ -6205,8 +6212,8 @@
       <c r="M145" s="3"/>
     </row>
     <row r="146" spans="2:13" ht="18">
-      <c r="B146" s="226"/>
-      <c r="C146" s="232"/>
+      <c r="B146" s="229"/>
+      <c r="C146" s="226"/>
       <c r="D146" s="120"/>
       <c r="E146" s="120"/>
       <c r="F146" s="120"/>
@@ -6219,8 +6226,8 @@
       <c r="M146" s="3"/>
     </row>
     <row r="147" spans="2:13" ht="18">
-      <c r="B147" s="226"/>
-      <c r="C147" s="232"/>
+      <c r="B147" s="229"/>
+      <c r="C147" s="226"/>
       <c r="D147" s="120"/>
       <c r="E147" s="120"/>
       <c r="F147" s="120"/>
@@ -6233,8 +6240,8 @@
       <c r="M147" s="3"/>
     </row>
     <row r="148" spans="2:13" ht="18">
-      <c r="B148" s="226"/>
-      <c r="C148" s="232"/>
+      <c r="B148" s="229"/>
+      <c r="C148" s="226"/>
       <c r="D148" s="120"/>
       <c r="E148" s="120"/>
       <c r="F148" s="120"/>
@@ -6247,8 +6254,8 @@
       <c r="M148" s="3"/>
     </row>
     <row r="149" spans="2:13" ht="18">
-      <c r="B149" s="226"/>
-      <c r="C149" s="232"/>
+      <c r="B149" s="229"/>
+      <c r="C149" s="226"/>
       <c r="D149" s="120"/>
       <c r="E149" s="120"/>
       <c r="F149" s="120"/>
@@ -6261,8 +6268,8 @@
       <c r="M149" s="3"/>
     </row>
     <row r="150" spans="2:13" ht="18">
-      <c r="B150" s="226"/>
-      <c r="C150" s="232"/>
+      <c r="B150" s="229"/>
+      <c r="C150" s="226"/>
       <c r="D150" s="120"/>
       <c r="E150" s="120"/>
       <c r="F150" s="120"/>
@@ -6275,8 +6282,8 @@
       <c r="M150" s="3"/>
     </row>
     <row r="151" spans="2:13" ht="18">
-      <c r="B151" s="226"/>
-      <c r="C151" s="232"/>
+      <c r="B151" s="229"/>
+      <c r="C151" s="226"/>
       <c r="D151" s="120"/>
       <c r="E151" s="120"/>
       <c r="F151" s="120"/>
@@ -6289,8 +6296,8 @@
       <c r="M151" s="3"/>
     </row>
     <row r="152" spans="2:13" ht="18">
-      <c r="B152" s="226"/>
-      <c r="C152" s="232"/>
+      <c r="B152" s="229"/>
+      <c r="C152" s="226"/>
       <c r="D152" s="154"/>
       <c r="E152" s="154"/>
       <c r="F152" s="154"/>
@@ -6303,8 +6310,8 @@
       <c r="M152" s="3"/>
     </row>
     <row r="153" spans="2:13" ht="18">
-      <c r="B153" s="226"/>
-      <c r="C153" s="232"/>
+      <c r="B153" s="229"/>
+      <c r="C153" s="226"/>
       <c r="D153" s="105"/>
       <c r="E153" s="105"/>
       <c r="F153" s="105"/>
@@ -6317,8 +6324,8 @@
       <c r="M153" s="2"/>
     </row>
     <row r="154" spans="2:13" ht="18">
-      <c r="B154" s="226"/>
-      <c r="C154" s="233"/>
+      <c r="B154" s="229"/>
+      <c r="C154" s="227"/>
       <c r="D154" s="108"/>
       <c r="E154" s="108"/>
       <c r="F154" s="109"/>
@@ -6634,6 +6641,9 @@
       </c>
     </row>
     <row r="167" spans="2:13">
+      <c r="C167" s="247" t="s">
+        <v>248</v>
+      </c>
       <c r="D167" s="5">
         <v>2222</v>
       </c>
@@ -6645,11 +6655,6 @@
   </sheetData>
   <autoFilter ref="B2:M162" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="17">
-    <mergeCell ref="C108:C120"/>
-    <mergeCell ref="B121:B137"/>
-    <mergeCell ref="C121:C137"/>
-    <mergeCell ref="C138:C154"/>
-    <mergeCell ref="B155:B162"/>
     <mergeCell ref="C3:C30"/>
     <mergeCell ref="B138:B154"/>
     <mergeCell ref="B3:B30"/>
@@ -6662,6 +6667,11 @@
     <mergeCell ref="C88:C107"/>
     <mergeCell ref="B88:B107"/>
     <mergeCell ref="B108:B120"/>
+    <mergeCell ref="C108:C120"/>
+    <mergeCell ref="B121:B137"/>
+    <mergeCell ref="C121:C137"/>
+    <mergeCell ref="C138:C154"/>
+    <mergeCell ref="B155:B162"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/241108_MSR_MOP_CTM BOM 정리.xlsx
+++ b/241108_MSR_MOP_CTM BOM 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/JDS_BU/Git_Hub/GIC_HONGKONG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1D8AD1-0490-2840-AEF0-218897D1065A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E232A577-6D1A-BB4E-942E-3ECF47D74CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7220" yWindow="900" windowWidth="33900" windowHeight="24360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="250">
   <si>
     <t>Remarks</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1128,6 +1128,10 @@
   </si>
   <si>
     <t>ㅓㅇ넝ㄴ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄹㄴㄹㅇㄴㄹㄴㅇ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2551,6 +2555,30 @@
     <xf numFmtId="177" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2560,34 +2588,13 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="16" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="16" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="23" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2616,9 +2623,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2927,11 +2931,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M167"/>
+  <dimension ref="B1:M169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C167" sqref="C167"/>
+      <selection pane="bottomLeft" activeCell="C169" sqref="C169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.3984375" defaultRowHeight="16"/>
@@ -2993,10 +2997,10 @@
       </c>
     </row>
     <row r="3" spans="2:13" ht="19">
-      <c r="B3" s="237">
+      <c r="B3" s="231">
         <v>1</v>
       </c>
-      <c r="C3" s="236" t="s">
+      <c r="C3" s="226" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="92"/>
@@ -3013,8 +3017,8 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:13" ht="19">
-      <c r="B4" s="229"/>
-      <c r="C4" s="232"/>
+      <c r="B4" s="230"/>
+      <c r="C4" s="227"/>
       <c r="D4" s="12" t="str">
         <f>MOP!D3</f>
         <v>Main Frame</v>
@@ -3045,8 +3049,8 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="19">
-      <c r="B5" s="229"/>
-      <c r="C5" s="232"/>
+      <c r="B5" s="230"/>
+      <c r="C5" s="227"/>
       <c r="D5" s="12" t="str">
         <f>MOP!D4</f>
         <v>Left Cover</v>
@@ -3077,8 +3081,8 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" ht="19">
-      <c r="B6" s="229"/>
-      <c r="C6" s="232"/>
+      <c r="B6" s="230"/>
+      <c r="C6" s="227"/>
       <c r="D6" s="12" t="str">
         <f>MOP!D5</f>
         <v>Right Cover</v>
@@ -3109,8 +3113,8 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="2:13" ht="19">
-      <c r="B7" s="229"/>
-      <c r="C7" s="232"/>
+      <c r="B7" s="230"/>
+      <c r="C7" s="227"/>
       <c r="D7" s="12" t="str">
         <f>MOP!D6</f>
         <v>Upper Cover</v>
@@ -3141,8 +3145,8 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="2:13" ht="19">
-      <c r="B8" s="229"/>
-      <c r="C8" s="232"/>
+      <c r="B8" s="230"/>
+      <c r="C8" s="227"/>
       <c r="D8" s="12" t="str">
         <f>MOP!D7</f>
         <v>Lower Cover</v>
@@ -3173,8 +3177,8 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:13" ht="19">
-      <c r="B9" s="229"/>
-      <c r="C9" s="232"/>
+      <c r="B9" s="230"/>
+      <c r="C9" s="227"/>
       <c r="D9" s="12" t="str">
         <f>MOP!D8</f>
         <v>Rear Cover</v>
@@ -3205,8 +3209,8 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:13" ht="19">
-      <c r="B10" s="229"/>
-      <c r="C10" s="232"/>
+      <c r="B10" s="230"/>
+      <c r="C10" s="227"/>
       <c r="D10" s="12" t="str">
         <f>MOP!D9</f>
         <v>Push Button</v>
@@ -3237,8 +3241,8 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="2:13" ht="19">
-      <c r="B11" s="229"/>
-      <c r="C11" s="232"/>
+      <c r="B11" s="230"/>
+      <c r="C11" s="227"/>
       <c r="D11" s="12" t="str">
         <f>MOP!D10</f>
         <v>Push Button</v>
@@ -3269,8 +3273,8 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="2:13" ht="19">
-      <c r="B12" s="229"/>
-      <c r="C12" s="232"/>
+      <c r="B12" s="230"/>
+      <c r="C12" s="227"/>
       <c r="D12" s="12" t="str">
         <f>MOP!D11</f>
         <v>Push Button</v>
@@ -3301,8 +3305,8 @@
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="2:13" ht="19">
-      <c r="B13" s="229"/>
-      <c r="C13" s="232"/>
+      <c r="B13" s="230"/>
+      <c r="C13" s="227"/>
       <c r="D13" s="110" t="str">
         <f>MOP!D12</f>
         <v>Microphone</v>
@@ -3339,8 +3343,8 @@
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="2:13" ht="38">
-      <c r="B14" s="229"/>
-      <c r="C14" s="232"/>
+      <c r="B14" s="230"/>
+      <c r="C14" s="227"/>
       <c r="D14" s="12" t="str">
         <f>MOP!D13</f>
         <v>LCD</v>
@@ -3374,8 +3378,8 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="2:13" ht="19">
-      <c r="B15" s="229"/>
-      <c r="C15" s="232"/>
+      <c r="B15" s="230"/>
+      <c r="C15" s="227"/>
       <c r="D15" s="12" t="str">
         <f>MOP!D14</f>
         <v>LCD Mount Bracket</v>
@@ -3406,8 +3410,8 @@
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="2:13" ht="19">
-      <c r="B16" s="229"/>
-      <c r="C16" s="232"/>
+      <c r="B16" s="230"/>
+      <c r="C16" s="227"/>
       <c r="D16" s="12" t="str">
         <f>MOP!D15</f>
         <v>LCD Control Board</v>
@@ -3438,8 +3442,8 @@
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="2:13" ht="19">
-      <c r="B17" s="229"/>
-      <c r="C17" s="232"/>
+      <c r="B17" s="230"/>
+      <c r="C17" s="227"/>
       <c r="D17" s="12" t="str">
         <f>MOP!D16</f>
         <v>Main Control Board</v>
@@ -3470,8 +3474,8 @@
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="2:13" ht="19">
-      <c r="B18" s="229"/>
-      <c r="C18" s="232"/>
+      <c r="B18" s="230"/>
+      <c r="C18" s="227"/>
       <c r="D18" s="12" t="str">
         <f>MOP!D17</f>
         <v>Power Board</v>
@@ -3502,8 +3506,8 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="2:13" ht="19">
-      <c r="B19" s="229"/>
-      <c r="C19" s="232"/>
+      <c r="B19" s="230"/>
+      <c r="C19" s="227"/>
       <c r="D19" s="110" t="str">
         <f>MOP!D18</f>
         <v>3P Connector Male</v>
@@ -3540,8 +3544,8 @@
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="2:13" ht="19">
-      <c r="B20" s="229"/>
-      <c r="C20" s="232"/>
+      <c r="B20" s="230"/>
+      <c r="C20" s="227"/>
       <c r="D20" s="18" t="str">
         <f>MOP!D19</f>
         <v>3P Connector Female</v>
@@ -3574,8 +3578,8 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="19">
-      <c r="B21" s="229"/>
-      <c r="C21" s="232"/>
+      <c r="B21" s="230"/>
+      <c r="C21" s="227"/>
       <c r="D21" s="110" t="str">
         <f>MOP!D20</f>
         <v>Locking</v>
@@ -3612,8 +3616,8 @@
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="2:13" ht="19">
-      <c r="B22" s="229"/>
-      <c r="C22" s="232"/>
+      <c r="B22" s="230"/>
+      <c r="C22" s="227"/>
       <c r="D22" s="110" t="str">
         <f>MOP!D21</f>
         <v>4P Connector</v>
@@ -3650,8 +3654,8 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="2:13" ht="19">
-      <c r="B23" s="229"/>
-      <c r="C23" s="232"/>
+      <c r="B23" s="230"/>
+      <c r="C23" s="227"/>
       <c r="D23" s="110" t="str">
         <f>MOP!D22</f>
         <v>Pin</v>
@@ -3688,8 +3692,8 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:13" ht="19">
-      <c r="B24" s="229"/>
-      <c r="C24" s="232"/>
+      <c r="B24" s="230"/>
+      <c r="C24" s="227"/>
       <c r="D24" s="110" t="str">
         <f>MOP!D23</f>
         <v>12P Connector</v>
@@ -3726,8 +3730,8 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13" ht="19">
-      <c r="B25" s="229"/>
-      <c r="C25" s="232"/>
+      <c r="B25" s="230"/>
+      <c r="C25" s="227"/>
       <c r="D25" s="110" t="str">
         <f>MOP!D24</f>
         <v>Pin</v>
@@ -3764,8 +3768,8 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="2:13" ht="19">
-      <c r="B26" s="229"/>
-      <c r="C26" s="232"/>
+      <c r="B26" s="230"/>
+      <c r="C26" s="227"/>
       <c r="D26" s="110" t="str">
         <f>MOP!D25</f>
         <v>Cable Clamp</v>
@@ -3802,8 +3806,8 @@
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="2:13" ht="19">
-      <c r="B27" s="229"/>
-      <c r="C27" s="232"/>
+      <c r="B27" s="230"/>
+      <c r="C27" s="227"/>
       <c r="D27" s="12" t="str">
         <f>MOP!D26</f>
         <v>Name Plate, AL, T1</v>
@@ -3834,8 +3838,8 @@
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="2:13" ht="19">
-      <c r="B28" s="229"/>
-      <c r="C28" s="232"/>
+      <c r="B28" s="230"/>
+      <c r="C28" s="227"/>
       <c r="D28" s="18" t="str">
         <f>MOP!D27</f>
         <v>SPEAKER</v>
@@ -3868,8 +3872,8 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="18">
-      <c r="B29" s="229"/>
-      <c r="C29" s="232"/>
+      <c r="B29" s="230"/>
+      <c r="C29" s="227"/>
       <c r="D29" s="155"/>
       <c r="E29" s="155"/>
       <c r="F29" s="155"/>
@@ -3882,8 +3886,8 @@
       <c r="M29" s="158"/>
     </row>
     <row r="30" spans="2:13" ht="19">
-      <c r="B30" s="230"/>
-      <c r="C30" s="233"/>
+      <c r="B30" s="232"/>
+      <c r="C30" s="228"/>
       <c r="D30" s="108" t="s">
         <v>172</v>
       </c>
@@ -3909,10 +3913,10 @@
       <c r="M30" s="15"/>
     </row>
     <row r="31" spans="2:13" ht="19">
-      <c r="B31" s="228">
+      <c r="B31" s="229">
         <v>2</v>
       </c>
-      <c r="C31" s="225" t="s">
+      <c r="C31" s="233" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="111"/>
@@ -3929,8 +3933,8 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="2:13" ht="19">
-      <c r="B32" s="229"/>
-      <c r="C32" s="226"/>
+      <c r="B32" s="230"/>
+      <c r="C32" s="234"/>
       <c r="D32" s="13" t="str">
         <f>MSR!D3</f>
         <v>PWR Board</v>
@@ -3961,8 +3965,8 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="2:13" ht="19">
-      <c r="B33" s="229"/>
-      <c r="C33" s="226"/>
+      <c r="B33" s="230"/>
+      <c r="C33" s="234"/>
       <c r="D33" s="13" t="str">
         <f>MSR!D4</f>
         <v>M_TX Board</v>
@@ -3993,8 +3997,8 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="2:13" ht="19">
-      <c r="B34" s="229"/>
-      <c r="C34" s="226"/>
+      <c r="B34" s="230"/>
+      <c r="C34" s="234"/>
       <c r="D34" s="13" t="str">
         <f>MSR!D5</f>
         <v>Hub Board</v>
@@ -4025,8 +4029,8 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="2:13" ht="19">
-      <c r="B35" s="229"/>
-      <c r="C35" s="226"/>
+      <c r="B35" s="230"/>
+      <c r="C35" s="234"/>
       <c r="D35" s="13" t="str">
         <f>MSR!D6</f>
         <v>TCIU Board</v>
@@ -4057,8 +4061,8 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="2:13" ht="19">
-      <c r="B36" s="229"/>
-      <c r="C36" s="226"/>
+      <c r="B36" s="230"/>
+      <c r="C36" s="234"/>
       <c r="D36" s="13" t="str">
         <f>MSR!D7</f>
         <v>PA_PBX Board</v>
@@ -4089,8 +4093,8 @@
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="2:13" ht="19">
-      <c r="B37" s="229"/>
-      <c r="C37" s="226"/>
+      <c r="B37" s="230"/>
+      <c r="C37" s="234"/>
       <c r="D37" s="13" t="str">
         <f>MSR!D8</f>
         <v>PA_ETX Board</v>
@@ -4121,8 +4125,8 @@
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="2:13" ht="19">
-      <c r="B38" s="229"/>
-      <c r="C38" s="226"/>
+      <c r="B38" s="230"/>
+      <c r="C38" s="234"/>
       <c r="D38" s="13" t="str">
         <f>MSR!D9</f>
         <v>NVR Board</v>
@@ -4154,8 +4158,8 @@
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="2:13" ht="38">
-      <c r="B39" s="229"/>
-      <c r="C39" s="226"/>
+      <c r="B39" s="230"/>
+      <c r="C39" s="234"/>
       <c r="D39" s="150" t="str">
         <f>MSR!D10</f>
         <v>CPU
@@ -4187,8 +4191,8 @@
       <c r="M39" s="3"/>
     </row>
     <row r="40" spans="2:13" ht="38">
-      <c r="B40" s="229"/>
-      <c r="C40" s="226"/>
+      <c r="B40" s="230"/>
+      <c r="C40" s="234"/>
       <c r="D40" s="150" t="str">
         <f>MSR!D11</f>
         <v>CPU BRACKET 
@@ -4220,8 +4224,8 @@
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="2:13" ht="57">
-      <c r="B41" s="229"/>
-      <c r="C41" s="226"/>
+      <c r="B41" s="230"/>
+      <c r="C41" s="234"/>
       <c r="D41" s="151" t="str">
         <f>MSR!D12</f>
         <v>DDR4
@@ -4255,8 +4259,8 @@
       </c>
     </row>
     <row r="42" spans="2:13" ht="19">
-      <c r="B42" s="229"/>
-      <c r="C42" s="226"/>
+      <c r="B42" s="230"/>
+      <c r="C42" s="234"/>
       <c r="D42" s="13" t="str">
         <f>MSR!D13</f>
         <v>SSD Board</v>
@@ -4287,8 +4291,8 @@
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="2:13" ht="19">
-      <c r="B43" s="229"/>
-      <c r="C43" s="226"/>
+      <c r="B43" s="230"/>
+      <c r="C43" s="234"/>
       <c r="D43" s="116" t="str">
         <f>MSR!D14</f>
         <v>MSR Back Plane</v>
@@ -4325,8 +4329,8 @@
       <c r="M43" s="3"/>
     </row>
     <row r="44" spans="2:13" ht="19">
-      <c r="B44" s="229"/>
-      <c r="C44" s="226"/>
+      <c r="B44" s="230"/>
+      <c r="C44" s="234"/>
       <c r="D44" s="116" t="str">
         <f>MSR!D15</f>
         <v>Frame</v>
@@ -4363,8 +4367,8 @@
       <c r="M44" s="3"/>
     </row>
     <row r="45" spans="2:13" ht="19">
-      <c r="B45" s="229"/>
-      <c r="C45" s="226"/>
+      <c r="B45" s="230"/>
+      <c r="C45" s="234"/>
       <c r="D45" s="13" t="str">
         <f>MSR!D16</f>
         <v>Name Plate, AL, T1</v>
@@ -4395,8 +4399,8 @@
       <c r="M45" s="3"/>
     </row>
     <row r="46" spans="2:13" ht="19">
-      <c r="B46" s="229"/>
-      <c r="C46" s="226"/>
+      <c r="B46" s="230"/>
+      <c r="C46" s="234"/>
       <c r="D46" s="149" t="str">
         <f>MSR!D17</f>
         <v>SSD(2T)</v>
@@ -4429,8 +4433,8 @@
       </c>
     </row>
     <row r="47" spans="2:13" ht="18">
-      <c r="B47" s="229"/>
-      <c r="C47" s="226"/>
+      <c r="B47" s="230"/>
+      <c r="C47" s="234"/>
       <c r="D47" s="155"/>
       <c r="E47" s="155"/>
       <c r="F47" s="155"/>
@@ -4443,8 +4447,8 @@
       <c r="M47" s="158"/>
     </row>
     <row r="48" spans="2:13" ht="19">
-      <c r="B48" s="230"/>
-      <c r="C48" s="227"/>
+      <c r="B48" s="232"/>
+      <c r="C48" s="235"/>
       <c r="D48" s="108" t="s">
         <v>172</v>
       </c>
@@ -4470,10 +4474,10 @@
       <c r="M48" s="15"/>
     </row>
     <row r="49" spans="2:13" ht="19">
-      <c r="B49" s="228">
+      <c r="B49" s="229">
         <v>3</v>
       </c>
-      <c r="C49" s="225" t="s">
+      <c r="C49" s="233" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="111"/>
@@ -4490,8 +4494,8 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="2:13" ht="19">
-      <c r="B50" s="229"/>
-      <c r="C50" s="226"/>
+      <c r="B50" s="230"/>
+      <c r="C50" s="234"/>
       <c r="D50" s="13" t="str">
         <f>CTM!D3</f>
         <v>Main Frame</v>
@@ -4522,8 +4526,8 @@
       <c r="M50" s="3"/>
     </row>
     <row r="51" spans="2:13" ht="19">
-      <c r="B51" s="229"/>
-      <c r="C51" s="226"/>
+      <c r="B51" s="230"/>
+      <c r="C51" s="234"/>
       <c r="D51" s="13" t="str">
         <f>CTM!D4</f>
         <v>Lower Cover</v>
@@ -4554,8 +4558,8 @@
       <c r="M51" s="3"/>
     </row>
     <row r="52" spans="2:13" ht="19">
-      <c r="B52" s="229"/>
-      <c r="C52" s="226"/>
+      <c r="B52" s="230"/>
+      <c r="C52" s="234"/>
       <c r="D52" s="13" t="str">
         <f>CTM!D5</f>
         <v>Rear Cover</v>
@@ -4586,8 +4590,8 @@
       <c r="M52" s="3"/>
     </row>
     <row r="53" spans="2:13" ht="19">
-      <c r="B53" s="229"/>
-      <c r="C53" s="226"/>
+      <c r="B53" s="230"/>
+      <c r="C53" s="234"/>
       <c r="D53" s="116" t="str">
         <f>CTM!D6</f>
         <v>10.4" LCD</v>
@@ -4626,8 +4630,8 @@
       </c>
     </row>
     <row r="54" spans="2:13" ht="19">
-      <c r="B54" s="229"/>
-      <c r="C54" s="226"/>
+      <c r="B54" s="230"/>
+      <c r="C54" s="234"/>
       <c r="D54" s="13" t="str">
         <f>CTM!D7</f>
         <v>Control Board Bracket</v>
@@ -4657,8 +4661,8 @@
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="2:13" ht="19">
-      <c r="B55" s="229"/>
-      <c r="C55" s="226"/>
+      <c r="B55" s="230"/>
+      <c r="C55" s="234"/>
       <c r="D55" s="13" t="str">
         <f>CTM!D8</f>
         <v>Control Board</v>
@@ -4688,8 +4692,8 @@
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="2:13" ht="19">
-      <c r="B56" s="229"/>
-      <c r="C56" s="226"/>
+      <c r="B56" s="230"/>
+      <c r="C56" s="234"/>
       <c r="D56" s="150" t="str">
         <f>CTM!D9</f>
         <v xml:space="preserve">CPU TCA3/i-E3845 </v>
@@ -4728,8 +4732,8 @@
       </c>
     </row>
     <row r="57" spans="2:13" ht="19">
-      <c r="B57" s="229"/>
-      <c r="C57" s="226"/>
+      <c r="B57" s="230"/>
+      <c r="C57" s="234"/>
       <c r="D57" s="150" t="str">
         <f>CTM!D10</f>
         <v xml:space="preserve">CPU BRACKET TCA3/CSP-B </v>
@@ -4768,8 +4772,8 @@
       </c>
     </row>
     <row r="58" spans="2:13" ht="57">
-      <c r="B58" s="229"/>
-      <c r="C58" s="226"/>
+      <c r="B58" s="230"/>
+      <c r="C58" s="234"/>
       <c r="D58" s="151" t="str">
         <f>CTM!D11</f>
         <v>DDR4
@@ -4803,8 +4807,8 @@
       </c>
     </row>
     <row r="59" spans="2:13" ht="19">
-      <c r="B59" s="229"/>
-      <c r="C59" s="226"/>
+      <c r="B59" s="230"/>
+      <c r="C59" s="234"/>
       <c r="D59" s="13" t="str">
         <f>CTM!D12</f>
         <v>Power Board</v>
@@ -4835,8 +4839,8 @@
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="2:13" ht="19">
-      <c r="B60" s="229"/>
-      <c r="C60" s="226"/>
+      <c r="B60" s="230"/>
+      <c r="C60" s="234"/>
       <c r="D60" s="116" t="str">
         <f>CTM!D13</f>
         <v>3P Connector</v>
@@ -4873,8 +4877,8 @@
       <c r="M60" s="16"/>
     </row>
     <row r="61" spans="2:13" ht="19">
-      <c r="B61" s="229"/>
-      <c r="C61" s="226"/>
+      <c r="B61" s="230"/>
+      <c r="C61" s="234"/>
       <c r="D61" s="116" t="str">
         <f>CTM!D14</f>
         <v>Locking</v>
@@ -4911,8 +4915,8 @@
       <c r="M61" s="16"/>
     </row>
     <row r="62" spans="2:13" ht="19">
-      <c r="B62" s="229"/>
-      <c r="C62" s="226"/>
+      <c r="B62" s="230"/>
+      <c r="C62" s="234"/>
       <c r="D62" s="116" t="str">
         <f>CTM!D15</f>
         <v>4P Connector</v>
@@ -4949,8 +4953,8 @@
       <c r="M62" s="16"/>
     </row>
     <row r="63" spans="2:13" ht="19">
-      <c r="B63" s="229"/>
-      <c r="C63" s="226"/>
+      <c r="B63" s="230"/>
+      <c r="C63" s="234"/>
       <c r="D63" s="116" t="str">
         <f>CTM!D16</f>
         <v>Pin</v>
@@ -4987,8 +4991,8 @@
       <c r="M63" s="16"/>
     </row>
     <row r="64" spans="2:13" ht="19">
-      <c r="B64" s="229"/>
-      <c r="C64" s="226"/>
+      <c r="B64" s="230"/>
+      <c r="C64" s="234"/>
       <c r="D64" s="116" t="str">
         <f>CTM!D17</f>
         <v>Cable Gland</v>
@@ -5025,8 +5029,8 @@
       <c r="M64" s="16"/>
     </row>
     <row r="65" spans="2:13" ht="19">
-      <c r="B65" s="229"/>
-      <c r="C65" s="226"/>
+      <c r="B65" s="230"/>
+      <c r="C65" s="234"/>
       <c r="D65" s="149" t="str">
         <f>CTM!D18</f>
         <v>USB Adapter</v>
@@ -5059,8 +5063,8 @@
       </c>
     </row>
     <row r="66" spans="2:13" ht="19">
-      <c r="B66" s="229"/>
-      <c r="C66" s="226"/>
+      <c r="B66" s="230"/>
+      <c r="C66" s="234"/>
       <c r="D66" s="13" t="str">
         <f>CTM!D19</f>
         <v>Name Plate</v>
@@ -5091,8 +5095,8 @@
       <c r="M66" s="3"/>
     </row>
     <row r="67" spans="2:13" ht="18">
-      <c r="B67" s="229"/>
-      <c r="C67" s="226"/>
+      <c r="B67" s="230"/>
+      <c r="C67" s="234"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -5105,8 +5109,8 @@
       <c r="M67" s="2"/>
     </row>
     <row r="68" spans="2:13" ht="19">
-      <c r="B68" s="230"/>
-      <c r="C68" s="227"/>
+      <c r="B68" s="232"/>
+      <c r="C68" s="235"/>
       <c r="D68" s="108" t="s">
         <v>172</v>
       </c>
@@ -5132,8 +5136,8 @@
       <c r="M68" s="15"/>
     </row>
     <row r="69" spans="2:13" ht="18">
-      <c r="B69" s="228"/>
-      <c r="C69" s="225"/>
+      <c r="B69" s="229"/>
+      <c r="C69" s="233"/>
       <c r="D69" s="111"/>
       <c r="E69" s="112"/>
       <c r="F69" s="95"/>
@@ -5146,8 +5150,8 @@
       <c r="M69" s="3"/>
     </row>
     <row r="70" spans="2:13" ht="18">
-      <c r="B70" s="229"/>
-      <c r="C70" s="226"/>
+      <c r="B70" s="230"/>
+      <c r="C70" s="234"/>
       <c r="D70" s="120"/>
       <c r="E70" s="120"/>
       <c r="F70" s="120"/>
@@ -5160,8 +5164,8 @@
       <c r="M70" s="3"/>
     </row>
     <row r="71" spans="2:13" ht="18">
-      <c r="B71" s="229"/>
-      <c r="C71" s="226"/>
+      <c r="B71" s="230"/>
+      <c r="C71" s="234"/>
       <c r="D71" s="120"/>
       <c r="E71" s="120"/>
       <c r="F71" s="120"/>
@@ -5174,8 +5178,8 @@
       <c r="M71" s="3"/>
     </row>
     <row r="72" spans="2:13" ht="18">
-      <c r="B72" s="229"/>
-      <c r="C72" s="226"/>
+      <c r="B72" s="230"/>
+      <c r="C72" s="234"/>
       <c r="D72" s="120"/>
       <c r="E72" s="120"/>
       <c r="F72" s="120"/>
@@ -5188,8 +5192,8 @@
       <c r="M72" s="3"/>
     </row>
     <row r="73" spans="2:13" ht="18">
-      <c r="B73" s="229"/>
-      <c r="C73" s="226"/>
+      <c r="B73" s="230"/>
+      <c r="C73" s="234"/>
       <c r="D73" s="120"/>
       <c r="E73" s="120"/>
       <c r="F73" s="120"/>
@@ -5202,8 +5206,8 @@
       <c r="M73" s="3"/>
     </row>
     <row r="74" spans="2:13" ht="18">
-      <c r="B74" s="229"/>
-      <c r="C74" s="226"/>
+      <c r="B74" s="230"/>
+      <c r="C74" s="234"/>
       <c r="D74" s="154"/>
       <c r="E74" s="154"/>
       <c r="F74" s="154"/>
@@ -5216,8 +5220,8 @@
       <c r="M74" s="3"/>
     </row>
     <row r="75" spans="2:13" ht="18">
-      <c r="B75" s="229"/>
-      <c r="C75" s="226"/>
+      <c r="B75" s="230"/>
+      <c r="C75" s="234"/>
       <c r="D75" s="154"/>
       <c r="E75" s="154"/>
       <c r="F75" s="154"/>
@@ -5230,8 +5234,8 @@
       <c r="M75" s="3"/>
     </row>
     <row r="76" spans="2:13" ht="18">
-      <c r="B76" s="229"/>
-      <c r="C76" s="226"/>
+      <c r="B76" s="230"/>
+      <c r="C76" s="234"/>
       <c r="D76" s="120"/>
       <c r="E76" s="120"/>
       <c r="F76" s="120"/>
@@ -5244,8 +5248,8 @@
       <c r="M76" s="3"/>
     </row>
     <row r="77" spans="2:13" ht="18">
-      <c r="B77" s="229"/>
-      <c r="C77" s="226"/>
+      <c r="B77" s="230"/>
+      <c r="C77" s="234"/>
       <c r="D77" s="120"/>
       <c r="E77" s="120"/>
       <c r="F77" s="120"/>
@@ -5258,8 +5262,8 @@
       <c r="M77" s="3"/>
     </row>
     <row r="78" spans="2:13" ht="18">
-      <c r="B78" s="229"/>
-      <c r="C78" s="226"/>
+      <c r="B78" s="230"/>
+      <c r="C78" s="234"/>
       <c r="D78" s="120"/>
       <c r="E78" s="120"/>
       <c r="F78" s="120"/>
@@ -5272,8 +5276,8 @@
       <c r="M78" s="3"/>
     </row>
     <row r="79" spans="2:13" ht="18">
-      <c r="B79" s="229"/>
-      <c r="C79" s="226"/>
+      <c r="B79" s="230"/>
+      <c r="C79" s="234"/>
       <c r="D79" s="120"/>
       <c r="E79" s="120"/>
       <c r="F79" s="120"/>
@@ -5286,8 +5290,8 @@
       <c r="M79" s="3"/>
     </row>
     <row r="80" spans="2:13" ht="18">
-      <c r="B80" s="229"/>
-      <c r="C80" s="226"/>
+      <c r="B80" s="230"/>
+      <c r="C80" s="234"/>
       <c r="D80" s="120"/>
       <c r="E80" s="120"/>
       <c r="F80" s="120"/>
@@ -5300,8 +5304,8 @@
       <c r="M80" s="3"/>
     </row>
     <row r="81" spans="2:13" ht="18">
-      <c r="B81" s="229"/>
-      <c r="C81" s="226"/>
+      <c r="B81" s="230"/>
+      <c r="C81" s="234"/>
       <c r="D81" s="120"/>
       <c r="E81" s="120"/>
       <c r="F81" s="120"/>
@@ -5314,8 +5318,8 @@
       <c r="M81" s="3"/>
     </row>
     <row r="82" spans="2:13" ht="18">
-      <c r="B82" s="229"/>
-      <c r="C82" s="226"/>
+      <c r="B82" s="230"/>
+      <c r="C82" s="234"/>
       <c r="D82" s="120"/>
       <c r="E82" s="120"/>
       <c r="F82" s="120"/>
@@ -5328,8 +5332,8 @@
       <c r="M82" s="3"/>
     </row>
     <row r="83" spans="2:13" ht="18">
-      <c r="B83" s="229"/>
-      <c r="C83" s="226"/>
+      <c r="B83" s="230"/>
+      <c r="C83" s="234"/>
       <c r="D83" s="120"/>
       <c r="E83" s="120"/>
       <c r="F83" s="120"/>
@@ -5342,8 +5346,8 @@
       <c r="M83" s="3"/>
     </row>
     <row r="84" spans="2:13" ht="18">
-      <c r="B84" s="229"/>
-      <c r="C84" s="226"/>
+      <c r="B84" s="230"/>
+      <c r="C84" s="234"/>
       <c r="D84" s="154"/>
       <c r="E84" s="154"/>
       <c r="F84" s="154"/>
@@ -5356,8 +5360,8 @@
       <c r="M84" s="3"/>
     </row>
     <row r="85" spans="2:13" ht="18">
-      <c r="B85" s="229"/>
-      <c r="C85" s="226"/>
+      <c r="B85" s="230"/>
+      <c r="C85" s="234"/>
       <c r="D85" s="154"/>
       <c r="E85" s="154"/>
       <c r="F85" s="154"/>
@@ -5370,8 +5374,8 @@
       <c r="M85" s="3"/>
     </row>
     <row r="86" spans="2:13" ht="18">
-      <c r="B86" s="229"/>
-      <c r="C86" s="226"/>
+      <c r="B86" s="230"/>
+      <c r="C86" s="234"/>
       <c r="D86" s="105"/>
       <c r="E86" s="105"/>
       <c r="F86" s="105"/>
@@ -5384,8 +5388,8 @@
       <c r="M86" s="2"/>
     </row>
     <row r="87" spans="2:13" ht="18">
-      <c r="B87" s="230"/>
-      <c r="C87" s="227"/>
+      <c r="B87" s="232"/>
+      <c r="C87" s="235"/>
       <c r="D87" s="108"/>
       <c r="E87" s="108"/>
       <c r="F87" s="109"/>
@@ -5398,8 +5402,8 @@
       <c r="M87" s="2"/>
     </row>
     <row r="88" spans="2:13" ht="18">
-      <c r="B88" s="228"/>
-      <c r="C88" s="225"/>
+      <c r="B88" s="229"/>
+      <c r="C88" s="233"/>
       <c r="D88" s="111"/>
       <c r="E88" s="112"/>
       <c r="F88" s="95"/>
@@ -5412,8 +5416,8 @@
       <c r="M88" s="3"/>
     </row>
     <row r="89" spans="2:13" ht="18">
-      <c r="B89" s="229"/>
-      <c r="C89" s="226"/>
+      <c r="B89" s="230"/>
+      <c r="C89" s="234"/>
       <c r="D89" s="120"/>
       <c r="E89" s="120"/>
       <c r="F89" s="120"/>
@@ -5426,8 +5430,8 @@
       <c r="M89" s="3"/>
     </row>
     <row r="90" spans="2:13" ht="18">
-      <c r="B90" s="229"/>
-      <c r="C90" s="226"/>
+      <c r="B90" s="230"/>
+      <c r="C90" s="234"/>
       <c r="D90" s="120"/>
       <c r="E90" s="120"/>
       <c r="F90" s="120"/>
@@ -5440,8 +5444,8 @@
       <c r="M90" s="3"/>
     </row>
     <row r="91" spans="2:13" ht="18">
-      <c r="B91" s="229"/>
-      <c r="C91" s="226"/>
+      <c r="B91" s="230"/>
+      <c r="C91" s="234"/>
       <c r="D91" s="120"/>
       <c r="E91" s="120"/>
       <c r="F91" s="120"/>
@@ -5454,8 +5458,8 @@
       <c r="M91" s="3"/>
     </row>
     <row r="92" spans="2:13" ht="18">
-      <c r="B92" s="229"/>
-      <c r="C92" s="226"/>
+      <c r="B92" s="230"/>
+      <c r="C92" s="234"/>
       <c r="D92" s="120"/>
       <c r="E92" s="120"/>
       <c r="F92" s="120"/>
@@ -5468,8 +5472,8 @@
       <c r="M92" s="9"/>
     </row>
     <row r="93" spans="2:13" ht="18">
-      <c r="B93" s="229"/>
-      <c r="C93" s="226"/>
+      <c r="B93" s="230"/>
+      <c r="C93" s="234"/>
       <c r="D93" s="120"/>
       <c r="E93" s="120"/>
       <c r="F93" s="120"/>
@@ -5482,8 +5486,8 @@
       <c r="M93" s="3"/>
     </row>
     <row r="94" spans="2:13" ht="18">
-      <c r="B94" s="229"/>
-      <c r="C94" s="226"/>
+      <c r="B94" s="230"/>
+      <c r="C94" s="234"/>
       <c r="D94" s="120"/>
       <c r="E94" s="120"/>
       <c r="F94" s="120"/>
@@ -5496,8 +5500,8 @@
       <c r="M94" s="3"/>
     </row>
     <row r="95" spans="2:13" ht="18">
-      <c r="B95" s="229"/>
-      <c r="C95" s="226"/>
+      <c r="B95" s="230"/>
+      <c r="C95" s="234"/>
       <c r="D95" s="154"/>
       <c r="E95" s="154"/>
       <c r="F95" s="154"/>
@@ -5510,8 +5514,8 @@
       <c r="M95" s="3"/>
     </row>
     <row r="96" spans="2:13" ht="18">
-      <c r="B96" s="229"/>
-      <c r="C96" s="226"/>
+      <c r="B96" s="230"/>
+      <c r="C96" s="234"/>
       <c r="D96" s="154"/>
       <c r="E96" s="154"/>
       <c r="F96" s="154"/>
@@ -5524,8 +5528,8 @@
       <c r="M96" s="3"/>
     </row>
     <row r="97" spans="2:13" ht="18">
-      <c r="B97" s="229"/>
-      <c r="C97" s="226"/>
+      <c r="B97" s="230"/>
+      <c r="C97" s="234"/>
       <c r="D97" s="120"/>
       <c r="E97" s="120"/>
       <c r="F97" s="120"/>
@@ -5538,8 +5542,8 @@
       <c r="M97" s="3"/>
     </row>
     <row r="98" spans="2:13" ht="18">
-      <c r="B98" s="229"/>
-      <c r="C98" s="226"/>
+      <c r="B98" s="230"/>
+      <c r="C98" s="234"/>
       <c r="D98" s="120"/>
       <c r="E98" s="120"/>
       <c r="F98" s="120"/>
@@ -5552,8 +5556,8 @@
       <c r="M98" s="3"/>
     </row>
     <row r="99" spans="2:13" ht="18">
-      <c r="B99" s="229"/>
-      <c r="C99" s="226"/>
+      <c r="B99" s="230"/>
+      <c r="C99" s="234"/>
       <c r="D99" s="120"/>
       <c r="E99" s="120"/>
       <c r="F99" s="120"/>
@@ -5566,8 +5570,8 @@
       <c r="M99" s="3"/>
     </row>
     <row r="100" spans="2:13" ht="18">
-      <c r="B100" s="229"/>
-      <c r="C100" s="226"/>
+      <c r="B100" s="230"/>
+      <c r="C100" s="234"/>
       <c r="D100" s="120"/>
       <c r="E100" s="120"/>
       <c r="F100" s="120"/>
@@ -5580,8 +5584,8 @@
       <c r="M100" s="3"/>
     </row>
     <row r="101" spans="2:13" ht="18">
-      <c r="B101" s="229"/>
-      <c r="C101" s="226"/>
+      <c r="B101" s="230"/>
+      <c r="C101" s="234"/>
       <c r="D101" s="120"/>
       <c r="E101" s="120"/>
       <c r="F101" s="120"/>
@@ -5594,8 +5598,8 @@
       <c r="M101" s="3"/>
     </row>
     <row r="102" spans="2:13" ht="18">
-      <c r="B102" s="229"/>
-      <c r="C102" s="226"/>
+      <c r="B102" s="230"/>
+      <c r="C102" s="234"/>
       <c r="D102" s="120"/>
       <c r="E102" s="120"/>
       <c r="F102" s="120"/>
@@ -5608,8 +5612,8 @@
       <c r="M102" s="3"/>
     </row>
     <row r="103" spans="2:13" ht="18">
-      <c r="B103" s="229"/>
-      <c r="C103" s="226"/>
+      <c r="B103" s="230"/>
+      <c r="C103" s="234"/>
       <c r="D103" s="120"/>
       <c r="E103" s="120"/>
       <c r="F103" s="120"/>
@@ -5622,8 +5626,8 @@
       <c r="M103" s="3"/>
     </row>
     <row r="104" spans="2:13" ht="18">
-      <c r="B104" s="229"/>
-      <c r="C104" s="226"/>
+      <c r="B104" s="230"/>
+      <c r="C104" s="234"/>
       <c r="D104" s="154"/>
       <c r="E104" s="154"/>
       <c r="F104" s="154"/>
@@ -5636,8 +5640,8 @@
       <c r="M104" s="3"/>
     </row>
     <row r="105" spans="2:13" ht="18">
-      <c r="B105" s="229"/>
-      <c r="C105" s="226"/>
+      <c r="B105" s="230"/>
+      <c r="C105" s="234"/>
       <c r="D105" s="120"/>
       <c r="E105" s="120"/>
       <c r="F105" s="120"/>
@@ -5650,8 +5654,8 @@
       <c r="M105" s="2"/>
     </row>
     <row r="106" spans="2:13" ht="18">
-      <c r="B106" s="229"/>
-      <c r="C106" s="226"/>
+      <c r="B106" s="230"/>
+      <c r="C106" s="234"/>
       <c r="D106" s="105"/>
       <c r="E106" s="105"/>
       <c r="F106" s="105"/>
@@ -5664,8 +5668,8 @@
       <c r="M106" s="2"/>
     </row>
     <row r="107" spans="2:13" ht="18">
-      <c r="B107" s="230"/>
-      <c r="C107" s="227"/>
+      <c r="B107" s="232"/>
+      <c r="C107" s="235"/>
       <c r="D107" s="108"/>
       <c r="E107" s="108"/>
       <c r="F107" s="109"/>
@@ -5678,8 +5682,8 @@
       <c r="M107" s="2"/>
     </row>
     <row r="108" spans="2:13" ht="18">
-      <c r="B108" s="228"/>
-      <c r="C108" s="225"/>
+      <c r="B108" s="229"/>
+      <c r="C108" s="233"/>
       <c r="D108" s="111"/>
       <c r="E108" s="112"/>
       <c r="F108" s="95"/>
@@ -5692,8 +5696,8 @@
       <c r="M108" s="3"/>
     </row>
     <row r="109" spans="2:13" ht="18">
-      <c r="B109" s="229"/>
-      <c r="C109" s="226"/>
+      <c r="B109" s="230"/>
+      <c r="C109" s="234"/>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
@@ -5706,8 +5710,8 @@
       <c r="M109" s="3"/>
     </row>
     <row r="110" spans="2:13" ht="18">
-      <c r="B110" s="229"/>
-      <c r="C110" s="226"/>
+      <c r="B110" s="230"/>
+      <c r="C110" s="234"/>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
@@ -5720,8 +5724,8 @@
       <c r="M110" s="3"/>
     </row>
     <row r="111" spans="2:13" ht="18">
-      <c r="B111" s="229"/>
-      <c r="C111" s="226"/>
+      <c r="B111" s="230"/>
+      <c r="C111" s="234"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
@@ -5734,8 +5738,8 @@
       <c r="M111" s="3"/>
     </row>
     <row r="112" spans="2:13" ht="18">
-      <c r="B112" s="229"/>
-      <c r="C112" s="226"/>
+      <c r="B112" s="230"/>
+      <c r="C112" s="234"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
@@ -5748,8 +5752,8 @@
       <c r="M112" s="3"/>
     </row>
     <row r="113" spans="2:13" ht="18">
-      <c r="B113" s="229"/>
-      <c r="C113" s="226"/>
+      <c r="B113" s="230"/>
+      <c r="C113" s="234"/>
       <c r="D113" s="13"/>
       <c r="E113" s="13"/>
       <c r="F113" s="13"/>
@@ -5762,8 +5766,8 @@
       <c r="M113" s="3"/>
     </row>
     <row r="114" spans="2:13" ht="18">
-      <c r="B114" s="229"/>
-      <c r="C114" s="226"/>
+      <c r="B114" s="230"/>
+      <c r="C114" s="234"/>
       <c r="D114" s="116"/>
       <c r="E114" s="116"/>
       <c r="F114" s="116"/>
@@ -5776,8 +5780,8 @@
       <c r="M114" s="3"/>
     </row>
     <row r="115" spans="2:13" ht="18">
-      <c r="B115" s="229"/>
-      <c r="C115" s="226"/>
+      <c r="B115" s="230"/>
+      <c r="C115" s="234"/>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
@@ -5790,8 +5794,8 @@
       <c r="M115" s="3"/>
     </row>
     <row r="116" spans="2:13" ht="18">
-      <c r="B116" s="229"/>
-      <c r="C116" s="226"/>
+      <c r="B116" s="230"/>
+      <c r="C116" s="234"/>
       <c r="D116" s="116"/>
       <c r="E116" s="116"/>
       <c r="F116" s="116"/>
@@ -5804,8 +5808,8 @@
       <c r="M116" s="3"/>
     </row>
     <row r="117" spans="2:13" ht="18">
-      <c r="B117" s="229"/>
-      <c r="C117" s="226"/>
+      <c r="B117" s="230"/>
+      <c r="C117" s="234"/>
       <c r="D117" s="116"/>
       <c r="E117" s="116"/>
       <c r="F117" s="116"/>
@@ -5818,8 +5822,8 @@
       <c r="M117" s="3"/>
     </row>
     <row r="118" spans="2:13" ht="18">
-      <c r="B118" s="229"/>
-      <c r="C118" s="226"/>
+      <c r="B118" s="230"/>
+      <c r="C118" s="234"/>
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
@@ -5832,8 +5836,8 @@
       <c r="M118" s="3"/>
     </row>
     <row r="119" spans="2:13" ht="18">
-      <c r="B119" s="229"/>
-      <c r="C119" s="226"/>
+      <c r="B119" s="230"/>
+      <c r="C119" s="234"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
@@ -5846,8 +5850,8 @@
       <c r="M119" s="2"/>
     </row>
     <row r="120" spans="2:13" ht="18">
-      <c r="B120" s="230"/>
-      <c r="C120" s="227"/>
+      <c r="B120" s="232"/>
+      <c r="C120" s="235"/>
       <c r="D120" s="108"/>
       <c r="E120" s="108"/>
       <c r="F120" s="109"/>
@@ -5860,8 +5864,8 @@
       <c r="M120" s="2"/>
     </row>
     <row r="121" spans="2:13" ht="18">
-      <c r="B121" s="228"/>
-      <c r="C121" s="231"/>
+      <c r="B121" s="229"/>
+      <c r="C121" s="236"/>
       <c r="D121" s="111"/>
       <c r="E121" s="112"/>
       <c r="F121" s="95"/>
@@ -5874,8 +5878,8 @@
       <c r="M121" s="3"/>
     </row>
     <row r="122" spans="2:13" ht="18">
-      <c r="B122" s="229"/>
-      <c r="C122" s="232"/>
+      <c r="B122" s="230"/>
+      <c r="C122" s="227"/>
       <c r="D122" s="120"/>
       <c r="E122" s="120"/>
       <c r="F122" s="120"/>
@@ -5888,8 +5892,8 @@
       <c r="M122" s="4"/>
     </row>
     <row r="123" spans="2:13" ht="18">
-      <c r="B123" s="229"/>
-      <c r="C123" s="232"/>
+      <c r="B123" s="230"/>
+      <c r="C123" s="227"/>
       <c r="D123" s="120"/>
       <c r="E123" s="120"/>
       <c r="F123" s="120"/>
@@ -5902,8 +5906,8 @@
       <c r="M123" s="4"/>
     </row>
     <row r="124" spans="2:13" ht="18">
-      <c r="B124" s="229"/>
-      <c r="C124" s="232"/>
+      <c r="B124" s="230"/>
+      <c r="C124" s="227"/>
       <c r="D124" s="120"/>
       <c r="E124" s="120"/>
       <c r="F124" s="120"/>
@@ -5916,8 +5920,8 @@
       <c r="M124" s="4"/>
     </row>
     <row r="125" spans="2:13" ht="18">
-      <c r="B125" s="229"/>
-      <c r="C125" s="232"/>
+      <c r="B125" s="230"/>
+      <c r="C125" s="227"/>
       <c r="D125" s="154"/>
       <c r="E125" s="154"/>
       <c r="F125" s="154"/>
@@ -5930,8 +5934,8 @@
       <c r="M125" s="4"/>
     </row>
     <row r="126" spans="2:13" ht="18">
-      <c r="B126" s="229"/>
-      <c r="C126" s="232"/>
+      <c r="B126" s="230"/>
+      <c r="C126" s="227"/>
       <c r="D126" s="120"/>
       <c r="E126" s="120"/>
       <c r="F126" s="120"/>
@@ -5944,8 +5948,8 @@
       <c r="M126" s="7"/>
     </row>
     <row r="127" spans="2:13" ht="18">
-      <c r="B127" s="229"/>
-      <c r="C127" s="232"/>
+      <c r="B127" s="230"/>
+      <c r="C127" s="227"/>
       <c r="D127" s="154"/>
       <c r="E127" s="154"/>
       <c r="F127" s="154"/>
@@ -5958,8 +5962,8 @@
       <c r="M127" s="7"/>
     </row>
     <row r="128" spans="2:13" ht="18">
-      <c r="B128" s="229"/>
-      <c r="C128" s="232"/>
+      <c r="B128" s="230"/>
+      <c r="C128" s="227"/>
       <c r="D128" s="120"/>
       <c r="E128" s="120"/>
       <c r="F128" s="120"/>
@@ -5972,8 +5976,8 @@
       <c r="M128" s="7"/>
     </row>
     <row r="129" spans="2:13" ht="18">
-      <c r="B129" s="229"/>
-      <c r="C129" s="232"/>
+      <c r="B129" s="230"/>
+      <c r="C129" s="227"/>
       <c r="D129" s="120"/>
       <c r="E129" s="120"/>
       <c r="F129" s="120"/>
@@ -5986,8 +5990,8 @@
       <c r="M129" s="6"/>
     </row>
     <row r="130" spans="2:13" ht="18">
-      <c r="B130" s="229"/>
-      <c r="C130" s="232"/>
+      <c r="B130" s="230"/>
+      <c r="C130" s="227"/>
       <c r="D130" s="120"/>
       <c r="E130" s="120"/>
       <c r="F130" s="120"/>
@@ -6000,8 +6004,8 @@
       <c r="M130" s="4"/>
     </row>
     <row r="131" spans="2:13" ht="18">
-      <c r="B131" s="229"/>
-      <c r="C131" s="232"/>
+      <c r="B131" s="230"/>
+      <c r="C131" s="227"/>
       <c r="D131" s="120"/>
       <c r="E131" s="120"/>
       <c r="F131" s="120"/>
@@ -6014,8 +6018,8 @@
       <c r="M131" s="4"/>
     </row>
     <row r="132" spans="2:13" ht="18">
-      <c r="B132" s="229"/>
-      <c r="C132" s="232"/>
+      <c r="B132" s="230"/>
+      <c r="C132" s="227"/>
       <c r="D132" s="120"/>
       <c r="E132" s="120"/>
       <c r="F132" s="120"/>
@@ -6028,8 +6032,8 @@
       <c r="M132" s="4"/>
     </row>
     <row r="133" spans="2:13" ht="18">
-      <c r="B133" s="229"/>
-      <c r="C133" s="232"/>
+      <c r="B133" s="230"/>
+      <c r="C133" s="227"/>
       <c r="D133" s="120"/>
       <c r="E133" s="120"/>
       <c r="F133" s="120"/>
@@ -6042,8 +6046,8 @@
       <c r="M133" s="4"/>
     </row>
     <row r="134" spans="2:13" ht="18">
-      <c r="B134" s="229"/>
-      <c r="C134" s="232"/>
+      <c r="B134" s="230"/>
+      <c r="C134" s="227"/>
       <c r="D134" s="120"/>
       <c r="E134" s="120"/>
       <c r="F134" s="120"/>
@@ -6056,8 +6060,8 @@
       <c r="M134" s="4"/>
     </row>
     <row r="135" spans="2:13" ht="18">
-      <c r="B135" s="229"/>
-      <c r="C135" s="232"/>
+      <c r="B135" s="230"/>
+      <c r="C135" s="227"/>
       <c r="D135" s="154"/>
       <c r="E135" s="154"/>
       <c r="F135" s="154"/>
@@ -6070,8 +6074,8 @@
       <c r="M135" s="10"/>
     </row>
     <row r="136" spans="2:13" ht="18">
-      <c r="B136" s="229"/>
-      <c r="C136" s="232"/>
+      <c r="B136" s="230"/>
+      <c r="C136" s="227"/>
       <c r="D136" s="105"/>
       <c r="E136" s="105"/>
       <c r="F136" s="105"/>
@@ -6084,8 +6088,8 @@
       <c r="M136" s="6"/>
     </row>
     <row r="137" spans="2:13" ht="18">
-      <c r="B137" s="230"/>
-      <c r="C137" s="233"/>
+      <c r="B137" s="232"/>
+      <c r="C137" s="228"/>
       <c r="D137" s="108"/>
       <c r="E137" s="108"/>
       <c r="F137" s="109"/>
@@ -6098,8 +6102,8 @@
       <c r="M137" s="2"/>
     </row>
     <row r="138" spans="2:13" ht="18">
-      <c r="B138" s="228"/>
-      <c r="C138" s="225"/>
+      <c r="B138" s="229"/>
+      <c r="C138" s="233"/>
       <c r="D138" s="133"/>
       <c r="E138" s="112"/>
       <c r="F138" s="95"/>
@@ -6112,8 +6116,8 @@
       <c r="M138" s="3"/>
     </row>
     <row r="139" spans="2:13" ht="18">
-      <c r="B139" s="229"/>
-      <c r="C139" s="226"/>
+      <c r="B139" s="230"/>
+      <c r="C139" s="234"/>
       <c r="D139" s="120"/>
       <c r="E139" s="120"/>
       <c r="F139" s="120"/>
@@ -6126,8 +6130,8 @@
       <c r="M139" s="3"/>
     </row>
     <row r="140" spans="2:13" ht="18">
-      <c r="B140" s="229"/>
-      <c r="C140" s="226"/>
+      <c r="B140" s="230"/>
+      <c r="C140" s="234"/>
       <c r="D140" s="120"/>
       <c r="E140" s="120"/>
       <c r="F140" s="120"/>
@@ -6140,8 +6144,8 @@
       <c r="M140" s="3"/>
     </row>
     <row r="141" spans="2:13" ht="18">
-      <c r="B141" s="229"/>
-      <c r="C141" s="226"/>
+      <c r="B141" s="230"/>
+      <c r="C141" s="234"/>
       <c r="D141" s="120"/>
       <c r="E141" s="120"/>
       <c r="F141" s="120"/>
@@ -6154,8 +6158,8 @@
       <c r="M141" s="3"/>
     </row>
     <row r="142" spans="2:13" ht="18">
-      <c r="B142" s="229"/>
-      <c r="C142" s="226"/>
+      <c r="B142" s="230"/>
+      <c r="C142" s="234"/>
       <c r="D142" s="154"/>
       <c r="E142" s="154"/>
       <c r="F142" s="154"/>
@@ -6168,8 +6172,8 @@
       <c r="M142" s="4"/>
     </row>
     <row r="143" spans="2:13" ht="18">
-      <c r="B143" s="229"/>
-      <c r="C143" s="226"/>
+      <c r="B143" s="230"/>
+      <c r="C143" s="234"/>
       <c r="D143" s="120">
         <v>999999999</v>
       </c>
@@ -6184,8 +6188,8 @@
       <c r="M143" s="3"/>
     </row>
     <row r="144" spans="2:13" ht="18">
-      <c r="B144" s="229"/>
-      <c r="C144" s="226"/>
+      <c r="B144" s="230"/>
+      <c r="C144" s="234"/>
       <c r="D144" s="154"/>
       <c r="E144" s="154"/>
       <c r="F144" s="154"/>
@@ -6198,8 +6202,8 @@
       <c r="M144" s="4"/>
     </row>
     <row r="145" spans="2:13" ht="18">
-      <c r="B145" s="229"/>
-      <c r="C145" s="226"/>
+      <c r="B145" s="230"/>
+      <c r="C145" s="234"/>
       <c r="D145" s="120"/>
       <c r="E145" s="120"/>
       <c r="F145" s="120"/>
@@ -6212,8 +6216,8 @@
       <c r="M145" s="3"/>
     </row>
     <row r="146" spans="2:13" ht="18">
-      <c r="B146" s="229"/>
-      <c r="C146" s="226"/>
+      <c r="B146" s="230"/>
+      <c r="C146" s="234"/>
       <c r="D146" s="120"/>
       <c r="E146" s="120"/>
       <c r="F146" s="120"/>
@@ -6226,8 +6230,8 @@
       <c r="M146" s="3"/>
     </row>
     <row r="147" spans="2:13" ht="18">
-      <c r="B147" s="229"/>
-      <c r="C147" s="226"/>
+      <c r="B147" s="230"/>
+      <c r="C147" s="234"/>
       <c r="D147" s="120"/>
       <c r="E147" s="120"/>
       <c r="F147" s="120"/>
@@ -6240,8 +6244,8 @@
       <c r="M147" s="3"/>
     </row>
     <row r="148" spans="2:13" ht="18">
-      <c r="B148" s="229"/>
-      <c r="C148" s="226"/>
+      <c r="B148" s="230"/>
+      <c r="C148" s="234"/>
       <c r="D148" s="120"/>
       <c r="E148" s="120"/>
       <c r="F148" s="120"/>
@@ -6254,8 +6258,8 @@
       <c r="M148" s="3"/>
     </row>
     <row r="149" spans="2:13" ht="18">
-      <c r="B149" s="229"/>
-      <c r="C149" s="226"/>
+      <c r="B149" s="230"/>
+      <c r="C149" s="234"/>
       <c r="D149" s="120"/>
       <c r="E149" s="120"/>
       <c r="F149" s="120"/>
@@ -6268,8 +6272,8 @@
       <c r="M149" s="3"/>
     </row>
     <row r="150" spans="2:13" ht="18">
-      <c r="B150" s="229"/>
-      <c r="C150" s="226"/>
+      <c r="B150" s="230"/>
+      <c r="C150" s="234"/>
       <c r="D150" s="120"/>
       <c r="E150" s="120"/>
       <c r="F150" s="120"/>
@@ -6282,8 +6286,8 @@
       <c r="M150" s="3"/>
     </row>
     <row r="151" spans="2:13" ht="18">
-      <c r="B151" s="229"/>
-      <c r="C151" s="226"/>
+      <c r="B151" s="230"/>
+      <c r="C151" s="234"/>
       <c r="D151" s="120"/>
       <c r="E151" s="120"/>
       <c r="F151" s="120"/>
@@ -6296,8 +6300,8 @@
       <c r="M151" s="3"/>
     </row>
     <row r="152" spans="2:13" ht="18">
-      <c r="B152" s="229"/>
-      <c r="C152" s="226"/>
+      <c r="B152" s="230"/>
+      <c r="C152" s="234"/>
       <c r="D152" s="154"/>
       <c r="E152" s="154"/>
       <c r="F152" s="154"/>
@@ -6310,8 +6314,8 @@
       <c r="M152" s="3"/>
     </row>
     <row r="153" spans="2:13" ht="18">
-      <c r="B153" s="229"/>
-      <c r="C153" s="226"/>
+      <c r="B153" s="230"/>
+      <c r="C153" s="234"/>
       <c r="D153" s="105"/>
       <c r="E153" s="105"/>
       <c r="F153" s="105"/>
@@ -6324,8 +6328,8 @@
       <c r="M153" s="2"/>
     </row>
     <row r="154" spans="2:13" ht="18">
-      <c r="B154" s="229"/>
-      <c r="C154" s="227"/>
+      <c r="B154" s="230"/>
+      <c r="C154" s="235"/>
       <c r="D154" s="108"/>
       <c r="E154" s="108"/>
       <c r="F154" s="109"/>
@@ -6338,7 +6342,7 @@
       <c r="M154" s="2"/>
     </row>
     <row r="155" spans="2:13" ht="19" customHeight="1">
-      <c r="B155" s="234" t="s">
+      <c r="B155" s="237" t="s">
         <v>171</v>
       </c>
       <c r="C155" s="136">
@@ -6375,7 +6379,7 @@
       </c>
     </row>
     <row r="156" spans="2:13" ht="19">
-      <c r="B156" s="234"/>
+      <c r="B156" s="237"/>
       <c r="C156" s="136">
         <v>2</v>
       </c>
@@ -6410,7 +6414,7 @@
       </c>
     </row>
     <row r="157" spans="2:13" ht="20" thickBot="1">
-      <c r="B157" s="234"/>
+      <c r="B157" s="237"/>
       <c r="C157" s="136">
         <v>3</v>
       </c>
@@ -6445,7 +6449,7 @@
       </c>
     </row>
     <row r="158" spans="2:13" ht="21" thickBot="1">
-      <c r="B158" s="234"/>
+      <c r="B158" s="237"/>
       <c r="C158" s="136">
         <v>4</v>
       </c>
@@ -6475,7 +6479,7 @@
       </c>
     </row>
     <row r="159" spans="2:13" ht="33" thickBot="1">
-      <c r="B159" s="234"/>
+      <c r="B159" s="237"/>
       <c r="C159" s="136">
         <v>5</v>
       </c>
@@ -6506,7 +6510,7 @@
       </c>
     </row>
     <row r="160" spans="2:13" ht="33" thickBot="1">
-      <c r="B160" s="234"/>
+      <c r="B160" s="237"/>
       <c r="C160" s="136">
         <v>6</v>
       </c>
@@ -6534,7 +6538,7 @@
       </c>
     </row>
     <row r="161" spans="2:13" ht="33" thickBot="1">
-      <c r="B161" s="234"/>
+      <c r="B161" s="237"/>
       <c r="C161" s="136">
         <v>7</v>
       </c>
@@ -6571,7 +6575,7 @@
       </c>
     </row>
     <row r="162" spans="2:13" ht="32">
-      <c r="B162" s="235"/>
+      <c r="B162" s="238"/>
       <c r="C162" s="171">
         <v>8</v>
       </c>
@@ -6641,7 +6645,7 @@
       </c>
     </row>
     <row r="167" spans="2:13">
-      <c r="C167" s="247" t="s">
+      <c r="C167" s="225" t="s">
         <v>248</v>
       </c>
       <c r="D167" s="5">
@@ -6651,10 +6655,16 @@
         <v>343434</v>
       </c>
       <c r="I167" s="11"/>
+    </row>
+    <row r="169" spans="2:13">
+      <c r="C169" s="225" t="s">
+        <v>249</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:M162" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="17">
+    <mergeCell ref="B155:B162"/>
     <mergeCell ref="C3:C30"/>
     <mergeCell ref="B138:B154"/>
     <mergeCell ref="B3:B30"/>
@@ -6671,7 +6681,6 @@
     <mergeCell ref="B121:B137"/>
     <mergeCell ref="C121:C137"/>
     <mergeCell ref="C138:C154"/>
-    <mergeCell ref="B155:B162"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7886,7 +7895,7 @@
       </c>
     </row>
     <row r="33" spans="2:17">
-      <c r="B33" s="238" t="s">
+      <c r="B33" s="239" t="s">
         <v>232</v>
       </c>
       <c r="C33" s="27">
@@ -7925,7 +7934,7 @@
       </c>
     </row>
     <row r="34" spans="2:17">
-      <c r="B34" s="239"/>
+      <c r="B34" s="240"/>
       <c r="C34" s="27">
         <v>2</v>
       </c>
@@ -7961,7 +7970,7 @@
       <c r="Q34" s="38"/>
     </row>
     <row r="35" spans="2:17">
-      <c r="B35" s="239"/>
+      <c r="B35" s="240"/>
       <c r="C35" s="27">
         <v>3</v>
       </c>
@@ -7997,7 +8006,7 @@
       <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="2:17">
-      <c r="B36" s="239"/>
+      <c r="B36" s="240"/>
       <c r="C36" s="27">
         <v>4</v>
       </c>
@@ -8033,7 +8042,7 @@
       <c r="Q36" s="38"/>
     </row>
     <row r="37" spans="2:17" ht="19">
-      <c r="B37" s="239"/>
+      <c r="B37" s="240"/>
       <c r="C37" s="27">
         <v>5</v>
       </c>
@@ -8069,7 +8078,7 @@
       <c r="Q37" s="38"/>
     </row>
     <row r="38" spans="2:17" ht="19">
-      <c r="B38" s="239"/>
+      <c r="B38" s="240"/>
       <c r="C38" s="27">
         <v>9</v>
       </c>
@@ -8107,7 +8116,7 @@
       <c r="Q38" s="38"/>
     </row>
     <row r="39" spans="2:17" ht="19">
-      <c r="B39" s="239"/>
+      <c r="B39" s="240"/>
       <c r="C39" s="27">
         <v>10</v>
       </c>
@@ -8145,7 +8154,7 @@
       <c r="Q39" s="38"/>
     </row>
     <row r="40" spans="2:17" ht="19">
-      <c r="B40" s="239"/>
+      <c r="B40" s="240"/>
       <c r="C40" s="27">
         <v>11</v>
       </c>
@@ -8183,7 +8192,7 @@
       <c r="Q40" s="38"/>
     </row>
     <row r="41" spans="2:17" ht="19">
-      <c r="B41" s="239"/>
+      <c r="B41" s="240"/>
       <c r="C41" s="27">
         <v>12</v>
       </c>
@@ -8221,7 +8230,7 @@
       <c r="Q41" s="38"/>
     </row>
     <row r="42" spans="2:17" ht="19">
-      <c r="B42" s="239"/>
+      <c r="B42" s="240"/>
       <c r="C42" s="27">
         <v>13</v>
       </c>
@@ -8259,7 +8268,7 @@
       <c r="Q42" s="38"/>
     </row>
     <row r="43" spans="2:17" ht="19">
-      <c r="B43" s="239"/>
+      <c r="B43" s="240"/>
       <c r="C43" s="27">
         <v>14</v>
       </c>
@@ -8297,7 +8306,7 @@
       <c r="Q43" s="38"/>
     </row>
     <row r="44" spans="2:17" ht="19">
-      <c r="B44" s="239"/>
+      <c r="B44" s="240"/>
       <c r="C44" s="27">
         <v>15</v>
       </c>
@@ -8335,7 +8344,7 @@
       <c r="Q44" s="38"/>
     </row>
     <row r="45" spans="2:17" ht="19">
-      <c r="B45" s="239"/>
+      <c r="B45" s="240"/>
       <c r="C45" s="27">
         <v>16</v>
       </c>
@@ -8373,7 +8382,7 @@
       <c r="Q45" s="38"/>
     </row>
     <row r="46" spans="2:17" ht="19">
-      <c r="B46" s="239"/>
+      <c r="B46" s="240"/>
       <c r="C46" s="27">
         <v>17</v>
       </c>
@@ -8411,7 +8420,7 @@
       <c r="Q46" s="38"/>
     </row>
     <row r="47" spans="2:17" ht="19">
-      <c r="B47" s="239"/>
+      <c r="B47" s="240"/>
       <c r="C47" s="27">
         <v>18</v>
       </c>
@@ -8449,7 +8458,7 @@
       <c r="Q47" s="38"/>
     </row>
     <row r="48" spans="2:17" ht="19">
-      <c r="B48" s="239"/>
+      <c r="B48" s="240"/>
       <c r="C48" s="27">
         <v>19</v>
       </c>
@@ -8487,7 +8496,7 @@
       <c r="Q48" s="38"/>
     </row>
     <row r="49" spans="2:17" ht="19">
-      <c r="B49" s="239"/>
+      <c r="B49" s="240"/>
       <c r="C49" s="27">
         <v>20</v>
       </c>
@@ -8525,7 +8534,7 @@
       <c r="Q49" s="38"/>
     </row>
     <row r="50" spans="2:17" ht="19">
-      <c r="B50" s="239"/>
+      <c r="B50" s="240"/>
       <c r="C50" s="27">
         <v>21</v>
       </c>
@@ -8664,7 +8673,7 @@
       </c>
     </row>
     <row r="2" spans="2:17" ht="19">
-      <c r="B2" s="242">
+      <c r="B2" s="243">
         <v>2</v>
       </c>
       <c r="C2" s="42" t="s">
@@ -8688,7 +8697,7 @@
       <c r="Q2" s="47"/>
     </row>
     <row r="3" spans="2:17" ht="19">
-      <c r="B3" s="243"/>
+      <c r="B3" s="244"/>
       <c r="C3" s="42">
         <v>1</v>
       </c>
@@ -8728,7 +8737,7 @@
       <c r="Q3" s="47"/>
     </row>
     <row r="4" spans="2:17" ht="19">
-      <c r="B4" s="243"/>
+      <c r="B4" s="244"/>
       <c r="C4" s="42">
         <v>2</v>
       </c>
@@ -8768,7 +8777,7 @@
       <c r="Q4" s="47"/>
     </row>
     <row r="5" spans="2:17" ht="19">
-      <c r="B5" s="243"/>
+      <c r="B5" s="244"/>
       <c r="C5" s="42">
         <v>3</v>
       </c>
@@ -8808,7 +8817,7 @@
       <c r="Q5" s="47"/>
     </row>
     <row r="6" spans="2:17" ht="19">
-      <c r="B6" s="243"/>
+      <c r="B6" s="244"/>
       <c r="C6" s="42">
         <v>4</v>
       </c>
@@ -8848,7 +8857,7 @@
       <c r="Q6" s="47"/>
     </row>
     <row r="7" spans="2:17" ht="19">
-      <c r="B7" s="243"/>
+      <c r="B7" s="244"/>
       <c r="C7" s="42">
         <v>5</v>
       </c>
@@ -8888,7 +8897,7 @@
       <c r="Q7" s="47"/>
     </row>
     <row r="8" spans="2:17" ht="19">
-      <c r="B8" s="243"/>
+      <c r="B8" s="244"/>
       <c r="C8" s="42">
         <v>6</v>
       </c>
@@ -8928,7 +8937,7 @@
       <c r="Q8" s="47"/>
     </row>
     <row r="9" spans="2:17" ht="19">
-      <c r="B9" s="243"/>
+      <c r="B9" s="244"/>
       <c r="C9" s="42">
         <v>7</v>
       </c>
@@ -8968,7 +8977,7 @@
       <c r="Q9" s="47"/>
     </row>
     <row r="10" spans="2:17" ht="19">
-      <c r="B10" s="243"/>
+      <c r="B10" s="244"/>
       <c r="C10" s="42"/>
       <c r="D10" s="66" t="s">
         <v>208</v>
@@ -9006,7 +9015,7 @@
       <c r="Q10" s="47"/>
     </row>
     <row r="11" spans="2:17" ht="19">
-      <c r="B11" s="243"/>
+      <c r="B11" s="244"/>
       <c r="C11" s="42"/>
       <c r="D11" s="66" t="s">
         <v>209</v>
@@ -9044,7 +9053,7 @@
       <c r="Q11" s="47"/>
     </row>
     <row r="12" spans="2:17" ht="19">
-      <c r="B12" s="243"/>
+      <c r="B12" s="244"/>
       <c r="C12" s="42"/>
       <c r="D12" s="67" t="s">
         <v>210</v>
@@ -9082,7 +9091,7 @@
       <c r="Q12" s="52"/>
     </row>
     <row r="13" spans="2:17" ht="19">
-      <c r="B13" s="243"/>
+      <c r="B13" s="244"/>
       <c r="C13" s="42">
         <v>8</v>
       </c>
@@ -9122,7 +9131,7 @@
       <c r="Q13" s="47"/>
     </row>
     <row r="14" spans="2:17" ht="19">
-      <c r="B14" s="243"/>
+      <c r="B14" s="244"/>
       <c r="C14" s="42">
         <v>9</v>
       </c>
@@ -9162,7 +9171,7 @@
       <c r="Q14" s="47"/>
     </row>
     <row r="15" spans="2:17" ht="19">
-      <c r="B15" s="243"/>
+      <c r="B15" s="244"/>
       <c r="C15" s="42">
         <v>10</v>
       </c>
@@ -9202,7 +9211,7 @@
       <c r="Q15" s="47"/>
     </row>
     <row r="16" spans="2:17" ht="19">
-      <c r="B16" s="243"/>
+      <c r="B16" s="244"/>
       <c r="C16" s="42">
         <v>11</v>
       </c>
@@ -9241,7 +9250,7 @@
       <c r="Q16" s="49"/>
     </row>
     <row r="17" spans="2:17" ht="19">
-      <c r="B17" s="244"/>
+      <c r="B17" s="245"/>
       <c r="C17" s="42">
         <v>12</v>
       </c>
@@ -9281,7 +9290,7 @@
       <c r="Q17" s="52"/>
     </row>
     <row r="21" spans="2:17">
-      <c r="B21" s="240" t="s">
+      <c r="B21" s="241" t="s">
         <v>196</v>
       </c>
       <c r="C21" s="38">
@@ -9307,7 +9316,7 @@
       </c>
     </row>
     <row r="22" spans="2:17" ht="19">
-      <c r="B22" s="241"/>
+      <c r="B22" s="242"/>
       <c r="C22" s="39" t="s">
         <v>112</v>
       </c>
@@ -9345,7 +9354,7 @@
       <c r="Q22" s="38"/>
     </row>
     <row r="23" spans="2:17" ht="19">
-      <c r="B23" s="241"/>
+      <c r="B23" s="242"/>
       <c r="C23" s="40" t="s">
         <v>182</v>
       </c>
@@ -9383,7 +9392,7 @@
       <c r="Q23" s="38"/>
     </row>
     <row r="24" spans="2:17" ht="19">
-      <c r="B24" s="241"/>
+      <c r="B24" s="242"/>
       <c r="C24" s="40" t="s">
         <v>183</v>
       </c>
@@ -9421,7 +9430,7 @@
       <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="2:17" ht="19">
-      <c r="B25" s="241"/>
+      <c r="B25" s="242"/>
       <c r="C25" s="40" t="s">
         <v>184</v>
       </c>
@@ -9459,7 +9468,7 @@
       <c r="Q25" s="38"/>
     </row>
     <row r="26" spans="2:17">
-      <c r="B26" s="241"/>
+      <c r="B26" s="242"/>
       <c r="C26" s="38">
         <v>2</v>
       </c>
@@ -9481,7 +9490,7 @@
       <c r="Q26" s="38"/>
     </row>
     <row r="27" spans="2:17" ht="19">
-      <c r="B27" s="241"/>
+      <c r="B27" s="242"/>
       <c r="C27" s="40" t="s">
         <v>177</v>
       </c>
@@ -9519,7 +9528,7 @@
       <c r="Q27" s="38"/>
     </row>
     <row r="28" spans="2:17" ht="19">
-      <c r="B28" s="241"/>
+      <c r="B28" s="242"/>
       <c r="C28" s="40" t="s">
         <v>185</v>
       </c>
@@ -9557,7 +9566,7 @@
       <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="2:17" ht="19">
-      <c r="B29" s="241"/>
+      <c r="B29" s="242"/>
       <c r="C29" s="40" t="s">
         <v>186</v>
       </c>
@@ -9595,7 +9604,7 @@
       <c r="Q29" s="38"/>
     </row>
     <row r="30" spans="2:17" ht="19">
-      <c r="B30" s="241"/>
+      <c r="B30" s="242"/>
       <c r="C30" s="40" t="s">
         <v>187</v>
       </c>
@@ -9633,7 +9642,7 @@
       <c r="Q30" s="38"/>
     </row>
     <row r="31" spans="2:17">
-      <c r="B31" s="241"/>
+      <c r="B31" s="242"/>
       <c r="C31" s="38">
         <v>3</v>
       </c>
@@ -9655,7 +9664,7 @@
       <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="2:17" ht="19">
-      <c r="B32" s="241"/>
+      <c r="B32" s="242"/>
       <c r="C32" s="40" t="s">
         <v>188</v>
       </c>
@@ -9693,7 +9702,7 @@
       <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="2:17" ht="19">
-      <c r="B33" s="241"/>
+      <c r="B33" s="242"/>
       <c r="C33" s="40" t="s">
         <v>189</v>
       </c>
@@ -9731,7 +9740,7 @@
       <c r="Q33" s="38"/>
     </row>
     <row r="34" spans="2:17" ht="19">
-      <c r="B34" s="241"/>
+      <c r="B34" s="242"/>
       <c r="C34" s="40" t="s">
         <v>190</v>
       </c>
@@ -9769,7 +9778,7 @@
       <c r="Q34" s="38"/>
     </row>
     <row r="35" spans="2:17">
-      <c r="B35" s="241"/>
+      <c r="B35" s="242"/>
       <c r="C35" s="38">
         <v>4</v>
       </c>
@@ -9791,7 +9800,7 @@
       <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="2:17" ht="19">
-      <c r="B36" s="241"/>
+      <c r="B36" s="242"/>
       <c r="C36" s="40" t="s">
         <v>113</v>
       </c>
@@ -9831,7 +9840,7 @@
       </c>
     </row>
     <row r="37" spans="2:17" ht="19">
-      <c r="B37" s="241"/>
+      <c r="B37" s="242"/>
       <c r="C37" s="40" t="s">
         <v>191</v>
       </c>
@@ -9871,7 +9880,7 @@
       </c>
     </row>
     <row r="38" spans="2:17" ht="19">
-      <c r="B38" s="241"/>
+      <c r="B38" s="242"/>
       <c r="C38" s="40" t="s">
         <v>192</v>
       </c>
@@ -9911,7 +9920,7 @@
       </c>
     </row>
     <row r="39" spans="2:17" ht="19">
-      <c r="B39" s="241"/>
+      <c r="B39" s="242"/>
       <c r="C39" s="40" t="s">
         <v>193</v>
       </c>
@@ -9949,7 +9958,7 @@
       <c r="Q39" s="38"/>
     </row>
     <row r="40" spans="2:17" ht="19">
-      <c r="B40" s="241"/>
+      <c r="B40" s="242"/>
       <c r="C40" s="40" t="s">
         <v>194</v>
       </c>
@@ -9987,7 +9996,7 @@
       <c r="Q40" s="38"/>
     </row>
     <row r="41" spans="2:17" ht="19">
-      <c r="B41" s="241"/>
+      <c r="B41" s="242"/>
       <c r="C41" s="40" t="s">
         <v>195</v>
       </c>
@@ -10837,7 +10846,7 @@
       <c r="Q19" s="47"/>
     </row>
     <row r="23" spans="2:17">
-      <c r="B23" s="245" t="s">
+      <c r="B23" s="246" t="s">
         <v>188</v>
       </c>
       <c r="C23" s="38">
@@ -10861,7 +10870,7 @@
       <c r="Q23" s="152"/>
     </row>
     <row r="24" spans="2:17">
-      <c r="B24" s="246"/>
+      <c r="B24" s="247"/>
       <c r="C24" s="38">
         <v>3</v>
       </c>
@@ -10899,7 +10908,7 @@
       <c r="Q24" s="152"/>
     </row>
     <row r="25" spans="2:17" ht="19">
-      <c r="B25" s="246"/>
+      <c r="B25" s="247"/>
       <c r="C25" s="38">
         <v>4</v>
       </c>
@@ -10937,7 +10946,7 @@
       </c>
     </row>
     <row r="26" spans="2:17">
-      <c r="B26" s="246"/>
+      <c r="B26" s="247"/>
       <c r="C26" s="38">
         <v>5</v>
       </c>
@@ -10975,7 +10984,7 @@
       <c r="Q26" s="152"/>
     </row>
     <row r="27" spans="2:17">
-      <c r="B27" s="246"/>
+      <c r="B27" s="247"/>
       <c r="C27" s="38">
         <v>6</v>
       </c>
@@ -11013,7 +11022,7 @@
       <c r="Q27" s="152"/>
     </row>
     <row r="28" spans="2:17">
-      <c r="B28" s="246"/>
+      <c r="B28" s="247"/>
       <c r="C28" s="38">
         <v>7</v>
       </c>
@@ -11051,7 +11060,7 @@
       <c r="Q28" s="152"/>
     </row>
     <row r="29" spans="2:17">
-      <c r="B29" s="246"/>
+      <c r="B29" s="247"/>
       <c r="C29" s="38">
         <v>8</v>
       </c>
@@ -11089,7 +11098,7 @@
       <c r="Q29" s="152"/>
     </row>
     <row r="30" spans="2:17">
-      <c r="B30" s="246"/>
+      <c r="B30" s="247"/>
       <c r="C30" s="38">
         <v>9</v>
       </c>
@@ -11127,7 +11136,7 @@
       <c r="Q30" s="152"/>
     </row>
     <row r="31" spans="2:17" ht="19">
-      <c r="B31" s="246"/>
+      <c r="B31" s="247"/>
       <c r="C31" s="38">
         <v>10</v>
       </c>
@@ -11167,7 +11176,7 @@
       </c>
     </row>
     <row r="32" spans="2:17" ht="19">
-      <c r="B32" s="246"/>
+      <c r="B32" s="247"/>
       <c r="C32" s="38">
         <v>11</v>
       </c>
@@ -11205,7 +11214,7 @@
       </c>
     </row>
     <row r="33" spans="2:17" ht="19">
-      <c r="B33" s="246"/>
+      <c r="B33" s="247"/>
       <c r="C33" s="38">
         <v>12</v>
       </c>

--- a/241108_MSR_MOP_CTM BOM 정리.xlsx
+++ b/241108_MSR_MOP_CTM BOM 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/JDS_BU/Git_Hub/GIC_HONGKONG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E232A577-6D1A-BB4E-942E-3ECF47D74CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F6FDAD-DD33-BF48-A8E8-A932F2EA006D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7220" yWindow="900" windowWidth="33900" windowHeight="24360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="251">
   <si>
     <t>Remarks</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1132,6 +1132,10 @@
   </si>
   <si>
     <t>ㄹㄴㄹㅇㄴㄹㄴㅇ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄹㅇㄴㅁㄹㅇㅁ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1879,7 +1883,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="249">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2558,6 +2562,12 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="176" fontId="16" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2589,12 +2599,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="23" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2623,6 +2627,9 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2935,7 +2942,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C169" sqref="C169"/>
+      <selection pane="bottomLeft" activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.3984375" defaultRowHeight="16"/>
@@ -2997,10 +3004,10 @@
       </c>
     </row>
     <row r="3" spans="2:13" ht="19">
-      <c r="B3" s="231">
+      <c r="B3" s="233">
         <v>1</v>
       </c>
-      <c r="C3" s="226" t="s">
+      <c r="C3" s="228" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="92"/>
@@ -3017,8 +3024,8 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:13" ht="19">
-      <c r="B4" s="230"/>
-      <c r="C4" s="227"/>
+      <c r="B4" s="232"/>
+      <c r="C4" s="229"/>
       <c r="D4" s="12" t="str">
         <f>MOP!D3</f>
         <v>Main Frame</v>
@@ -3049,8 +3056,8 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="19">
-      <c r="B5" s="230"/>
-      <c r="C5" s="227"/>
+      <c r="B5" s="232"/>
+      <c r="C5" s="229"/>
       <c r="D5" s="12" t="str">
         <f>MOP!D4</f>
         <v>Left Cover</v>
@@ -3081,8 +3088,8 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" ht="19">
-      <c r="B6" s="230"/>
-      <c r="C6" s="227"/>
+      <c r="B6" s="232"/>
+      <c r="C6" s="229"/>
       <c r="D6" s="12" t="str">
         <f>MOP!D5</f>
         <v>Right Cover</v>
@@ -3113,8 +3120,8 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="2:13" ht="19">
-      <c r="B7" s="230"/>
-      <c r="C7" s="227"/>
+      <c r="B7" s="232"/>
+      <c r="C7" s="229"/>
       <c r="D7" s="12" t="str">
         <f>MOP!D6</f>
         <v>Upper Cover</v>
@@ -3145,8 +3152,8 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="2:13" ht="19">
-      <c r="B8" s="230"/>
-      <c r="C8" s="227"/>
+      <c r="B8" s="232"/>
+      <c r="C8" s="229"/>
       <c r="D8" s="12" t="str">
         <f>MOP!D7</f>
         <v>Lower Cover</v>
@@ -3177,8 +3184,8 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:13" ht="19">
-      <c r="B9" s="230"/>
-      <c r="C9" s="227"/>
+      <c r="B9" s="232"/>
+      <c r="C9" s="229"/>
       <c r="D9" s="12" t="str">
         <f>MOP!D8</f>
         <v>Rear Cover</v>
@@ -3209,8 +3216,8 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:13" ht="19">
-      <c r="B10" s="230"/>
-      <c r="C10" s="227"/>
+      <c r="B10" s="232"/>
+      <c r="C10" s="229"/>
       <c r="D10" s="12" t="str">
         <f>MOP!D9</f>
         <v>Push Button</v>
@@ -3241,8 +3248,8 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="2:13" ht="19">
-      <c r="B11" s="230"/>
-      <c r="C11" s="227"/>
+      <c r="B11" s="232"/>
+      <c r="C11" s="229"/>
       <c r="D11" s="12" t="str">
         <f>MOP!D10</f>
         <v>Push Button</v>
@@ -3273,8 +3280,8 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="2:13" ht="19">
-      <c r="B12" s="230"/>
-      <c r="C12" s="227"/>
+      <c r="B12" s="232"/>
+      <c r="C12" s="229"/>
       <c r="D12" s="12" t="str">
         <f>MOP!D11</f>
         <v>Push Button</v>
@@ -3305,8 +3312,8 @@
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="2:13" ht="19">
-      <c r="B13" s="230"/>
-      <c r="C13" s="227"/>
+      <c r="B13" s="232"/>
+      <c r="C13" s="229"/>
       <c r="D13" s="110" t="str">
         <f>MOP!D12</f>
         <v>Microphone</v>
@@ -3343,8 +3350,8 @@
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="2:13" ht="38">
-      <c r="B14" s="230"/>
-      <c r="C14" s="227"/>
+      <c r="B14" s="232"/>
+      <c r="C14" s="229"/>
       <c r="D14" s="12" t="str">
         <f>MOP!D13</f>
         <v>LCD</v>
@@ -3378,8 +3385,8 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="2:13" ht="19">
-      <c r="B15" s="230"/>
-      <c r="C15" s="227"/>
+      <c r="B15" s="232"/>
+      <c r="C15" s="229"/>
       <c r="D15" s="12" t="str">
         <f>MOP!D14</f>
         <v>LCD Mount Bracket</v>
@@ -3410,8 +3417,8 @@
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="2:13" ht="19">
-      <c r="B16" s="230"/>
-      <c r="C16" s="227"/>
+      <c r="B16" s="232"/>
+      <c r="C16" s="229"/>
       <c r="D16" s="12" t="str">
         <f>MOP!D15</f>
         <v>LCD Control Board</v>
@@ -3442,8 +3449,8 @@
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="2:13" ht="19">
-      <c r="B17" s="230"/>
-      <c r="C17" s="227"/>
+      <c r="B17" s="232"/>
+      <c r="C17" s="229"/>
       <c r="D17" s="12" t="str">
         <f>MOP!D16</f>
         <v>Main Control Board</v>
@@ -3474,8 +3481,8 @@
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="2:13" ht="19">
-      <c r="B18" s="230"/>
-      <c r="C18" s="227"/>
+      <c r="B18" s="232"/>
+      <c r="C18" s="229"/>
       <c r="D18" s="12" t="str">
         <f>MOP!D17</f>
         <v>Power Board</v>
@@ -3506,8 +3513,8 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="2:13" ht="19">
-      <c r="B19" s="230"/>
-      <c r="C19" s="227"/>
+      <c r="B19" s="232"/>
+      <c r="C19" s="229"/>
       <c r="D19" s="110" t="str">
         <f>MOP!D18</f>
         <v>3P Connector Male</v>
@@ -3544,8 +3551,8 @@
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="2:13" ht="19">
-      <c r="B20" s="230"/>
-      <c r="C20" s="227"/>
+      <c r="B20" s="232"/>
+      <c r="C20" s="229"/>
       <c r="D20" s="18" t="str">
         <f>MOP!D19</f>
         <v>3P Connector Female</v>
@@ -3578,8 +3585,8 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="19">
-      <c r="B21" s="230"/>
-      <c r="C21" s="227"/>
+      <c r="B21" s="232"/>
+      <c r="C21" s="229"/>
       <c r="D21" s="110" t="str">
         <f>MOP!D20</f>
         <v>Locking</v>
@@ -3616,8 +3623,8 @@
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="2:13" ht="19">
-      <c r="B22" s="230"/>
-      <c r="C22" s="227"/>
+      <c r="B22" s="232"/>
+      <c r="C22" s="229"/>
       <c r="D22" s="110" t="str">
         <f>MOP!D21</f>
         <v>4P Connector</v>
@@ -3654,8 +3661,8 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="2:13" ht="19">
-      <c r="B23" s="230"/>
-      <c r="C23" s="227"/>
+      <c r="B23" s="232"/>
+      <c r="C23" s="229"/>
       <c r="D23" s="110" t="str">
         <f>MOP!D22</f>
         <v>Pin</v>
@@ -3692,8 +3699,8 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:13" ht="19">
-      <c r="B24" s="230"/>
-      <c r="C24" s="227"/>
+      <c r="B24" s="232"/>
+      <c r="C24" s="229"/>
       <c r="D24" s="110" t="str">
         <f>MOP!D23</f>
         <v>12P Connector</v>
@@ -3730,8 +3737,8 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13" ht="19">
-      <c r="B25" s="230"/>
-      <c r="C25" s="227"/>
+      <c r="B25" s="232"/>
+      <c r="C25" s="229"/>
       <c r="D25" s="110" t="str">
         <f>MOP!D24</f>
         <v>Pin</v>
@@ -3768,8 +3775,8 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="2:13" ht="19">
-      <c r="B26" s="230"/>
-      <c r="C26" s="227"/>
+      <c r="B26" s="232"/>
+      <c r="C26" s="229"/>
       <c r="D26" s="110" t="str">
         <f>MOP!D25</f>
         <v>Cable Clamp</v>
@@ -3806,8 +3813,8 @@
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="2:13" ht="19">
-      <c r="B27" s="230"/>
-      <c r="C27" s="227"/>
+      <c r="B27" s="232"/>
+      <c r="C27" s="229"/>
       <c r="D27" s="12" t="str">
         <f>MOP!D26</f>
         <v>Name Plate, AL, T1</v>
@@ -3838,8 +3845,8 @@
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="2:13" ht="19">
-      <c r="B28" s="230"/>
-      <c r="C28" s="227"/>
+      <c r="B28" s="232"/>
+      <c r="C28" s="229"/>
       <c r="D28" s="18" t="str">
         <f>MOP!D27</f>
         <v>SPEAKER</v>
@@ -3872,8 +3879,8 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="18">
-      <c r="B29" s="230"/>
-      <c r="C29" s="227"/>
+      <c r="B29" s="232"/>
+      <c r="C29" s="229"/>
       <c r="D29" s="155"/>
       <c r="E29" s="155"/>
       <c r="F29" s="155"/>
@@ -3886,8 +3893,8 @@
       <c r="M29" s="158"/>
     </row>
     <row r="30" spans="2:13" ht="19">
-      <c r="B30" s="232"/>
-      <c r="C30" s="228"/>
+      <c r="B30" s="234"/>
+      <c r="C30" s="230"/>
       <c r="D30" s="108" t="s">
         <v>172</v>
       </c>
@@ -3913,10 +3920,10 @@
       <c r="M30" s="15"/>
     </row>
     <row r="31" spans="2:13" ht="19">
-      <c r="B31" s="229">
+      <c r="B31" s="231">
         <v>2</v>
       </c>
-      <c r="C31" s="233" t="s">
+      <c r="C31" s="235" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="111"/>
@@ -3933,8 +3940,8 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="2:13" ht="19">
-      <c r="B32" s="230"/>
-      <c r="C32" s="234"/>
+      <c r="B32" s="232"/>
+      <c r="C32" s="236"/>
       <c r="D32" s="13" t="str">
         <f>MSR!D3</f>
         <v>PWR Board</v>
@@ -3965,8 +3972,8 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="2:13" ht="19">
-      <c r="B33" s="230"/>
-      <c r="C33" s="234"/>
+      <c r="B33" s="232"/>
+      <c r="C33" s="236"/>
       <c r="D33" s="13" t="str">
         <f>MSR!D4</f>
         <v>M_TX Board</v>
@@ -3997,8 +4004,8 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="2:13" ht="19">
-      <c r="B34" s="230"/>
-      <c r="C34" s="234"/>
+      <c r="B34" s="232"/>
+      <c r="C34" s="236"/>
       <c r="D34" s="13" t="str">
         <f>MSR!D5</f>
         <v>Hub Board</v>
@@ -4029,8 +4036,8 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="2:13" ht="19">
-      <c r="B35" s="230"/>
-      <c r="C35" s="234"/>
+      <c r="B35" s="232"/>
+      <c r="C35" s="236"/>
       <c r="D35" s="13" t="str">
         <f>MSR!D6</f>
         <v>TCIU Board</v>
@@ -4061,8 +4068,8 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="2:13" ht="19">
-      <c r="B36" s="230"/>
-      <c r="C36" s="234"/>
+      <c r="B36" s="232"/>
+      <c r="C36" s="236"/>
       <c r="D36" s="13" t="str">
         <f>MSR!D7</f>
         <v>PA_PBX Board</v>
@@ -4093,8 +4100,8 @@
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="2:13" ht="19">
-      <c r="B37" s="230"/>
-      <c r="C37" s="234"/>
+      <c r="B37" s="232"/>
+      <c r="C37" s="236"/>
       <c r="D37" s="13" t="str">
         <f>MSR!D8</f>
         <v>PA_ETX Board</v>
@@ -4125,8 +4132,8 @@
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="2:13" ht="19">
-      <c r="B38" s="230"/>
-      <c r="C38" s="234"/>
+      <c r="B38" s="232"/>
+      <c r="C38" s="236"/>
       <c r="D38" s="13" t="str">
         <f>MSR!D9</f>
         <v>NVR Board</v>
@@ -4158,8 +4165,8 @@
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="2:13" ht="38">
-      <c r="B39" s="230"/>
-      <c r="C39" s="234"/>
+      <c r="B39" s="232"/>
+      <c r="C39" s="236"/>
       <c r="D39" s="150" t="str">
         <f>MSR!D10</f>
         <v>CPU
@@ -4191,8 +4198,8 @@
       <c r="M39" s="3"/>
     </row>
     <row r="40" spans="2:13" ht="38">
-      <c r="B40" s="230"/>
-      <c r="C40" s="234"/>
+      <c r="B40" s="232"/>
+      <c r="C40" s="236"/>
       <c r="D40" s="150" t="str">
         <f>MSR!D11</f>
         <v>CPU BRACKET 
@@ -4224,8 +4231,8 @@
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="2:13" ht="57">
-      <c r="B41" s="230"/>
-      <c r="C41" s="234"/>
+      <c r="B41" s="232"/>
+      <c r="C41" s="236"/>
       <c r="D41" s="151" t="str">
         <f>MSR!D12</f>
         <v>DDR4
@@ -4259,8 +4266,8 @@
       </c>
     </row>
     <row r="42" spans="2:13" ht="19">
-      <c r="B42" s="230"/>
-      <c r="C42" s="234"/>
+      <c r="B42" s="232"/>
+      <c r="C42" s="236"/>
       <c r="D42" s="13" t="str">
         <f>MSR!D13</f>
         <v>SSD Board</v>
@@ -4291,8 +4298,8 @@
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="2:13" ht="19">
-      <c r="B43" s="230"/>
-      <c r="C43" s="234"/>
+      <c r="B43" s="232"/>
+      <c r="C43" s="236"/>
       <c r="D43" s="116" t="str">
         <f>MSR!D14</f>
         <v>MSR Back Plane</v>
@@ -4329,8 +4336,8 @@
       <c r="M43" s="3"/>
     </row>
     <row r="44" spans="2:13" ht="19">
-      <c r="B44" s="230"/>
-      <c r="C44" s="234"/>
+      <c r="B44" s="232"/>
+      <c r="C44" s="236"/>
       <c r="D44" s="116" t="str">
         <f>MSR!D15</f>
         <v>Frame</v>
@@ -4367,8 +4374,8 @@
       <c r="M44" s="3"/>
     </row>
     <row r="45" spans="2:13" ht="19">
-      <c r="B45" s="230"/>
-      <c r="C45" s="234"/>
+      <c r="B45" s="232"/>
+      <c r="C45" s="236"/>
       <c r="D45" s="13" t="str">
         <f>MSR!D16</f>
         <v>Name Plate, AL, T1</v>
@@ -4399,8 +4406,8 @@
       <c r="M45" s="3"/>
     </row>
     <row r="46" spans="2:13" ht="19">
-      <c r="B46" s="230"/>
-      <c r="C46" s="234"/>
+      <c r="B46" s="232"/>
+      <c r="C46" s="236"/>
       <c r="D46" s="149" t="str">
         <f>MSR!D17</f>
         <v>SSD(2T)</v>
@@ -4433,8 +4440,8 @@
       </c>
     </row>
     <row r="47" spans="2:13" ht="18">
-      <c r="B47" s="230"/>
-      <c r="C47" s="234"/>
+      <c r="B47" s="232"/>
+      <c r="C47" s="236"/>
       <c r="D47" s="155"/>
       <c r="E47" s="155"/>
       <c r="F47" s="155"/>
@@ -4447,8 +4454,8 @@
       <c r="M47" s="158"/>
     </row>
     <row r="48" spans="2:13" ht="19">
-      <c r="B48" s="232"/>
-      <c r="C48" s="235"/>
+      <c r="B48" s="234"/>
+      <c r="C48" s="237"/>
       <c r="D48" s="108" t="s">
         <v>172</v>
       </c>
@@ -4474,10 +4481,10 @@
       <c r="M48" s="15"/>
     </row>
     <row r="49" spans="2:13" ht="19">
-      <c r="B49" s="229">
+      <c r="B49" s="231">
         <v>3</v>
       </c>
-      <c r="C49" s="233" t="s">
+      <c r="C49" s="235" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="111"/>
@@ -4494,8 +4501,8 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="2:13" ht="19">
-      <c r="B50" s="230"/>
-      <c r="C50" s="234"/>
+      <c r="B50" s="232"/>
+      <c r="C50" s="236"/>
       <c r="D50" s="13" t="str">
         <f>CTM!D3</f>
         <v>Main Frame</v>
@@ -4526,8 +4533,8 @@
       <c r="M50" s="3"/>
     </row>
     <row r="51" spans="2:13" ht="19">
-      <c r="B51" s="230"/>
-      <c r="C51" s="234"/>
+      <c r="B51" s="232"/>
+      <c r="C51" s="236"/>
       <c r="D51" s="13" t="str">
         <f>CTM!D4</f>
         <v>Lower Cover</v>
@@ -4558,8 +4565,8 @@
       <c r="M51" s="3"/>
     </row>
     <row r="52" spans="2:13" ht="19">
-      <c r="B52" s="230"/>
-      <c r="C52" s="234"/>
+      <c r="B52" s="232"/>
+      <c r="C52" s="236"/>
       <c r="D52" s="13" t="str">
         <f>CTM!D5</f>
         <v>Rear Cover</v>
@@ -4590,8 +4597,8 @@
       <c r="M52" s="3"/>
     </row>
     <row r="53" spans="2:13" ht="19">
-      <c r="B53" s="230"/>
-      <c r="C53" s="234"/>
+      <c r="B53" s="232"/>
+      <c r="C53" s="236"/>
       <c r="D53" s="116" t="str">
         <f>CTM!D6</f>
         <v>10.4" LCD</v>
@@ -4630,8 +4637,8 @@
       </c>
     </row>
     <row r="54" spans="2:13" ht="19">
-      <c r="B54" s="230"/>
-      <c r="C54" s="234"/>
+      <c r="B54" s="232"/>
+      <c r="C54" s="236"/>
       <c r="D54" s="13" t="str">
         <f>CTM!D7</f>
         <v>Control Board Bracket</v>
@@ -4661,8 +4668,8 @@
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="2:13" ht="19">
-      <c r="B55" s="230"/>
-      <c r="C55" s="234"/>
+      <c r="B55" s="232"/>
+      <c r="C55" s="236"/>
       <c r="D55" s="13" t="str">
         <f>CTM!D8</f>
         <v>Control Board</v>
@@ -4692,8 +4699,8 @@
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="2:13" ht="19">
-      <c r="B56" s="230"/>
-      <c r="C56" s="234"/>
+      <c r="B56" s="232"/>
+      <c r="C56" s="236"/>
       <c r="D56" s="150" t="str">
         <f>CTM!D9</f>
         <v xml:space="preserve">CPU TCA3/i-E3845 </v>
@@ -4732,8 +4739,8 @@
       </c>
     </row>
     <row r="57" spans="2:13" ht="19">
-      <c r="B57" s="230"/>
-      <c r="C57" s="234"/>
+      <c r="B57" s="232"/>
+      <c r="C57" s="236"/>
       <c r="D57" s="150" t="str">
         <f>CTM!D10</f>
         <v xml:space="preserve">CPU BRACKET TCA3/CSP-B </v>
@@ -4772,8 +4779,8 @@
       </c>
     </row>
     <row r="58" spans="2:13" ht="57">
-      <c r="B58" s="230"/>
-      <c r="C58" s="234"/>
+      <c r="B58" s="232"/>
+      <c r="C58" s="236"/>
       <c r="D58" s="151" t="str">
         <f>CTM!D11</f>
         <v>DDR4
@@ -4807,8 +4814,8 @@
       </c>
     </row>
     <row r="59" spans="2:13" ht="19">
-      <c r="B59" s="230"/>
-      <c r="C59" s="234"/>
+      <c r="B59" s="232"/>
+      <c r="C59" s="236"/>
       <c r="D59" s="13" t="str">
         <f>CTM!D12</f>
         <v>Power Board</v>
@@ -4839,8 +4846,8 @@
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="2:13" ht="19">
-      <c r="B60" s="230"/>
-      <c r="C60" s="234"/>
+      <c r="B60" s="232"/>
+      <c r="C60" s="236"/>
       <c r="D60" s="116" t="str">
         <f>CTM!D13</f>
         <v>3P Connector</v>
@@ -4877,8 +4884,8 @@
       <c r="M60" s="16"/>
     </row>
     <row r="61" spans="2:13" ht="19">
-      <c r="B61" s="230"/>
-      <c r="C61" s="234"/>
+      <c r="B61" s="232"/>
+      <c r="C61" s="236"/>
       <c r="D61" s="116" t="str">
         <f>CTM!D14</f>
         <v>Locking</v>
@@ -4915,8 +4922,8 @@
       <c r="M61" s="16"/>
     </row>
     <row r="62" spans="2:13" ht="19">
-      <c r="B62" s="230"/>
-      <c r="C62" s="234"/>
+      <c r="B62" s="232"/>
+      <c r="C62" s="236"/>
       <c r="D62" s="116" t="str">
         <f>CTM!D15</f>
         <v>4P Connector</v>
@@ -4953,8 +4960,8 @@
       <c r="M62" s="16"/>
     </row>
     <row r="63" spans="2:13" ht="19">
-      <c r="B63" s="230"/>
-      <c r="C63" s="234"/>
+      <c r="B63" s="232"/>
+      <c r="C63" s="236"/>
       <c r="D63" s="116" t="str">
         <f>CTM!D16</f>
         <v>Pin</v>
@@ -4991,8 +4998,8 @@
       <c r="M63" s="16"/>
     </row>
     <row r="64" spans="2:13" ht="19">
-      <c r="B64" s="230"/>
-      <c r="C64" s="234"/>
+      <c r="B64" s="232"/>
+      <c r="C64" s="236"/>
       <c r="D64" s="116" t="str">
         <f>CTM!D17</f>
         <v>Cable Gland</v>
@@ -5029,8 +5036,8 @@
       <c r="M64" s="16"/>
     </row>
     <row r="65" spans="2:13" ht="19">
-      <c r="B65" s="230"/>
-      <c r="C65" s="234"/>
+      <c r="B65" s="232"/>
+      <c r="C65" s="236"/>
       <c r="D65" s="149" t="str">
         <f>CTM!D18</f>
         <v>USB Adapter</v>
@@ -5063,8 +5070,8 @@
       </c>
     </row>
     <row r="66" spans="2:13" ht="19">
-      <c r="B66" s="230"/>
-      <c r="C66" s="234"/>
+      <c r="B66" s="232"/>
+      <c r="C66" s="236"/>
       <c r="D66" s="13" t="str">
         <f>CTM!D19</f>
         <v>Name Plate</v>
@@ -5095,8 +5102,8 @@
       <c r="M66" s="3"/>
     </row>
     <row r="67" spans="2:13" ht="18">
-      <c r="B67" s="230"/>
-      <c r="C67" s="234"/>
+      <c r="B67" s="232"/>
+      <c r="C67" s="236"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -5109,8 +5116,8 @@
       <c r="M67" s="2"/>
     </row>
     <row r="68" spans="2:13" ht="19">
-      <c r="B68" s="232"/>
-      <c r="C68" s="235"/>
+      <c r="B68" s="234"/>
+      <c r="C68" s="237"/>
       <c r="D68" s="108" t="s">
         <v>172</v>
       </c>
@@ -5136,8 +5143,8 @@
       <c r="M68" s="15"/>
     </row>
     <row r="69" spans="2:13" ht="18">
-      <c r="B69" s="229"/>
-      <c r="C69" s="233"/>
+      <c r="B69" s="231"/>
+      <c r="C69" s="235"/>
       <c r="D69" s="111"/>
       <c r="E69" s="112"/>
       <c r="F69" s="95"/>
@@ -5150,8 +5157,8 @@
       <c r="M69" s="3"/>
     </row>
     <row r="70" spans="2:13" ht="18">
-      <c r="B70" s="230"/>
-      <c r="C70" s="234"/>
+      <c r="B70" s="232"/>
+      <c r="C70" s="236"/>
       <c r="D70" s="120"/>
       <c r="E70" s="120"/>
       <c r="F70" s="120"/>
@@ -5164,8 +5171,8 @@
       <c r="M70" s="3"/>
     </row>
     <row r="71" spans="2:13" ht="18">
-      <c r="B71" s="230"/>
-      <c r="C71" s="234"/>
+      <c r="B71" s="232"/>
+      <c r="C71" s="236"/>
       <c r="D71" s="120"/>
       <c r="E71" s="120"/>
       <c r="F71" s="120"/>
@@ -5178,8 +5185,8 @@
       <c r="M71" s="3"/>
     </row>
     <row r="72" spans="2:13" ht="18">
-      <c r="B72" s="230"/>
-      <c r="C72" s="234"/>
+      <c r="B72" s="232"/>
+      <c r="C72" s="236"/>
       <c r="D72" s="120"/>
       <c r="E72" s="120"/>
       <c r="F72" s="120"/>
@@ -5192,8 +5199,8 @@
       <c r="M72" s="3"/>
     </row>
     <row r="73" spans="2:13" ht="18">
-      <c r="B73" s="230"/>
-      <c r="C73" s="234"/>
+      <c r="B73" s="232"/>
+      <c r="C73" s="236"/>
       <c r="D73" s="120"/>
       <c r="E73" s="120"/>
       <c r="F73" s="120"/>
@@ -5206,8 +5213,8 @@
       <c r="M73" s="3"/>
     </row>
     <row r="74" spans="2:13" ht="18">
-      <c r="B74" s="230"/>
-      <c r="C74" s="234"/>
+      <c r="B74" s="232"/>
+      <c r="C74" s="236"/>
       <c r="D74" s="154"/>
       <c r="E74" s="154"/>
       <c r="F74" s="154"/>
@@ -5220,8 +5227,8 @@
       <c r="M74" s="3"/>
     </row>
     <row r="75" spans="2:13" ht="18">
-      <c r="B75" s="230"/>
-      <c r="C75" s="234"/>
+      <c r="B75" s="232"/>
+      <c r="C75" s="236"/>
       <c r="D75" s="154"/>
       <c r="E75" s="154"/>
       <c r="F75" s="154"/>
@@ -5234,8 +5241,8 @@
       <c r="M75" s="3"/>
     </row>
     <row r="76" spans="2:13" ht="18">
-      <c r="B76" s="230"/>
-      <c r="C76" s="234"/>
+      <c r="B76" s="232"/>
+      <c r="C76" s="236"/>
       <c r="D76" s="120"/>
       <c r="E76" s="120"/>
       <c r="F76" s="120"/>
@@ -5248,8 +5255,8 @@
       <c r="M76" s="3"/>
     </row>
     <row r="77" spans="2:13" ht="18">
-      <c r="B77" s="230"/>
-      <c r="C77" s="234"/>
+      <c r="B77" s="232"/>
+      <c r="C77" s="236"/>
       <c r="D77" s="120"/>
       <c r="E77" s="120"/>
       <c r="F77" s="120"/>
@@ -5262,8 +5269,8 @@
       <c r="M77" s="3"/>
     </row>
     <row r="78" spans="2:13" ht="18">
-      <c r="B78" s="230"/>
-      <c r="C78" s="234"/>
+      <c r="B78" s="232"/>
+      <c r="C78" s="236"/>
       <c r="D78" s="120"/>
       <c r="E78" s="120"/>
       <c r="F78" s="120"/>
@@ -5276,8 +5283,8 @@
       <c r="M78" s="3"/>
     </row>
     <row r="79" spans="2:13" ht="18">
-      <c r="B79" s="230"/>
-      <c r="C79" s="234"/>
+      <c r="B79" s="232"/>
+      <c r="C79" s="236"/>
       <c r="D79" s="120"/>
       <c r="E79" s="120"/>
       <c r="F79" s="120"/>
@@ -5290,8 +5297,8 @@
       <c r="M79" s="3"/>
     </row>
     <row r="80" spans="2:13" ht="18">
-      <c r="B80" s="230"/>
-      <c r="C80" s="234"/>
+      <c r="B80" s="232"/>
+      <c r="C80" s="236"/>
       <c r="D80" s="120"/>
       <c r="E80" s="120"/>
       <c r="F80" s="120"/>
@@ -5304,8 +5311,8 @@
       <c r="M80" s="3"/>
     </row>
     <row r="81" spans="2:13" ht="18">
-      <c r="B81" s="230"/>
-      <c r="C81" s="234"/>
+      <c r="B81" s="232"/>
+      <c r="C81" s="236"/>
       <c r="D81" s="120"/>
       <c r="E81" s="120"/>
       <c r="F81" s="120"/>
@@ -5318,8 +5325,8 @@
       <c r="M81" s="3"/>
     </row>
     <row r="82" spans="2:13" ht="18">
-      <c r="B82" s="230"/>
-      <c r="C82" s="234"/>
+      <c r="B82" s="232"/>
+      <c r="C82" s="236"/>
       <c r="D82" s="120"/>
       <c r="E82" s="120"/>
       <c r="F82" s="120"/>
@@ -5332,8 +5339,8 @@
       <c r="M82" s="3"/>
     </row>
     <row r="83" spans="2:13" ht="18">
-      <c r="B83" s="230"/>
-      <c r="C83" s="234"/>
+      <c r="B83" s="232"/>
+      <c r="C83" s="236"/>
       <c r="D83" s="120"/>
       <c r="E83" s="120"/>
       <c r="F83" s="120"/>
@@ -5346,8 +5353,8 @@
       <c r="M83" s="3"/>
     </row>
     <row r="84" spans="2:13" ht="18">
-      <c r="B84" s="230"/>
-      <c r="C84" s="234"/>
+      <c r="B84" s="232"/>
+      <c r="C84" s="236"/>
       <c r="D84" s="154"/>
       <c r="E84" s="154"/>
       <c r="F84" s="154"/>
@@ -5360,8 +5367,8 @@
       <c r="M84" s="3"/>
     </row>
     <row r="85" spans="2:13" ht="18">
-      <c r="B85" s="230"/>
-      <c r="C85" s="234"/>
+      <c r="B85" s="232"/>
+      <c r="C85" s="236"/>
       <c r="D85" s="154"/>
       <c r="E85" s="154"/>
       <c r="F85" s="154"/>
@@ -5374,8 +5381,8 @@
       <c r="M85" s="3"/>
     </row>
     <row r="86" spans="2:13" ht="18">
-      <c r="B86" s="230"/>
-      <c r="C86" s="234"/>
+      <c r="B86" s="232"/>
+      <c r="C86" s="236"/>
       <c r="D86" s="105"/>
       <c r="E86" s="105"/>
       <c r="F86" s="105"/>
@@ -5388,8 +5395,8 @@
       <c r="M86" s="2"/>
     </row>
     <row r="87" spans="2:13" ht="18">
-      <c r="B87" s="232"/>
-      <c r="C87" s="235"/>
+      <c r="B87" s="234"/>
+      <c r="C87" s="237"/>
       <c r="D87" s="108"/>
       <c r="E87" s="108"/>
       <c r="F87" s="109"/>
@@ -5402,8 +5409,8 @@
       <c r="M87" s="2"/>
     </row>
     <row r="88" spans="2:13" ht="18">
-      <c r="B88" s="229"/>
-      <c r="C88" s="233"/>
+      <c r="B88" s="231"/>
+      <c r="C88" s="235"/>
       <c r="D88" s="111"/>
       <c r="E88" s="112"/>
       <c r="F88" s="95"/>
@@ -5416,8 +5423,8 @@
       <c r="M88" s="3"/>
     </row>
     <row r="89" spans="2:13" ht="18">
-      <c r="B89" s="230"/>
-      <c r="C89" s="234"/>
+      <c r="B89" s="232"/>
+      <c r="C89" s="236"/>
       <c r="D89" s="120"/>
       <c r="E89" s="120"/>
       <c r="F89" s="120"/>
@@ -5430,8 +5437,8 @@
       <c r="M89" s="3"/>
     </row>
     <row r="90" spans="2:13" ht="18">
-      <c r="B90" s="230"/>
-      <c r="C90" s="234"/>
+      <c r="B90" s="232"/>
+      <c r="C90" s="236"/>
       <c r="D90" s="120"/>
       <c r="E90" s="120"/>
       <c r="F90" s="120"/>
@@ -5444,8 +5451,8 @@
       <c r="M90" s="3"/>
     </row>
     <row r="91" spans="2:13" ht="18">
-      <c r="B91" s="230"/>
-      <c r="C91" s="234"/>
+      <c r="B91" s="232"/>
+      <c r="C91" s="236"/>
       <c r="D91" s="120"/>
       <c r="E91" s="120"/>
       <c r="F91" s="120"/>
@@ -5458,8 +5465,8 @@
       <c r="M91" s="3"/>
     </row>
     <row r="92" spans="2:13" ht="18">
-      <c r="B92" s="230"/>
-      <c r="C92" s="234"/>
+      <c r="B92" s="232"/>
+      <c r="C92" s="236"/>
       <c r="D92" s="120"/>
       <c r="E92" s="120"/>
       <c r="F92" s="120"/>
@@ -5472,8 +5479,8 @@
       <c r="M92" s="9"/>
     </row>
     <row r="93" spans="2:13" ht="18">
-      <c r="B93" s="230"/>
-      <c r="C93" s="234"/>
+      <c r="B93" s="232"/>
+      <c r="C93" s="236"/>
       <c r="D93" s="120"/>
       <c r="E93" s="120"/>
       <c r="F93" s="120"/>
@@ -5486,8 +5493,8 @@
       <c r="M93" s="3"/>
     </row>
     <row r="94" spans="2:13" ht="18">
-      <c r="B94" s="230"/>
-      <c r="C94" s="234"/>
+      <c r="B94" s="232"/>
+      <c r="C94" s="236"/>
       <c r="D94" s="120"/>
       <c r="E94" s="120"/>
       <c r="F94" s="120"/>
@@ -5500,8 +5507,8 @@
       <c r="M94" s="3"/>
     </row>
     <row r="95" spans="2:13" ht="18">
-      <c r="B95" s="230"/>
-      <c r="C95" s="234"/>
+      <c r="B95" s="232"/>
+      <c r="C95" s="236"/>
       <c r="D95" s="154"/>
       <c r="E95" s="154"/>
       <c r="F95" s="154"/>
@@ -5514,8 +5521,8 @@
       <c r="M95" s="3"/>
     </row>
     <row r="96" spans="2:13" ht="18">
-      <c r="B96" s="230"/>
-      <c r="C96" s="234"/>
+      <c r="B96" s="232"/>
+      <c r="C96" s="236"/>
       <c r="D96" s="154"/>
       <c r="E96" s="154"/>
       <c r="F96" s="154"/>
@@ -5528,8 +5535,8 @@
       <c r="M96" s="3"/>
     </row>
     <row r="97" spans="2:13" ht="18">
-      <c r="B97" s="230"/>
-      <c r="C97" s="234"/>
+      <c r="B97" s="232"/>
+      <c r="C97" s="236"/>
       <c r="D97" s="120"/>
       <c r="E97" s="120"/>
       <c r="F97" s="120"/>
@@ -5542,8 +5549,8 @@
       <c r="M97" s="3"/>
     </row>
     <row r="98" spans="2:13" ht="18">
-      <c r="B98" s="230"/>
-      <c r="C98" s="234"/>
+      <c r="B98" s="232"/>
+      <c r="C98" s="236"/>
       <c r="D98" s="120"/>
       <c r="E98" s="120"/>
       <c r="F98" s="120"/>
@@ -5556,8 +5563,8 @@
       <c r="M98" s="3"/>
     </row>
     <row r="99" spans="2:13" ht="18">
-      <c r="B99" s="230"/>
-      <c r="C99" s="234"/>
+      <c r="B99" s="232"/>
+      <c r="C99" s="236"/>
       <c r="D99" s="120"/>
       <c r="E99" s="120"/>
       <c r="F99" s="120"/>
@@ -5570,8 +5577,8 @@
       <c r="M99" s="3"/>
     </row>
     <row r="100" spans="2:13" ht="18">
-      <c r="B100" s="230"/>
-      <c r="C100" s="234"/>
+      <c r="B100" s="232"/>
+      <c r="C100" s="236"/>
       <c r="D100" s="120"/>
       <c r="E100" s="120"/>
       <c r="F100" s="120"/>
@@ -5584,8 +5591,8 @@
       <c r="M100" s="3"/>
     </row>
     <row r="101" spans="2:13" ht="18">
-      <c r="B101" s="230"/>
-      <c r="C101" s="234"/>
+      <c r="B101" s="232"/>
+      <c r="C101" s="236"/>
       <c r="D101" s="120"/>
       <c r="E101" s="120"/>
       <c r="F101" s="120"/>
@@ -5598,8 +5605,8 @@
       <c r="M101" s="3"/>
     </row>
     <row r="102" spans="2:13" ht="18">
-      <c r="B102" s="230"/>
-      <c r="C102" s="234"/>
+      <c r="B102" s="232"/>
+      <c r="C102" s="236"/>
       <c r="D102" s="120"/>
       <c r="E102" s="120"/>
       <c r="F102" s="120"/>
@@ -5612,8 +5619,8 @@
       <c r="M102" s="3"/>
     </row>
     <row r="103" spans="2:13" ht="18">
-      <c r="B103" s="230"/>
-      <c r="C103" s="234"/>
+      <c r="B103" s="232"/>
+      <c r="C103" s="236"/>
       <c r="D103" s="120"/>
       <c r="E103" s="120"/>
       <c r="F103" s="120"/>
@@ -5626,8 +5633,8 @@
       <c r="M103" s="3"/>
     </row>
     <row r="104" spans="2:13" ht="18">
-      <c r="B104" s="230"/>
-      <c r="C104" s="234"/>
+      <c r="B104" s="232"/>
+      <c r="C104" s="236"/>
       <c r="D104" s="154"/>
       <c r="E104" s="154"/>
       <c r="F104" s="154"/>
@@ -5640,8 +5647,8 @@
       <c r="M104" s="3"/>
     </row>
     <row r="105" spans="2:13" ht="18">
-      <c r="B105" s="230"/>
-      <c r="C105" s="234"/>
+      <c r="B105" s="232"/>
+      <c r="C105" s="236"/>
       <c r="D105" s="120"/>
       <c r="E105" s="120"/>
       <c r="F105" s="120"/>
@@ -5654,8 +5661,8 @@
       <c r="M105" s="2"/>
     </row>
     <row r="106" spans="2:13" ht="18">
-      <c r="B106" s="230"/>
-      <c r="C106" s="234"/>
+      <c r="B106" s="232"/>
+      <c r="C106" s="236"/>
       <c r="D106" s="105"/>
       <c r="E106" s="105"/>
       <c r="F106" s="105"/>
@@ -5668,8 +5675,8 @@
       <c r="M106" s="2"/>
     </row>
     <row r="107" spans="2:13" ht="18">
-      <c r="B107" s="232"/>
-      <c r="C107" s="235"/>
+      <c r="B107" s="234"/>
+      <c r="C107" s="237"/>
       <c r="D107" s="108"/>
       <c r="E107" s="108"/>
       <c r="F107" s="109"/>
@@ -5682,8 +5689,8 @@
       <c r="M107" s="2"/>
     </row>
     <row r="108" spans="2:13" ht="18">
-      <c r="B108" s="229"/>
-      <c r="C108" s="233"/>
+      <c r="B108" s="231"/>
+      <c r="C108" s="235"/>
       <c r="D108" s="111"/>
       <c r="E108" s="112"/>
       <c r="F108" s="95"/>
@@ -5696,8 +5703,8 @@
       <c r="M108" s="3"/>
     </row>
     <row r="109" spans="2:13" ht="18">
-      <c r="B109" s="230"/>
-      <c r="C109" s="234"/>
+      <c r="B109" s="232"/>
+      <c r="C109" s="236"/>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
@@ -5710,8 +5717,8 @@
       <c r="M109" s="3"/>
     </row>
     <row r="110" spans="2:13" ht="18">
-      <c r="B110" s="230"/>
-      <c r="C110" s="234"/>
+      <c r="B110" s="232"/>
+      <c r="C110" s="236"/>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
@@ -5724,8 +5731,8 @@
       <c r="M110" s="3"/>
     </row>
     <row r="111" spans="2:13" ht="18">
-      <c r="B111" s="230"/>
-      <c r="C111" s="234"/>
+      <c r="B111" s="232"/>
+      <c r="C111" s="236"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
@@ -5738,8 +5745,8 @@
       <c r="M111" s="3"/>
     </row>
     <row r="112" spans="2:13" ht="18">
-      <c r="B112" s="230"/>
-      <c r="C112" s="234"/>
+      <c r="B112" s="232"/>
+      <c r="C112" s="236"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
@@ -5752,8 +5759,8 @@
       <c r="M112" s="3"/>
     </row>
     <row r="113" spans="2:13" ht="18">
-      <c r="B113" s="230"/>
-      <c r="C113" s="234"/>
+      <c r="B113" s="232"/>
+      <c r="C113" s="236"/>
       <c r="D113" s="13"/>
       <c r="E113" s="13"/>
       <c r="F113" s="13"/>
@@ -5766,8 +5773,8 @@
       <c r="M113" s="3"/>
     </row>
     <row r="114" spans="2:13" ht="18">
-      <c r="B114" s="230"/>
-      <c r="C114" s="234"/>
+      <c r="B114" s="232"/>
+      <c r="C114" s="236"/>
       <c r="D114" s="116"/>
       <c r="E114" s="116"/>
       <c r="F114" s="116"/>
@@ -5780,8 +5787,8 @@
       <c r="M114" s="3"/>
     </row>
     <row r="115" spans="2:13" ht="18">
-      <c r="B115" s="230"/>
-      <c r="C115" s="234"/>
+      <c r="B115" s="232"/>
+      <c r="C115" s="236"/>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
@@ -5794,8 +5801,8 @@
       <c r="M115" s="3"/>
     </row>
     <row r="116" spans="2:13" ht="18">
-      <c r="B116" s="230"/>
-      <c r="C116" s="234"/>
+      <c r="B116" s="232"/>
+      <c r="C116" s="236"/>
       <c r="D116" s="116"/>
       <c r="E116" s="116"/>
       <c r="F116" s="116"/>
@@ -5808,8 +5815,8 @@
       <c r="M116" s="3"/>
     </row>
     <row r="117" spans="2:13" ht="18">
-      <c r="B117" s="230"/>
-      <c r="C117" s="234"/>
+      <c r="B117" s="232"/>
+      <c r="C117" s="236"/>
       <c r="D117" s="116"/>
       <c r="E117" s="116"/>
       <c r="F117" s="116"/>
@@ -5822,8 +5829,8 @@
       <c r="M117" s="3"/>
     </row>
     <row r="118" spans="2:13" ht="18">
-      <c r="B118" s="230"/>
-      <c r="C118" s="234"/>
+      <c r="B118" s="232"/>
+      <c r="C118" s="236"/>
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
@@ -5836,8 +5843,8 @@
       <c r="M118" s="3"/>
     </row>
     <row r="119" spans="2:13" ht="18">
-      <c r="B119" s="230"/>
-      <c r="C119" s="234"/>
+      <c r="B119" s="232"/>
+      <c r="C119" s="236"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
@@ -5850,8 +5857,8 @@
       <c r="M119" s="2"/>
     </row>
     <row r="120" spans="2:13" ht="18">
-      <c r="B120" s="232"/>
-      <c r="C120" s="235"/>
+      <c r="B120" s="234"/>
+      <c r="C120" s="237"/>
       <c r="D120" s="108"/>
       <c r="E120" s="108"/>
       <c r="F120" s="109"/>
@@ -5864,8 +5871,8 @@
       <c r="M120" s="2"/>
     </row>
     <row r="121" spans="2:13" ht="18">
-      <c r="B121" s="229"/>
-      <c r="C121" s="236"/>
+      <c r="B121" s="231"/>
+      <c r="C121" s="238"/>
       <c r="D121" s="111"/>
       <c r="E121" s="112"/>
       <c r="F121" s="95"/>
@@ -5878,8 +5885,8 @@
       <c r="M121" s="3"/>
     </row>
     <row r="122" spans="2:13" ht="18">
-      <c r="B122" s="230"/>
-      <c r="C122" s="227"/>
+      <c r="B122" s="232"/>
+      <c r="C122" s="229"/>
       <c r="D122" s="120"/>
       <c r="E122" s="120"/>
       <c r="F122" s="120"/>
@@ -5892,8 +5899,8 @@
       <c r="M122" s="4"/>
     </row>
     <row r="123" spans="2:13" ht="18">
-      <c r="B123" s="230"/>
-      <c r="C123" s="227"/>
+      <c r="B123" s="232"/>
+      <c r="C123" s="229"/>
       <c r="D123" s="120"/>
       <c r="E123" s="120"/>
       <c r="F123" s="120"/>
@@ -5906,8 +5913,8 @@
       <c r="M123" s="4"/>
     </row>
     <row r="124" spans="2:13" ht="18">
-      <c r="B124" s="230"/>
-      <c r="C124" s="227"/>
+      <c r="B124" s="232"/>
+      <c r="C124" s="229"/>
       <c r="D124" s="120"/>
       <c r="E124" s="120"/>
       <c r="F124" s="120"/>
@@ -5920,8 +5927,8 @@
       <c r="M124" s="4"/>
     </row>
     <row r="125" spans="2:13" ht="18">
-      <c r="B125" s="230"/>
-      <c r="C125" s="227"/>
+      <c r="B125" s="232"/>
+      <c r="C125" s="229"/>
       <c r="D125" s="154"/>
       <c r="E125" s="154"/>
       <c r="F125" s="154"/>
@@ -5934,8 +5941,8 @@
       <c r="M125" s="4"/>
     </row>
     <row r="126" spans="2:13" ht="18">
-      <c r="B126" s="230"/>
-      <c r="C126" s="227"/>
+      <c r="B126" s="232"/>
+      <c r="C126" s="229"/>
       <c r="D126" s="120"/>
       <c r="E126" s="120"/>
       <c r="F126" s="120"/>
@@ -5948,8 +5955,8 @@
       <c r="M126" s="7"/>
     </row>
     <row r="127" spans="2:13" ht="18">
-      <c r="B127" s="230"/>
-      <c r="C127" s="227"/>
+      <c r="B127" s="232"/>
+      <c r="C127" s="229"/>
       <c r="D127" s="154"/>
       <c r="E127" s="154"/>
       <c r="F127" s="154"/>
@@ -5962,8 +5969,8 @@
       <c r="M127" s="7"/>
     </row>
     <row r="128" spans="2:13" ht="18">
-      <c r="B128" s="230"/>
-      <c r="C128" s="227"/>
+      <c r="B128" s="232"/>
+      <c r="C128" s="229"/>
       <c r="D128" s="120"/>
       <c r="E128" s="120"/>
       <c r="F128" s="120"/>
@@ -5976,8 +5983,8 @@
       <c r="M128" s="7"/>
     </row>
     <row r="129" spans="2:13" ht="18">
-      <c r="B129" s="230"/>
-      <c r="C129" s="227"/>
+      <c r="B129" s="232"/>
+      <c r="C129" s="229"/>
       <c r="D129" s="120"/>
       <c r="E129" s="120"/>
       <c r="F129" s="120"/>
@@ -5990,8 +5997,8 @@
       <c r="M129" s="6"/>
     </row>
     <row r="130" spans="2:13" ht="18">
-      <c r="B130" s="230"/>
-      <c r="C130" s="227"/>
+      <c r="B130" s="232"/>
+      <c r="C130" s="229"/>
       <c r="D130" s="120"/>
       <c r="E130" s="120"/>
       <c r="F130" s="120"/>
@@ -6004,8 +6011,8 @@
       <c r="M130" s="4"/>
     </row>
     <row r="131" spans="2:13" ht="18">
-      <c r="B131" s="230"/>
-      <c r="C131" s="227"/>
+      <c r="B131" s="232"/>
+      <c r="C131" s="229"/>
       <c r="D131" s="120"/>
       <c r="E131" s="120"/>
       <c r="F131" s="120"/>
@@ -6018,8 +6025,8 @@
       <c r="M131" s="4"/>
     </row>
     <row r="132" spans="2:13" ht="18">
-      <c r="B132" s="230"/>
-      <c r="C132" s="227"/>
+      <c r="B132" s="232"/>
+      <c r="C132" s="229"/>
       <c r="D132" s="120"/>
       <c r="E132" s="120"/>
       <c r="F132" s="120"/>
@@ -6032,8 +6039,8 @@
       <c r="M132" s="4"/>
     </row>
     <row r="133" spans="2:13" ht="18">
-      <c r="B133" s="230"/>
-      <c r="C133" s="227"/>
+      <c r="B133" s="232"/>
+      <c r="C133" s="229"/>
       <c r="D133" s="120"/>
       <c r="E133" s="120"/>
       <c r="F133" s="120"/>
@@ -6046,8 +6053,8 @@
       <c r="M133" s="4"/>
     </row>
     <row r="134" spans="2:13" ht="18">
-      <c r="B134" s="230"/>
-      <c r="C134" s="227"/>
+      <c r="B134" s="232"/>
+      <c r="C134" s="229"/>
       <c r="D134" s="120"/>
       <c r="E134" s="120"/>
       <c r="F134" s="120"/>
@@ -6060,8 +6067,8 @@
       <c r="M134" s="4"/>
     </row>
     <row r="135" spans="2:13" ht="18">
-      <c r="B135" s="230"/>
-      <c r="C135" s="227"/>
+      <c r="B135" s="232"/>
+      <c r="C135" s="229"/>
       <c r="D135" s="154"/>
       <c r="E135" s="154"/>
       <c r="F135" s="154"/>
@@ -6074,8 +6081,8 @@
       <c r="M135" s="10"/>
     </row>
     <row r="136" spans="2:13" ht="18">
-      <c r="B136" s="230"/>
-      <c r="C136" s="227"/>
+      <c r="B136" s="232"/>
+      <c r="C136" s="229"/>
       <c r="D136" s="105"/>
       <c r="E136" s="105"/>
       <c r="F136" s="105"/>
@@ -6088,8 +6095,8 @@
       <c r="M136" s="6"/>
     </row>
     <row r="137" spans="2:13" ht="18">
-      <c r="B137" s="232"/>
-      <c r="C137" s="228"/>
+      <c r="B137" s="234"/>
+      <c r="C137" s="230"/>
       <c r="D137" s="108"/>
       <c r="E137" s="108"/>
       <c r="F137" s="109"/>
@@ -6102,8 +6109,8 @@
       <c r="M137" s="2"/>
     </row>
     <row r="138" spans="2:13" ht="18">
-      <c r="B138" s="229"/>
-      <c r="C138" s="233"/>
+      <c r="B138" s="231"/>
+      <c r="C138" s="235"/>
       <c r="D138" s="133"/>
       <c r="E138" s="112"/>
       <c r="F138" s="95"/>
@@ -6116,8 +6123,8 @@
       <c r="M138" s="3"/>
     </row>
     <row r="139" spans="2:13" ht="18">
-      <c r="B139" s="230"/>
-      <c r="C139" s="234"/>
+      <c r="B139" s="232"/>
+      <c r="C139" s="236"/>
       <c r="D139" s="120"/>
       <c r="E139" s="120"/>
       <c r="F139" s="120"/>
@@ -6130,8 +6137,8 @@
       <c r="M139" s="3"/>
     </row>
     <row r="140" spans="2:13" ht="18">
-      <c r="B140" s="230"/>
-      <c r="C140" s="234"/>
+      <c r="B140" s="232"/>
+      <c r="C140" s="236"/>
       <c r="D140" s="120"/>
       <c r="E140" s="120"/>
       <c r="F140" s="120"/>
@@ -6144,8 +6151,8 @@
       <c r="M140" s="3"/>
     </row>
     <row r="141" spans="2:13" ht="18">
-      <c r="B141" s="230"/>
-      <c r="C141" s="234"/>
+      <c r="B141" s="232"/>
+      <c r="C141" s="236"/>
       <c r="D141" s="120"/>
       <c r="E141" s="120"/>
       <c r="F141" s="120"/>
@@ -6158,8 +6165,8 @@
       <c r="M141" s="3"/>
     </row>
     <row r="142" spans="2:13" ht="18">
-      <c r="B142" s="230"/>
-      <c r="C142" s="234"/>
+      <c r="B142" s="232"/>
+      <c r="C142" s="236"/>
       <c r="D142" s="154"/>
       <c r="E142" s="154"/>
       <c r="F142" s="154"/>
@@ -6172,8 +6179,8 @@
       <c r="M142" s="4"/>
     </row>
     <row r="143" spans="2:13" ht="18">
-      <c r="B143" s="230"/>
-      <c r="C143" s="234"/>
+      <c r="B143" s="232"/>
+      <c r="C143" s="236"/>
       <c r="D143" s="120">
         <v>999999999</v>
       </c>
@@ -6188,8 +6195,8 @@
       <c r="M143" s="3"/>
     </row>
     <row r="144" spans="2:13" ht="18">
-      <c r="B144" s="230"/>
-      <c r="C144" s="234"/>
+      <c r="B144" s="232"/>
+      <c r="C144" s="236"/>
       <c r="D144" s="154"/>
       <c r="E144" s="154"/>
       <c r="F144" s="154"/>
@@ -6202,8 +6209,8 @@
       <c r="M144" s="4"/>
     </row>
     <row r="145" spans="2:13" ht="18">
-      <c r="B145" s="230"/>
-      <c r="C145" s="234"/>
+      <c r="B145" s="232"/>
+      <c r="C145" s="236"/>
       <c r="D145" s="120"/>
       <c r="E145" s="120"/>
       <c r="F145" s="120"/>
@@ -6216,8 +6223,8 @@
       <c r="M145" s="3"/>
     </row>
     <row r="146" spans="2:13" ht="18">
-      <c r="B146" s="230"/>
-      <c r="C146" s="234"/>
+      <c r="B146" s="232"/>
+      <c r="C146" s="236"/>
       <c r="D146" s="120"/>
       <c r="E146" s="120"/>
       <c r="F146" s="120"/>
@@ -6230,8 +6237,8 @@
       <c r="M146" s="3"/>
     </row>
     <row r="147" spans="2:13" ht="18">
-      <c r="B147" s="230"/>
-      <c r="C147" s="234"/>
+      <c r="B147" s="232"/>
+      <c r="C147" s="236"/>
       <c r="D147" s="120"/>
       <c r="E147" s="120"/>
       <c r="F147" s="120"/>
@@ -6244,8 +6251,8 @@
       <c r="M147" s="3"/>
     </row>
     <row r="148" spans="2:13" ht="18">
-      <c r="B148" s="230"/>
-      <c r="C148" s="234"/>
+      <c r="B148" s="232"/>
+      <c r="C148" s="236"/>
       <c r="D148" s="120"/>
       <c r="E148" s="120"/>
       <c r="F148" s="120"/>
@@ -6258,8 +6265,8 @@
       <c r="M148" s="3"/>
     </row>
     <row r="149" spans="2:13" ht="18">
-      <c r="B149" s="230"/>
-      <c r="C149" s="234"/>
+      <c r="B149" s="232"/>
+      <c r="C149" s="236"/>
       <c r="D149" s="120"/>
       <c r="E149" s="120"/>
       <c r="F149" s="120"/>
@@ -6272,8 +6279,8 @@
       <c r="M149" s="3"/>
     </row>
     <row r="150" spans="2:13" ht="18">
-      <c r="B150" s="230"/>
-      <c r="C150" s="234"/>
+      <c r="B150" s="232"/>
+      <c r="C150" s="236"/>
       <c r="D150" s="120"/>
       <c r="E150" s="120"/>
       <c r="F150" s="120"/>
@@ -6286,8 +6293,8 @@
       <c r="M150" s="3"/>
     </row>
     <row r="151" spans="2:13" ht="18">
-      <c r="B151" s="230"/>
-      <c r="C151" s="234"/>
+      <c r="B151" s="232"/>
+      <c r="C151" s="236"/>
       <c r="D151" s="120"/>
       <c r="E151" s="120"/>
       <c r="F151" s="120"/>
@@ -6300,8 +6307,8 @@
       <c r="M151" s="3"/>
     </row>
     <row r="152" spans="2:13" ht="18">
-      <c r="B152" s="230"/>
-      <c r="C152" s="234"/>
+      <c r="B152" s="232"/>
+      <c r="C152" s="236"/>
       <c r="D152" s="154"/>
       <c r="E152" s="154"/>
       <c r="F152" s="154"/>
@@ -6314,8 +6321,8 @@
       <c r="M152" s="3"/>
     </row>
     <row r="153" spans="2:13" ht="18">
-      <c r="B153" s="230"/>
-      <c r="C153" s="234"/>
+      <c r="B153" s="232"/>
+      <c r="C153" s="236"/>
       <c r="D153" s="105"/>
       <c r="E153" s="105"/>
       <c r="F153" s="105"/>
@@ -6328,8 +6335,8 @@
       <c r="M153" s="2"/>
     </row>
     <row r="154" spans="2:13" ht="18">
-      <c r="B154" s="230"/>
-      <c r="C154" s="235"/>
+      <c r="B154" s="232"/>
+      <c r="C154" s="237"/>
       <c r="D154" s="108"/>
       <c r="E154" s="108"/>
       <c r="F154" s="109"/>
@@ -6342,7 +6349,7 @@
       <c r="M154" s="2"/>
     </row>
     <row r="155" spans="2:13" ht="19" customHeight="1">
-      <c r="B155" s="237" t="s">
+      <c r="B155" s="226" t="s">
         <v>171</v>
       </c>
       <c r="C155" s="136">
@@ -6379,7 +6386,7 @@
       </c>
     </row>
     <row r="156" spans="2:13" ht="19">
-      <c r="B156" s="237"/>
+      <c r="B156" s="226"/>
       <c r="C156" s="136">
         <v>2</v>
       </c>
@@ -6414,7 +6421,7 @@
       </c>
     </row>
     <row r="157" spans="2:13" ht="20" thickBot="1">
-      <c r="B157" s="237"/>
+      <c r="B157" s="226"/>
       <c r="C157" s="136">
         <v>3</v>
       </c>
@@ -6449,7 +6456,7 @@
       </c>
     </row>
     <row r="158" spans="2:13" ht="21" thickBot="1">
-      <c r="B158" s="237"/>
+      <c r="B158" s="226"/>
       <c r="C158" s="136">
         <v>4</v>
       </c>
@@ -6479,7 +6486,7 @@
       </c>
     </row>
     <row r="159" spans="2:13" ht="33" thickBot="1">
-      <c r="B159" s="237"/>
+      <c r="B159" s="226"/>
       <c r="C159" s="136">
         <v>5</v>
       </c>
@@ -6510,7 +6517,7 @@
       </c>
     </row>
     <row r="160" spans="2:13" ht="33" thickBot="1">
-      <c r="B160" s="237"/>
+      <c r="B160" s="226"/>
       <c r="C160" s="136">
         <v>6</v>
       </c>
@@ -6538,7 +6545,7 @@
       </c>
     </row>
     <row r="161" spans="2:13" ht="33" thickBot="1">
-      <c r="B161" s="237"/>
+      <c r="B161" s="226"/>
       <c r="C161" s="136">
         <v>7</v>
       </c>
@@ -6575,7 +6582,7 @@
       </c>
     </row>
     <row r="162" spans="2:13" ht="32">
-      <c r="B162" s="238"/>
+      <c r="B162" s="227"/>
       <c r="C162" s="171">
         <v>8</v>
       </c>
@@ -6660,10 +6667,14 @@
       <c r="C169" s="225" t="s">
         <v>249</v>
       </c>
+      <c r="E169" s="248" t="s">
+        <v>250</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:M162" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="17">
+    <mergeCell ref="C138:C154"/>
     <mergeCell ref="B155:B162"/>
     <mergeCell ref="C3:C30"/>
     <mergeCell ref="B138:B154"/>
@@ -6680,7 +6691,6 @@
     <mergeCell ref="C108:C120"/>
     <mergeCell ref="B121:B137"/>
     <mergeCell ref="C121:C137"/>
-    <mergeCell ref="C138:C154"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/241108_MSR_MOP_CTM BOM 정리.xlsx
+++ b/241108_MSR_MOP_CTM BOM 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/JDS_BU/Git_Hub/GIC_HONGKONG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F6FDAD-DD33-BF48-A8E8-A932F2EA006D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A750FCC9-F478-004B-B3B6-178969B734EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7220" yWindow="900" windowWidth="33900" windowHeight="24360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="252">
   <si>
     <t>Remarks</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1136,6 +1136,10 @@
   </si>
   <si>
     <t>ㄹㅇㄴㅁㄹㅇㅁ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄹㅇㄴㅁㅇㄹㅇㄴㅁㅇㄴㅁㄹㅇㄴㅁ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2562,6 +2566,18 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="16" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2587,15 +2603,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2627,9 +2634,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2938,11 +2942,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M169"/>
+  <dimension ref="B1:M170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E169" sqref="E169"/>
+      <selection pane="bottomLeft" activeCell="E170" sqref="E170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.3984375" defaultRowHeight="16"/>
@@ -3004,10 +3008,10 @@
       </c>
     </row>
     <row r="3" spans="2:13" ht="19">
-      <c r="B3" s="233">
+      <c r="B3" s="237">
         <v>1</v>
       </c>
-      <c r="C3" s="228" t="s">
+      <c r="C3" s="232" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="92"/>
@@ -3024,8 +3028,8 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:13" ht="19">
-      <c r="B4" s="232"/>
-      <c r="C4" s="229"/>
+      <c r="B4" s="236"/>
+      <c r="C4" s="233"/>
       <c r="D4" s="12" t="str">
         <f>MOP!D3</f>
         <v>Main Frame</v>
@@ -3056,8 +3060,8 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="19">
-      <c r="B5" s="232"/>
-      <c r="C5" s="229"/>
+      <c r="B5" s="236"/>
+      <c r="C5" s="233"/>
       <c r="D5" s="12" t="str">
         <f>MOP!D4</f>
         <v>Left Cover</v>
@@ -3088,8 +3092,8 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" ht="19">
-      <c r="B6" s="232"/>
-      <c r="C6" s="229"/>
+      <c r="B6" s="236"/>
+      <c r="C6" s="233"/>
       <c r="D6" s="12" t="str">
         <f>MOP!D5</f>
         <v>Right Cover</v>
@@ -3120,8 +3124,8 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="2:13" ht="19">
-      <c r="B7" s="232"/>
-      <c r="C7" s="229"/>
+      <c r="B7" s="236"/>
+      <c r="C7" s="233"/>
       <c r="D7" s="12" t="str">
         <f>MOP!D6</f>
         <v>Upper Cover</v>
@@ -3152,8 +3156,8 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="2:13" ht="19">
-      <c r="B8" s="232"/>
-      <c r="C8" s="229"/>
+      <c r="B8" s="236"/>
+      <c r="C8" s="233"/>
       <c r="D8" s="12" t="str">
         <f>MOP!D7</f>
         <v>Lower Cover</v>
@@ -3184,8 +3188,8 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:13" ht="19">
-      <c r="B9" s="232"/>
-      <c r="C9" s="229"/>
+      <c r="B9" s="236"/>
+      <c r="C9" s="233"/>
       <c r="D9" s="12" t="str">
         <f>MOP!D8</f>
         <v>Rear Cover</v>
@@ -3216,8 +3220,8 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:13" ht="19">
-      <c r="B10" s="232"/>
-      <c r="C10" s="229"/>
+      <c r="B10" s="236"/>
+      <c r="C10" s="233"/>
       <c r="D10" s="12" t="str">
         <f>MOP!D9</f>
         <v>Push Button</v>
@@ -3248,8 +3252,8 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="2:13" ht="19">
-      <c r="B11" s="232"/>
-      <c r="C11" s="229"/>
+      <c r="B11" s="236"/>
+      <c r="C11" s="233"/>
       <c r="D11" s="12" t="str">
         <f>MOP!D10</f>
         <v>Push Button</v>
@@ -3280,8 +3284,8 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="2:13" ht="19">
-      <c r="B12" s="232"/>
-      <c r="C12" s="229"/>
+      <c r="B12" s="236"/>
+      <c r="C12" s="233"/>
       <c r="D12" s="12" t="str">
         <f>MOP!D11</f>
         <v>Push Button</v>
@@ -3312,8 +3316,8 @@
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="2:13" ht="19">
-      <c r="B13" s="232"/>
-      <c r="C13" s="229"/>
+      <c r="B13" s="236"/>
+      <c r="C13" s="233"/>
       <c r="D13" s="110" t="str">
         <f>MOP!D12</f>
         <v>Microphone</v>
@@ -3350,8 +3354,8 @@
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="2:13" ht="38">
-      <c r="B14" s="232"/>
-      <c r="C14" s="229"/>
+      <c r="B14" s="236"/>
+      <c r="C14" s="233"/>
       <c r="D14" s="12" t="str">
         <f>MOP!D13</f>
         <v>LCD</v>
@@ -3385,8 +3389,8 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="2:13" ht="19">
-      <c r="B15" s="232"/>
-      <c r="C15" s="229"/>
+      <c r="B15" s="236"/>
+      <c r="C15" s="233"/>
       <c r="D15" s="12" t="str">
         <f>MOP!D14</f>
         <v>LCD Mount Bracket</v>
@@ -3417,8 +3421,8 @@
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="2:13" ht="19">
-      <c r="B16" s="232"/>
-      <c r="C16" s="229"/>
+      <c r="B16" s="236"/>
+      <c r="C16" s="233"/>
       <c r="D16" s="12" t="str">
         <f>MOP!D15</f>
         <v>LCD Control Board</v>
@@ -3449,8 +3453,8 @@
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="2:13" ht="19">
-      <c r="B17" s="232"/>
-      <c r="C17" s="229"/>
+      <c r="B17" s="236"/>
+      <c r="C17" s="233"/>
       <c r="D17" s="12" t="str">
         <f>MOP!D16</f>
         <v>Main Control Board</v>
@@ -3481,8 +3485,8 @@
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="2:13" ht="19">
-      <c r="B18" s="232"/>
-      <c r="C18" s="229"/>
+      <c r="B18" s="236"/>
+      <c r="C18" s="233"/>
       <c r="D18" s="12" t="str">
         <f>MOP!D17</f>
         <v>Power Board</v>
@@ -3513,8 +3517,8 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="2:13" ht="19">
-      <c r="B19" s="232"/>
-      <c r="C19" s="229"/>
+      <c r="B19" s="236"/>
+      <c r="C19" s="233"/>
       <c r="D19" s="110" t="str">
         <f>MOP!D18</f>
         <v>3P Connector Male</v>
@@ -3551,8 +3555,8 @@
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="2:13" ht="19">
-      <c r="B20" s="232"/>
-      <c r="C20" s="229"/>
+      <c r="B20" s="236"/>
+      <c r="C20" s="233"/>
       <c r="D20" s="18" t="str">
         <f>MOP!D19</f>
         <v>3P Connector Female</v>
@@ -3585,8 +3589,8 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="19">
-      <c r="B21" s="232"/>
-      <c r="C21" s="229"/>
+      <c r="B21" s="236"/>
+      <c r="C21" s="233"/>
       <c r="D21" s="110" t="str">
         <f>MOP!D20</f>
         <v>Locking</v>
@@ -3623,8 +3627,8 @@
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="2:13" ht="19">
-      <c r="B22" s="232"/>
-      <c r="C22" s="229"/>
+      <c r="B22" s="236"/>
+      <c r="C22" s="233"/>
       <c r="D22" s="110" t="str">
         <f>MOP!D21</f>
         <v>4P Connector</v>
@@ -3661,8 +3665,8 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="2:13" ht="19">
-      <c r="B23" s="232"/>
-      <c r="C23" s="229"/>
+      <c r="B23" s="236"/>
+      <c r="C23" s="233"/>
       <c r="D23" s="110" t="str">
         <f>MOP!D22</f>
         <v>Pin</v>
@@ -3699,8 +3703,8 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:13" ht="19">
-      <c r="B24" s="232"/>
-      <c r="C24" s="229"/>
+      <c r="B24" s="236"/>
+      <c r="C24" s="233"/>
       <c r="D24" s="110" t="str">
         <f>MOP!D23</f>
         <v>12P Connector</v>
@@ -3737,8 +3741,8 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13" ht="19">
-      <c r="B25" s="232"/>
-      <c r="C25" s="229"/>
+      <c r="B25" s="236"/>
+      <c r="C25" s="233"/>
       <c r="D25" s="110" t="str">
         <f>MOP!D24</f>
         <v>Pin</v>
@@ -3775,8 +3779,8 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="2:13" ht="19">
-      <c r="B26" s="232"/>
-      <c r="C26" s="229"/>
+      <c r="B26" s="236"/>
+      <c r="C26" s="233"/>
       <c r="D26" s="110" t="str">
         <f>MOP!D25</f>
         <v>Cable Clamp</v>
@@ -3813,8 +3817,8 @@
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="2:13" ht="19">
-      <c r="B27" s="232"/>
-      <c r="C27" s="229"/>
+      <c r="B27" s="236"/>
+      <c r="C27" s="233"/>
       <c r="D27" s="12" t="str">
         <f>MOP!D26</f>
         <v>Name Plate, AL, T1</v>
@@ -3845,8 +3849,8 @@
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="2:13" ht="19">
-      <c r="B28" s="232"/>
-      <c r="C28" s="229"/>
+      <c r="B28" s="236"/>
+      <c r="C28" s="233"/>
       <c r="D28" s="18" t="str">
         <f>MOP!D27</f>
         <v>SPEAKER</v>
@@ -3879,8 +3883,8 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="18">
-      <c r="B29" s="232"/>
-      <c r="C29" s="229"/>
+      <c r="B29" s="236"/>
+      <c r="C29" s="233"/>
       <c r="D29" s="155"/>
       <c r="E29" s="155"/>
       <c r="F29" s="155"/>
@@ -3893,8 +3897,8 @@
       <c r="M29" s="158"/>
     </row>
     <row r="30" spans="2:13" ht="19">
-      <c r="B30" s="234"/>
-      <c r="C30" s="230"/>
+      <c r="B30" s="238"/>
+      <c r="C30" s="234"/>
       <c r="D30" s="108" t="s">
         <v>172</v>
       </c>
@@ -3920,10 +3924,10 @@
       <c r="M30" s="15"/>
     </row>
     <row r="31" spans="2:13" ht="19">
-      <c r="B31" s="231">
+      <c r="B31" s="235">
         <v>2</v>
       </c>
-      <c r="C31" s="235" t="s">
+      <c r="C31" s="227" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="111"/>
@@ -3940,8 +3944,8 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="2:13" ht="19">
-      <c r="B32" s="232"/>
-      <c r="C32" s="236"/>
+      <c r="B32" s="236"/>
+      <c r="C32" s="228"/>
       <c r="D32" s="13" t="str">
         <f>MSR!D3</f>
         <v>PWR Board</v>
@@ -3972,8 +3976,8 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="2:13" ht="19">
-      <c r="B33" s="232"/>
-      <c r="C33" s="236"/>
+      <c r="B33" s="236"/>
+      <c r="C33" s="228"/>
       <c r="D33" s="13" t="str">
         <f>MSR!D4</f>
         <v>M_TX Board</v>
@@ -4004,8 +4008,8 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="2:13" ht="19">
-      <c r="B34" s="232"/>
-      <c r="C34" s="236"/>
+      <c r="B34" s="236"/>
+      <c r="C34" s="228"/>
       <c r="D34" s="13" t="str">
         <f>MSR!D5</f>
         <v>Hub Board</v>
@@ -4036,8 +4040,8 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="2:13" ht="19">
-      <c r="B35" s="232"/>
-      <c r="C35" s="236"/>
+      <c r="B35" s="236"/>
+      <c r="C35" s="228"/>
       <c r="D35" s="13" t="str">
         <f>MSR!D6</f>
         <v>TCIU Board</v>
@@ -4068,8 +4072,8 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="2:13" ht="19">
-      <c r="B36" s="232"/>
-      <c r="C36" s="236"/>
+      <c r="B36" s="236"/>
+      <c r="C36" s="228"/>
       <c r="D36" s="13" t="str">
         <f>MSR!D7</f>
         <v>PA_PBX Board</v>
@@ -4100,8 +4104,8 @@
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="2:13" ht="19">
-      <c r="B37" s="232"/>
-      <c r="C37" s="236"/>
+      <c r="B37" s="236"/>
+      <c r="C37" s="228"/>
       <c r="D37" s="13" t="str">
         <f>MSR!D8</f>
         <v>PA_ETX Board</v>
@@ -4132,8 +4136,8 @@
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="2:13" ht="19">
-      <c r="B38" s="232"/>
-      <c r="C38" s="236"/>
+      <c r="B38" s="236"/>
+      <c r="C38" s="228"/>
       <c r="D38" s="13" t="str">
         <f>MSR!D9</f>
         <v>NVR Board</v>
@@ -4165,8 +4169,8 @@
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="2:13" ht="38">
-      <c r="B39" s="232"/>
-      <c r="C39" s="236"/>
+      <c r="B39" s="236"/>
+      <c r="C39" s="228"/>
       <c r="D39" s="150" t="str">
         <f>MSR!D10</f>
         <v>CPU
@@ -4198,8 +4202,8 @@
       <c r="M39" s="3"/>
     </row>
     <row r="40" spans="2:13" ht="38">
-      <c r="B40" s="232"/>
-      <c r="C40" s="236"/>
+      <c r="B40" s="236"/>
+      <c r="C40" s="228"/>
       <c r="D40" s="150" t="str">
         <f>MSR!D11</f>
         <v>CPU BRACKET 
@@ -4231,8 +4235,8 @@
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="2:13" ht="57">
-      <c r="B41" s="232"/>
-      <c r="C41" s="236"/>
+      <c r="B41" s="236"/>
+      <c r="C41" s="228"/>
       <c r="D41" s="151" t="str">
         <f>MSR!D12</f>
         <v>DDR4
@@ -4266,8 +4270,8 @@
       </c>
     </row>
     <row r="42" spans="2:13" ht="19">
-      <c r="B42" s="232"/>
-      <c r="C42" s="236"/>
+      <c r="B42" s="236"/>
+      <c r="C42" s="228"/>
       <c r="D42" s="13" t="str">
         <f>MSR!D13</f>
         <v>SSD Board</v>
@@ -4298,8 +4302,8 @@
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="2:13" ht="19">
-      <c r="B43" s="232"/>
-      <c r="C43" s="236"/>
+      <c r="B43" s="236"/>
+      <c r="C43" s="228"/>
       <c r="D43" s="116" t="str">
         <f>MSR!D14</f>
         <v>MSR Back Plane</v>
@@ -4336,8 +4340,8 @@
       <c r="M43" s="3"/>
     </row>
     <row r="44" spans="2:13" ht="19">
-      <c r="B44" s="232"/>
-      <c r="C44" s="236"/>
+      <c r="B44" s="236"/>
+      <c r="C44" s="228"/>
       <c r="D44" s="116" t="str">
         <f>MSR!D15</f>
         <v>Frame</v>
@@ -4374,8 +4378,8 @@
       <c r="M44" s="3"/>
     </row>
     <row r="45" spans="2:13" ht="19">
-      <c r="B45" s="232"/>
-      <c r="C45" s="236"/>
+      <c r="B45" s="236"/>
+      <c r="C45" s="228"/>
       <c r="D45" s="13" t="str">
         <f>MSR!D16</f>
         <v>Name Plate, AL, T1</v>
@@ -4406,8 +4410,8 @@
       <c r="M45" s="3"/>
     </row>
     <row r="46" spans="2:13" ht="19">
-      <c r="B46" s="232"/>
-      <c r="C46" s="236"/>
+      <c r="B46" s="236"/>
+      <c r="C46" s="228"/>
       <c r="D46" s="149" t="str">
         <f>MSR!D17</f>
         <v>SSD(2T)</v>
@@ -4440,8 +4444,8 @@
       </c>
     </row>
     <row r="47" spans="2:13" ht="18">
-      <c r="B47" s="232"/>
-      <c r="C47" s="236"/>
+      <c r="B47" s="236"/>
+      <c r="C47" s="228"/>
       <c r="D47" s="155"/>
       <c r="E47" s="155"/>
       <c r="F47" s="155"/>
@@ -4454,8 +4458,8 @@
       <c r="M47" s="158"/>
     </row>
     <row r="48" spans="2:13" ht="19">
-      <c r="B48" s="234"/>
-      <c r="C48" s="237"/>
+      <c r="B48" s="238"/>
+      <c r="C48" s="229"/>
       <c r="D48" s="108" t="s">
         <v>172</v>
       </c>
@@ -4481,10 +4485,10 @@
       <c r="M48" s="15"/>
     </row>
     <row r="49" spans="2:13" ht="19">
-      <c r="B49" s="231">
+      <c r="B49" s="235">
         <v>3</v>
       </c>
-      <c r="C49" s="235" t="s">
+      <c r="C49" s="227" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="111"/>
@@ -4501,8 +4505,8 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="2:13" ht="19">
-      <c r="B50" s="232"/>
-      <c r="C50" s="236"/>
+      <c r="B50" s="236"/>
+      <c r="C50" s="228"/>
       <c r="D50" s="13" t="str">
         <f>CTM!D3</f>
         <v>Main Frame</v>
@@ -4533,8 +4537,8 @@
       <c r="M50" s="3"/>
     </row>
     <row r="51" spans="2:13" ht="19">
-      <c r="B51" s="232"/>
-      <c r="C51" s="236"/>
+      <c r="B51" s="236"/>
+      <c r="C51" s="228"/>
       <c r="D51" s="13" t="str">
         <f>CTM!D4</f>
         <v>Lower Cover</v>
@@ -4565,8 +4569,8 @@
       <c r="M51" s="3"/>
     </row>
     <row r="52" spans="2:13" ht="19">
-      <c r="B52" s="232"/>
-      <c r="C52" s="236"/>
+      <c r="B52" s="236"/>
+      <c r="C52" s="228"/>
       <c r="D52" s="13" t="str">
         <f>CTM!D5</f>
         <v>Rear Cover</v>
@@ -4597,8 +4601,8 @@
       <c r="M52" s="3"/>
     </row>
     <row r="53" spans="2:13" ht="19">
-      <c r="B53" s="232"/>
-      <c r="C53" s="236"/>
+      <c r="B53" s="236"/>
+      <c r="C53" s="228"/>
       <c r="D53" s="116" t="str">
         <f>CTM!D6</f>
         <v>10.4" LCD</v>
@@ -4637,8 +4641,8 @@
       </c>
     </row>
     <row r="54" spans="2:13" ht="19">
-      <c r="B54" s="232"/>
-      <c r="C54" s="236"/>
+      <c r="B54" s="236"/>
+      <c r="C54" s="228"/>
       <c r="D54" s="13" t="str">
         <f>CTM!D7</f>
         <v>Control Board Bracket</v>
@@ -4668,8 +4672,8 @@
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="2:13" ht="19">
-      <c r="B55" s="232"/>
-      <c r="C55" s="236"/>
+      <c r="B55" s="236"/>
+      <c r="C55" s="228"/>
       <c r="D55" s="13" t="str">
         <f>CTM!D8</f>
         <v>Control Board</v>
@@ -4699,8 +4703,8 @@
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="2:13" ht="19">
-      <c r="B56" s="232"/>
-      <c r="C56" s="236"/>
+      <c r="B56" s="236"/>
+      <c r="C56" s="228"/>
       <c r="D56" s="150" t="str">
         <f>CTM!D9</f>
         <v xml:space="preserve">CPU TCA3/i-E3845 </v>
@@ -4739,8 +4743,8 @@
       </c>
     </row>
     <row r="57" spans="2:13" ht="19">
-      <c r="B57" s="232"/>
-      <c r="C57" s="236"/>
+      <c r="B57" s="236"/>
+      <c r="C57" s="228"/>
       <c r="D57" s="150" t="str">
         <f>CTM!D10</f>
         <v xml:space="preserve">CPU BRACKET TCA3/CSP-B </v>
@@ -4779,8 +4783,8 @@
       </c>
     </row>
     <row r="58" spans="2:13" ht="57">
-      <c r="B58" s="232"/>
-      <c r="C58" s="236"/>
+      <c r="B58" s="236"/>
+      <c r="C58" s="228"/>
       <c r="D58" s="151" t="str">
         <f>CTM!D11</f>
         <v>DDR4
@@ -4814,8 +4818,8 @@
       </c>
     </row>
     <row r="59" spans="2:13" ht="19">
-      <c r="B59" s="232"/>
-      <c r="C59" s="236"/>
+      <c r="B59" s="236"/>
+      <c r="C59" s="228"/>
       <c r="D59" s="13" t="str">
         <f>CTM!D12</f>
         <v>Power Board</v>
@@ -4846,8 +4850,8 @@
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="2:13" ht="19">
-      <c r="B60" s="232"/>
-      <c r="C60" s="236"/>
+      <c r="B60" s="236"/>
+      <c r="C60" s="228"/>
       <c r="D60" s="116" t="str">
         <f>CTM!D13</f>
         <v>3P Connector</v>
@@ -4884,8 +4888,8 @@
       <c r="M60" s="16"/>
     </row>
     <row r="61" spans="2:13" ht="19">
-      <c r="B61" s="232"/>
-      <c r="C61" s="236"/>
+      <c r="B61" s="236"/>
+      <c r="C61" s="228"/>
       <c r="D61" s="116" t="str">
         <f>CTM!D14</f>
         <v>Locking</v>
@@ -4922,8 +4926,8 @@
       <c r="M61" s="16"/>
     </row>
     <row r="62" spans="2:13" ht="19">
-      <c r="B62" s="232"/>
-      <c r="C62" s="236"/>
+      <c r="B62" s="236"/>
+      <c r="C62" s="228"/>
       <c r="D62" s="116" t="str">
         <f>CTM!D15</f>
         <v>4P Connector</v>
@@ -4960,8 +4964,8 @@
       <c r="M62" s="16"/>
     </row>
     <row r="63" spans="2:13" ht="19">
-      <c r="B63" s="232"/>
-      <c r="C63" s="236"/>
+      <c r="B63" s="236"/>
+      <c r="C63" s="228"/>
       <c r="D63" s="116" t="str">
         <f>CTM!D16</f>
         <v>Pin</v>
@@ -4998,8 +5002,8 @@
       <c r="M63" s="16"/>
     </row>
     <row r="64" spans="2:13" ht="19">
-      <c r="B64" s="232"/>
-      <c r="C64" s="236"/>
+      <c r="B64" s="236"/>
+      <c r="C64" s="228"/>
       <c r="D64" s="116" t="str">
         <f>CTM!D17</f>
         <v>Cable Gland</v>
@@ -5036,8 +5040,8 @@
       <c r="M64" s="16"/>
     </row>
     <row r="65" spans="2:13" ht="19">
-      <c r="B65" s="232"/>
-      <c r="C65" s="236"/>
+      <c r="B65" s="236"/>
+      <c r="C65" s="228"/>
       <c r="D65" s="149" t="str">
         <f>CTM!D18</f>
         <v>USB Adapter</v>
@@ -5070,8 +5074,8 @@
       </c>
     </row>
     <row r="66" spans="2:13" ht="19">
-      <c r="B66" s="232"/>
-      <c r="C66" s="236"/>
+      <c r="B66" s="236"/>
+      <c r="C66" s="228"/>
       <c r="D66" s="13" t="str">
         <f>CTM!D19</f>
         <v>Name Plate</v>
@@ -5102,8 +5106,8 @@
       <c r="M66" s="3"/>
     </row>
     <row r="67" spans="2:13" ht="18">
-      <c r="B67" s="232"/>
-      <c r="C67" s="236"/>
+      <c r="B67" s="236"/>
+      <c r="C67" s="228"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -5116,8 +5120,8 @@
       <c r="M67" s="2"/>
     </row>
     <row r="68" spans="2:13" ht="19">
-      <c r="B68" s="234"/>
-      <c r="C68" s="237"/>
+      <c r="B68" s="238"/>
+      <c r="C68" s="229"/>
       <c r="D68" s="108" t="s">
         <v>172</v>
       </c>
@@ -5143,8 +5147,8 @@
       <c r="M68" s="15"/>
     </row>
     <row r="69" spans="2:13" ht="18">
-      <c r="B69" s="231"/>
-      <c r="C69" s="235"/>
+      <c r="B69" s="235"/>
+      <c r="C69" s="227"/>
       <c r="D69" s="111"/>
       <c r="E69" s="112"/>
       <c r="F69" s="95"/>
@@ -5157,8 +5161,8 @@
       <c r="M69" s="3"/>
     </row>
     <row r="70" spans="2:13" ht="18">
-      <c r="B70" s="232"/>
-      <c r="C70" s="236"/>
+      <c r="B70" s="236"/>
+      <c r="C70" s="228"/>
       <c r="D70" s="120"/>
       <c r="E70" s="120"/>
       <c r="F70" s="120"/>
@@ -5171,8 +5175,8 @@
       <c r="M70" s="3"/>
     </row>
     <row r="71" spans="2:13" ht="18">
-      <c r="B71" s="232"/>
-      <c r="C71" s="236"/>
+      <c r="B71" s="236"/>
+      <c r="C71" s="228"/>
       <c r="D71" s="120"/>
       <c r="E71" s="120"/>
       <c r="F71" s="120"/>
@@ -5185,8 +5189,8 @@
       <c r="M71" s="3"/>
     </row>
     <row r="72" spans="2:13" ht="18">
-      <c r="B72" s="232"/>
-      <c r="C72" s="236"/>
+      <c r="B72" s="236"/>
+      <c r="C72" s="228"/>
       <c r="D72" s="120"/>
       <c r="E72" s="120"/>
       <c r="F72" s="120"/>
@@ -5199,8 +5203,8 @@
       <c r="M72" s="3"/>
     </row>
     <row r="73" spans="2:13" ht="18">
-      <c r="B73" s="232"/>
-      <c r="C73" s="236"/>
+      <c r="B73" s="236"/>
+      <c r="C73" s="228"/>
       <c r="D73" s="120"/>
       <c r="E73" s="120"/>
       <c r="F73" s="120"/>
@@ -5213,8 +5217,8 @@
       <c r="M73" s="3"/>
     </row>
     <row r="74" spans="2:13" ht="18">
-      <c r="B74" s="232"/>
-      <c r="C74" s="236"/>
+      <c r="B74" s="236"/>
+      <c r="C74" s="228"/>
       <c r="D74" s="154"/>
       <c r="E74" s="154"/>
       <c r="F74" s="154"/>
@@ -5227,8 +5231,8 @@
       <c r="M74" s="3"/>
     </row>
     <row r="75" spans="2:13" ht="18">
-      <c r="B75" s="232"/>
-      <c r="C75" s="236"/>
+      <c r="B75" s="236"/>
+      <c r="C75" s="228"/>
       <c r="D75" s="154"/>
       <c r="E75" s="154"/>
       <c r="F75" s="154"/>
@@ -5241,8 +5245,8 @@
       <c r="M75" s="3"/>
     </row>
     <row r="76" spans="2:13" ht="18">
-      <c r="B76" s="232"/>
-      <c r="C76" s="236"/>
+      <c r="B76" s="236"/>
+      <c r="C76" s="228"/>
       <c r="D76" s="120"/>
       <c r="E76" s="120"/>
       <c r="F76" s="120"/>
@@ -5255,8 +5259,8 @@
       <c r="M76" s="3"/>
     </row>
     <row r="77" spans="2:13" ht="18">
-      <c r="B77" s="232"/>
-      <c r="C77" s="236"/>
+      <c r="B77" s="236"/>
+      <c r="C77" s="228"/>
       <c r="D77" s="120"/>
       <c r="E77" s="120"/>
       <c r="F77" s="120"/>
@@ -5269,8 +5273,8 @@
       <c r="M77" s="3"/>
     </row>
     <row r="78" spans="2:13" ht="18">
-      <c r="B78" s="232"/>
-      <c r="C78" s="236"/>
+      <c r="B78" s="236"/>
+      <c r="C78" s="228"/>
       <c r="D78" s="120"/>
       <c r="E78" s="120"/>
       <c r="F78" s="120"/>
@@ -5283,8 +5287,8 @@
       <c r="M78" s="3"/>
     </row>
     <row r="79" spans="2:13" ht="18">
-      <c r="B79" s="232"/>
-      <c r="C79" s="236"/>
+      <c r="B79" s="236"/>
+      <c r="C79" s="228"/>
       <c r="D79" s="120"/>
       <c r="E79" s="120"/>
       <c r="F79" s="120"/>
@@ -5297,8 +5301,8 @@
       <c r="M79" s="3"/>
     </row>
     <row r="80" spans="2:13" ht="18">
-      <c r="B80" s="232"/>
-      <c r="C80" s="236"/>
+      <c r="B80" s="236"/>
+      <c r="C80" s="228"/>
       <c r="D80" s="120"/>
       <c r="E80" s="120"/>
       <c r="F80" s="120"/>
@@ -5311,8 +5315,8 @@
       <c r="M80" s="3"/>
     </row>
     <row r="81" spans="2:13" ht="18">
-      <c r="B81" s="232"/>
-      <c r="C81" s="236"/>
+      <c r="B81" s="236"/>
+      <c r="C81" s="228"/>
       <c r="D81" s="120"/>
       <c r="E81" s="120"/>
       <c r="F81" s="120"/>
@@ -5325,8 +5329,8 @@
       <c r="M81" s="3"/>
     </row>
     <row r="82" spans="2:13" ht="18">
-      <c r="B82" s="232"/>
-      <c r="C82" s="236"/>
+      <c r="B82" s="236"/>
+      <c r="C82" s="228"/>
       <c r="D82" s="120"/>
       <c r="E82" s="120"/>
       <c r="F82" s="120"/>
@@ -5339,8 +5343,8 @@
       <c r="M82" s="3"/>
     </row>
     <row r="83" spans="2:13" ht="18">
-      <c r="B83" s="232"/>
-      <c r="C83" s="236"/>
+      <c r="B83" s="236"/>
+      <c r="C83" s="228"/>
       <c r="D83" s="120"/>
       <c r="E83" s="120"/>
       <c r="F83" s="120"/>
@@ -5353,8 +5357,8 @@
       <c r="M83" s="3"/>
     </row>
     <row r="84" spans="2:13" ht="18">
-      <c r="B84" s="232"/>
-      <c r="C84" s="236"/>
+      <c r="B84" s="236"/>
+      <c r="C84" s="228"/>
       <c r="D84" s="154"/>
       <c r="E84" s="154"/>
       <c r="F84" s="154"/>
@@ -5367,8 +5371,8 @@
       <c r="M84" s="3"/>
     </row>
     <row r="85" spans="2:13" ht="18">
-      <c r="B85" s="232"/>
-      <c r="C85" s="236"/>
+      <c r="B85" s="236"/>
+      <c r="C85" s="228"/>
       <c r="D85" s="154"/>
       <c r="E85" s="154"/>
       <c r="F85" s="154"/>
@@ -5381,8 +5385,8 @@
       <c r="M85" s="3"/>
     </row>
     <row r="86" spans="2:13" ht="18">
-      <c r="B86" s="232"/>
-      <c r="C86" s="236"/>
+      <c r="B86" s="236"/>
+      <c r="C86" s="228"/>
       <c r="D86" s="105"/>
       <c r="E86" s="105"/>
       <c r="F86" s="105"/>
@@ -5395,8 +5399,8 @@
       <c r="M86" s="2"/>
     </row>
     <row r="87" spans="2:13" ht="18">
-      <c r="B87" s="234"/>
-      <c r="C87" s="237"/>
+      <c r="B87" s="238"/>
+      <c r="C87" s="229"/>
       <c r="D87" s="108"/>
       <c r="E87" s="108"/>
       <c r="F87" s="109"/>
@@ -5409,8 +5413,8 @@
       <c r="M87" s="2"/>
     </row>
     <row r="88" spans="2:13" ht="18">
-      <c r="B88" s="231"/>
-      <c r="C88" s="235"/>
+      <c r="B88" s="235"/>
+      <c r="C88" s="227"/>
       <c r="D88" s="111"/>
       <c r="E88" s="112"/>
       <c r="F88" s="95"/>
@@ -5423,8 +5427,8 @@
       <c r="M88" s="3"/>
     </row>
     <row r="89" spans="2:13" ht="18">
-      <c r="B89" s="232"/>
-      <c r="C89" s="236"/>
+      <c r="B89" s="236"/>
+      <c r="C89" s="228"/>
       <c r="D89" s="120"/>
       <c r="E89" s="120"/>
       <c r="F89" s="120"/>
@@ -5437,8 +5441,8 @@
       <c r="M89" s="3"/>
     </row>
     <row r="90" spans="2:13" ht="18">
-      <c r="B90" s="232"/>
-      <c r="C90" s="236"/>
+      <c r="B90" s="236"/>
+      <c r="C90" s="228"/>
       <c r="D90" s="120"/>
       <c r="E90" s="120"/>
       <c r="F90" s="120"/>
@@ -5451,8 +5455,8 @@
       <c r="M90" s="3"/>
     </row>
     <row r="91" spans="2:13" ht="18">
-      <c r="B91" s="232"/>
-      <c r="C91" s="236"/>
+      <c r="B91" s="236"/>
+      <c r="C91" s="228"/>
       <c r="D91" s="120"/>
       <c r="E91" s="120"/>
       <c r="F91" s="120"/>
@@ -5465,8 +5469,8 @@
       <c r="M91" s="3"/>
     </row>
     <row r="92" spans="2:13" ht="18">
-      <c r="B92" s="232"/>
-      <c r="C92" s="236"/>
+      <c r="B92" s="236"/>
+      <c r="C92" s="228"/>
       <c r="D92" s="120"/>
       <c r="E92" s="120"/>
       <c r="F92" s="120"/>
@@ -5479,8 +5483,8 @@
       <c r="M92" s="9"/>
     </row>
     <row r="93" spans="2:13" ht="18">
-      <c r="B93" s="232"/>
-      <c r="C93" s="236"/>
+      <c r="B93" s="236"/>
+      <c r="C93" s="228"/>
       <c r="D93" s="120"/>
       <c r="E93" s="120"/>
       <c r="F93" s="120"/>
@@ -5493,8 +5497,8 @@
       <c r="M93" s="3"/>
     </row>
     <row r="94" spans="2:13" ht="18">
-      <c r="B94" s="232"/>
-      <c r="C94" s="236"/>
+      <c r="B94" s="236"/>
+      <c r="C94" s="228"/>
       <c r="D94" s="120"/>
       <c r="E94" s="120"/>
       <c r="F94" s="120"/>
@@ -5507,8 +5511,8 @@
       <c r="M94" s="3"/>
     </row>
     <row r="95" spans="2:13" ht="18">
-      <c r="B95" s="232"/>
-      <c r="C95" s="236"/>
+      <c r="B95" s="236"/>
+      <c r="C95" s="228"/>
       <c r="D95" s="154"/>
       <c r="E95" s="154"/>
       <c r="F95" s="154"/>
@@ -5521,8 +5525,8 @@
       <c r="M95" s="3"/>
     </row>
     <row r="96" spans="2:13" ht="18">
-      <c r="B96" s="232"/>
-      <c r="C96" s="236"/>
+      <c r="B96" s="236"/>
+      <c r="C96" s="228"/>
       <c r="D96" s="154"/>
       <c r="E96" s="154"/>
       <c r="F96" s="154"/>
@@ -5535,8 +5539,8 @@
       <c r="M96" s="3"/>
     </row>
     <row r="97" spans="2:13" ht="18">
-      <c r="B97" s="232"/>
-      <c r="C97" s="236"/>
+      <c r="B97" s="236"/>
+      <c r="C97" s="228"/>
       <c r="D97" s="120"/>
       <c r="E97" s="120"/>
       <c r="F97" s="120"/>
@@ -5549,8 +5553,8 @@
       <c r="M97" s="3"/>
     </row>
     <row r="98" spans="2:13" ht="18">
-      <c r="B98" s="232"/>
-      <c r="C98" s="236"/>
+      <c r="B98" s="236"/>
+      <c r="C98" s="228"/>
       <c r="D98" s="120"/>
       <c r="E98" s="120"/>
       <c r="F98" s="120"/>
@@ -5563,8 +5567,8 @@
       <c r="M98" s="3"/>
     </row>
     <row r="99" spans="2:13" ht="18">
-      <c r="B99" s="232"/>
-      <c r="C99" s="236"/>
+      <c r="B99" s="236"/>
+      <c r="C99" s="228"/>
       <c r="D99" s="120"/>
       <c r="E99" s="120"/>
       <c r="F99" s="120"/>
@@ -5577,8 +5581,8 @@
       <c r="M99" s="3"/>
     </row>
     <row r="100" spans="2:13" ht="18">
-      <c r="B100" s="232"/>
-      <c r="C100" s="236"/>
+      <c r="B100" s="236"/>
+      <c r="C100" s="228"/>
       <c r="D100" s="120"/>
       <c r="E100" s="120"/>
       <c r="F100" s="120"/>
@@ -5591,8 +5595,8 @@
       <c r="M100" s="3"/>
     </row>
     <row r="101" spans="2:13" ht="18">
-      <c r="B101" s="232"/>
-      <c r="C101" s="236"/>
+      <c r="B101" s="236"/>
+      <c r="C101" s="228"/>
       <c r="D101" s="120"/>
       <c r="E101" s="120"/>
       <c r="F101" s="120"/>
@@ -5605,8 +5609,8 @@
       <c r="M101" s="3"/>
     </row>
     <row r="102" spans="2:13" ht="18">
-      <c r="B102" s="232"/>
-      <c r="C102" s="236"/>
+      <c r="B102" s="236"/>
+      <c r="C102" s="228"/>
       <c r="D102" s="120"/>
       <c r="E102" s="120"/>
       <c r="F102" s="120"/>
@@ -5619,8 +5623,8 @@
       <c r="M102" s="3"/>
     </row>
     <row r="103" spans="2:13" ht="18">
-      <c r="B103" s="232"/>
-      <c r="C103" s="236"/>
+      <c r="B103" s="236"/>
+      <c r="C103" s="228"/>
       <c r="D103" s="120"/>
       <c r="E103" s="120"/>
       <c r="F103" s="120"/>
@@ -5633,8 +5637,8 @@
       <c r="M103" s="3"/>
     </row>
     <row r="104" spans="2:13" ht="18">
-      <c r="B104" s="232"/>
-      <c r="C104" s="236"/>
+      <c r="B104" s="236"/>
+      <c r="C104" s="228"/>
       <c r="D104" s="154"/>
       <c r="E104" s="154"/>
       <c r="F104" s="154"/>
@@ -5647,8 +5651,8 @@
       <c r="M104" s="3"/>
     </row>
     <row r="105" spans="2:13" ht="18">
-      <c r="B105" s="232"/>
-      <c r="C105" s="236"/>
+      <c r="B105" s="236"/>
+      <c r="C105" s="228"/>
       <c r="D105" s="120"/>
       <c r="E105" s="120"/>
       <c r="F105" s="120"/>
@@ -5661,8 +5665,8 @@
       <c r="M105" s="2"/>
     </row>
     <row r="106" spans="2:13" ht="18">
-      <c r="B106" s="232"/>
-      <c r="C106" s="236"/>
+      <c r="B106" s="236"/>
+      <c r="C106" s="228"/>
       <c r="D106" s="105"/>
       <c r="E106" s="105"/>
       <c r="F106" s="105"/>
@@ -5675,8 +5679,8 @@
       <c r="M106" s="2"/>
     </row>
     <row r="107" spans="2:13" ht="18">
-      <c r="B107" s="234"/>
-      <c r="C107" s="237"/>
+      <c r="B107" s="238"/>
+      <c r="C107" s="229"/>
       <c r="D107" s="108"/>
       <c r="E107" s="108"/>
       <c r="F107" s="109"/>
@@ -5689,8 +5693,8 @@
       <c r="M107" s="2"/>
     </row>
     <row r="108" spans="2:13" ht="18">
-      <c r="B108" s="231"/>
-      <c r="C108" s="235"/>
+      <c r="B108" s="235"/>
+      <c r="C108" s="227"/>
       <c r="D108" s="111"/>
       <c r="E108" s="112"/>
       <c r="F108" s="95"/>
@@ -5703,8 +5707,8 @@
       <c r="M108" s="3"/>
     </row>
     <row r="109" spans="2:13" ht="18">
-      <c r="B109" s="232"/>
-      <c r="C109" s="236"/>
+      <c r="B109" s="236"/>
+      <c r="C109" s="228"/>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
@@ -5717,8 +5721,8 @@
       <c r="M109" s="3"/>
     </row>
     <row r="110" spans="2:13" ht="18">
-      <c r="B110" s="232"/>
-      <c r="C110" s="236"/>
+      <c r="B110" s="236"/>
+      <c r="C110" s="228"/>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
@@ -5731,8 +5735,8 @@
       <c r="M110" s="3"/>
     </row>
     <row r="111" spans="2:13" ht="18">
-      <c r="B111" s="232"/>
-      <c r="C111" s="236"/>
+      <c r="B111" s="236"/>
+      <c r="C111" s="228"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
@@ -5745,8 +5749,8 @@
       <c r="M111" s="3"/>
     </row>
     <row r="112" spans="2:13" ht="18">
-      <c r="B112" s="232"/>
-      <c r="C112" s="236"/>
+      <c r="B112" s="236"/>
+      <c r="C112" s="228"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
@@ -5759,8 +5763,8 @@
       <c r="M112" s="3"/>
     </row>
     <row r="113" spans="2:13" ht="18">
-      <c r="B113" s="232"/>
-      <c r="C113" s="236"/>
+      <c r="B113" s="236"/>
+      <c r="C113" s="228"/>
       <c r="D113" s="13"/>
       <c r="E113" s="13"/>
       <c r="F113" s="13"/>
@@ -5773,8 +5777,8 @@
       <c r="M113" s="3"/>
     </row>
     <row r="114" spans="2:13" ht="18">
-      <c r="B114" s="232"/>
-      <c r="C114" s="236"/>
+      <c r="B114" s="236"/>
+      <c r="C114" s="228"/>
       <c r="D114" s="116"/>
       <c r="E114" s="116"/>
       <c r="F114" s="116"/>
@@ -5787,8 +5791,8 @@
       <c r="M114" s="3"/>
     </row>
     <row r="115" spans="2:13" ht="18">
-      <c r="B115" s="232"/>
-      <c r="C115" s="236"/>
+      <c r="B115" s="236"/>
+      <c r="C115" s="228"/>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
@@ -5801,8 +5805,8 @@
       <c r="M115" s="3"/>
     </row>
     <row r="116" spans="2:13" ht="18">
-      <c r="B116" s="232"/>
-      <c r="C116" s="236"/>
+      <c r="B116" s="236"/>
+      <c r="C116" s="228"/>
       <c r="D116" s="116"/>
       <c r="E116" s="116"/>
       <c r="F116" s="116"/>
@@ -5815,8 +5819,8 @@
       <c r="M116" s="3"/>
     </row>
     <row r="117" spans="2:13" ht="18">
-      <c r="B117" s="232"/>
-      <c r="C117" s="236"/>
+      <c r="B117" s="236"/>
+      <c r="C117" s="228"/>
       <c r="D117" s="116"/>
       <c r="E117" s="116"/>
       <c r="F117" s="116"/>
@@ -5829,8 +5833,8 @@
       <c r="M117" s="3"/>
     </row>
     <row r="118" spans="2:13" ht="18">
-      <c r="B118" s="232"/>
-      <c r="C118" s="236"/>
+      <c r="B118" s="236"/>
+      <c r="C118" s="228"/>
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
@@ -5843,8 +5847,8 @@
       <c r="M118" s="3"/>
     </row>
     <row r="119" spans="2:13" ht="18">
-      <c r="B119" s="232"/>
-      <c r="C119" s="236"/>
+      <c r="B119" s="236"/>
+      <c r="C119" s="228"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
@@ -5857,8 +5861,8 @@
       <c r="M119" s="2"/>
     </row>
     <row r="120" spans="2:13" ht="18">
-      <c r="B120" s="234"/>
-      <c r="C120" s="237"/>
+      <c r="B120" s="238"/>
+      <c r="C120" s="229"/>
       <c r="D120" s="108"/>
       <c r="E120" s="108"/>
       <c r="F120" s="109"/>
@@ -5871,8 +5875,8 @@
       <c r="M120" s="2"/>
     </row>
     <row r="121" spans="2:13" ht="18">
-      <c r="B121" s="231"/>
-      <c r="C121" s="238"/>
+      <c r="B121" s="235"/>
+      <c r="C121" s="239"/>
       <c r="D121" s="111"/>
       <c r="E121" s="112"/>
       <c r="F121" s="95"/>
@@ -5885,8 +5889,8 @@
       <c r="M121" s="3"/>
     </row>
     <row r="122" spans="2:13" ht="18">
-      <c r="B122" s="232"/>
-      <c r="C122" s="229"/>
+      <c r="B122" s="236"/>
+      <c r="C122" s="233"/>
       <c r="D122" s="120"/>
       <c r="E122" s="120"/>
       <c r="F122" s="120"/>
@@ -5899,8 +5903,8 @@
       <c r="M122" s="4"/>
     </row>
     <row r="123" spans="2:13" ht="18">
-      <c r="B123" s="232"/>
-      <c r="C123" s="229"/>
+      <c r="B123" s="236"/>
+      <c r="C123" s="233"/>
       <c r="D123" s="120"/>
       <c r="E123" s="120"/>
       <c r="F123" s="120"/>
@@ -5913,8 +5917,8 @@
       <c r="M123" s="4"/>
     </row>
     <row r="124" spans="2:13" ht="18">
-      <c r="B124" s="232"/>
-      <c r="C124" s="229"/>
+      <c r="B124" s="236"/>
+      <c r="C124" s="233"/>
       <c r="D124" s="120"/>
       <c r="E124" s="120"/>
       <c r="F124" s="120"/>
@@ -5927,8 +5931,8 @@
       <c r="M124" s="4"/>
     </row>
     <row r="125" spans="2:13" ht="18">
-      <c r="B125" s="232"/>
-      <c r="C125" s="229"/>
+      <c r="B125" s="236"/>
+      <c r="C125" s="233"/>
       <c r="D125" s="154"/>
       <c r="E125" s="154"/>
       <c r="F125" s="154"/>
@@ -5941,8 +5945,8 @@
       <c r="M125" s="4"/>
     </row>
     <row r="126" spans="2:13" ht="18">
-      <c r="B126" s="232"/>
-      <c r="C126" s="229"/>
+      <c r="B126" s="236"/>
+      <c r="C126" s="233"/>
       <c r="D126" s="120"/>
       <c r="E126" s="120"/>
       <c r="F126" s="120"/>
@@ -5955,8 +5959,8 @@
       <c r="M126" s="7"/>
     </row>
     <row r="127" spans="2:13" ht="18">
-      <c r="B127" s="232"/>
-      <c r="C127" s="229"/>
+      <c r="B127" s="236"/>
+      <c r="C127" s="233"/>
       <c r="D127" s="154"/>
       <c r="E127" s="154"/>
       <c r="F127" s="154"/>
@@ -5969,8 +5973,8 @@
       <c r="M127" s="7"/>
     </row>
     <row r="128" spans="2:13" ht="18">
-      <c r="B128" s="232"/>
-      <c r="C128" s="229"/>
+      <c r="B128" s="236"/>
+      <c r="C128" s="233"/>
       <c r="D128" s="120"/>
       <c r="E128" s="120"/>
       <c r="F128" s="120"/>
@@ -5983,8 +5987,8 @@
       <c r="M128" s="7"/>
     </row>
     <row r="129" spans="2:13" ht="18">
-      <c r="B129" s="232"/>
-      <c r="C129" s="229"/>
+      <c r="B129" s="236"/>
+      <c r="C129" s="233"/>
       <c r="D129" s="120"/>
       <c r="E129" s="120"/>
       <c r="F129" s="120"/>
@@ -5997,8 +6001,8 @@
       <c r="M129" s="6"/>
     </row>
     <row r="130" spans="2:13" ht="18">
-      <c r="B130" s="232"/>
-      <c r="C130" s="229"/>
+      <c r="B130" s="236"/>
+      <c r="C130" s="233"/>
       <c r="D130" s="120"/>
       <c r="E130" s="120"/>
       <c r="F130" s="120"/>
@@ -6011,8 +6015,8 @@
       <c r="M130" s="4"/>
     </row>
     <row r="131" spans="2:13" ht="18">
-      <c r="B131" s="232"/>
-      <c r="C131" s="229"/>
+      <c r="B131" s="236"/>
+      <c r="C131" s="233"/>
       <c r="D131" s="120"/>
       <c r="E131" s="120"/>
       <c r="F131" s="120"/>
@@ -6025,8 +6029,8 @@
       <c r="M131" s="4"/>
     </row>
     <row r="132" spans="2:13" ht="18">
-      <c r="B132" s="232"/>
-      <c r="C132" s="229"/>
+      <c r="B132" s="236"/>
+      <c r="C132" s="233"/>
       <c r="D132" s="120"/>
       <c r="E132" s="120"/>
       <c r="F132" s="120"/>
@@ -6039,8 +6043,8 @@
       <c r="M132" s="4"/>
     </row>
     <row r="133" spans="2:13" ht="18">
-      <c r="B133" s="232"/>
-      <c r="C133" s="229"/>
+      <c r="B133" s="236"/>
+      <c r="C133" s="233"/>
       <c r="D133" s="120"/>
       <c r="E133" s="120"/>
       <c r="F133" s="120"/>
@@ -6053,8 +6057,8 @@
       <c r="M133" s="4"/>
     </row>
     <row r="134" spans="2:13" ht="18">
-      <c r="B134" s="232"/>
-      <c r="C134" s="229"/>
+      <c r="B134" s="236"/>
+      <c r="C134" s="233"/>
       <c r="D134" s="120"/>
       <c r="E134" s="120"/>
       <c r="F134" s="120"/>
@@ -6067,8 +6071,8 @@
       <c r="M134" s="4"/>
     </row>
     <row r="135" spans="2:13" ht="18">
-      <c r="B135" s="232"/>
-      <c r="C135" s="229"/>
+      <c r="B135" s="236"/>
+      <c r="C135" s="233"/>
       <c r="D135" s="154"/>
       <c r="E135" s="154"/>
       <c r="F135" s="154"/>
@@ -6081,8 +6085,8 @@
       <c r="M135" s="10"/>
     </row>
     <row r="136" spans="2:13" ht="18">
-      <c r="B136" s="232"/>
-      <c r="C136" s="229"/>
+      <c r="B136" s="236"/>
+      <c r="C136" s="233"/>
       <c r="D136" s="105"/>
       <c r="E136" s="105"/>
       <c r="F136" s="105"/>
@@ -6095,8 +6099,8 @@
       <c r="M136" s="6"/>
     </row>
     <row r="137" spans="2:13" ht="18">
-      <c r="B137" s="234"/>
-      <c r="C137" s="230"/>
+      <c r="B137" s="238"/>
+      <c r="C137" s="234"/>
       <c r="D137" s="108"/>
       <c r="E137" s="108"/>
       <c r="F137" s="109"/>
@@ -6109,8 +6113,8 @@
       <c r="M137" s="2"/>
     </row>
     <row r="138" spans="2:13" ht="18">
-      <c r="B138" s="231"/>
-      <c r="C138" s="235"/>
+      <c r="B138" s="235"/>
+      <c r="C138" s="227"/>
       <c r="D138" s="133"/>
       <c r="E138" s="112"/>
       <c r="F138" s="95"/>
@@ -6123,8 +6127,8 @@
       <c r="M138" s="3"/>
     </row>
     <row r="139" spans="2:13" ht="18">
-      <c r="B139" s="232"/>
-      <c r="C139" s="236"/>
+      <c r="B139" s="236"/>
+      <c r="C139" s="228"/>
       <c r="D139" s="120"/>
       <c r="E139" s="120"/>
       <c r="F139" s="120"/>
@@ -6137,8 +6141,8 @@
       <c r="M139" s="3"/>
     </row>
     <row r="140" spans="2:13" ht="18">
-      <c r="B140" s="232"/>
-      <c r="C140" s="236"/>
+      <c r="B140" s="236"/>
+      <c r="C140" s="228"/>
       <c r="D140" s="120"/>
       <c r="E140" s="120"/>
       <c r="F140" s="120"/>
@@ -6151,8 +6155,8 @@
       <c r="M140" s="3"/>
     </row>
     <row r="141" spans="2:13" ht="18">
-      <c r="B141" s="232"/>
-      <c r="C141" s="236"/>
+      <c r="B141" s="236"/>
+      <c r="C141" s="228"/>
       <c r="D141" s="120"/>
       <c r="E141" s="120"/>
       <c r="F141" s="120"/>
@@ -6165,8 +6169,8 @@
       <c r="M141" s="3"/>
     </row>
     <row r="142" spans="2:13" ht="18">
-      <c r="B142" s="232"/>
-      <c r="C142" s="236"/>
+      <c r="B142" s="236"/>
+      <c r="C142" s="228"/>
       <c r="D142" s="154"/>
       <c r="E142" s="154"/>
       <c r="F142" s="154"/>
@@ -6179,8 +6183,8 @@
       <c r="M142" s="4"/>
     </row>
     <row r="143" spans="2:13" ht="18">
-      <c r="B143" s="232"/>
-      <c r="C143" s="236"/>
+      <c r="B143" s="236"/>
+      <c r="C143" s="228"/>
       <c r="D143" s="120">
         <v>999999999</v>
       </c>
@@ -6195,8 +6199,8 @@
       <c r="M143" s="3"/>
     </row>
     <row r="144" spans="2:13" ht="18">
-      <c r="B144" s="232"/>
-      <c r="C144" s="236"/>
+      <c r="B144" s="236"/>
+      <c r="C144" s="228"/>
       <c r="D144" s="154"/>
       <c r="E144" s="154"/>
       <c r="F144" s="154"/>
@@ -6209,8 +6213,8 @@
       <c r="M144" s="4"/>
     </row>
     <row r="145" spans="2:13" ht="18">
-      <c r="B145" s="232"/>
-      <c r="C145" s="236"/>
+      <c r="B145" s="236"/>
+      <c r="C145" s="228"/>
       <c r="D145" s="120"/>
       <c r="E145" s="120"/>
       <c r="F145" s="120"/>
@@ -6223,8 +6227,8 @@
       <c r="M145" s="3"/>
     </row>
     <row r="146" spans="2:13" ht="18">
-      <c r="B146" s="232"/>
-      <c r="C146" s="236"/>
+      <c r="B146" s="236"/>
+      <c r="C146" s="228"/>
       <c r="D146" s="120"/>
       <c r="E146" s="120"/>
       <c r="F146" s="120"/>
@@ -6237,8 +6241,8 @@
       <c r="M146" s="3"/>
     </row>
     <row r="147" spans="2:13" ht="18">
-      <c r="B147" s="232"/>
-      <c r="C147" s="236"/>
+      <c r="B147" s="236"/>
+      <c r="C147" s="228"/>
       <c r="D147" s="120"/>
       <c r="E147" s="120"/>
       <c r="F147" s="120"/>
@@ -6251,8 +6255,8 @@
       <c r="M147" s="3"/>
     </row>
     <row r="148" spans="2:13" ht="18">
-      <c r="B148" s="232"/>
-      <c r="C148" s="236"/>
+      <c r="B148" s="236"/>
+      <c r="C148" s="228"/>
       <c r="D148" s="120"/>
       <c r="E148" s="120"/>
       <c r="F148" s="120"/>
@@ -6265,8 +6269,8 @@
       <c r="M148" s="3"/>
     </row>
     <row r="149" spans="2:13" ht="18">
-      <c r="B149" s="232"/>
-      <c r="C149" s="236"/>
+      <c r="B149" s="236"/>
+      <c r="C149" s="228"/>
       <c r="D149" s="120"/>
       <c r="E149" s="120"/>
       <c r="F149" s="120"/>
@@ -6279,8 +6283,8 @@
       <c r="M149" s="3"/>
     </row>
     <row r="150" spans="2:13" ht="18">
-      <c r="B150" s="232"/>
-      <c r="C150" s="236"/>
+      <c r="B150" s="236"/>
+      <c r="C150" s="228"/>
       <c r="D150" s="120"/>
       <c r="E150" s="120"/>
       <c r="F150" s="120"/>
@@ -6293,8 +6297,8 @@
       <c r="M150" s="3"/>
     </row>
     <row r="151" spans="2:13" ht="18">
-      <c r="B151" s="232"/>
-      <c r="C151" s="236"/>
+      <c r="B151" s="236"/>
+      <c r="C151" s="228"/>
       <c r="D151" s="120"/>
       <c r="E151" s="120"/>
       <c r="F151" s="120"/>
@@ -6307,8 +6311,8 @@
       <c r="M151" s="3"/>
     </row>
     <row r="152" spans="2:13" ht="18">
-      <c r="B152" s="232"/>
-      <c r="C152" s="236"/>
+      <c r="B152" s="236"/>
+      <c r="C152" s="228"/>
       <c r="D152" s="154"/>
       <c r="E152" s="154"/>
       <c r="F152" s="154"/>
@@ -6321,8 +6325,8 @@
       <c r="M152" s="3"/>
     </row>
     <row r="153" spans="2:13" ht="18">
-      <c r="B153" s="232"/>
-      <c r="C153" s="236"/>
+      <c r="B153" s="236"/>
+      <c r="C153" s="228"/>
       <c r="D153" s="105"/>
       <c r="E153" s="105"/>
       <c r="F153" s="105"/>
@@ -6335,8 +6339,8 @@
       <c r="M153" s="2"/>
     </row>
     <row r="154" spans="2:13" ht="18">
-      <c r="B154" s="232"/>
-      <c r="C154" s="237"/>
+      <c r="B154" s="236"/>
+      <c r="C154" s="229"/>
       <c r="D154" s="108"/>
       <c r="E154" s="108"/>
       <c r="F154" s="109"/>
@@ -6349,7 +6353,7 @@
       <c r="M154" s="2"/>
     </row>
     <row r="155" spans="2:13" ht="19" customHeight="1">
-      <c r="B155" s="226" t="s">
+      <c r="B155" s="230" t="s">
         <v>171</v>
       </c>
       <c r="C155" s="136">
@@ -6386,7 +6390,7 @@
       </c>
     </row>
     <row r="156" spans="2:13" ht="19">
-      <c r="B156" s="226"/>
+      <c r="B156" s="230"/>
       <c r="C156" s="136">
         <v>2</v>
       </c>
@@ -6421,7 +6425,7 @@
       </c>
     </row>
     <row r="157" spans="2:13" ht="20" thickBot="1">
-      <c r="B157" s="226"/>
+      <c r="B157" s="230"/>
       <c r="C157" s="136">
         <v>3</v>
       </c>
@@ -6456,7 +6460,7 @@
       </c>
     </row>
     <row r="158" spans="2:13" ht="21" thickBot="1">
-      <c r="B158" s="226"/>
+      <c r="B158" s="230"/>
       <c r="C158" s="136">
         <v>4</v>
       </c>
@@ -6486,7 +6490,7 @@
       </c>
     </row>
     <row r="159" spans="2:13" ht="33" thickBot="1">
-      <c r="B159" s="226"/>
+      <c r="B159" s="230"/>
       <c r="C159" s="136">
         <v>5</v>
       </c>
@@ -6517,7 +6521,7 @@
       </c>
     </row>
     <row r="160" spans="2:13" ht="33" thickBot="1">
-      <c r="B160" s="226"/>
+      <c r="B160" s="230"/>
       <c r="C160" s="136">
         <v>6</v>
       </c>
@@ -6545,7 +6549,7 @@
       </c>
     </row>
     <row r="161" spans="2:13" ht="33" thickBot="1">
-      <c r="B161" s="226"/>
+      <c r="B161" s="230"/>
       <c r="C161" s="136">
         <v>7</v>
       </c>
@@ -6582,7 +6586,7 @@
       </c>
     </row>
     <row r="162" spans="2:13" ht="32">
-      <c r="B162" s="227"/>
+      <c r="B162" s="231"/>
       <c r="C162" s="171">
         <v>8</v>
       </c>
@@ -6667,13 +6671,19 @@
       <c r="C169" s="225" t="s">
         <v>249</v>
       </c>
-      <c r="E169" s="248" t="s">
+      <c r="E169" s="226" t="s">
         <v>250</v>
+      </c>
+    </row>
+    <row r="170" spans="2:13">
+      <c r="E170" s="226" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:M162" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="17">
+    <mergeCell ref="C121:C137"/>
     <mergeCell ref="C138:C154"/>
     <mergeCell ref="B155:B162"/>
     <mergeCell ref="C3:C30"/>
@@ -6690,7 +6700,6 @@
     <mergeCell ref="B108:B120"/>
     <mergeCell ref="C108:C120"/>
     <mergeCell ref="B121:B137"/>
-    <mergeCell ref="C121:C137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7905,7 +7914,7 @@
       </c>
     </row>
     <row r="33" spans="2:17">
-      <c r="B33" s="239" t="s">
+      <c r="B33" s="240" t="s">
         <v>232</v>
       </c>
       <c r="C33" s="27">
@@ -7944,7 +7953,7 @@
       </c>
     </row>
     <row r="34" spans="2:17">
-      <c r="B34" s="240"/>
+      <c r="B34" s="241"/>
       <c r="C34" s="27">
         <v>2</v>
       </c>
@@ -7980,7 +7989,7 @@
       <c r="Q34" s="38"/>
     </row>
     <row r="35" spans="2:17">
-      <c r="B35" s="240"/>
+      <c r="B35" s="241"/>
       <c r="C35" s="27">
         <v>3</v>
       </c>
@@ -8016,7 +8025,7 @@
       <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="2:17">
-      <c r="B36" s="240"/>
+      <c r="B36" s="241"/>
       <c r="C36" s="27">
         <v>4</v>
       </c>
@@ -8052,7 +8061,7 @@
       <c r="Q36" s="38"/>
     </row>
     <row r="37" spans="2:17" ht="19">
-      <c r="B37" s="240"/>
+      <c r="B37" s="241"/>
       <c r="C37" s="27">
         <v>5</v>
       </c>
@@ -8088,7 +8097,7 @@
       <c r="Q37" s="38"/>
     </row>
     <row r="38" spans="2:17" ht="19">
-      <c r="B38" s="240"/>
+      <c r="B38" s="241"/>
       <c r="C38" s="27">
         <v>9</v>
       </c>
@@ -8126,7 +8135,7 @@
       <c r="Q38" s="38"/>
     </row>
     <row r="39" spans="2:17" ht="19">
-      <c r="B39" s="240"/>
+      <c r="B39" s="241"/>
       <c r="C39" s="27">
         <v>10</v>
       </c>
@@ -8164,7 +8173,7 @@
       <c r="Q39" s="38"/>
     </row>
     <row r="40" spans="2:17" ht="19">
-      <c r="B40" s="240"/>
+      <c r="B40" s="241"/>
       <c r="C40" s="27">
         <v>11</v>
       </c>
@@ -8202,7 +8211,7 @@
       <c r="Q40" s="38"/>
     </row>
     <row r="41" spans="2:17" ht="19">
-      <c r="B41" s="240"/>
+      <c r="B41" s="241"/>
       <c r="C41" s="27">
         <v>12</v>
       </c>
@@ -8240,7 +8249,7 @@
       <c r="Q41" s="38"/>
     </row>
     <row r="42" spans="2:17" ht="19">
-      <c r="B42" s="240"/>
+      <c r="B42" s="241"/>
       <c r="C42" s="27">
         <v>13</v>
       </c>
@@ -8278,7 +8287,7 @@
       <c r="Q42" s="38"/>
     </row>
     <row r="43" spans="2:17" ht="19">
-      <c r="B43" s="240"/>
+      <c r="B43" s="241"/>
       <c r="C43" s="27">
         <v>14</v>
       </c>
@@ -8316,7 +8325,7 @@
       <c r="Q43" s="38"/>
     </row>
     <row r="44" spans="2:17" ht="19">
-      <c r="B44" s="240"/>
+      <c r="B44" s="241"/>
       <c r="C44" s="27">
         <v>15</v>
       </c>
@@ -8354,7 +8363,7 @@
       <c r="Q44" s="38"/>
     </row>
     <row r="45" spans="2:17" ht="19">
-      <c r="B45" s="240"/>
+      <c r="B45" s="241"/>
       <c r="C45" s="27">
         <v>16</v>
       </c>
@@ -8392,7 +8401,7 @@
       <c r="Q45" s="38"/>
     </row>
     <row r="46" spans="2:17" ht="19">
-      <c r="B46" s="240"/>
+      <c r="B46" s="241"/>
       <c r="C46" s="27">
         <v>17</v>
       </c>
@@ -8430,7 +8439,7 @@
       <c r="Q46" s="38"/>
     </row>
     <row r="47" spans="2:17" ht="19">
-      <c r="B47" s="240"/>
+      <c r="B47" s="241"/>
       <c r="C47" s="27">
         <v>18</v>
       </c>
@@ -8468,7 +8477,7 @@
       <c r="Q47" s="38"/>
     </row>
     <row r="48" spans="2:17" ht="19">
-      <c r="B48" s="240"/>
+      <c r="B48" s="241"/>
       <c r="C48" s="27">
         <v>19</v>
       </c>
@@ -8506,7 +8515,7 @@
       <c r="Q48" s="38"/>
     </row>
     <row r="49" spans="2:17" ht="19">
-      <c r="B49" s="240"/>
+      <c r="B49" s="241"/>
       <c r="C49" s="27">
         <v>20</v>
       </c>
@@ -8544,7 +8553,7 @@
       <c r="Q49" s="38"/>
     </row>
     <row r="50" spans="2:17" ht="19">
-      <c r="B50" s="240"/>
+      <c r="B50" s="241"/>
       <c r="C50" s="27">
         <v>21</v>
       </c>
@@ -8683,7 +8692,7 @@
       </c>
     </row>
     <row r="2" spans="2:17" ht="19">
-      <c r="B2" s="243">
+      <c r="B2" s="244">
         <v>2</v>
       </c>
       <c r="C2" s="42" t="s">
@@ -8707,7 +8716,7 @@
       <c r="Q2" s="47"/>
     </row>
     <row r="3" spans="2:17" ht="19">
-      <c r="B3" s="244"/>
+      <c r="B3" s="245"/>
       <c r="C3" s="42">
         <v>1</v>
       </c>
@@ -8747,7 +8756,7 @@
       <c r="Q3" s="47"/>
     </row>
     <row r="4" spans="2:17" ht="19">
-      <c r="B4" s="244"/>
+      <c r="B4" s="245"/>
       <c r="C4" s="42">
         <v>2</v>
       </c>
@@ -8787,7 +8796,7 @@
       <c r="Q4" s="47"/>
     </row>
     <row r="5" spans="2:17" ht="19">
-      <c r="B5" s="244"/>
+      <c r="B5" s="245"/>
       <c r="C5" s="42">
         <v>3</v>
       </c>
@@ -8827,7 +8836,7 @@
       <c r="Q5" s="47"/>
     </row>
     <row r="6" spans="2:17" ht="19">
-      <c r="B6" s="244"/>
+      <c r="B6" s="245"/>
       <c r="C6" s="42">
         <v>4</v>
       </c>
@@ -8867,7 +8876,7 @@
       <c r="Q6" s="47"/>
     </row>
     <row r="7" spans="2:17" ht="19">
-      <c r="B7" s="244"/>
+      <c r="B7" s="245"/>
       <c r="C7" s="42">
         <v>5</v>
       </c>
@@ -8907,7 +8916,7 @@
       <c r="Q7" s="47"/>
     </row>
     <row r="8" spans="2:17" ht="19">
-      <c r="B8" s="244"/>
+      <c r="B8" s="245"/>
       <c r="C8" s="42">
         <v>6</v>
       </c>
@@ -8947,7 +8956,7 @@
       <c r="Q8" s="47"/>
     </row>
     <row r="9" spans="2:17" ht="19">
-      <c r="B9" s="244"/>
+      <c r="B9" s="245"/>
       <c r="C9" s="42">
         <v>7</v>
       </c>
@@ -8987,7 +8996,7 @@
       <c r="Q9" s="47"/>
     </row>
     <row r="10" spans="2:17" ht="19">
-      <c r="B10" s="244"/>
+      <c r="B10" s="245"/>
       <c r="C10" s="42"/>
       <c r="D10" s="66" t="s">
         <v>208</v>
@@ -9025,7 +9034,7 @@
       <c r="Q10" s="47"/>
     </row>
     <row r="11" spans="2:17" ht="19">
-      <c r="B11" s="244"/>
+      <c r="B11" s="245"/>
       <c r="C11" s="42"/>
       <c r="D11" s="66" t="s">
         <v>209</v>
@@ -9063,7 +9072,7 @@
       <c r="Q11" s="47"/>
     </row>
     <row r="12" spans="2:17" ht="19">
-      <c r="B12" s="244"/>
+      <c r="B12" s="245"/>
       <c r="C12" s="42"/>
       <c r="D12" s="67" t="s">
         <v>210</v>
@@ -9101,7 +9110,7 @@
       <c r="Q12" s="52"/>
     </row>
     <row r="13" spans="2:17" ht="19">
-      <c r="B13" s="244"/>
+      <c r="B13" s="245"/>
       <c r="C13" s="42">
         <v>8</v>
       </c>
@@ -9141,7 +9150,7 @@
       <c r="Q13" s="47"/>
     </row>
     <row r="14" spans="2:17" ht="19">
-      <c r="B14" s="244"/>
+      <c r="B14" s="245"/>
       <c r="C14" s="42">
         <v>9</v>
       </c>
@@ -9181,7 +9190,7 @@
       <c r="Q14" s="47"/>
     </row>
     <row r="15" spans="2:17" ht="19">
-      <c r="B15" s="244"/>
+      <c r="B15" s="245"/>
       <c r="C15" s="42">
         <v>10</v>
       </c>
@@ -9221,7 +9230,7 @@
       <c r="Q15" s="47"/>
     </row>
     <row r="16" spans="2:17" ht="19">
-      <c r="B16" s="244"/>
+      <c r="B16" s="245"/>
       <c r="C16" s="42">
         <v>11</v>
       </c>
@@ -9260,7 +9269,7 @@
       <c r="Q16" s="49"/>
     </row>
     <row r="17" spans="2:17" ht="19">
-      <c r="B17" s="245"/>
+      <c r="B17" s="246"/>
       <c r="C17" s="42">
         <v>12</v>
       </c>
@@ -9300,7 +9309,7 @@
       <c r="Q17" s="52"/>
     </row>
     <row r="21" spans="2:17">
-      <c r="B21" s="241" t="s">
+      <c r="B21" s="242" t="s">
         <v>196</v>
       </c>
       <c r="C21" s="38">
@@ -9326,7 +9335,7 @@
       </c>
     </row>
     <row r="22" spans="2:17" ht="19">
-      <c r="B22" s="242"/>
+      <c r="B22" s="243"/>
       <c r="C22" s="39" t="s">
         <v>112</v>
       </c>
@@ -9364,7 +9373,7 @@
       <c r="Q22" s="38"/>
     </row>
     <row r="23" spans="2:17" ht="19">
-      <c r="B23" s="242"/>
+      <c r="B23" s="243"/>
       <c r="C23" s="40" t="s">
         <v>182</v>
       </c>
@@ -9402,7 +9411,7 @@
       <c r="Q23" s="38"/>
     </row>
     <row r="24" spans="2:17" ht="19">
-      <c r="B24" s="242"/>
+      <c r="B24" s="243"/>
       <c r="C24" s="40" t="s">
         <v>183</v>
       </c>
@@ -9440,7 +9449,7 @@
       <c r="Q24" s="38"/>
     </row>
     <row r="25" spans="2:17" ht="19">
-      <c r="B25" s="242"/>
+      <c r="B25" s="243"/>
       <c r="C25" s="40" t="s">
         <v>184</v>
       </c>
@@ -9478,7 +9487,7 @@
       <c r="Q25" s="38"/>
     </row>
     <row r="26" spans="2:17">
-      <c r="B26" s="242"/>
+      <c r="B26" s="243"/>
       <c r="C26" s="38">
         <v>2</v>
       </c>
@@ -9500,7 +9509,7 @@
       <c r="Q26" s="38"/>
     </row>
     <row r="27" spans="2:17" ht="19">
-      <c r="B27" s="242"/>
+      <c r="B27" s="243"/>
       <c r="C27" s="40" t="s">
         <v>177</v>
       </c>
@@ -9538,7 +9547,7 @@
       <c r="Q27" s="38"/>
     </row>
     <row r="28" spans="2:17" ht="19">
-      <c r="B28" s="242"/>
+      <c r="B28" s="243"/>
       <c r="C28" s="40" t="s">
         <v>185</v>
       </c>
@@ -9576,7 +9585,7 @@
       <c r="Q28" s="38"/>
     </row>
     <row r="29" spans="2:17" ht="19">
-      <c r="B29" s="242"/>
+      <c r="B29" s="243"/>
       <c r="C29" s="40" t="s">
         <v>186</v>
       </c>
@@ -9614,7 +9623,7 @@
       <c r="Q29" s="38"/>
     </row>
     <row r="30" spans="2:17" ht="19">
-      <c r="B30" s="242"/>
+      <c r="B30" s="243"/>
       <c r="C30" s="40" t="s">
         <v>187</v>
       </c>
@@ -9652,7 +9661,7 @@
       <c r="Q30" s="38"/>
     </row>
     <row r="31" spans="2:17">
-      <c r="B31" s="242"/>
+      <c r="B31" s="243"/>
       <c r="C31" s="38">
         <v>3</v>
       </c>
@@ -9674,7 +9683,7 @@
       <c r="Q31" s="38"/>
     </row>
     <row r="32" spans="2:17" ht="19">
-      <c r="B32" s="242"/>
+      <c r="B32" s="243"/>
       <c r="C32" s="40" t="s">
         <v>188</v>
       </c>
@@ -9712,7 +9721,7 @@
       <c r="Q32" s="38"/>
     </row>
     <row r="33" spans="2:17" ht="19">
-      <c r="B33" s="242"/>
+      <c r="B33" s="243"/>
       <c r="C33" s="40" t="s">
         <v>189</v>
       </c>
@@ -9750,7 +9759,7 @@
       <c r="Q33" s="38"/>
     </row>
     <row r="34" spans="2:17" ht="19">
-      <c r="B34" s="242"/>
+      <c r="B34" s="243"/>
       <c r="C34" s="40" t="s">
         <v>190</v>
       </c>
@@ -9788,7 +9797,7 @@
       <c r="Q34" s="38"/>
     </row>
     <row r="35" spans="2:17">
-      <c r="B35" s="242"/>
+      <c r="B35" s="243"/>
       <c r="C35" s="38">
         <v>4</v>
       </c>
@@ -9810,7 +9819,7 @@
       <c r="Q35" s="38"/>
     </row>
     <row r="36" spans="2:17" ht="19">
-      <c r="B36" s="242"/>
+      <c r="B36" s="243"/>
       <c r="C36" s="40" t="s">
         <v>113</v>
       </c>
@@ -9850,7 +9859,7 @@
       </c>
     </row>
     <row r="37" spans="2:17" ht="19">
-      <c r="B37" s="242"/>
+      <c r="B37" s="243"/>
       <c r="C37" s="40" t="s">
         <v>191</v>
       </c>
@@ -9890,7 +9899,7 @@
       </c>
     </row>
     <row r="38" spans="2:17" ht="19">
-      <c r="B38" s="242"/>
+      <c r="B38" s="243"/>
       <c r="C38" s="40" t="s">
         <v>192</v>
       </c>
@@ -9930,7 +9939,7 @@
       </c>
     </row>
     <row r="39" spans="2:17" ht="19">
-      <c r="B39" s="242"/>
+      <c r="B39" s="243"/>
       <c r="C39" s="40" t="s">
         <v>193</v>
       </c>
@@ -9968,7 +9977,7 @@
       <c r="Q39" s="38"/>
     </row>
     <row r="40" spans="2:17" ht="19">
-      <c r="B40" s="242"/>
+      <c r="B40" s="243"/>
       <c r="C40" s="40" t="s">
         <v>194</v>
       </c>
@@ -10006,7 +10015,7 @@
       <c r="Q40" s="38"/>
     </row>
     <row r="41" spans="2:17" ht="19">
-      <c r="B41" s="242"/>
+      <c r="B41" s="243"/>
       <c r="C41" s="40" t="s">
         <v>195</v>
       </c>
@@ -10856,7 +10865,7 @@
       <c r="Q19" s="47"/>
     </row>
     <row r="23" spans="2:17">
-      <c r="B23" s="246" t="s">
+      <c r="B23" s="247" t="s">
         <v>188</v>
       </c>
       <c r="C23" s="38">
@@ -10880,7 +10889,7 @@
       <c r="Q23" s="152"/>
     </row>
     <row r="24" spans="2:17">
-      <c r="B24" s="247"/>
+      <c r="B24" s="248"/>
       <c r="C24" s="38">
         <v>3</v>
       </c>
@@ -10918,7 +10927,7 @@
       <c r="Q24" s="152"/>
     </row>
     <row r="25" spans="2:17" ht="19">
-      <c r="B25" s="247"/>
+      <c r="B25" s="248"/>
       <c r="C25" s="38">
         <v>4</v>
       </c>
@@ -10956,7 +10965,7 @@
       </c>
     </row>
     <row r="26" spans="2:17">
-      <c r="B26" s="247"/>
+      <c r="B26" s="248"/>
       <c r="C26" s="38">
         <v>5</v>
       </c>
@@ -10994,7 +11003,7 @@
       <c r="Q26" s="152"/>
     </row>
     <row r="27" spans="2:17">
-      <c r="B27" s="247"/>
+      <c r="B27" s="248"/>
       <c r="C27" s="38">
         <v>6</v>
       </c>
@@ -11032,7 +11041,7 @@
       <c r="Q27" s="152"/>
     </row>
     <row r="28" spans="2:17">
-      <c r="B28" s="247"/>
+      <c r="B28" s="248"/>
       <c r="C28" s="38">
         <v>7</v>
       </c>
@@ -11070,7 +11079,7 @@
       <c r="Q28" s="152"/>
     </row>
     <row r="29" spans="2:17">
-      <c r="B29" s="247"/>
+      <c r="B29" s="248"/>
       <c r="C29" s="38">
         <v>8</v>
       </c>
@@ -11108,7 +11117,7 @@
       <c r="Q29" s="152"/>
     </row>
     <row r="30" spans="2:17">
-      <c r="B30" s="247"/>
+      <c r="B30" s="248"/>
       <c r="C30" s="38">
         <v>9</v>
       </c>
@@ -11146,7 +11155,7 @@
       <c r="Q30" s="152"/>
     </row>
     <row r="31" spans="2:17" ht="19">
-      <c r="B31" s="247"/>
+      <c r="B31" s="248"/>
       <c r="C31" s="38">
         <v>10</v>
       </c>
@@ -11186,7 +11195,7 @@
       </c>
     </row>
     <row r="32" spans="2:17" ht="19">
-      <c r="B32" s="247"/>
+      <c r="B32" s="248"/>
       <c r="C32" s="38">
         <v>11</v>
       </c>
@@ -11224,7 +11233,7 @@
       </c>
     </row>
     <row r="33" spans="2:17" ht="19">
-      <c r="B33" s="247"/>
+      <c r="B33" s="248"/>
       <c r="C33" s="38">
         <v>12</v>
       </c>

--- a/241108_MSR_MOP_CTM BOM 정리.xlsx
+++ b/241108_MSR_MOP_CTM BOM 정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/JDS_BU/Git_Hub/GIC_HONGKONG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A750FCC9-F478-004B-B3B6-178969B734EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A5D440-F792-4246-B716-9C60827DE130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7220" yWindow="900" windowWidth="33900" windowHeight="24360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="253">
   <si>
     <t>Remarks</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1140,6 +1140,28 @@
   </si>
   <si>
     <t>ㄹㅇㄴㅁㅇㄹㅇㄴㅁㅇㄴㅁㄹㅇㄴㅁ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㄹㅇㄴㅁㄹ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>111</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1887,7 +1909,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="249">
+  <cellXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2569,6 +2591,15 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2587,12 +2618,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2603,9 +2628,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="23" fillId="2" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2634,6 +2656,9 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2942,11 +2967,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M170"/>
+  <dimension ref="B1:M171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E170" sqref="E170"/>
+      <selection pane="bottomLeft" activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.3984375" defaultRowHeight="16"/>
@@ -3008,10 +3033,10 @@
       </c>
     </row>
     <row r="3" spans="2:13" ht="19">
-      <c r="B3" s="237">
+      <c r="B3" s="238">
         <v>1</v>
       </c>
-      <c r="C3" s="232" t="s">
+      <c r="C3" s="235" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="92"/>
@@ -3028,8 +3053,8 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:13" ht="19">
-      <c r="B4" s="236"/>
-      <c r="C4" s="233"/>
+      <c r="B4" s="237"/>
+      <c r="C4" s="228"/>
       <c r="D4" s="12" t="str">
         <f>MOP!D3</f>
         <v>Main Frame</v>
@@ -3060,8 +3085,8 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" ht="19">
-      <c r="B5" s="236"/>
-      <c r="C5" s="233"/>
+      <c r="B5" s="237"/>
+      <c r="C5" s="228"/>
       <c r="D5" s="12" t="str">
         <f>MOP!D4</f>
         <v>Left Cover</v>
@@ -3092,8 +3117,8 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" ht="19">
-      <c r="B6" s="236"/>
-      <c r="C6" s="233"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="228"/>
       <c r="D6" s="12" t="str">
         <f>MOP!D5</f>
         <v>Right Cover</v>
@@ -3124,8 +3149,8 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="2:13" ht="19">
-      <c r="B7" s="236"/>
-      <c r="C7" s="233"/>
+      <c r="B7" s="237"/>
+      <c r="C7" s="228"/>
       <c r="D7" s="12" t="str">
         <f>MOP!D6</f>
         <v>Upper Cover</v>
@@ -3156,8 +3181,8 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="2:13" ht="19">
-      <c r="B8" s="236"/>
-      <c r="C8" s="233"/>
+      <c r="B8" s="237"/>
+      <c r="C8" s="228"/>
       <c r="D8" s="12" t="str">
         <f>MOP!D7</f>
         <v>Lower Cover</v>
@@ -3188,8 +3213,8 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:13" ht="19">
-      <c r="B9" s="236"/>
-      <c r="C9" s="233"/>
+      <c r="B9" s="237"/>
+      <c r="C9" s="228"/>
       <c r="D9" s="12" t="str">
         <f>MOP!D8</f>
         <v>Rear Cover</v>
@@ -3220,8 +3245,8 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:13" ht="19">
-      <c r="B10" s="236"/>
-      <c r="C10" s="233"/>
+      <c r="B10" s="237"/>
+      <c r="C10" s="228"/>
       <c r="D10" s="12" t="str">
         <f>MOP!D9</f>
         <v>Push Button</v>
@@ -3252,8 +3277,8 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="2:13" ht="19">
-      <c r="B11" s="236"/>
-      <c r="C11" s="233"/>
+      <c r="B11" s="237"/>
+      <c r="C11" s="228"/>
       <c r="D11" s="12" t="str">
         <f>MOP!D10</f>
         <v>Push Button</v>
@@ -3284,8 +3309,8 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="2:13" ht="19">
-      <c r="B12" s="236"/>
-      <c r="C12" s="233"/>
+      <c r="B12" s="237"/>
+      <c r="C12" s="228"/>
       <c r="D12" s="12" t="str">
         <f>MOP!D11</f>
         <v>Push Button</v>
@@ -3316,8 +3341,8 @@
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="2:13" ht="19">
-      <c r="B13" s="236"/>
-      <c r="C13" s="233"/>
+      <c r="B13" s="237"/>
+      <c r="C13" s="228"/>
       <c r="D13" s="110" t="str">
         <f>MOP!D12</f>
         <v>Microphone</v>
@@ -3354,8 +3379,8 @@
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="2:13" ht="38">
-      <c r="B14" s="236"/>
-      <c r="C14" s="233"/>
+      <c r="B14" s="237"/>
+      <c r="C14" s="228"/>
       <c r="D14" s="12" t="str">
         <f>MOP!D13</f>
         <v>LCD</v>
@@ -3389,8 +3414,8 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="2:13" ht="19">
-      <c r="B15" s="236"/>
-      <c r="C15" s="233"/>
+      <c r="B15" s="237"/>
+      <c r="C15" s="228"/>
       <c r="D15" s="12" t="str">
         <f>MOP!D14</f>
         <v>LCD Mount Bracket</v>
@@ -3421,8 +3446,8 @@
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="2:13" ht="19">
-      <c r="B16" s="236"/>
-      <c r="C16" s="233"/>
+      <c r="B16" s="237"/>
+      <c r="C16" s="228"/>
       <c r="D16" s="12" t="str">
         <f>MOP!D15</f>
         <v>LCD Control Board</v>
@@ -3453,8 +3478,8 @@
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="2:13" ht="19">
-      <c r="B17" s="236"/>
-      <c r="C17" s="233"/>
+      <c r="B17" s="237"/>
+      <c r="C17" s="228"/>
       <c r="D17" s="12" t="str">
         <f>MOP!D16</f>
         <v>Main Control Board</v>
@@ -3485,8 +3510,8 @@
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="2:13" ht="19">
-      <c r="B18" s="236"/>
-      <c r="C18" s="233"/>
+      <c r="B18" s="237"/>
+      <c r="C18" s="228"/>
       <c r="D18" s="12" t="str">
         <f>MOP!D17</f>
         <v>Power Board</v>
@@ -3517,8 +3542,8 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="2:13" ht="19">
-      <c r="B19" s="236"/>
-      <c r="C19" s="233"/>
+      <c r="B19" s="237"/>
+      <c r="C19" s="228"/>
       <c r="D19" s="110" t="str">
         <f>MOP!D18</f>
         <v>3P Connector Male</v>
@@ -3555,8 +3580,8 @@
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="2:13" ht="19">
-      <c r="B20" s="236"/>
-      <c r="C20" s="233"/>
+      <c r="B20" s="237"/>
+      <c r="C20" s="228"/>
       <c r="D20" s="18" t="str">
         <f>MOP!D19</f>
         <v>3P Connector Female</v>
@@ -3589,8 +3614,8 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="19">
-      <c r="B21" s="236"/>
-      <c r="C21" s="233"/>
+      <c r="B21" s="237"/>
+      <c r="C21" s="228"/>
       <c r="D21" s="110" t="str">
         <f>MOP!D20</f>
         <v>Locking</v>
@@ -3627,8 +3652,8 @@
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="2:13" ht="19">
-      <c r="B22" s="236"/>
-      <c r="C22" s="233"/>
+      <c r="B22" s="237"/>
+      <c r="C22" s="228"/>
       <c r="D22" s="110" t="str">
         <f>MOP!D21</f>
         <v>4P Connector</v>
@@ -3665,8 +3690,8 @@
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="2:13" ht="19">
-      <c r="B23" s="236"/>
-      <c r="C23" s="233"/>
+      <c r="B23" s="237"/>
+      <c r="C23" s="228"/>
       <c r="D23" s="110" t="str">
         <f>MOP!D22</f>
         <v>Pin</v>
@@ -3703,8 +3728,8 @@
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="2:13" ht="19">
-      <c r="B24" s="236"/>
-      <c r="C24" s="233"/>
+      <c r="B24" s="237"/>
+      <c r="C24" s="228"/>
       <c r="D24" s="110" t="str">
         <f>MOP!D23</f>
         <v>12P Connector</v>
@@ -3741,8 +3766,8 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="2:13" ht="19">
-      <c r="B25" s="236"/>
-      <c r="C25" s="233"/>
+      <c r="B25" s="237"/>
+      <c r="C25" s="228"/>
       <c r="D25" s="110" t="str">
         <f>MOP!D24</f>
         <v>Pin</v>
@@ -3779,8 +3804,8 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="2:13" ht="19">
-      <c r="B26" s="236"/>
-      <c r="C26" s="233"/>
+      <c r="B26" s="237"/>
+      <c r="C26" s="228"/>
       <c r="D26" s="110" t="str">
         <f>MOP!D25</f>
         <v>Cable Clamp</v>
@@ -3817,8 +3842,8 @@
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="2:13" ht="19">
-      <c r="B27" s="236"/>
-      <c r="C27" s="233"/>
+      <c r="B27" s="237"/>
+      <c r="C27" s="228"/>
       <c r="D27" s="12" t="str">
         <f>MOP!D26</f>
         <v>Name Plate, AL, T1</v>
@@ -3849,8 +3874,8 @@
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="2:13" ht="19">
-      <c r="B28" s="236"/>
-      <c r="C28" s="233"/>
+      <c r="B28" s="237"/>
+      <c r="C28" s="228"/>
       <c r="D28" s="18" t="str">
         <f>MOP!D27</f>
         <v>SPEAKER</v>
@@ -3883,8 +3908,8 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="18">
-      <c r="B29" s="236"/>
-      <c r="C29" s="233"/>
+      <c r="B29" s="237"/>
+      <c r="C29" s="228"/>
       <c r="D29" s="155"/>
       <c r="E29" s="155"/>
       <c r="F29" s="155"/>
@@ -3897,8 +3922,8 @@
       <c r="M29" s="158"/>
     </row>
     <row r="30" spans="2:13" ht="19">
-      <c r="B30" s="238"/>
-      <c r="C30" s="234"/>
+      <c r="B30" s="239"/>
+      <c r="C30" s="229"/>
       <c r="D30" s="108" t="s">
         <v>172</v>
       </c>
@@ -3924,10 +3949,10 @@
       <c r="M30" s="15"/>
     </row>
     <row r="31" spans="2:13" ht="19">
-      <c r="B31" s="235">
+      <c r="B31" s="236">
         <v>2</v>
       </c>
-      <c r="C31" s="227" t="s">
+      <c r="C31" s="230" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="111"/>
@@ -3944,8 +3969,8 @@
       <c r="M31" s="3"/>
     </row>
     <row r="32" spans="2:13" ht="19">
-      <c r="B32" s="236"/>
-      <c r="C32" s="228"/>
+      <c r="B32" s="237"/>
+      <c r="C32" s="231"/>
       <c r="D32" s="13" t="str">
         <f>MSR!D3</f>
         <v>PWR Board</v>
@@ -3976,8 +4001,8 @@
       <c r="M32" s="3"/>
     </row>
     <row r="33" spans="2:13" ht="19">
-      <c r="B33" s="236"/>
-      <c r="C33" s="228"/>
+      <c r="B33" s="237"/>
+      <c r="C33" s="231"/>
       <c r="D33" s="13" t="str">
         <f>MSR!D4</f>
         <v>M_TX Board</v>
@@ -4008,8 +4033,8 @@
       <c r="M33" s="3"/>
     </row>
     <row r="34" spans="2:13" ht="19">
-      <c r="B34" s="236"/>
-      <c r="C34" s="228"/>
+      <c r="B34" s="237"/>
+      <c r="C34" s="231"/>
       <c r="D34" s="13" t="str">
         <f>MSR!D5</f>
         <v>Hub Board</v>
@@ -4040,8 +4065,8 @@
       <c r="M34" s="3"/>
     </row>
     <row r="35" spans="2:13" ht="19">
-      <c r="B35" s="236"/>
-      <c r="C35" s="228"/>
+      <c r="B35" s="237"/>
+      <c r="C35" s="231"/>
       <c r="D35" s="13" t="str">
         <f>MSR!D6</f>
         <v>TCIU Board</v>
@@ -4072,8 +4097,8 @@
       <c r="M35" s="3"/>
     </row>
     <row r="36" spans="2:13" ht="19">
-      <c r="B36" s="236"/>
-      <c r="C36" s="228"/>
+      <c r="B36" s="237"/>
+      <c r="C36" s="231"/>
       <c r="D36" s="13" t="str">
         <f>MSR!D7</f>
         <v>PA_PBX Board</v>
@@ -4104,8 +4129,8 @@
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="2:13" ht="19">
-      <c r="B37" s="236"/>
-      <c r="C37" s="228"/>
+      <c r="B37" s="237"/>
+      <c r="C37" s="231"/>
       <c r="D37" s="13" t="str">
         <f>MSR!D8</f>
         <v>PA_ETX Board</v>
@@ -4136,8 +4161,8 @@
       <c r="M37" s="3"/>
     </row>
     <row r="38" spans="2:13" ht="19">
-      <c r="B38" s="236"/>
-      <c r="C38" s="228"/>
+      <c r="B38" s="237"/>
+      <c r="C38" s="231"/>
       <c r="D38" s="13" t="str">
         <f>MSR!D9</f>
         <v>NVR Board</v>
@@ -4169,8 +4194,8 @@
       <c r="M38" s="3"/>
     </row>
     <row r="39" spans="2:13" ht="38">
-      <c r="B39" s="236"/>
-      <c r="C39" s="228"/>
+      <c r="B39" s="237"/>
+      <c r="C39" s="231"/>
       <c r="D39" s="150" t="str">
         <f>MSR!D10</f>
         <v>CPU
@@ -4202,8 +4227,8 @@
       <c r="M39" s="3"/>
     </row>
     <row r="40" spans="2:13" ht="38">
-      <c r="B40" s="236"/>
-      <c r="C40" s="228"/>
+      <c r="B40" s="237"/>
+      <c r="C40" s="231"/>
       <c r="D40" s="150" t="str">
         <f>MSR!D11</f>
         <v>CPU BRACKET 
@@ -4235,8 +4260,8 @@
       <c r="M40" s="3"/>
     </row>
     <row r="41" spans="2:13" ht="57">
-      <c r="B41" s="236"/>
-      <c r="C41" s="228"/>
+      <c r="B41" s="237"/>
+      <c r="C41" s="231"/>
       <c r="D41" s="151" t="str">
         <f>MSR!D12</f>
         <v>DDR4
@@ -4270,8 +4295,8 @@
       </c>
     </row>
     <row r="42" spans="2:13" ht="19">
-      <c r="B42" s="236"/>
-      <c r="C42" s="228"/>
+      <c r="B42" s="237"/>
+      <c r="C42" s="231"/>
       <c r="D42" s="13" t="str">
         <f>MSR!D13</f>
         <v>SSD Board</v>
@@ -4302,8 +4327,8 @@
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="2:13" ht="19">
-      <c r="B43" s="236"/>
-      <c r="C43" s="228"/>
+      <c r="B43" s="237"/>
+      <c r="C43" s="231"/>
       <c r="D43" s="116" t="str">
         <f>MSR!D14</f>
         <v>MSR Back Plane</v>
@@ -4340,8 +4365,8 @@
       <c r="M43" s="3"/>
     </row>
     <row r="44" spans="2:13" ht="19">
-      <c r="B44" s="236"/>
-      <c r="C44" s="228"/>
+      <c r="B44" s="237"/>
+      <c r="C44" s="231"/>
       <c r="D44" s="116" t="str">
         <f>MSR!D15</f>
         <v>Frame</v>
@@ -4378,8 +4403,8 @@
       <c r="M44" s="3"/>
     </row>
     <row r="45" spans="2:13" ht="19">
-      <c r="B45" s="236"/>
-      <c r="C45" s="228"/>
+      <c r="B45" s="237"/>
+      <c r="C45" s="231"/>
       <c r="D45" s="13" t="str">
         <f>MSR!D16</f>
         <v>Name Plate, AL, T1</v>
@@ -4410,8 +4435,8 @@
       <c r="M45" s="3"/>
     </row>
     <row r="46" spans="2:13" ht="19">
-      <c r="B46" s="236"/>
-      <c r="C46" s="228"/>
+      <c r="B46" s="237"/>
+      <c r="C46" s="231"/>
       <c r="D46" s="149" t="str">
         <f>MSR!D17</f>
         <v>SSD(2T)</v>
@@ -4444,8 +4469,8 @@
       </c>
     </row>
     <row r="47" spans="2:13" ht="18">
-      <c r="B47" s="236"/>
-      <c r="C47" s="228"/>
+      <c r="B47" s="237"/>
+      <c r="C47" s="231"/>
       <c r="D47" s="155"/>
       <c r="E47" s="155"/>
       <c r="F47" s="155"/>
@@ -4458,8 +4483,8 @@
       <c r="M47" s="158"/>
     </row>
     <row r="48" spans="2:13" ht="19">
-      <c r="B48" s="238"/>
-      <c r="C48" s="229"/>
+      <c r="B48" s="239"/>
+      <c r="C48" s="232"/>
       <c r="D48" s="108" t="s">
         <v>172</v>
       </c>
@@ -4485,10 +4510,10 @@
       <c r="M48" s="15"/>
     </row>
     <row r="49" spans="2:13" ht="19">
-      <c r="B49" s="235">
+      <c r="B49" s="236">
         <v>3</v>
       </c>
-      <c r="C49" s="227" t="s">
+      <c r="C49" s="230" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="111"/>
@@ -4505,8 +4530,8 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="2:13" ht="19">
-      <c r="B50" s="236"/>
-      <c r="C50" s="228"/>
+      <c r="B50" s="237"/>
+      <c r="C50" s="231"/>
       <c r="D50" s="13" t="str">
         <f>CTM!D3</f>
         <v>Main Frame</v>
@@ -4537,8 +4562,8 @@
       <c r="M50" s="3"/>
     </row>
     <row r="51" spans="2:13" ht="19">
-      <c r="B51" s="236"/>
-      <c r="C51" s="228"/>
+      <c r="B51" s="237"/>
+      <c r="C51" s="231"/>
       <c r="D51" s="13" t="str">
         <f>CTM!D4</f>
         <v>Lower Cover</v>
@@ -4569,8 +4594,8 @@
       <c r="M51" s="3"/>
     </row>
     <row r="52" spans="2:13" ht="19">
-      <c r="B52" s="236"/>
-      <c r="C52" s="228"/>
+      <c r="B52" s="237"/>
+      <c r="C52" s="231"/>
       <c r="D52" s="13" t="str">
         <f>CTM!D5</f>
         <v>Rear Cover</v>
@@ -4601,8 +4626,8 @@
       <c r="M52" s="3"/>
     </row>
     <row r="53" spans="2:13" ht="19">
-      <c r="B53" s="236"/>
-      <c r="C53" s="228"/>
+      <c r="B53" s="237"/>
+      <c r="C53" s="231"/>
       <c r="D53" s="116" t="str">
         <f>CTM!D6</f>
         <v>10.4" LCD</v>
@@ -4641,8 +4666,8 @@
       </c>
     </row>
     <row r="54" spans="2:13" ht="19">
-      <c r="B54" s="236"/>
-      <c r="C54" s="228"/>
+      <c r="B54" s="237"/>
+      <c r="C54" s="231"/>
       <c r="D54" s="13" t="str">
         <f>CTM!D7</f>
         <v>Control Board Bracket</v>
@@ -4672,8 +4697,8 @@
       <c r="M54" s="3"/>
     </row>
     <row r="55" spans="2:13" ht="19">
-      <c r="B55" s="236"/>
-      <c r="C55" s="228"/>
+      <c r="B55" s="237"/>
+      <c r="C55" s="231"/>
       <c r="D55" s="13" t="str">
         <f>CTM!D8</f>
         <v>Control Board</v>
@@ -4703,8 +4728,8 @@
       <c r="M55" s="3"/>
     </row>
     <row r="56" spans="2:13" ht="19">
-      <c r="B56" s="236"/>
-      <c r="C56" s="228"/>
+      <c r="B56" s="237"/>
+      <c r="C56" s="231"/>
       <c r="D56" s="150" t="str">
         <f>CTM!D9</f>
         <v xml:space="preserve">CPU TCA3/i-E3845 </v>
@@ -4743,8 +4768,8 @@
       </c>
     </row>
     <row r="57" spans="2:13" ht="19">
-      <c r="B57" s="236"/>
-      <c r="C57" s="228"/>
+      <c r="B57" s="237"/>
+      <c r="C57" s="231"/>
       <c r="D57" s="150" t="str">
         <f>CTM!D10</f>
         <v xml:space="preserve">CPU BRACKET TCA3/CSP-B </v>
@@ -4783,8 +4808,8 @@
       </c>
     </row>
     <row r="58" spans="2:13" ht="57">
-      <c r="B58" s="236"/>
-      <c r="C58" s="228"/>
+      <c r="B58" s="237"/>
+      <c r="C58" s="231"/>
       <c r="D58" s="151" t="str">
         <f>CTM!D11</f>
         <v>DDR4
@@ -4818,8 +4843,8 @@
       </c>
     </row>
     <row r="59" spans="2:13" ht="19">
-      <c r="B59" s="236"/>
-      <c r="C59" s="228"/>
+      <c r="B59" s="237"/>
+      <c r="C59" s="231"/>
       <c r="D59" s="13" t="str">
         <f>CTM!D12</f>
         <v>Power Board</v>
@@ -4850,8 +4875,8 @@
       <c r="M59" s="3"/>
     </row>
     <row r="60" spans="2:13" ht="19">
-      <c r="B60" s="236"/>
-      <c r="C60" s="228"/>
+      <c r="B60" s="237"/>
+      <c r="C60" s="231"/>
       <c r="D60" s="116" t="str">
         <f>CTM!D13</f>
         <v>3P Connector</v>
@@ -4888,8 +4913,8 @@
       <c r="M60" s="16"/>
     </row>
     <row r="61" spans="2:13" ht="19">
-      <c r="B61" s="236"/>
-      <c r="C61" s="228"/>
+      <c r="B61" s="237"/>
+      <c r="C61" s="231"/>
       <c r="D61" s="116" t="str">
         <f>CTM!D14</f>
         <v>Locking</v>
@@ -4926,8 +4951,8 @@
       <c r="M61" s="16"/>
     </row>
     <row r="62" spans="2:13" ht="19">
-      <c r="B62" s="236"/>
-      <c r="C62" s="228"/>
+      <c r="B62" s="237"/>
+      <c r="C62" s="231"/>
       <c r="D62" s="116" t="str">
         <f>CTM!D15</f>
         <v>4P Connector</v>
@@ -4964,8 +4989,8 @@
       <c r="M62" s="16"/>
     </row>
     <row r="63" spans="2:13" ht="19">
-      <c r="B63" s="236"/>
-      <c r="C63" s="228"/>
+      <c r="B63" s="237"/>
+      <c r="C63" s="231"/>
       <c r="D63" s="116" t="str">
         <f>CTM!D16</f>
         <v>Pin</v>
@@ -5002,8 +5027,8 @@
       <c r="M63" s="16"/>
     </row>
     <row r="64" spans="2:13" ht="19">
-      <c r="B64" s="236"/>
-      <c r="C64" s="228"/>
+      <c r="B64" s="237"/>
+      <c r="C64" s="231"/>
       <c r="D64" s="116" t="str">
         <f>CTM!D17</f>
         <v>Cable Gland</v>
@@ -5040,8 +5065,8 @@
       <c r="M64" s="16"/>
     </row>
     <row r="65" spans="2:13" ht="19">
-      <c r="B65" s="236"/>
-      <c r="C65" s="228"/>
+      <c r="B65" s="237"/>
+      <c r="C65" s="231"/>
       <c r="D65" s="149" t="str">
         <f>CTM!D18</f>
         <v>USB Adapter</v>
@@ -5074,8 +5099,8 @@
       </c>
     </row>
     <row r="66" spans="2:13" ht="19">
-      <c r="B66" s="236"/>
-      <c r="C66" s="228"/>
+      <c r="B66" s="237"/>
+      <c r="C66" s="231"/>
       <c r="D66" s="13" t="str">
         <f>CTM!D19</f>
         <v>Name Plate</v>
@@ -5106,8 +5131,8 @@
       <c r="M66" s="3"/>
     </row>
     <row r="67" spans="2:13" ht="18">
-      <c r="B67" s="236"/>
-      <c r="C67" s="228"/>
+      <c r="B67" s="237"/>
+      <c r="C67" s="231"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -5120,8 +5145,8 @@
       <c r="M67" s="2"/>
     </row>
     <row r="68" spans="2:13" ht="19">
-      <c r="B68" s="238"/>
-      <c r="C68" s="229"/>
+      <c r="B68" s="239"/>
+      <c r="C68" s="232"/>
       <c r="D68" s="108" t="s">
         <v>172</v>
       </c>
@@ -5147,8 +5172,8 @@
       <c r="M68" s="15"/>
     </row>
     <row r="69" spans="2:13" ht="18">
-      <c r="B69" s="235"/>
-      <c r="C69" s="227"/>
+      <c r="B69" s="236"/>
+      <c r="C69" s="230"/>
       <c r="D69" s="111"/>
       <c r="E69" s="112"/>
       <c r="F69" s="95"/>
@@ -5161,8 +5186,8 @@
       <c r="M69" s="3"/>
     </row>
     <row r="70" spans="2:13" ht="18">
-      <c r="B70" s="236"/>
-      <c r="C70" s="228"/>
+      <c r="B70" s="237"/>
+      <c r="C70" s="231"/>
       <c r="D70" s="120"/>
       <c r="E70" s="120"/>
       <c r="F70" s="120"/>
@@ -5175,8 +5200,8 @@
       <c r="M70" s="3"/>
     </row>
     <row r="71" spans="2:13" ht="18">
-      <c r="B71" s="236"/>
-      <c r="C71" s="228"/>
+      <c r="B71" s="237"/>
+      <c r="C71" s="231"/>
       <c r="D71" s="120"/>
       <c r="E71" s="120"/>
       <c r="F71" s="120"/>
@@ -5189,8 +5214,8 @@
       <c r="M71" s="3"/>
     </row>
     <row r="72" spans="2:13" ht="18">
-      <c r="B72" s="236"/>
-      <c r="C72" s="228"/>
+      <c r="B72" s="237"/>
+      <c r="C72" s="231"/>
       <c r="D72" s="120"/>
       <c r="E72" s="120"/>
       <c r="F72" s="120"/>
@@ -5203,8 +5228,8 @@
       <c r="M72" s="3"/>
     </row>
     <row r="73" spans="2:13" ht="18">
-      <c r="B73" s="236"/>
-      <c r="C73" s="228"/>
+      <c r="B73" s="237"/>
+      <c r="C73" s="231"/>
       <c r="D73" s="120"/>
       <c r="E73" s="120"/>
       <c r="F73" s="120"/>
@@ -5217,8 +5242,8 @@
       <c r="M73" s="3"/>
     </row>
     <row r="74" spans="2:13" ht="18">
-      <c r="B74" s="236"/>
-      <c r="C74" s="228"/>
+      <c r="B74" s="237"/>
+      <c r="C74" s="231"/>
       <c r="D74" s="154"/>
       <c r="E74" s="154"/>
       <c r="F74" s="154"/>
@@ -5231,8 +5256,8 @@
       <c r="M74" s="3"/>
     </row>
     <row r="75" spans="2:13" ht="18">
-      <c r="B75" s="236"/>
-      <c r="C75" s="228"/>
+      <c r="B75" s="237"/>
+      <c r="C75" s="231"/>
       <c r="D75" s="154"/>
       <c r="E75" s="154"/>
       <c r="F75" s="154"/>
@@ -5245,8 +5270,8 @@
       <c r="M75" s="3"/>
     </row>
     <row r="76" spans="2:13" ht="18">
-      <c r="B76" s="236"/>
-      <c r="C76" s="228"/>
+      <c r="B76" s="237"/>
+      <c r="C76" s="231"/>
       <c r="D76" s="120"/>
       <c r="E76" s="120"/>
       <c r="F76" s="120"/>
@@ -5259,8 +5284,8 @@
       <c r="M76" s="3"/>
     </row>
     <row r="77" spans="2:13" ht="18">
-      <c r="B77" s="236"/>
-      <c r="C77" s="228"/>
+      <c r="B77" s="237"/>
+      <c r="C77" s="231"/>
       <c r="D77" s="120"/>
       <c r="E77" s="120"/>
       <c r="F77" s="120"/>
@@ -5273,8 +5298,8 @@
       <c r="M77" s="3"/>
     </row>
     <row r="78" spans="2:13" ht="18">
-      <c r="B78" s="236"/>
-      <c r="C78" s="228"/>
+      <c r="B78" s="237"/>
+      <c r="C78" s="231"/>
       <c r="D78" s="120"/>
       <c r="E78" s="120"/>
       <c r="F78" s="120"/>
@@ -5287,8 +5312,8 @@
       <c r="M78" s="3"/>
     </row>
     <row r="79" spans="2:13" ht="18">
-      <c r="B79" s="236"/>
-      <c r="C79" s="228"/>
+      <c r="B79" s="237"/>
+      <c r="C79" s="231"/>
       <c r="D79" s="120"/>
       <c r="E79" s="120"/>
       <c r="F79" s="120"/>
@@ -5301,8 +5326,8 @@
       <c r="M79" s="3"/>
     </row>
     <row r="80" spans="2:13" ht="18">
-      <c r="B80" s="236"/>
-      <c r="C80" s="228"/>
+      <c r="B80" s="237"/>
+      <c r="C80" s="231"/>
       <c r="D80" s="120"/>
       <c r="E80" s="120"/>
       <c r="F80" s="120"/>
@@ -5315,8 +5340,8 @@
       <c r="M80" s="3"/>
     </row>
     <row r="81" spans="2:13" ht="18">
-      <c r="B81" s="236"/>
-      <c r="C81" s="228"/>
+      <c r="B81" s="237"/>
+      <c r="C81" s="231"/>
       <c r="D81" s="120"/>
       <c r="E81" s="120"/>
       <c r="F81" s="120"/>
@@ -5329,8 +5354,8 @@
       <c r="M81" s="3"/>
     </row>
     <row r="82" spans="2:13" ht="18">
-      <c r="B82" s="236"/>
-      <c r="C82" s="228"/>
+      <c r="B82" s="237"/>
+      <c r="C82" s="231"/>
       <c r="D82" s="120"/>
       <c r="E82" s="120"/>
       <c r="F82" s="120"/>
@@ -5343,8 +5368,8 @@
       <c r="M82" s="3"/>
     </row>
     <row r="83" spans="2:13" ht="18">
-      <c r="B83" s="236"/>
-      <c r="C83" s="228"/>
+      <c r="B83" s="237"/>
+      <c r="C83" s="231"/>
       <c r="D83" s="120"/>
       <c r="E83" s="120"/>
       <c r="F83" s="120"/>
@@ -5357,8 +5382,8 @@
       <c r="M83" s="3"/>
     </row>
     <row r="84" spans="2:13" ht="18">
-      <c r="B84" s="236"/>
-      <c r="C84" s="228"/>
+      <c r="B84" s="237"/>
+      <c r="C84" s="231"/>
       <c r="D84" s="154"/>
       <c r="E84" s="154"/>
       <c r="F84" s="154"/>
@@ -5371,8 +5396,8 @@
       <c r="M84" s="3"/>
     </row>
     <row r="85" spans="2:13" ht="18">
-      <c r="B85" s="236"/>
-      <c r="C85" s="228"/>
+      <c r="B85" s="237"/>
+      <c r="C85" s="231"/>
       <c r="D85" s="154"/>
       <c r="E85" s="154"/>
       <c r="F85" s="154"/>
@@ -5385,8 +5410,8 @@
       <c r="M85" s="3"/>
     </row>
     <row r="86" spans="2:13" ht="18">
-      <c r="B86" s="236"/>
-      <c r="C86" s="228"/>
+      <c r="B86" s="237"/>
+      <c r="C86" s="231"/>
       <c r="D86" s="105"/>
       <c r="E86" s="105"/>
       <c r="F86" s="105"/>
@@ -5399,8 +5424,8 @@
       <c r="M86" s="2"/>
     </row>
     <row r="87" spans="2:13" ht="18">
-      <c r="B87" s="238"/>
-      <c r="C87" s="229"/>
+      <c r="B87" s="239"/>
+      <c r="C87" s="232"/>
       <c r="D87" s="108"/>
       <c r="E87" s="108"/>
       <c r="F87" s="109"/>
@@ -5413,8 +5438,8 @@
       <c r="M87" s="2"/>
     </row>
     <row r="88" spans="2:13" ht="18">
-      <c r="B88" s="235"/>
-      <c r="C88" s="227"/>
+      <c r="B88" s="236"/>
+      <c r="C88" s="230"/>
       <c r="D88" s="111"/>
       <c r="E88" s="112"/>
       <c r="F88" s="95"/>
@@ -5427,8 +5452,8 @@
       <c r="M88" s="3"/>
     </row>
     <row r="89" spans="2:13" ht="18">
-      <c r="B89" s="236"/>
-      <c r="C89" s="228"/>
+      <c r="B89" s="237"/>
+      <c r="C89" s="231"/>
       <c r="D89" s="120"/>
       <c r="E89" s="120"/>
       <c r="F89" s="120"/>
@@ -5441,8 +5466,8 @@
       <c r="M89" s="3"/>
     </row>
     <row r="90" spans="2:13" ht="18">
-      <c r="B90" s="236"/>
-      <c r="C90" s="228"/>
+      <c r="B90" s="237"/>
+      <c r="C90" s="231"/>
       <c r="D90" s="120"/>
       <c r="E90" s="120"/>
       <c r="F90" s="120"/>
@@ -5455,8 +5480,8 @@
       <c r="M90" s="3"/>
     </row>
     <row r="91" spans="2:13" ht="18">
-      <c r="B91" s="236"/>
-      <c r="C91" s="228"/>
+      <c r="B91" s="237"/>
+      <c r="C91" s="231"/>
       <c r="D91" s="120"/>
       <c r="E91" s="120"/>
       <c r="F91" s="120"/>
@@ -5469,8 +5494,8 @@
       <c r="M91" s="3"/>
     </row>
     <row r="92" spans="2:13" ht="18">
-      <c r="B92" s="236"/>
-      <c r="C92" s="228"/>
+      <c r="B92" s="237"/>
+      <c r="C92" s="231"/>
       <c r="D92" s="120"/>
       <c r="E92" s="120"/>
       <c r="F92" s="120"/>
@@ -5483,8 +5508,8 @@
       <c r="M92" s="9"/>
     </row>
     <row r="93" spans="2:13" ht="18">
-      <c r="B93" s="236"/>
-      <c r="C93" s="228"/>
+      <c r="B93" s="237"/>
+      <c r="C93" s="231"/>
       <c r="D93" s="120"/>
       <c r="E93" s="120"/>
       <c r="F93" s="120"/>
@@ -5497,8 +5522,8 @@
       <c r="M93" s="3"/>
     </row>
     <row r="94" spans="2:13" ht="18">
-      <c r="B94" s="236"/>
-      <c r="C94" s="228"/>
+      <c r="B94" s="237"/>
+      <c r="C94" s="231"/>
       <c r="D94" s="120"/>
       <c r="E94" s="120"/>
       <c r="F94" s="120"/>
@@ -5511,8 +5536,8 @@
       <c r="M94" s="3"/>
     </row>
     <row r="95" spans="2:13" ht="18">
-      <c r="B95" s="236"/>
-      <c r="C95" s="228"/>
+      <c r="B95" s="237"/>
+      <c r="C95" s="231"/>
       <c r="D95" s="154"/>
       <c r="E95" s="154"/>
       <c r="F95" s="154"/>
@@ -5525,8 +5550,8 @@
       <c r="M95" s="3"/>
     </row>
     <row r="96" spans="2:13" ht="18">
-      <c r="B96" s="236"/>
-      <c r="C96" s="228"/>
+      <c r="B96" s="237"/>
+      <c r="C96" s="231"/>
       <c r="D96" s="154"/>
       <c r="E96" s="154"/>
       <c r="F96" s="154"/>
@@ -5539,8 +5564,8 @@
       <c r="M96" s="3"/>
     </row>
     <row r="97" spans="2:13" ht="18">
-      <c r="B97" s="236"/>
-      <c r="C97" s="228"/>
+      <c r="B97" s="237"/>
+      <c r="C97" s="231"/>
       <c r="D97" s="120"/>
       <c r="E97" s="120"/>
       <c r="F97" s="120"/>
@@ -5553,8 +5578,8 @@
       <c r="M97" s="3"/>
     </row>
     <row r="98" spans="2:13" ht="18">
-      <c r="B98" s="236"/>
-      <c r="C98" s="228"/>
+      <c r="B98" s="237"/>
+      <c r="C98" s="231"/>
       <c r="D98" s="120"/>
       <c r="E98" s="120"/>
       <c r="F98" s="120"/>
@@ -5567,8 +5592,8 @@
       <c r="M98" s="3"/>
     </row>
     <row r="99" spans="2:13" ht="18">
-      <c r="B99" s="236"/>
-      <c r="C99" s="228"/>
+      <c r="B99" s="237"/>
+      <c r="C99" s="231"/>
       <c r="D99" s="120"/>
       <c r="E99" s="120"/>
       <c r="F99" s="120"/>
@@ -5581,8 +5606,8 @@
       <c r="M99" s="3"/>
     </row>
     <row r="100" spans="2:13" ht="18">
-      <c r="B100" s="236"/>
-      <c r="C100" s="228"/>
+      <c r="B100" s="237"/>
+      <c r="C100" s="231"/>
       <c r="D100" s="120"/>
       <c r="E100" s="120"/>
       <c r="F100" s="120"/>
@@ -5595,8 +5620,8 @@
       <c r="M100" s="3"/>
     </row>
     <row r="101" spans="2:13" ht="18">
-      <c r="B101" s="236"/>
-      <c r="C101" s="228"/>
+      <c r="B101" s="237"/>
+      <c r="C101" s="231"/>
       <c r="D101" s="120"/>
       <c r="E101" s="120"/>
       <c r="F101" s="120"/>
@@ -5609,8 +5634,8 @@
       <c r="M101" s="3"/>
     </row>
     <row r="102" spans="2:13" ht="18">
-      <c r="B102" s="236"/>
-      <c r="C102" s="228"/>
+      <c r="B102" s="237"/>
+      <c r="C102" s="231"/>
       <c r="D102" s="120"/>
       <c r="E102" s="120"/>
       <c r="F102" s="120"/>
@@ -5623,8 +5648,8 @@
       <c r="M102" s="3"/>
     </row>
     <row r="103" spans="2:13" ht="18">
-      <c r="B103" s="236"/>
-      <c r="C103" s="228"/>
+      <c r="B103" s="237"/>
+      <c r="C103" s="231"/>
       <c r="D103" s="120"/>
       <c r="E103" s="120"/>
       <c r="F103" s="120"/>
@@ -5637,8 +5662,8 @@
       <c r="M103" s="3"/>
     </row>
     <row r="104" spans="2:13" ht="18">
-      <c r="B104" s="236"/>
-      <c r="C104" s="228"/>
+      <c r="B104" s="237"/>
+      <c r="C104" s="231"/>
       <c r="D104" s="154"/>
       <c r="E104" s="154"/>
       <c r="F104" s="154"/>
@@ -5651,8 +5676,8 @@
       <c r="M104" s="3"/>
     </row>
     <row r="105" spans="2:13" ht="18">
-      <c r="B105" s="236"/>
-      <c r="C105" s="228"/>
+      <c r="B105" s="237"/>
+      <c r="C105" s="231"/>
       <c r="D105" s="120"/>
       <c r="E105" s="120"/>
       <c r="F105" s="120"/>
@@ -5665,8 +5690,8 @@
       <c r="M105" s="2"/>
     </row>
     <row r="106" spans="2:13" ht="18">
-      <c r="B106" s="236"/>
-      <c r="C106" s="228"/>
+      <c r="B106" s="237"/>
+      <c r="C106" s="231"/>
       <c r="D106" s="105"/>
       <c r="E106" s="105"/>
       <c r="F106" s="105"/>
@@ -5679,8 +5704,8 @@
       <c r="M106" s="2"/>
     </row>
     <row r="107" spans="2:13" ht="18">
-      <c r="B107" s="238"/>
-      <c r="C107" s="229"/>
+      <c r="B107" s="239"/>
+      <c r="C107" s="232"/>
       <c r="D107" s="108"/>
       <c r="E107" s="108"/>
       <c r="F107" s="109"/>
@@ -5693,8 +5718,8 @@
       <c r="M107" s="2"/>
     </row>
     <row r="108" spans="2:13" ht="18">
-      <c r="B108" s="235"/>
-      <c r="C108" s="227"/>
+      <c r="B108" s="236"/>
+      <c r="C108" s="230"/>
       <c r="D108" s="111"/>
       <c r="E108" s="112"/>
       <c r="F108" s="95"/>
@@ -5707,8 +5732,8 @@
       <c r="M108" s="3"/>
     </row>
     <row r="109" spans="2:13" ht="18">
-      <c r="B109" s="236"/>
-      <c r="C109" s="228"/>
+      <c r="B109" s="237"/>
+      <c r="C109" s="231"/>
       <c r="D109" s="13"/>
       <c r="E109" s="13"/>
       <c r="F109" s="13"/>
@@ -5721,8 +5746,8 @@
       <c r="M109" s="3"/>
     </row>
     <row r="110" spans="2:13" ht="18">
-      <c r="B110" s="236"/>
-      <c r="C110" s="228"/>
+      <c r="B110" s="237"/>
+      <c r="C110" s="231"/>
       <c r="D110" s="13"/>
       <c r="E110" s="13"/>
       <c r="F110" s="13"/>
@@ -5735,8 +5760,8 @@
       <c r="M110" s="3"/>
     </row>
     <row r="111" spans="2:13" ht="18">
-      <c r="B111" s="236"/>
-      <c r="C111" s="228"/>
+      <c r="B111" s="237"/>
+      <c r="C111" s="231"/>
       <c r="D111" s="13"/>
       <c r="E111" s="13"/>
       <c r="F111" s="13"/>
@@ -5749,8 +5774,8 @@
       <c r="M111" s="3"/>
     </row>
     <row r="112" spans="2:13" ht="18">
-      <c r="B112" s="236"/>
-      <c r="C112" s="228"/>
+      <c r="B112" s="237"/>
+      <c r="C112" s="231"/>
       <c r="D112" s="13"/>
       <c r="E112" s="13"/>
       <c r="F112" s="13"/>
@@ -5763,8 +5788,8 @@
       <c r="M112" s="3"/>
     </row>
     <row r="113" spans="2:13" ht="18">
-      <c r="B113" s="236"/>
-      <c r="C113" s="228"/>
+      <c r="B113" s="237"/>
+      <c r="C113" s="231"/>
       <c r="D113" s="13"/>
       <c r="E113" s="13"/>
       <c r="F113" s="13"/>
@@ -5777,8 +5802,8 @@
       <c r="M113" s="3"/>
     </row>
     <row r="114" spans="2:13" ht="18">
-      <c r="B114" s="236"/>
-      <c r="C114" s="228"/>
+      <c r="B114" s="237"/>
+      <c r="C114" s="231"/>
       <c r="D114" s="116"/>
       <c r="E114" s="116"/>
       <c r="F114" s="116"/>
@@ -5791,8 +5816,8 @@
       <c r="M114" s="3"/>
     </row>
     <row r="115" spans="2:13" ht="18">
-      <c r="B115" s="236"/>
-      <c r="C115" s="228"/>
+      <c r="B115" s="237"/>
+      <c r="C115" s="231"/>
       <c r="D115" s="13"/>
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
@@ -5805,8 +5830,8 @@
       <c r="M115" s="3"/>
     </row>
     <row r="116" spans="2:13" ht="18">
-      <c r="B116" s="236"/>
-      <c r="C116" s="228"/>
+      <c r="B116" s="237"/>
+      <c r="C116" s="231"/>
       <c r="D116" s="116"/>
       <c r="E116" s="116"/>
       <c r="F116" s="116"/>
@@ -5819,8 +5844,8 @@
       <c r="M116" s="3"/>
     </row>
     <row r="117" spans="2:13" ht="18">
-      <c r="B117" s="236"/>
-      <c r="C117" s="228"/>
+      <c r="B117" s="237"/>
+      <c r="C117" s="231"/>
       <c r="D117" s="116"/>
       <c r="E117" s="116"/>
       <c r="F117" s="116"/>
@@ -5833,8 +5858,8 @@
       <c r="M117" s="3"/>
     </row>
     <row r="118" spans="2:13" ht="18">
-      <c r="B118" s="236"/>
-      <c r="C118" s="228"/>
+      <c r="B118" s="237"/>
+      <c r="C118" s="231"/>
       <c r="D118" s="13"/>
       <c r="E118" s="13"/>
       <c r="F118" s="13"/>
@@ -5847,8 +5872,8 @@
       <c r="M118" s="3"/>
     </row>
     <row r="119" spans="2:13" ht="18">
-      <c r="B119" s="236"/>
-      <c r="C119" s="228"/>
+      <c r="B119" s="237"/>
+      <c r="C119" s="231"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
@@ -5861,8 +5886,8 @@
       <c r="M119" s="2"/>
     </row>
     <row r="120" spans="2:13" ht="18">
-      <c r="B120" s="238"/>
-      <c r="C120" s="229"/>
+      <c r="B120" s="239"/>
+      <c r="C120" s="232"/>
       <c r="D120" s="108"/>
       <c r="E120" s="108"/>
       <c r="F120" s="109"/>
@@ -5875,8 +5900,8 @@
       <c r="M120" s="2"/>
     </row>
     <row r="121" spans="2:13" ht="18">
-      <c r="B121" s="235"/>
-      <c r="C121" s="239"/>
+      <c r="B121" s="236"/>
+      <c r="C121" s="227"/>
       <c r="D121" s="111"/>
       <c r="E121" s="112"/>
       <c r="F121" s="95"/>
@@ -5889,8 +5914,8 @@
       <c r="M121" s="3"/>
     </row>
     <row r="122" spans="2:13" ht="18">
-      <c r="B122" s="236"/>
-      <c r="C122" s="233"/>
+      <c r="B122" s="237"/>
+      <c r="C122" s="228"/>
       <c r="D122" s="120"/>
       <c r="E122" s="120"/>
       <c r="F122" s="120"/>
@@ -5903,8 +5928,8 @@
       <c r="M122" s="4"/>
     </row>
     <row r="123" spans="2:13" ht="18">
-      <c r="B123" s="236"/>
-      <c r="C123" s="233"/>
+      <c r="B123" s="237"/>
+      <c r="C123" s="228"/>
       <c r="D123" s="120"/>
       <c r="E123" s="120"/>
       <c r="F123" s="120"/>
@@ -5917,8 +5942,8 @@
       <c r="M123" s="4"/>
     </row>
     <row r="124" spans="2:13" ht="18">
-      <c r="B124" s="236"/>
-      <c r="C124" s="233"/>
+      <c r="B124" s="237"/>
+      <c r="C124" s="228"/>
       <c r="D124" s="120"/>
       <c r="E124" s="120"/>
       <c r="F124" s="120"/>
@@ -5931,8 +5956,8 @@
       <c r="M124" s="4"/>
     </row>
     <row r="125" spans="2:13" ht="18">
-      <c r="B125" s="236"/>
-      <c r="C125" s="233"/>
+      <c r="B125" s="237"/>
+      <c r="C125" s="228"/>
       <c r="D125" s="154"/>
       <c r="E125" s="154"/>
       <c r="F125" s="154"/>
@@ -5945,8 +5970,8 @@
       <c r="M125" s="4"/>
     </row>
     <row r="126" spans="2:13" ht="18">
-      <c r="B126" s="236"/>
-      <c r="C126" s="233"/>
+      <c r="B126" s="237"/>
+      <c r="C126" s="228"/>
       <c r="D126" s="120"/>
       <c r="E126" s="120"/>
       <c r="F126" s="120"/>
@@ -5959,8 +5984,8 @@
       <c r="M126" s="7"/>
     </row>
     <row r="127" spans="2:13" ht="18">
-      <c r="B127" s="236"/>
-      <c r="C127" s="233"/>
+      <c r="B127" s="237"/>
+      <c r="C127" s="228"/>
       <c r="D127" s="154"/>
       <c r="E127" s="154"/>
       <c r="F127" s="154"/>
@@ -5973,8 +5998,8 @@
       <c r="M127" s="7"/>
     </row>
     <row r="128" spans="2:13" ht="18">
-      <c r="B128" s="236"/>
-      <c r="C128" s="233"/>
+      <c r="B128" s="237"/>
+      <c r="C128" s="228"/>
       <c r="D128" s="120"/>
       <c r="E128" s="120"/>
       <c r="F128" s="120"/>
@@ -5987,8 +6012,8 @@
       <c r="M128" s="7"/>
     </row>
     <row r="129" spans="2:13" ht="18">
-      <c r="B129" s="236"/>
-      <c r="C129" s="233"/>
+      <c r="B129" s="237"/>
+      <c r="C129" s="228"/>
       <c r="D129" s="120"/>
       <c r="E129" s="120"/>
       <c r="F129" s="120"/>
@@ -6001,8 +6026,8 @@
       <c r="M129" s="6"/>
     </row>
     <row r="130" spans="2:13" ht="18">
-      <c r="B130" s="236"/>
-      <c r="C130" s="233"/>
+      <c r="B130" s="237"/>
+      <c r="C130" s="228"/>
       <c r="D130" s="120"/>
       <c r="E130" s="120"/>
       <c r="F130" s="120"/>
@@ -6015,8 +6040,8 @@
       <c r="M130" s="4"/>
     </row>
     <row r="131" spans="2:13" ht="18">
-      <c r="B131" s="236"/>
-      <c r="C131" s="233"/>
+      <c r="B131" s="237"/>
+      <c r="C131" s="228"/>
       <c r="D131" s="120"/>
       <c r="E131" s="120"/>
       <c r="F131" s="120"/>
@@ -6029,8 +6054,8 @@
       <c r="M131" s="4"/>
     </row>
     <row r="132" spans="2:13" ht="18">
-      <c r="B132" s="236"/>
-      <c r="C132" s="233"/>
+      <c r="B132" s="237"/>
+      <c r="C132" s="228"/>
       <c r="D132" s="120"/>
       <c r="E132" s="120"/>
       <c r="F132" s="120"/>
@@ -6043,8 +6068,8 @@
       <c r="M132" s="4"/>
     </row>
     <row r="133" spans="2:13" ht="18">
-      <c r="B133" s="236"/>
-      <c r="C133" s="233"/>
+      <c r="B133" s="237"/>
+      <c r="C133" s="228"/>
       <c r="D133" s="120"/>
       <c r="E133" s="120"/>
       <c r="F133" s="120"/>
@@ -6057,8 +6082,8 @@
       <c r="M133" s="4"/>
     </row>
     <row r="134" spans="2:13" ht="18">
-      <c r="B134" s="236"/>
-      <c r="C134" s="233"/>
+      <c r="B134" s="237"/>
+      <c r="C134" s="228"/>
       <c r="D134" s="120"/>
       <c r="E134" s="120"/>
       <c r="F134" s="120"/>
@@ -6071,8 +6096,8 @@
       <c r="M134" s="4"/>
     </row>
     <row r="135" spans="2:13" ht="18">
-      <c r="B135" s="236"/>
-      <c r="C135" s="233"/>
+      <c r="B135" s="237"/>
+      <c r="C135" s="228"/>
       <c r="D135" s="154"/>
       <c r="E135" s="154"/>
       <c r="F135" s="154"/>
@@ -6085,8 +6110,8 @@
       <c r="M135" s="10"/>
     </row>
     <row r="136" spans="2:13" ht="18">
-      <c r="B136" s="236"/>
-      <c r="C136" s="233"/>
+      <c r="B136" s="237"/>
+      <c r="C136" s="228"/>
       <c r="D136" s="105"/>
       <c r="E136" s="105"/>
       <c r="F136" s="105"/>
@@ -6099,8 +6124,8 @@
       <c r="M136" s="6"/>
     </row>
     <row r="137" spans="2:13" ht="18">
-      <c r="B137" s="238"/>
-      <c r="C137" s="234"/>
+      <c r="B137" s="239"/>
+      <c r="C137" s="229"/>
       <c r="D137" s="108"/>
       <c r="E137" s="108"/>
       <c r="F137" s="109"/>
@@ -6113,8 +6138,8 @@
       <c r="M137" s="2"/>
     </row>
     <row r="138" spans="2:13" ht="18">
-      <c r="B138" s="235"/>
-      <c r="C138" s="227"/>
+      <c r="B138" s="236"/>
+      <c r="C138" s="230"/>
       <c r="D138" s="133"/>
       <c r="E138" s="112"/>
       <c r="F138" s="95"/>
@@ -6127,8 +6152,8 @@
       <c r="M138" s="3"/>
     </row>
     <row r="139" spans="2:13" ht="18">
-      <c r="B139" s="236"/>
-      <c r="C139" s="228"/>
+      <c r="B139" s="237"/>
+      <c r="C139" s="231"/>
       <c r="D139" s="120"/>
       <c r="E139" s="120"/>
       <c r="F139" s="120"/>
@@ -6141,8 +6166,8 @@
       <c r="M139" s="3"/>
     </row>
     <row r="140" spans="2:13" ht="18">
-      <c r="B140" s="236"/>
-      <c r="C140" s="228"/>
+      <c r="B140" s="237"/>
+      <c r="C140" s="231"/>
       <c r="D140" s="120"/>
       <c r="E140" s="120"/>
       <c r="F140" s="120"/>
@@ -6155,8 +6180,8 @@
       <c r="M140" s="3"/>
     </row>
     <row r="141" spans="2:13" ht="18">
-      <c r="B141" s="236"/>
-      <c r="C141" s="228"/>
+      <c r="B141" s="237"/>
+      <c r="C141" s="231"/>
       <c r="D141" s="120"/>
       <c r="E141" s="120"/>
       <c r="F141" s="120"/>
@@ -6169,8 +6194,8 @@
       <c r="M141" s="3"/>
     </row>
     <row r="142" spans="2:13" ht="18">
-      <c r="B142" s="236"/>
-      <c r="C142" s="228"/>
+      <c r="B142" s="237"/>
+      <c r="C142" s="231"/>
       <c r="D142" s="154"/>
       <c r="E142" s="154"/>
       <c r="F142" s="154"/>
@@ -6183,8 +6208,8 @@
       <c r="M142" s="4"/>
     </row>
     <row r="143" spans="2:13" ht="18">
-      <c r="B143" s="236"/>
-      <c r="C143" s="228"/>
+      <c r="B143" s="237"/>
+      <c r="C143" s="231"/>
       <c r="D143" s="120">
         <v>999999999</v>
       </c>
@@ -6199,8 +6224,8 @@
       <c r="M143" s="3"/>
     </row>
     <row r="144" spans="2:13" ht="18">
-      <c r="B144" s="236"/>
-      <c r="C144" s="228"/>
+      <c r="B144" s="237"/>
+      <c r="C144" s="231"/>
       <c r="D144" s="154"/>
       <c r="E144" s="154"/>
       <c r="F144" s="154"/>
@@ -6213,8 +6238,8 @@
       <c r="M144" s="4"/>
     </row>
     <row r="145" spans="2:13" ht="18">
-      <c r="B145" s="236"/>
-      <c r="C145" s="228"/>
+      <c r="B145" s="237"/>
+      <c r="C145" s="231"/>
       <c r="D145" s="120"/>
       <c r="E145" s="120"/>
       <c r="F145" s="120"/>
@@ -6227,8 +6252,8 @@
       <c r="M145" s="3"/>
     </row>
     <row r="146" spans="2:13" ht="18">
-      <c r="B146" s="236"/>
-      <c r="C146" s="228"/>
+      <c r="B146" s="237"/>
+      <c r="C146" s="231"/>
       <c r="D146" s="120"/>
       <c r="E146" s="120"/>
       <c r="F146" s="120"/>
@@ -6241,8 +6266,8 @@
       <c r="M146" s="3"/>
     </row>
     <row r="147" spans="2:13" ht="18">
-      <c r="B147" s="236"/>
-      <c r="C147" s="228"/>
+      <c r="B147" s="237"/>
+      <c r="C147" s="231"/>
       <c r="D147" s="120"/>
       <c r="E147" s="120"/>
       <c r="F147" s="120"/>
@@ -6255,8 +6280,8 @@
       <c r="M147" s="3"/>
     </row>
     <row r="148" spans="2:13" ht="18">
-      <c r="B148" s="236"/>
-      <c r="C148" s="228"/>
+      <c r="B148" s="237"/>
+      <c r="C148" s="231"/>
       <c r="D148" s="120"/>
       <c r="E148" s="120"/>
       <c r="F148" s="120"/>
@@ -6269,8 +6294,8 @@
       <c r="M148" s="3"/>
     </row>
     <row r="149" spans="2:13" ht="18">
-      <c r="B149" s="236"/>
-      <c r="C149" s="228"/>
+      <c r="B149" s="237"/>
+      <c r="C149" s="231"/>
       <c r="D149" s="120"/>
       <c r="E149" s="120"/>
       <c r="F149" s="120"/>
@@ -6283,8 +6308,8 @@
       <c r="M149" s="3"/>
     </row>
     <row r="150" spans="2:13" ht="18">
-      <c r="B150" s="236"/>
-      <c r="C150" s="228"/>
+      <c r="B150" s="237"/>
+      <c r="C150" s="231"/>
       <c r="D150" s="120"/>
       <c r="E150" s="120"/>
       <c r="F150" s="120"/>
@@ -6297,8 +6322,8 @@
       <c r="M150" s="3"/>
     </row>
     <row r="151" spans="2:13" ht="18">
-      <c r="B151" s="236"/>
-      <c r="C151" s="228"/>
+      <c r="B151" s="237"/>
+      <c r="C151" s="231"/>
       <c r="D151" s="120"/>
       <c r="E151" s="120"/>
       <c r="F151" s="120"/>
@@ -6311,8 +6336,8 @@
       <c r="M151" s="3"/>
     </row>
     <row r="152" spans="2:13" ht="18">
-      <c r="B152" s="236"/>
-      <c r="C152" s="228"/>
+      <c r="B152" s="237"/>
+      <c r="C152" s="231"/>
       <c r="D152" s="154"/>
       <c r="E152" s="154"/>
       <c r="F152" s="154"/>
@@ -6325,8 +6350,8 @@
       <c r="M152" s="3"/>
     </row>
     <row r="153" spans="2:13" ht="18">
-      <c r="B153" s="236"/>
-      <c r="C153" s="228"/>
+      <c r="B153" s="237"/>
+      <c r="C153" s="231"/>
       <c r="D153" s="105"/>
       <c r="E153" s="105"/>
       <c r="F153" s="105"/>
@@ -6339,8 +6364,8 @@
       <c r="M153" s="2"/>
     </row>
     <row r="154" spans="2:13" ht="18">
-      <c r="B154" s="236"/>
-      <c r="C154" s="229"/>
+      <c r="B154" s="237"/>
+      <c r="C154" s="232"/>
       <c r="D154" s="108"/>
       <c r="E154" s="108"/>
       <c r="F154" s="109"/>
@@ -6353,7 +6378,7 @@
       <c r="M154" s="2"/>
     </row>
     <row r="155" spans="2:13" ht="19" customHeight="1">
-      <c r="B155" s="230" t="s">
+      <c r="B155" s="233" t="s">
         <v>171</v>
       </c>
       <c r="C155" s="136">
@@ -6390,7 +6415,7 @@
       </c>
     </row>
     <row r="156" spans="2:13" ht="19">
-      <c r="B156" s="230"/>
+      <c r="B156" s="233"/>
       <c r="C156" s="136">
         <v>2</v>
       </c>
@@ -6425,7 +6450,7 @@
       </c>
     </row>
     <row r="157" spans="2:13" ht="20" thickBot="1">
-      <c r="B157" s="230"/>
+      <c r="B157" s="233"/>
       <c r="C157" s="136">
         <v>3</v>
       </c>
@@ -6460,7 +6485,7 @@
       </c>
     </row>
     <row r="158" spans="2:13" ht="21" thickBot="1">
-      <c r="B158" s="230"/>
+      <c r="B158" s="233"/>
       <c r="C158" s="136">
         <v>4</v>
       </c>
@@ -6490,7 +6515,7 @@
       </c>
     </row>
     <row r="159" spans="2:13" ht="33" thickBot="1">
-      <c r="B159" s="230"/>
+      <c r="B159" s="233"/>
       <c r="C159" s="136">
         <v>5</v>
       </c>
@@ -6521,7 +6546,7 @@
       </c>
     </row>
     <row r="160" spans="2:13" ht="33" thickBot="1">
-      <c r="B160" s="230"/>
+      <c r="B160" s="233"/>
       <c r="C160" s="136">
         <v>6</v>
       </c>
@@ -6549,7 +6574,7 @@
       </c>
     </row>
     <row r="161" spans="2:13" ht="33" thickBot="1">
-      <c r="B161" s="230"/>
+      <c r="B161" s="233"/>
       <c r="C161" s="136">
         <v>7</v>
       </c>
@@ -6586,7 +6611,7 @@
       </c>
     </row>
     <row r="162" spans="2:13" ht="32">
-      <c r="B162" s="231"/>
+      <c r="B162" s="234"/>
       <c r="C162" s="171">
         <v>8</v>
       </c>
@@ -6680,9 +6705,15 @@
         <v>251</v>
       </c>
     </row>
+    <row r="171" spans="2:13">
+      <c r="E171" s="249" t="s">
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B2:M162" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="17">
+    <mergeCell ref="B121:B137"/>
     <mergeCell ref="C121:C137"/>
     <mergeCell ref="C138:C154"/>
     <mergeCell ref="B155:B162"/>
@@ -6699,7 +6730,6 @@
     <mergeCell ref="B88:B107"/>
     <mergeCell ref="B108:B120"/>
     <mergeCell ref="C108:C120"/>
-    <mergeCell ref="B121:B137"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
